--- a/code/abc.xlsx
+++ b/code/abc.xlsx
@@ -476,7 +476,7 @@
         <v>0.4718292894556023</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3584714531898499</v>
+        <v>0.2800672054290771</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0.2663785756567554</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2302574217319489</v>
+        <v>0.5050702095031738</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0.1126086634691826</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1627039313316345</v>
+        <v>0.2254764288663864</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0.7030151262713138</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3668118417263031</v>
+        <v>0.4782959818840027</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0.5562226589382566</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3432400822639465</v>
+        <v>0.4113345146179199</v>
       </c>
     </row>
     <row r="7">
@@ -571,7 +571,7 @@
         <v>0.5378783324099137</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3229804635047913</v>
+        <v>0.3134105503559113</v>
       </c>
     </row>
     <row r="8">
@@ -590,7 +590,7 @@
         <v>0.2197002012579308</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1910901218652725</v>
+        <v>0.1981226354837418</v>
       </c>
     </row>
     <row r="9">
@@ -609,7 +609,7 @@
         <v>0.3821838585822958</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2398589551448822</v>
+        <v>0.3989981710910797</v>
       </c>
     </row>
     <row r="10">
@@ -628,7 +628,7 @@
         <v>0.5078522717367344</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2997565567493439</v>
+        <v>0.2829685211181641</v>
       </c>
     </row>
     <row r="11">
@@ -647,7 +647,7 @@
         <v>0.532087093917524</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3461123704910278</v>
+        <v>0.3128669559955597</v>
       </c>
     </row>
     <row r="12">
@@ -666,7 +666,7 @@
         <v>0.5890553171549628</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3976642191410065</v>
+        <v>0.3899155855178833</v>
       </c>
     </row>
     <row r="13">
@@ -685,7 +685,7 @@
         <v>0.6717420392927915</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3460845947265625</v>
+        <v>0.4201388955116272</v>
       </c>
     </row>
     <row r="14">
@@ -704,7 +704,7 @@
         <v>0.3405811454798062</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2002029418945312</v>
+        <v>0.4892378449440002</v>
       </c>
     </row>
     <row r="15">
@@ -723,7 +723,7 @@
         <v>0.6085114210329622</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3391251564025879</v>
+        <v>0.4352708160877228</v>
       </c>
     </row>
     <row r="16">
@@ -742,7 +742,7 @@
         <v>0.5695969435725253</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3056843280792236</v>
+        <v>0.4048510193824768</v>
       </c>
     </row>
     <row r="17">
@@ -761,7 +761,7 @@
         <v>0.4108766264549114</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2577455043792725</v>
+        <v>0.3685481548309326</v>
       </c>
     </row>
     <row r="18">
@@ -780,7 +780,7 @@
         <v>0.5539285091427796</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3175245523452759</v>
+        <v>0.4081117212772369</v>
       </c>
     </row>
     <row r="19">
@@ -799,7 +799,7 @@
         <v>0.5459438871344521</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3040043413639069</v>
+        <v>0.2867115437984467</v>
       </c>
     </row>
     <row r="20">
@@ -818,7 +818,7 @@
         <v>0.7066600746344167</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4177926182746887</v>
+        <v>0.3832661211490631</v>
       </c>
     </row>
     <row r="21">
@@ -837,7 +837,7 @@
         <v>0.4385378859241147</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2327111065387726</v>
+        <v>0.3734669983386993</v>
       </c>
     </row>
     <row r="22">
@@ -856,7 +856,7 @@
         <v>0.8674903038936619</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4784742295742035</v>
+        <v>0.4816844463348389</v>
       </c>
     </row>
     <row r="23">
@@ -875,7 +875,7 @@
         <v>0.8945560214903108</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5078809857368469</v>
+        <v>0.4197415709495544</v>
       </c>
     </row>
     <row r="24">
@@ -894,7 +894,7 @@
         <v>0.5725550184541643</v>
       </c>
       <c r="E24" t="n">
-        <v>0.338417112827301</v>
+        <v>0.3584442138671875</v>
       </c>
     </row>
     <row r="25">
@@ -913,7 +913,7 @@
         <v>0.4471852805991552</v>
       </c>
       <c r="E25" t="n">
-        <v>0.277927577495575</v>
+        <v>0.4227321147918701</v>
       </c>
     </row>
     <row r="26">
@@ -932,7 +932,7 @@
         <v>0.34342427790938</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2606276273727417</v>
+        <v>0.263829231262207</v>
       </c>
     </row>
     <row r="27">
@@ -951,7 +951,7 @@
         <v>0.4240418383866151</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2650609612464905</v>
+        <v>0.2888121604919434</v>
       </c>
     </row>
     <row r="28">
@@ -970,7 +970,7 @@
         <v>0.4522596650946362</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3138247430324554</v>
+        <v>0.3095260262489319</v>
       </c>
     </row>
     <row r="29">
@@ -989,7 +989,7 @@
         <v>0.6297627593167441</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3338178992271423</v>
+        <v>0.4296737909317017</v>
       </c>
     </row>
     <row r="30">
@@ -1008,7 +1008,7 @@
         <v>0.5283024670622899</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3507561087608337</v>
+        <v>0.4202159643173218</v>
       </c>
     </row>
     <row r="31">
@@ -1027,7 +1027,7 @@
         <v>0.4815338900163211</v>
       </c>
       <c r="E31" t="n">
-        <v>0.249545693397522</v>
+        <v>0.3340487480163574</v>
       </c>
     </row>
     <row r="32">
@@ -1046,7 +1046,7 @@
         <v>0.4071213553944633</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3068732619285583</v>
+        <v>0.4823575615882874</v>
       </c>
     </row>
     <row r="33">
@@ -1065,7 +1065,7 @@
         <v>0.8406700331974928</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4437211453914642</v>
+        <v>0.3467177748680115</v>
       </c>
     </row>
     <row r="34">
@@ -1084,7 +1084,7 @@
         <v>0.7041773732732988</v>
       </c>
       <c r="E34" t="n">
-        <v>0.390238344669342</v>
+        <v>0.3988374173641205</v>
       </c>
     </row>
     <row r="35">
@@ -1103,7 +1103,7 @@
         <v>0.6391503981322637</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3921294808387756</v>
+        <v>0.3905721604824066</v>
       </c>
     </row>
     <row r="36">
@@ -1122,7 +1122,7 @@
         <v>0.3806438523032271</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2583001852035522</v>
+        <v>0.4176549911499023</v>
       </c>
     </row>
     <row r="37">
@@ -1141,7 +1141,7 @@
         <v>0.643701813248332</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3632948994636536</v>
+        <v>0.3931379020214081</v>
       </c>
     </row>
     <row r="38">
@@ -1160,7 +1160,7 @@
         <v>0.5725362028759602</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3662422895431519</v>
+        <v>0.3096957206726074</v>
       </c>
     </row>
     <row r="39">
@@ -1179,7 +1179,7 @@
         <v>0.5376940996563513</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3471355736255646</v>
+        <v>0.368190735578537</v>
       </c>
     </row>
     <row r="40">
@@ -1198,7 +1198,7 @@
         <v>0.5038707096362306</v>
       </c>
       <c r="E40" t="n">
-        <v>0.2998476922512054</v>
+        <v>0.3629042208194733</v>
       </c>
     </row>
     <row r="41">
@@ -1217,7 +1217,7 @@
         <v>0.7644148734355436</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4029545783996582</v>
+        <v>0.4268488585948944</v>
       </c>
     </row>
     <row r="42">
@@ -1236,7 +1236,7 @@
         <v>0.2005450778655851</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1935469955205917</v>
+        <v>0.2456227242946625</v>
       </c>
     </row>
     <row r="43">
@@ -1255,7 +1255,7 @@
         <v>0.5003927376628529</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3470231890678406</v>
+        <v>0.4668451547622681</v>
       </c>
     </row>
     <row r="44">
@@ -1274,7 +1274,7 @@
         <v>0.5899791305515257</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3984143733978271</v>
+        <v>0.3181836307048798</v>
       </c>
     </row>
     <row r="45">
@@ -1293,7 +1293,7 @@
         <v>0.4089015870847384</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2323698997497559</v>
+        <v>0.3965823650360107</v>
       </c>
     </row>
     <row r="46">
@@ -1312,7 +1312,7 @@
         <v>0.2896455357733722</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2603011131286621</v>
+        <v>0.5014473795890808</v>
       </c>
     </row>
     <row r="47">
@@ -1331,7 +1331,7 @@
         <v>0.333304719284623</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2333823591470718</v>
+        <v>0.2325086444616318</v>
       </c>
     </row>
     <row r="48">
@@ -1350,7 +1350,7 @@
         <v>0.5160024065185888</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2924927175045013</v>
+        <v>0.4145849049091339</v>
       </c>
     </row>
     <row r="49">
@@ -1369,7 +1369,7 @@
         <v>0.4596630687509267</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2526007294654846</v>
+        <v>0.3724363446235657</v>
       </c>
     </row>
     <row r="50">
@@ -1388,7 +1388,7 @@
         <v>0.4085868760299292</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2526963651180267</v>
+        <v>0.3627507984638214</v>
       </c>
     </row>
     <row r="51">
@@ -1407,7 +1407,7 @@
         <v>0.8137514634091724</v>
       </c>
       <c r="E51" t="n">
-        <v>0.448175460100174</v>
+        <v>0.4022236466407776</v>
       </c>
     </row>
     <row r="52">
@@ -1426,7 +1426,7 @@
         <v>0.4904422594384888</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3161142468452454</v>
+        <v>0.2402229756116867</v>
       </c>
     </row>
     <row r="53">
@@ -1445,7 +1445,7 @@
         <v>0.8003206252938104</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4884340465068817</v>
+        <v>0.3631929457187653</v>
       </c>
     </row>
     <row r="54">
@@ -1464,7 +1464,7 @@
         <v>0.5787334776234582</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3766341209411621</v>
+        <v>0.3148026764392853</v>
       </c>
     </row>
     <row r="55">
@@ -1483,7 +1483,7 @@
         <v>0.6234335561879363</v>
       </c>
       <c r="E55" t="n">
-        <v>0.3622199892997742</v>
+        <v>0.4293551445007324</v>
       </c>
     </row>
     <row r="56">
@@ -1502,7 +1502,7 @@
         <v>0.186764377897887</v>
       </c>
       <c r="E56" t="n">
-        <v>0.166445404291153</v>
+        <v>0.27241250872612</v>
       </c>
     </row>
     <row r="57">
@@ -1521,7 +1521,7 @@
         <v>0.5445282202999282</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3542207479476929</v>
+        <v>0.4933944940567017</v>
       </c>
     </row>
     <row r="58">
@@ -1540,7 +1540,7 @@
         <v>0.4592514831876472</v>
       </c>
       <c r="E58" t="n">
-        <v>0.361298143863678</v>
+        <v>0.6561784148216248</v>
       </c>
     </row>
     <row r="59">
@@ -1559,7 +1559,7 @@
         <v>0.3078086357472377</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2466129809617996</v>
+        <v>0.3350593447685242</v>
       </c>
     </row>
     <row r="60">
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1986992955207825</v>
+        <v>0.3100391626358032</v>
       </c>
     </row>
     <row r="61">
@@ -1597,7 +1597,7 @@
         <v>0.8096109494943318</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4010947942733765</v>
+        <v>0.4400167763233185</v>
       </c>
     </row>
     <row r="62">
@@ -1616,7 +1616,7 @@
         <v>0.5738071917082077</v>
       </c>
       <c r="E62" t="n">
-        <v>0.2983664870262146</v>
+        <v>0.3983228802680969</v>
       </c>
     </row>
     <row r="63">
@@ -1635,7 +1635,7 @@
         <v>0.8731756409905234</v>
       </c>
       <c r="E63" t="n">
-        <v>0.49176886677742</v>
+        <v>0.4487341940402985</v>
       </c>
     </row>
     <row r="64">
@@ -1654,7 +1654,7 @@
         <v>0.4695497323174547</v>
       </c>
       <c r="E64" t="n">
-        <v>0.3084768652915955</v>
+        <v>0.30240797996521</v>
       </c>
     </row>
     <row r="65">
@@ -1673,7 +1673,7 @@
         <v>0.6068667258742793</v>
       </c>
       <c r="E65" t="n">
-        <v>0.3630630970001221</v>
+        <v>0.3491632342338562</v>
       </c>
     </row>
     <row r="66">
@@ -1692,7 +1692,7 @@
         <v>0.2434721805478675</v>
       </c>
       <c r="E66" t="n">
-        <v>0.2256516218185425</v>
+        <v>0.3594244718551636</v>
       </c>
     </row>
     <row r="67">
@@ -1711,7 +1711,7 @@
         <v>0.4114272944254174</v>
       </c>
       <c r="E67" t="n">
-        <v>0.2404624670743942</v>
+        <v>0.3230836987495422</v>
       </c>
     </row>
     <row r="68">
@@ -1730,7 +1730,7 @@
         <v>0.5479266382031331</v>
       </c>
       <c r="E68" t="n">
-        <v>0.2867111563682556</v>
+        <v>0.3165478110313416</v>
       </c>
     </row>
     <row r="69">
@@ -1749,7 +1749,7 @@
         <v>0.5477011793988809</v>
       </c>
       <c r="E69" t="n">
-        <v>0.3496097922325134</v>
+        <v>0.4838224053382874</v>
       </c>
     </row>
     <row r="70">
@@ -1768,7 +1768,7 @@
         <v>0.3082284957436617</v>
       </c>
       <c r="E70" t="n">
-        <v>0.2216993272304535</v>
+        <v>0.3634368181228638</v>
       </c>
     </row>
     <row r="71">
@@ -1787,7 +1787,7 @@
         <v>0.7038711963848128</v>
       </c>
       <c r="E71" t="n">
-        <v>0.4699040055274963</v>
+        <v>0.3693427443504333</v>
       </c>
     </row>
     <row r="72">
@@ -1806,7 +1806,7 @@
         <v>0.371488874654042</v>
       </c>
       <c r="E72" t="n">
-        <v>0.2050384730100632</v>
+        <v>0.2836818099021912</v>
       </c>
     </row>
     <row r="73">
@@ -1825,7 +1825,7 @@
         <v>0.4762348626730635</v>
       </c>
       <c r="E73" t="n">
-        <v>0.2808520197868347</v>
+        <v>0.3165944516658783</v>
       </c>
     </row>
     <row r="74">
@@ -1844,7 +1844,7 @@
         <v>0.6939883973878687</v>
       </c>
       <c r="E74" t="n">
-        <v>0.395131915807724</v>
+        <v>0.405279815196991</v>
       </c>
     </row>
     <row r="75">
@@ -1863,7 +1863,7 @@
         <v>0.449127131789536</v>
       </c>
       <c r="E75" t="n">
-        <v>0.2575936317443848</v>
+        <v>0.2906521856784821</v>
       </c>
     </row>
     <row r="76">
@@ -1882,7 +1882,7 @@
         <v>0.3719303008548852</v>
       </c>
       <c r="E76" t="n">
-        <v>0.241622731089592</v>
+        <v>0.4206132590770721</v>
       </c>
     </row>
     <row r="77">
@@ -1901,7 +1901,7 @@
         <v>0.5872753902738808</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3196002840995789</v>
+        <v>0.4777728617191315</v>
       </c>
     </row>
     <row r="78">
@@ -1920,7 +1920,7 @@
         <v>0.9301819164990726</v>
       </c>
       <c r="E78" t="n">
-        <v>0.4719893336296082</v>
+        <v>0.4196963012218475</v>
       </c>
     </row>
     <row r="79">
@@ -1939,7 +1939,7 @@
         <v>0.8883460463517403</v>
       </c>
       <c r="E79" t="n">
-        <v>0.4812847375869751</v>
+        <v>0.4249959886074066</v>
       </c>
     </row>
     <row r="80">
@@ -1958,7 +1958,7 @@
         <v>0.8202330231885704</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4708866775035858</v>
+        <v>0.4481522738933563</v>
       </c>
     </row>
     <row r="81">
@@ -1977,7 +1977,7 @@
         <v>0.3658223575711927</v>
       </c>
       <c r="E81" t="n">
-        <v>0.3855469226837158</v>
+        <v>0.5372742414474487</v>
       </c>
     </row>
     <row r="82">
@@ -1996,7 +1996,7 @@
         <v>0.6392568663399482</v>
       </c>
       <c r="E82" t="n">
-        <v>0.4110693633556366</v>
+        <v>0.4842504560947418</v>
       </c>
     </row>
     <row r="83">
@@ -2015,7 +2015,7 @@
         <v>0.7362068195589295</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4463639855384827</v>
+        <v>0.394522488117218</v>
       </c>
     </row>
     <row r="84">
@@ -2034,7 +2034,7 @@
         <v>0.2303442812301529</v>
       </c>
       <c r="E84" t="n">
-        <v>0.211270198225975</v>
+        <v>0.2895062267780304</v>
       </c>
     </row>
     <row r="85">
@@ -2053,7 +2053,7 @@
         <v>0.6188220064441875</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3212018609046936</v>
+        <v>0.3234328627586365</v>
       </c>
     </row>
     <row r="86">
@@ -2072,7 +2072,7 @@
         <v>0.2756885458031615</v>
       </c>
       <c r="E86" t="n">
-        <v>0.1986942887306213</v>
+        <v>0.3446456789970398</v>
       </c>
     </row>
     <row r="87">
@@ -2091,7 +2091,7 @@
         <v>0.5289969440122068</v>
       </c>
       <c r="E87" t="n">
-        <v>0.319686084985733</v>
+        <v>0.3669667840003967</v>
       </c>
     </row>
     <row r="88">
@@ -2110,7 +2110,7 @@
         <v>0.5595404770727759</v>
       </c>
       <c r="E88" t="n">
-        <v>0.3516578674316406</v>
+        <v>0.382499635219574</v>
       </c>
     </row>
     <row r="89">
@@ -2129,7 +2129,7 @@
         <v>0.3140643235168202</v>
       </c>
       <c r="E89" t="n">
-        <v>0.2420628666877747</v>
+        <v>0.4464388489723206</v>
       </c>
     </row>
     <row r="90">
@@ -2148,7 +2148,7 @@
         <v>0.2526676624648406</v>
       </c>
       <c r="E90" t="n">
-        <v>0.2879408299922943</v>
+        <v>0.4964281320571899</v>
       </c>
     </row>
     <row r="91">
@@ -2167,7 +2167,7 @@
         <v>0.4127381904675428</v>
       </c>
       <c r="E91" t="n">
-        <v>0.2576844990253448</v>
+        <v>0.3522796034812927</v>
       </c>
     </row>
     <row r="92">
@@ -2186,7 +2186,7 @@
         <v>0.3951342779447693</v>
       </c>
       <c r="E92" t="n">
-        <v>0.2570831477642059</v>
+        <v>0.2305463850498199</v>
       </c>
     </row>
     <row r="93">
@@ -2205,7 +2205,7 @@
         <v>0.4814090148225293</v>
       </c>
       <c r="E93" t="n">
-        <v>0.3093459606170654</v>
+        <v>0.4735907316207886</v>
       </c>
     </row>
     <row r="94">
@@ -2224,7 +2224,7 @@
         <v>0.5793623800096949</v>
       </c>
       <c r="E94" t="n">
-        <v>0.3109601140022278</v>
+        <v>0.3403803408145905</v>
       </c>
     </row>
     <row r="95">
@@ -2243,7 +2243,7 @@
         <v>0.3417202854593807</v>
       </c>
       <c r="E95" t="n">
-        <v>0.229651153087616</v>
+        <v>0.4784649610519409</v>
       </c>
     </row>
     <row r="96">
@@ -2262,7 +2262,7 @@
         <v>0.4094408923469865</v>
       </c>
       <c r="E96" t="n">
-        <v>0.2428496479988098</v>
+        <v>0.3666864037513733</v>
       </c>
     </row>
     <row r="97">
@@ -2281,7 +2281,7 @@
         <v>0.6004866854835119</v>
       </c>
       <c r="E97" t="n">
-        <v>0.3591760396957397</v>
+        <v>0.4896670281887054</v>
       </c>
     </row>
     <row r="98">
@@ -2300,7 +2300,7 @@
         <v>0.453425349718437</v>
       </c>
       <c r="E98" t="n">
-        <v>0.3227367997169495</v>
+        <v>0.3098426461219788</v>
       </c>
     </row>
     <row r="99">
@@ -2319,7 +2319,7 @@
         <v>0.6777444604059943</v>
       </c>
       <c r="E99" t="n">
-        <v>0.3716527819633484</v>
+        <v>0.5253282189369202</v>
       </c>
     </row>
     <row r="100">
@@ -2338,7 +2338,7 @@
         <v>0.8167969978866652</v>
       </c>
       <c r="E100" t="n">
-        <v>0.4744416773319244</v>
+        <v>0.4104952216148376</v>
       </c>
     </row>
     <row r="101">
@@ -2357,7 +2357,7 @@
         <v>0.4517791695442719</v>
       </c>
       <c r="E101" t="n">
-        <v>0.2189347296953201</v>
+        <v>0.3300824463367462</v>
       </c>
     </row>
     <row r="102">
@@ -2376,7 +2376,7 @@
         <v>0.5668168483183852</v>
       </c>
       <c r="E102" t="n">
-        <v>0.3014898896217346</v>
+        <v>0.4282324016094208</v>
       </c>
     </row>
     <row r="103">
@@ -2395,7 +2395,7 @@
         <v>0.6175863780762662</v>
       </c>
       <c r="E103" t="n">
-        <v>0.2885795533657074</v>
+        <v>0.3996620178222656</v>
       </c>
     </row>
     <row r="104">
@@ -2414,7 +2414,7 @@
         <v>0.3522266313967708</v>
       </c>
       <c r="E104" t="n">
-        <v>0.2331543117761612</v>
+        <v>0.3648944497108459</v>
       </c>
     </row>
     <row r="105">
@@ -2433,7 +2433,7 @@
         <v>0.6159886993189322</v>
       </c>
       <c r="E105" t="n">
-        <v>0.2741120755672455</v>
+        <v>0.4461191594600677</v>
       </c>
     </row>
     <row r="106">
@@ -2452,7 +2452,7 @@
         <v>0.5821438587348391</v>
       </c>
       <c r="E106" t="n">
-        <v>0.395224928855896</v>
+        <v>0.4908168911933899</v>
       </c>
     </row>
     <row r="107">
@@ -2471,7 +2471,7 @@
         <v>0.7152093964646979</v>
       </c>
       <c r="E107" t="n">
-        <v>0.4524984061717987</v>
+        <v>0.3370438516139984</v>
       </c>
     </row>
     <row r="108">
@@ -2490,7 +2490,7 @@
         <v>0.7156048294914429</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4334989786148071</v>
+        <v>0.3189630806446075</v>
       </c>
     </row>
     <row r="109">
@@ -2509,7 +2509,7 @@
         <v>0.6024929436827366</v>
       </c>
       <c r="E109" t="n">
-        <v>0.3817744851112366</v>
+        <v>0.3065722584724426</v>
       </c>
     </row>
     <row r="110">
@@ -2528,7 +2528,7 @@
         <v>0.7442742806809305</v>
       </c>
       <c r="E110" t="n">
-        <v>0.4458110332489014</v>
+        <v>0.3066080808639526</v>
       </c>
     </row>
     <row r="111">
@@ -2547,7 +2547,7 @@
         <v>0.326528740540571</v>
       </c>
       <c r="E111" t="n">
-        <v>0.265632301568985</v>
+        <v>0.3607300519943237</v>
       </c>
     </row>
     <row r="112">
@@ -2566,7 +2566,7 @@
         <v>0.3305320236080006</v>
       </c>
       <c r="E112" t="n">
-        <v>0.2824503183364868</v>
+        <v>0.5089449286460876</v>
       </c>
     </row>
     <row r="113">
@@ -2585,7 +2585,7 @@
         <v>0.6557340559483333</v>
       </c>
       <c r="E113" t="n">
-        <v>0.3647280633449554</v>
+        <v>0.3386413156986237</v>
       </c>
     </row>
     <row r="114">
@@ -2604,7 +2604,7 @@
         <v>0.3110496799551626</v>
       </c>
       <c r="E114" t="n">
-        <v>0.1962341070175171</v>
+        <v>0.2359439432621002</v>
       </c>
     </row>
     <row r="115">
@@ -2623,7 +2623,7 @@
         <v>0.8101871045343427</v>
       </c>
       <c r="E115" t="n">
-        <v>0.4717699289321899</v>
+        <v>0.4533505737781525</v>
       </c>
     </row>
     <row r="116">
@@ -2642,7 +2642,7 @@
         <v>0.5934770141581799</v>
       </c>
       <c r="E116" t="n">
-        <v>0.3513568639755249</v>
+        <v>0.3734950721263885</v>
       </c>
     </row>
     <row r="117">
@@ -2661,7 +2661,7 @@
         <v>0.2076183463965128</v>
       </c>
       <c r="E117" t="n">
-        <v>0.2094230353832245</v>
+        <v>0.2637119889259338</v>
       </c>
     </row>
     <row r="118">
@@ -2680,7 +2680,7 @@
         <v>0.1579186337034669</v>
       </c>
       <c r="E118" t="n">
-        <v>0.1732850670814514</v>
+        <v>0.4580274224281311</v>
       </c>
     </row>
     <row r="119">
@@ -2699,7 +2699,7 @@
         <v>0.6516583977688162</v>
       </c>
       <c r="E119" t="n">
-        <v>0.4201074540615082</v>
+        <v>0.368303507566452</v>
       </c>
     </row>
     <row r="120">
@@ -2718,7 +2718,7 @@
         <v>0.5003805716847527</v>
       </c>
       <c r="E120" t="n">
-        <v>0.3350562453269958</v>
+        <v>0.3259987235069275</v>
       </c>
     </row>
     <row r="121">
@@ -2737,7 +2737,7 @@
         <v>0.3852531313044293</v>
       </c>
       <c r="E121" t="n">
-        <v>0.30369633436203</v>
+        <v>0.2617943584918976</v>
       </c>
     </row>
     <row r="122">
@@ -2756,7 +2756,7 @@
         <v>0.7363774751900829</v>
       </c>
       <c r="E122" t="n">
-        <v>0.3559675514698029</v>
+        <v>0.3732270002365112</v>
       </c>
     </row>
     <row r="123">
@@ -2775,7 +2775,7 @@
         <v>0.3481182439465114</v>
       </c>
       <c r="E123" t="n">
-        <v>0.1771685928106308</v>
+        <v>0.3428545296192169</v>
       </c>
     </row>
     <row r="124">
@@ -2794,7 +2794,7 @@
         <v>0.2329683492779049</v>
       </c>
       <c r="E124" t="n">
-        <v>0.1719671785831451</v>
+        <v>0.2769818007946014</v>
       </c>
     </row>
     <row r="125">
@@ -2813,7 +2813,7 @@
         <v>0.4668998612469218</v>
       </c>
       <c r="E125" t="n">
-        <v>0.2715562880039215</v>
+        <v>0.322685718536377</v>
       </c>
     </row>
     <row r="126">
@@ -2832,7 +2832,7 @@
         <v>0.5865494033047405</v>
       </c>
       <c r="E126" t="n">
-        <v>0.3075116276741028</v>
+        <v>0.37175652384758</v>
       </c>
     </row>
     <row r="127">
@@ -2851,7 +2851,7 @@
         <v>0.5463434594426863</v>
       </c>
       <c r="E127" t="n">
-        <v>0.4033827185630798</v>
+        <v>0.2996761798858643</v>
       </c>
     </row>
     <row r="128">
@@ -2870,7 +2870,7 @@
         <v>0.4072987375182022</v>
       </c>
       <c r="E128" t="n">
-        <v>0.2985689640045166</v>
+        <v>0.3665753901004791</v>
       </c>
     </row>
     <row r="129">
@@ -2889,7 +2889,7 @@
         <v>0.8172234851210609</v>
       </c>
       <c r="E129" t="n">
-        <v>0.4292969107627869</v>
+        <v>0.4714722633361816</v>
       </c>
     </row>
     <row r="130">
@@ -2908,7 +2908,7 @@
         <v>0.2655126790533767</v>
       </c>
       <c r="E130" t="n">
-        <v>0.262748122215271</v>
+        <v>0.302157461643219</v>
       </c>
     </row>
     <row r="131">
@@ -2927,7 +2927,7 @@
         <v>1</v>
       </c>
       <c r="E131" t="n">
-        <v>0.4863153398036957</v>
+        <v>0.4475076496601105</v>
       </c>
     </row>
     <row r="132">
@@ -2946,7 +2946,7 @@
         <v>0.4561219958759843</v>
       </c>
       <c r="E132" t="n">
-        <v>0.2904912829399109</v>
+        <v>0.4679469168186188</v>
       </c>
     </row>
     <row r="133">
@@ -2965,7 +2965,7 @@
         <v>0.6529596409868981</v>
       </c>
       <c r="E133" t="n">
-        <v>0.3697324991226196</v>
+        <v>0.4600743353366852</v>
       </c>
     </row>
     <row r="134">
@@ -2984,7 +2984,7 @@
         <v>0.7513501027688749</v>
       </c>
       <c r="E134" t="n">
-        <v>0.4734005928039551</v>
+        <v>0.4278516173362732</v>
       </c>
     </row>
     <row r="135">
@@ -3003,7 +3003,7 @@
         <v>0.4505662836508093</v>
       </c>
       <c r="E135" t="n">
-        <v>0.319894552230835</v>
+        <v>0.4271031320095062</v>
       </c>
     </row>
     <row r="136">
@@ -3022,7 +3022,7 @@
         <v>0.3716043921484325</v>
       </c>
       <c r="E136" t="n">
-        <v>0.2593694031238556</v>
+        <v>0.4346279203891754</v>
       </c>
     </row>
     <row r="137">
@@ -3041,7 +3041,7 @@
         <v>0.3602442582966465</v>
       </c>
       <c r="E137" t="n">
-        <v>0.259196549654007</v>
+        <v>0.2805741727352142</v>
       </c>
     </row>
     <row r="138">
@@ -3060,7 +3060,7 @@
         <v>0.3383342725218927</v>
       </c>
       <c r="E138" t="n">
-        <v>0.2602798640727997</v>
+        <v>0.4058345854282379</v>
       </c>
     </row>
     <row r="139">
@@ -3079,7 +3079,7 @@
         <v>0.5414278154421422</v>
       </c>
       <c r="E139" t="n">
-        <v>0.3202254474163055</v>
+        <v>0.3605205416679382</v>
       </c>
     </row>
     <row r="140">
@@ -3098,7 +3098,7 @@
         <v>0.5978038603527056</v>
       </c>
       <c r="E140" t="n">
-        <v>0.3085875511169434</v>
+        <v>0.3607170283794403</v>
       </c>
     </row>
     <row r="141">
@@ -3117,7 +3117,7 @@
         <v>0.7606450446375734</v>
       </c>
       <c r="E141" t="n">
-        <v>0.4018742442131042</v>
+        <v>0.3971821665763855</v>
       </c>
     </row>
     <row r="142">
@@ -3136,7 +3136,7 @@
         <v>0.3248788099659551</v>
       </c>
       <c r="E142" t="n">
-        <v>0.2190110087394714</v>
+        <v>0.2971713542938232</v>
       </c>
     </row>
     <row r="143">
@@ -3155,7 +3155,7 @@
         <v>0.6449254707683332</v>
       </c>
       <c r="E143" t="n">
-        <v>0.3852537274360657</v>
+        <v>0.4267672896385193</v>
       </c>
     </row>
     <row r="144">
@@ -3174,7 +3174,7 @@
         <v>0.2910065864195924</v>
       </c>
       <c r="E144" t="n">
-        <v>0.2005975991487503</v>
+        <v>0.3873430490493774</v>
       </c>
     </row>
     <row r="145">
@@ -3193,7 +3193,7 @@
         <v>0.7244609142174261</v>
       </c>
       <c r="E145" t="n">
-        <v>0.4088215827941895</v>
+        <v>0.3903496563434601</v>
       </c>
     </row>
     <row r="146">
@@ -3212,7 +3212,7 @@
         <v>0.6177515676508191</v>
       </c>
       <c r="E146" t="n">
-        <v>0.331175833940506</v>
+        <v>0.4558952450752258</v>
       </c>
     </row>
     <row r="147">
@@ -3231,7 +3231,7 @@
         <v>0.4409377566944086</v>
       </c>
       <c r="E147" t="n">
-        <v>0.2745212912559509</v>
+        <v>0.4509144425392151</v>
       </c>
     </row>
     <row r="148">
@@ -3250,7 +3250,7 @@
         <v>0.6822471714911353</v>
       </c>
       <c r="E148" t="n">
-        <v>0.4585016369819641</v>
+        <v>0.3636813163757324</v>
       </c>
     </row>
     <row r="149">
@@ -3269,7 +3269,7 @@
         <v>0.229207907078953</v>
       </c>
       <c r="E149" t="n">
-        <v>0.2024387568235397</v>
+        <v>0.3543416261672974</v>
       </c>
     </row>
     <row r="150">
@@ -3288,7 +3288,7 @@
         <v>0.4447499953820174</v>
       </c>
       <c r="E150" t="n">
-        <v>0.2437346130609512</v>
+        <v>0.3307032883167267</v>
       </c>
     </row>
     <row r="151">
@@ -3307,7 +3307,7 @@
         <v>0.6523426750322254</v>
       </c>
       <c r="E151" t="n">
-        <v>0.399916410446167</v>
+        <v>0.3726504743099213</v>
       </c>
     </row>
     <row r="152">
@@ -3326,7 +3326,7 @@
         <v>0.2425283543276618</v>
       </c>
       <c r="E152" t="n">
-        <v>0.2036210298538208</v>
+        <v>0.2745541334152222</v>
       </c>
     </row>
     <row r="153">
@@ -3345,7 +3345,7 @@
         <v>0.8305519596701881</v>
       </c>
       <c r="E153" t="n">
-        <v>0.4505714774131775</v>
+        <v>0.5477388501167297</v>
       </c>
     </row>
     <row r="154">
@@ -3364,7 +3364,7 @@
         <v>0.6398363875567967</v>
       </c>
       <c r="E154" t="n">
-        <v>0.3472954332828522</v>
+        <v>0.3414418995380402</v>
       </c>
     </row>
     <row r="155">
@@ -3383,7 +3383,7 @@
         <v>0.6951128286309145</v>
       </c>
       <c r="E155" t="n">
-        <v>0.4962145090103149</v>
+        <v>0.3405948877334595</v>
       </c>
     </row>
     <row r="156">
@@ -3402,7 +3402,7 @@
         <v>0.5222646030184412</v>
       </c>
       <c r="E156" t="n">
-        <v>0.2666210830211639</v>
+        <v>0.4420493245124817</v>
       </c>
     </row>
     <row r="157">
@@ -3421,7 +3421,7 @@
         <v>0.2279199221234276</v>
       </c>
       <c r="E157" t="n">
-        <v>0.1971094608306885</v>
+        <v>0.4101766049861908</v>
       </c>
     </row>
     <row r="158">
@@ -3440,7 +3440,7 @@
         <v>0.6305093830814368</v>
       </c>
       <c r="E158" t="n">
-        <v>0.3588143289089203</v>
+        <v>0.3505046963691711</v>
       </c>
     </row>
     <row r="159">
@@ -3459,7 +3459,7 @@
         <v>0.7553070853748489</v>
       </c>
       <c r="E159" t="n">
-        <v>0.4608376026153564</v>
+        <v>0.3846090137958527</v>
       </c>
     </row>
     <row r="160">
@@ -3478,7 +3478,7 @@
         <v>0.6472029960903064</v>
       </c>
       <c r="E160" t="n">
-        <v>0.3582215011119843</v>
+        <v>0.4996880888938904</v>
       </c>
     </row>
     <row r="161">
@@ -3497,7 +3497,7 @@
         <v>0.2258732884862843</v>
       </c>
       <c r="E161" t="n">
-        <v>0.1684451997280121</v>
+        <v>0.3142108917236328</v>
       </c>
     </row>
     <row r="162">
@@ -3516,7 +3516,7 @@
         <v>0.5055944330192897</v>
       </c>
       <c r="E162" t="n">
-        <v>0.3139708340167999</v>
+        <v>0.3828082084655762</v>
       </c>
     </row>
     <row r="163">
@@ -3535,7 +3535,7 @@
         <v>0.6422702459482565</v>
       </c>
       <c r="E163" t="n">
-        <v>0.4045563340187073</v>
+        <v>0.4479875862598419</v>
       </c>
     </row>
     <row r="164">
@@ -3554,7 +3554,7 @@
         <v>0.5382414352954227</v>
       </c>
       <c r="E164" t="n">
-        <v>0.3200055658817291</v>
+        <v>0.4734975695610046</v>
       </c>
     </row>
     <row r="165">
@@ -3573,7 +3573,7 @@
         <v>0.5649658988436861</v>
       </c>
       <c r="E165" t="n">
-        <v>0.3456245064735413</v>
+        <v>0.3600292801856995</v>
       </c>
     </row>
     <row r="166">
@@ -3592,7 +3592,7 @@
         <v>0.5303799613737538</v>
       </c>
       <c r="E166" t="n">
-        <v>0.3035330772399902</v>
+        <v>0.4801726341247559</v>
       </c>
     </row>
     <row r="167">
@@ -3611,7 +3611,7 @@
         <v>0.5533608565303745</v>
       </c>
       <c r="E167" t="n">
-        <v>0.349120020866394</v>
+        <v>0.4322681725025177</v>
       </c>
     </row>
     <row r="168">
@@ -3630,7 +3630,7 @@
         <v>0.4531888718182911</v>
       </c>
       <c r="E168" t="n">
-        <v>0.2899675667285919</v>
+        <v>0.3327767252922058</v>
       </c>
     </row>
     <row r="169">
@@ -3649,7 +3649,7 @@
         <v>0.401848969295322</v>
       </c>
       <c r="E169" t="n">
-        <v>0.2410541921854019</v>
+        <v>0.2784067094326019</v>
       </c>
     </row>
     <row r="170">
@@ -3668,7 +3668,7 @@
         <v>0.4417667562438528</v>
       </c>
       <c r="E170" t="n">
-        <v>0.2490995526313782</v>
+        <v>0.5053969621658325</v>
       </c>
     </row>
     <row r="171">
@@ -3687,7 +3687,7 @@
         <v>0.4393118911669173</v>
       </c>
       <c r="E171" t="n">
-        <v>0.2946138381958008</v>
+        <v>0.3886117339134216</v>
       </c>
     </row>
     <row r="172">
@@ -3706,7 +3706,7 @@
         <v>0.4234953893952308</v>
       </c>
       <c r="E172" t="n">
-        <v>0.3321286737918854</v>
+        <v>0.3678858876228333</v>
       </c>
     </row>
     <row r="173">
@@ -3725,7 +3725,7 @@
         <v>0.612644032798873</v>
       </c>
       <c r="E173" t="n">
-        <v>0.4179776310920715</v>
+        <v>0.331304669380188</v>
       </c>
     </row>
     <row r="174">
@@ -3744,7 +3744,7 @@
         <v>0.7158558277887077</v>
       </c>
       <c r="E174" t="n">
-        <v>0.3796415030956268</v>
+        <v>0.3595305979251862</v>
       </c>
     </row>
     <row r="175">
@@ -3763,7 +3763,7 @@
         <v>0.3603752761038813</v>
       </c>
       <c r="E175" t="n">
-        <v>0.3054040670394897</v>
+        <v>0.3259125649929047</v>
       </c>
     </row>
     <row r="176">
@@ -3782,7 +3782,7 @@
         <v>0.4191622526074782</v>
       </c>
       <c r="E176" t="n">
-        <v>0.2627924978733063</v>
+        <v>0.3813636302947998</v>
       </c>
     </row>
     <row r="177">
@@ -3801,7 +3801,7 @@
         <v>0.5051903811501658</v>
       </c>
       <c r="E177" t="n">
-        <v>0.2740492820739746</v>
+        <v>0.572335422039032</v>
       </c>
     </row>
     <row r="178">
@@ -3820,7 +3820,7 @@
         <v>0.5505311948166947</v>
       </c>
       <c r="E178" t="n">
-        <v>0.3379248678684235</v>
+        <v>0.3099215626716614</v>
       </c>
     </row>
     <row r="179">
@@ -3839,7 +3839,7 @@
         <v>0.393052318371826</v>
       </c>
       <c r="E179" t="n">
-        <v>0.2718541026115417</v>
+        <v>0.3699355125427246</v>
       </c>
     </row>
     <row r="180">
@@ -3858,7 +3858,7 @@
         <v>0.574582470847295</v>
       </c>
       <c r="E180" t="n">
-        <v>0.3202790319919586</v>
+        <v>0.4243488609790802</v>
       </c>
     </row>
     <row r="181">
@@ -3877,7 +3877,7 @@
         <v>0.7543874769813708</v>
       </c>
       <c r="E181" t="n">
-        <v>0.4198689460754395</v>
+        <v>0.4059304296970367</v>
       </c>
     </row>
     <row r="182">
@@ -3896,7 +3896,7 @@
         <v>0.312601707276444</v>
       </c>
       <c r="E182" t="n">
-        <v>0.2349995523691177</v>
+        <v>0.3774996101856232</v>
       </c>
     </row>
     <row r="183">
@@ -3915,7 +3915,7 @@
         <v>0.5140489288122608</v>
       </c>
       <c r="E183" t="n">
-        <v>0.2942069470882416</v>
+        <v>0.3333151638507843</v>
       </c>
     </row>
     <row r="184">
@@ -3934,7 +3934,7 @@
         <v>0.6237623318494331</v>
       </c>
       <c r="E184" t="n">
-        <v>0.4012328386306763</v>
+        <v>0.3242374956607819</v>
       </c>
     </row>
     <row r="185">
@@ -3953,7 +3953,7 @@
         <v>0.7854766509746001</v>
       </c>
       <c r="E185" t="n">
-        <v>0.4430077075958252</v>
+        <v>0.389291524887085</v>
       </c>
     </row>
     <row r="186">
@@ -3972,7 +3972,7 @@
         <v>0.2052686182343323</v>
       </c>
       <c r="E186" t="n">
-        <v>0.1685348451137543</v>
+        <v>0.2695153951644897</v>
       </c>
     </row>
     <row r="187">
@@ -3991,7 +3991,7 @@
         <v>0.4651482820979406</v>
       </c>
       <c r="E187" t="n">
-        <v>0.3074085712432861</v>
+        <v>0.2965600192546844</v>
       </c>
     </row>
     <row r="188">
@@ -4010,7 +4010,7 @@
         <v>0.6162745222965682</v>
       </c>
       <c r="E188" t="n">
-        <v>0.4364646971225739</v>
+        <v>0.3403877913951874</v>
       </c>
     </row>
     <row r="189">
@@ -4029,7 +4029,7 @@
         <v>0.5397773290067381</v>
       </c>
       <c r="E189" t="n">
-        <v>0.3812335133552551</v>
+        <v>0.3076494634151459</v>
       </c>
     </row>
     <row r="190">
@@ -4048,7 +4048,7 @@
         <v>0.4897300470567975</v>
       </c>
       <c r="E190" t="n">
-        <v>0.3536723852157593</v>
+        <v>0.4413090646266937</v>
       </c>
     </row>
     <row r="191">
@@ -4067,7 +4067,7 @@
         <v>0.6569320533147465</v>
       </c>
       <c r="E191" t="n">
-        <v>0.3236981332302094</v>
+        <v>0.4276572465896606</v>
       </c>
     </row>
     <row r="192">
@@ -4086,7 +4086,7 @@
         <v>0.5879092420299313</v>
       </c>
       <c r="E192" t="n">
-        <v>0.3068799674510956</v>
+        <v>0.2927473187446594</v>
       </c>
     </row>
     <row r="193">
@@ -4105,7 +4105,7 @@
         <v>0.6467239737471064</v>
       </c>
       <c r="E193" t="n">
-        <v>0.3230079412460327</v>
+        <v>0.4025132954120636</v>
       </c>
     </row>
     <row r="194">
@@ -4124,7 +4124,7 @@
         <v>0.3413952725234781</v>
       </c>
       <c r="E194" t="n">
-        <v>0.2815335392951965</v>
+        <v>0.2287614047527313</v>
       </c>
     </row>
     <row r="195">
@@ -4143,7 +4143,7 @@
         <v>0.7381181548437215</v>
       </c>
       <c r="E195" t="n">
-        <v>0.4344366192817688</v>
+        <v>0.390975296497345</v>
       </c>
     </row>
     <row r="196">
@@ -4162,7 +4162,7 @@
         <v>0.5887458521465457</v>
       </c>
       <c r="E196" t="n">
-        <v>0.2930181324481964</v>
+        <v>0.3836422264575958</v>
       </c>
     </row>
     <row r="197">
@@ -4181,7 +4181,7 @@
         <v>0.6326483208753498</v>
       </c>
       <c r="E197" t="n">
-        <v>0.2803178429603577</v>
+        <v>0.409216582775116</v>
       </c>
     </row>
     <row r="198">
@@ -4200,7 +4200,7 @@
         <v>0.6789825665000031</v>
       </c>
       <c r="E198" t="n">
-        <v>0.4054732918739319</v>
+        <v>0.3891631066799164</v>
       </c>
     </row>
     <row r="199">
@@ -4219,7 +4219,7 @@
         <v>0.5594678183516649</v>
       </c>
       <c r="E199" t="n">
-        <v>0.2898629903793335</v>
+        <v>0.345697283744812</v>
       </c>
     </row>
     <row r="200">
@@ -4238,7 +4238,7 @@
         <v>0.4366450205489274</v>
       </c>
       <c r="E200" t="n">
-        <v>0.2926265001296997</v>
+        <v>0.4453403651714325</v>
       </c>
     </row>
     <row r="201">
@@ -4257,7 +4257,7 @@
         <v>0.3705161228666759</v>
       </c>
       <c r="E201" t="n">
-        <v>0.2397582978010178</v>
+        <v>0.4243420362472534</v>
       </c>
     </row>
     <row r="202">
@@ -4276,7 +4276,7 @@
         <v>0.6371207124728865</v>
       </c>
       <c r="E202" t="n">
-        <v>0.4162944853305817</v>
+        <v>0.4336207211017609</v>
       </c>
     </row>
     <row r="203">
@@ -4295,7 +4295,7 @@
         <v>0.4631410104767616</v>
       </c>
       <c r="E203" t="n">
-        <v>0.3336998224258423</v>
+        <v>0.4952230453491211</v>
       </c>
     </row>
     <row r="204">
@@ -4314,7 +4314,7 @@
         <v>0.4886493512147775</v>
       </c>
       <c r="E204" t="n">
-        <v>0.3342572748661041</v>
+        <v>0.3614612519741058</v>
       </c>
     </row>
     <row r="205">
@@ -4333,7 +4333,7 @@
         <v>0.4188489226799816</v>
       </c>
       <c r="E205" t="n">
-        <v>0.2524551749229431</v>
+        <v>0.4850036203861237</v>
       </c>
     </row>
     <row r="206">
@@ -4352,7 +4352,7 @@
         <v>0.6922659580528661</v>
       </c>
       <c r="E206" t="n">
-        <v>0.373640239238739</v>
+        <v>0.4183411002159119</v>
       </c>
     </row>
     <row r="207">
@@ -4371,7 +4371,7 @@
         <v>0.5198235067264689</v>
       </c>
       <c r="E207" t="n">
-        <v>0.2816038727760315</v>
+        <v>0.4064033329486847</v>
       </c>
     </row>
     <row r="208">
@@ -4390,7 +4390,7 @@
         <v>0.1787363632444668</v>
       </c>
       <c r="E208" t="n">
-        <v>0.1570239216089249</v>
+        <v>0.3881812691688538</v>
       </c>
     </row>
     <row r="209">
@@ -4409,7 +4409,7 @@
         <v>0.9479314522908466</v>
       </c>
       <c r="E209" t="n">
-        <v>0.5001085996627808</v>
+        <v>0.4166781008243561</v>
       </c>
     </row>
     <row r="210">
@@ -4428,7 +4428,7 @@
         <v>0.6128070595014323</v>
       </c>
       <c r="E210" t="n">
-        <v>0.3890681266784668</v>
+        <v>0.4719864726066589</v>
       </c>
     </row>
     <row r="211">
@@ -4447,7 +4447,7 @@
         <v>0.5380828192106912</v>
       </c>
       <c r="E211" t="n">
-        <v>0.3430821895599365</v>
+        <v>0.4284951388835907</v>
       </c>
     </row>
     <row r="212">
@@ -4466,7 +4466,7 @@
         <v>0.7870022409526501</v>
       </c>
       <c r="E212" t="n">
-        <v>0.5110015869140625</v>
+        <v>0.3680971562862396</v>
       </c>
     </row>
     <row r="213">
@@ -4485,7 +4485,7 @@
         <v>0.4579198743362359</v>
       </c>
       <c r="E213" t="n">
-        <v>0.3002223670482635</v>
+        <v>0.4276140034198761</v>
       </c>
     </row>
     <row r="214">
@@ -4504,7 +4504,7 @@
         <v>0.4867562538305085</v>
       </c>
       <c r="E214" t="n">
-        <v>0.2910612523555756</v>
+        <v>0.2878839671611786</v>
       </c>
     </row>
     <row r="215">
@@ -4523,7 +4523,7 @@
         <v>0.5693761428778963</v>
       </c>
       <c r="E215" t="n">
-        <v>0.3141308128833771</v>
+        <v>0.426360011100769</v>
       </c>
     </row>
     <row r="216">
@@ -4542,7 +4542,7 @@
         <v>0.3386943968433396</v>
       </c>
       <c r="E216" t="n">
-        <v>0.2545609772205353</v>
+        <v>0.459390789270401</v>
       </c>
     </row>
     <row r="217">
@@ -4561,7 +4561,7 @@
         <v>0.3623159110575627</v>
       </c>
       <c r="E217" t="n">
-        <v>0.2010528743267059</v>
+        <v>0.3301896452903748</v>
       </c>
     </row>
     <row r="218">
@@ -4580,7 +4580,7 @@
         <v>0.7147446554601942</v>
       </c>
       <c r="E218" t="n">
-        <v>0.395578920841217</v>
+        <v>0.3672510981559753</v>
       </c>
     </row>
     <row r="219">
@@ -4599,7 +4599,7 @@
         <v>0.5045169397977036</v>
       </c>
       <c r="E219" t="n">
-        <v>0.3067723214626312</v>
+        <v>0.3107678890228271</v>
       </c>
     </row>
     <row r="220">
@@ -4618,7 +4618,7 @@
         <v>0.1401402364386536</v>
       </c>
       <c r="E220" t="n">
-        <v>0.1494736969470978</v>
+        <v>0.2571519017219543</v>
       </c>
     </row>
     <row r="221">
@@ -4637,7 +4637,7 @@
         <v>0.6130104518843715</v>
       </c>
       <c r="E221" t="n">
-        <v>0.3440666198730469</v>
+        <v>0.3298741281032562</v>
       </c>
     </row>
     <row r="222">
@@ -4656,7 +4656,7 @@
         <v>0.5229919304689966</v>
       </c>
       <c r="E222" t="n">
-        <v>0.268484354019165</v>
+        <v>0.3446082472801208</v>
       </c>
     </row>
     <row r="223">
@@ -4675,7 +4675,7 @@
         <v>0.6261057321237892</v>
       </c>
       <c r="E223" t="n">
-        <v>0.3019956946372986</v>
+        <v>0.3152153193950653</v>
       </c>
     </row>
     <row r="224">
@@ -4694,7 +4694,7 @@
         <v>0.4499289681983143</v>
       </c>
       <c r="E224" t="n">
-        <v>0.3039121627807617</v>
+        <v>0.3696244657039642</v>
       </c>
     </row>
     <row r="225">
@@ -4713,7 +4713,7 @@
         <v>0.4176197606532118</v>
       </c>
       <c r="E225" t="n">
-        <v>0.2809253931045532</v>
+        <v>0.4010137021541595</v>
       </c>
     </row>
     <row r="226">
@@ -4732,7 +4732,7 @@
         <v>0.003784636967092414</v>
       </c>
       <c r="E226" t="n">
-        <v>0.1229481622576714</v>
+        <v>0.3881142735481262</v>
       </c>
     </row>
     <row r="227">
@@ -4751,7 +4751,7 @@
         <v>0.5641297874992711</v>
       </c>
       <c r="E227" t="n">
-        <v>0.3161119222640991</v>
+        <v>0.390236109495163</v>
       </c>
     </row>
     <row r="228">
@@ -4770,7 +4770,7 @@
         <v>0.4697231730986305</v>
       </c>
       <c r="E228" t="n">
-        <v>0.35884889960289</v>
+        <v>0.4486697614192963</v>
       </c>
     </row>
     <row r="229">
@@ -4789,7 +4789,7 @@
         <v>0.4206654514666731</v>
       </c>
       <c r="E229" t="n">
-        <v>0.2903031408786774</v>
+        <v>0.5663093328475952</v>
       </c>
     </row>
     <row r="230">
@@ -4808,7 +4808,7 @@
         <v>0.6319267109365763</v>
       </c>
       <c r="E230" t="n">
-        <v>0.3915734887123108</v>
+        <v>0.3773413002490997</v>
       </c>
     </row>
     <row r="231">
@@ -4827,7 +4827,7 @@
         <v>0.4340910697026596</v>
       </c>
       <c r="E231" t="n">
-        <v>0.299590528011322</v>
+        <v>0.4684573411941528</v>
       </c>
     </row>
     <row r="232">
@@ -4846,7 +4846,7 @@
         <v>0.5181294666663223</v>
       </c>
       <c r="E232" t="n">
-        <v>0.3598813712596893</v>
+        <v>0.2933505177497864</v>
       </c>
     </row>
     <row r="233">
@@ -4865,7 +4865,7 @@
         <v>0.2156160294230334</v>
       </c>
       <c r="E233" t="n">
-        <v>0.1692713797092438</v>
+        <v>0.2337785214185715</v>
       </c>
     </row>
     <row r="234">
@@ -4884,7 +4884,7 @@
         <v>0.03511884664886766</v>
       </c>
       <c r="E234" t="n">
-        <v>0.1789565682411194</v>
+        <v>0.3958895206451416</v>
       </c>
     </row>
     <row r="235">
@@ -4903,7 +4903,7 @@
         <v>0.5659839038897125</v>
       </c>
       <c r="E235" t="n">
-        <v>0.3705294132232666</v>
+        <v>0.3770693242549896</v>
       </c>
     </row>
     <row r="236">
@@ -4922,7 +4922,7 @@
         <v>0.5956898062261661</v>
       </c>
       <c r="E236" t="n">
-        <v>0.36317378282547</v>
+        <v>0.3857334852218628</v>
       </c>
     </row>
     <row r="237">
@@ -4941,7 +4941,7 @@
         <v>0.5918293674223544</v>
       </c>
       <c r="E237" t="n">
-        <v>0.4150657057762146</v>
+        <v>0.3545975983142853</v>
       </c>
     </row>
     <row r="238">
@@ -4960,7 +4960,7 @@
         <v>0.6315263602726591</v>
       </c>
       <c r="E238" t="n">
-        <v>0.429671972990036</v>
+        <v>0.4577820301055908</v>
       </c>
     </row>
     <row r="239">
@@ -4979,7 +4979,7 @@
         <v>0.7133990890183162</v>
       </c>
       <c r="E239" t="n">
-        <v>0.4143775701522827</v>
+        <v>0.3585376143455505</v>
       </c>
     </row>
     <row r="240">
@@ -4998,7 +4998,7 @@
         <v>0.2946893472988129</v>
       </c>
       <c r="E240" t="n">
-        <v>0.2081917822360992</v>
+        <v>0.4081933200359344</v>
       </c>
     </row>
     <row r="241">
@@ -5017,7 +5017,7 @@
         <v>0.8553801124976155</v>
       </c>
       <c r="E241" t="n">
-        <v>0.5012528896331787</v>
+        <v>0.3364952802658081</v>
       </c>
     </row>
   </sheetData>

--- a/code/abc.xlsx
+++ b/code/abc.xlsx
@@ -476,7 +476,7 @@
         <v>0.4718292894556023</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2800672054290771</v>
+        <v>0.3584714531898499</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0.2663785756567554</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5050702095031738</v>
+        <v>0.2302574217319489</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0.1126086634691826</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2254764288663864</v>
+        <v>0.1627039313316345</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0.7030151262713138</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4782959818840027</v>
+        <v>0.3668118417263031</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0.5562226589382566</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4113345146179199</v>
+        <v>0.3432400822639465</v>
       </c>
     </row>
     <row r="7">
@@ -571,7 +571,7 @@
         <v>0.5378783324099137</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3134105503559113</v>
+        <v>0.3229804635047913</v>
       </c>
     </row>
     <row r="8">
@@ -590,7 +590,7 @@
         <v>0.2197002012579308</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1981226354837418</v>
+        <v>0.1910901218652725</v>
       </c>
     </row>
     <row r="9">
@@ -609,7 +609,7 @@
         <v>0.3821838585822958</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3989981710910797</v>
+        <v>0.2398589551448822</v>
       </c>
     </row>
     <row r="10">
@@ -628,7 +628,7 @@
         <v>0.5078522717367344</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2829685211181641</v>
+        <v>0.2997565567493439</v>
       </c>
     </row>
     <row r="11">
@@ -647,7 +647,7 @@
         <v>0.532087093917524</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3128669559955597</v>
+        <v>0.3461123704910278</v>
       </c>
     </row>
     <row r="12">
@@ -666,7 +666,7 @@
         <v>0.5890553171549628</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3899155855178833</v>
+        <v>0.3976642191410065</v>
       </c>
     </row>
     <row r="13">
@@ -685,7 +685,7 @@
         <v>0.6717420392927915</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4201388955116272</v>
+        <v>0.3460845947265625</v>
       </c>
     </row>
     <row r="14">
@@ -704,7 +704,7 @@
         <v>0.3405811454798062</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4892378449440002</v>
+        <v>0.2002029418945312</v>
       </c>
     </row>
     <row r="15">
@@ -723,7 +723,7 @@
         <v>0.6085114210329622</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4352708160877228</v>
+        <v>0.3391251564025879</v>
       </c>
     </row>
     <row r="16">
@@ -742,7 +742,7 @@
         <v>0.5695969435725253</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4048510193824768</v>
+        <v>0.3056843280792236</v>
       </c>
     </row>
     <row r="17">
@@ -761,7 +761,7 @@
         <v>0.4108766264549114</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3685481548309326</v>
+        <v>0.2577455043792725</v>
       </c>
     </row>
     <row r="18">
@@ -780,7 +780,7 @@
         <v>0.5539285091427796</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4081117212772369</v>
+        <v>0.3175245523452759</v>
       </c>
     </row>
     <row r="19">
@@ -799,7 +799,7 @@
         <v>0.5459438871344521</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2867115437984467</v>
+        <v>0.3040043413639069</v>
       </c>
     </row>
     <row r="20">
@@ -818,7 +818,7 @@
         <v>0.7066600746344167</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3832661211490631</v>
+        <v>0.4177926182746887</v>
       </c>
     </row>
     <row r="21">
@@ -837,7 +837,7 @@
         <v>0.4385378859241147</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3734669983386993</v>
+        <v>0.2327111065387726</v>
       </c>
     </row>
     <row r="22">
@@ -856,7 +856,7 @@
         <v>0.8674903038936619</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4816844463348389</v>
+        <v>0.4784742295742035</v>
       </c>
     </row>
     <row r="23">
@@ -875,7 +875,7 @@
         <v>0.8945560214903108</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4197415709495544</v>
+        <v>0.5078809857368469</v>
       </c>
     </row>
     <row r="24">
@@ -894,7 +894,7 @@
         <v>0.5725550184541643</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3584442138671875</v>
+        <v>0.338417112827301</v>
       </c>
     </row>
     <row r="25">
@@ -913,7 +913,7 @@
         <v>0.4471852805991552</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4227321147918701</v>
+        <v>0.277927577495575</v>
       </c>
     </row>
     <row r="26">
@@ -932,7 +932,7 @@
         <v>0.34342427790938</v>
       </c>
       <c r="E26" t="n">
-        <v>0.263829231262207</v>
+        <v>0.2606276273727417</v>
       </c>
     </row>
     <row r="27">
@@ -951,7 +951,7 @@
         <v>0.4240418383866151</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2888121604919434</v>
+        <v>0.2650609612464905</v>
       </c>
     </row>
     <row r="28">
@@ -970,7 +970,7 @@
         <v>0.4522596650946362</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3095260262489319</v>
+        <v>0.3138247430324554</v>
       </c>
     </row>
     <row r="29">
@@ -989,7 +989,7 @@
         <v>0.6297627593167441</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4296737909317017</v>
+        <v>0.3338178992271423</v>
       </c>
     </row>
     <row r="30">
@@ -1008,7 +1008,7 @@
         <v>0.5283024670622899</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4202159643173218</v>
+        <v>0.3507561087608337</v>
       </c>
     </row>
     <row r="31">
@@ -1027,7 +1027,7 @@
         <v>0.4815338900163211</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3340487480163574</v>
+        <v>0.249545693397522</v>
       </c>
     </row>
     <row r="32">
@@ -1046,7 +1046,7 @@
         <v>0.4071213553944633</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4823575615882874</v>
+        <v>0.3068732619285583</v>
       </c>
     </row>
     <row r="33">
@@ -1065,7 +1065,7 @@
         <v>0.8406700331974928</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3467177748680115</v>
+        <v>0.4437211453914642</v>
       </c>
     </row>
     <row r="34">
@@ -1084,7 +1084,7 @@
         <v>0.7041773732732988</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3988374173641205</v>
+        <v>0.390238344669342</v>
       </c>
     </row>
     <row r="35">
@@ -1103,7 +1103,7 @@
         <v>0.6391503981322637</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3905721604824066</v>
+        <v>0.3921294808387756</v>
       </c>
     </row>
     <row r="36">
@@ -1122,7 +1122,7 @@
         <v>0.3806438523032271</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4176549911499023</v>
+        <v>0.2583001852035522</v>
       </c>
     </row>
     <row r="37">
@@ -1141,7 +1141,7 @@
         <v>0.643701813248332</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3931379020214081</v>
+        <v>0.3632948994636536</v>
       </c>
     </row>
     <row r="38">
@@ -1160,7 +1160,7 @@
         <v>0.5725362028759602</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3096957206726074</v>
+        <v>0.3662422895431519</v>
       </c>
     </row>
     <row r="39">
@@ -1179,7 +1179,7 @@
         <v>0.5376940996563513</v>
       </c>
       <c r="E39" t="n">
-        <v>0.368190735578537</v>
+        <v>0.3471355736255646</v>
       </c>
     </row>
     <row r="40">
@@ -1198,7 +1198,7 @@
         <v>0.5038707096362306</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3629042208194733</v>
+        <v>0.2998476922512054</v>
       </c>
     </row>
     <row r="41">
@@ -1217,7 +1217,7 @@
         <v>0.7644148734355436</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4268488585948944</v>
+        <v>0.4029545783996582</v>
       </c>
     </row>
     <row r="42">
@@ -1236,7 +1236,7 @@
         <v>0.2005450778655851</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2456227242946625</v>
+        <v>0.1935469955205917</v>
       </c>
     </row>
     <row r="43">
@@ -1255,7 +1255,7 @@
         <v>0.5003927376628529</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4668451547622681</v>
+        <v>0.3470231890678406</v>
       </c>
     </row>
     <row r="44">
@@ -1274,7 +1274,7 @@
         <v>0.5899791305515257</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3181836307048798</v>
+        <v>0.3984143733978271</v>
       </c>
     </row>
     <row r="45">
@@ -1293,7 +1293,7 @@
         <v>0.4089015870847384</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3965823650360107</v>
+        <v>0.2323698997497559</v>
       </c>
     </row>
     <row r="46">
@@ -1312,7 +1312,7 @@
         <v>0.2896455357733722</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5014473795890808</v>
+        <v>0.2603011131286621</v>
       </c>
     </row>
     <row r="47">
@@ -1331,7 +1331,7 @@
         <v>0.333304719284623</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2325086444616318</v>
+        <v>0.2333823591470718</v>
       </c>
     </row>
     <row r="48">
@@ -1350,7 +1350,7 @@
         <v>0.5160024065185888</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4145849049091339</v>
+        <v>0.2924927175045013</v>
       </c>
     </row>
     <row r="49">
@@ -1369,7 +1369,7 @@
         <v>0.4596630687509267</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3724363446235657</v>
+        <v>0.2526007294654846</v>
       </c>
     </row>
     <row r="50">
@@ -1388,7 +1388,7 @@
         <v>0.4085868760299292</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3627507984638214</v>
+        <v>0.2526963651180267</v>
       </c>
     </row>
     <row r="51">
@@ -1407,7 +1407,7 @@
         <v>0.8137514634091724</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4022236466407776</v>
+        <v>0.448175460100174</v>
       </c>
     </row>
     <row r="52">
@@ -1426,7 +1426,7 @@
         <v>0.4904422594384888</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2402229756116867</v>
+        <v>0.3161142468452454</v>
       </c>
     </row>
     <row r="53">
@@ -1445,7 +1445,7 @@
         <v>0.8003206252938104</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3631929457187653</v>
+        <v>0.4884340465068817</v>
       </c>
     </row>
     <row r="54">
@@ -1464,7 +1464,7 @@
         <v>0.5787334776234582</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3148026764392853</v>
+        <v>0.3766341209411621</v>
       </c>
     </row>
     <row r="55">
@@ -1483,7 +1483,7 @@
         <v>0.6234335561879363</v>
       </c>
       <c r="E55" t="n">
-        <v>0.4293551445007324</v>
+        <v>0.3622199892997742</v>
       </c>
     </row>
     <row r="56">
@@ -1502,7 +1502,7 @@
         <v>0.186764377897887</v>
       </c>
       <c r="E56" t="n">
-        <v>0.27241250872612</v>
+        <v>0.166445404291153</v>
       </c>
     </row>
     <row r="57">
@@ -1521,7 +1521,7 @@
         <v>0.5445282202999282</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4933944940567017</v>
+        <v>0.3542207479476929</v>
       </c>
     </row>
     <row r="58">
@@ -1540,7 +1540,7 @@
         <v>0.4592514831876472</v>
       </c>
       <c r="E58" t="n">
-        <v>0.6561784148216248</v>
+        <v>0.361298143863678</v>
       </c>
     </row>
     <row r="59">
@@ -1559,7 +1559,7 @@
         <v>0.3078086357472377</v>
       </c>
       <c r="E59" t="n">
-        <v>0.3350593447685242</v>
+        <v>0.2466129809617996</v>
       </c>
     </row>
     <row r="60">
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0.3100391626358032</v>
+        <v>0.1986992955207825</v>
       </c>
     </row>
     <row r="61">
@@ -1597,7 +1597,7 @@
         <v>0.8096109494943318</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4400167763233185</v>
+        <v>0.4010947942733765</v>
       </c>
     </row>
     <row r="62">
@@ -1616,7 +1616,7 @@
         <v>0.5738071917082077</v>
       </c>
       <c r="E62" t="n">
-        <v>0.3983228802680969</v>
+        <v>0.2983664870262146</v>
       </c>
     </row>
     <row r="63">
@@ -1635,7 +1635,7 @@
         <v>0.8731756409905234</v>
       </c>
       <c r="E63" t="n">
-        <v>0.4487341940402985</v>
+        <v>0.49176886677742</v>
       </c>
     </row>
     <row r="64">
@@ -1654,7 +1654,7 @@
         <v>0.4695497323174547</v>
       </c>
       <c r="E64" t="n">
-        <v>0.30240797996521</v>
+        <v>0.3084768652915955</v>
       </c>
     </row>
     <row r="65">
@@ -1673,7 +1673,7 @@
         <v>0.6068667258742793</v>
       </c>
       <c r="E65" t="n">
-        <v>0.3491632342338562</v>
+        <v>0.3630630970001221</v>
       </c>
     </row>
     <row r="66">
@@ -1692,7 +1692,7 @@
         <v>0.2434721805478675</v>
       </c>
       <c r="E66" t="n">
-        <v>0.3594244718551636</v>
+        <v>0.2256516218185425</v>
       </c>
     </row>
     <row r="67">
@@ -1711,7 +1711,7 @@
         <v>0.4114272944254174</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3230836987495422</v>
+        <v>0.2404624670743942</v>
       </c>
     </row>
     <row r="68">
@@ -1730,7 +1730,7 @@
         <v>0.5479266382031331</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3165478110313416</v>
+        <v>0.2867111563682556</v>
       </c>
     </row>
     <row r="69">
@@ -1749,7 +1749,7 @@
         <v>0.5477011793988809</v>
       </c>
       <c r="E69" t="n">
-        <v>0.4838224053382874</v>
+        <v>0.3496097922325134</v>
       </c>
     </row>
     <row r="70">
@@ -1768,7 +1768,7 @@
         <v>0.3082284957436617</v>
       </c>
       <c r="E70" t="n">
-        <v>0.3634368181228638</v>
+        <v>0.2216993272304535</v>
       </c>
     </row>
     <row r="71">
@@ -1787,7 +1787,7 @@
         <v>0.7038711963848128</v>
       </c>
       <c r="E71" t="n">
-        <v>0.3693427443504333</v>
+        <v>0.4699040055274963</v>
       </c>
     </row>
     <row r="72">
@@ -1806,7 +1806,7 @@
         <v>0.371488874654042</v>
       </c>
       <c r="E72" t="n">
-        <v>0.2836818099021912</v>
+        <v>0.2050384730100632</v>
       </c>
     </row>
     <row r="73">
@@ -1825,7 +1825,7 @@
         <v>0.4762348626730635</v>
       </c>
       <c r="E73" t="n">
-        <v>0.3165944516658783</v>
+        <v>0.2808520197868347</v>
       </c>
     </row>
     <row r="74">
@@ -1844,7 +1844,7 @@
         <v>0.6939883973878687</v>
       </c>
       <c r="E74" t="n">
-        <v>0.405279815196991</v>
+        <v>0.395131915807724</v>
       </c>
     </row>
     <row r="75">
@@ -1863,7 +1863,7 @@
         <v>0.449127131789536</v>
       </c>
       <c r="E75" t="n">
-        <v>0.2906521856784821</v>
+        <v>0.2575936317443848</v>
       </c>
     </row>
     <row r="76">
@@ -1882,7 +1882,7 @@
         <v>0.3719303008548852</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4206132590770721</v>
+        <v>0.241622731089592</v>
       </c>
     </row>
     <row r="77">
@@ -1901,7 +1901,7 @@
         <v>0.5872753902738808</v>
       </c>
       <c r="E77" t="n">
-        <v>0.4777728617191315</v>
+        <v>0.3196002840995789</v>
       </c>
     </row>
     <row r="78">
@@ -1920,7 +1920,7 @@
         <v>0.9301819164990726</v>
       </c>
       <c r="E78" t="n">
-        <v>0.4196963012218475</v>
+        <v>0.4719893336296082</v>
       </c>
     </row>
     <row r="79">
@@ -1939,7 +1939,7 @@
         <v>0.8883460463517403</v>
       </c>
       <c r="E79" t="n">
-        <v>0.4249959886074066</v>
+        <v>0.4812847375869751</v>
       </c>
     </row>
     <row r="80">
@@ -1958,7 +1958,7 @@
         <v>0.8202330231885704</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4481522738933563</v>
+        <v>0.4708866775035858</v>
       </c>
     </row>
     <row r="81">
@@ -1977,7 +1977,7 @@
         <v>0.3658223575711927</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5372742414474487</v>
+        <v>0.3855469226837158</v>
       </c>
     </row>
     <row r="82">
@@ -1996,7 +1996,7 @@
         <v>0.6392568663399482</v>
       </c>
       <c r="E82" t="n">
-        <v>0.4842504560947418</v>
+        <v>0.4110693633556366</v>
       </c>
     </row>
     <row r="83">
@@ -2015,7 +2015,7 @@
         <v>0.7362068195589295</v>
       </c>
       <c r="E83" t="n">
-        <v>0.394522488117218</v>
+        <v>0.4463639855384827</v>
       </c>
     </row>
     <row r="84">
@@ -2034,7 +2034,7 @@
         <v>0.2303442812301529</v>
       </c>
       <c r="E84" t="n">
-        <v>0.2895062267780304</v>
+        <v>0.211270198225975</v>
       </c>
     </row>
     <row r="85">
@@ -2053,7 +2053,7 @@
         <v>0.6188220064441875</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3234328627586365</v>
+        <v>0.3212018609046936</v>
       </c>
     </row>
     <row r="86">
@@ -2072,7 +2072,7 @@
         <v>0.2756885458031615</v>
       </c>
       <c r="E86" t="n">
-        <v>0.3446456789970398</v>
+        <v>0.1986942887306213</v>
       </c>
     </row>
     <row r="87">
@@ -2091,7 +2091,7 @@
         <v>0.5289969440122068</v>
       </c>
       <c r="E87" t="n">
-        <v>0.3669667840003967</v>
+        <v>0.319686084985733</v>
       </c>
     </row>
     <row r="88">
@@ -2110,7 +2110,7 @@
         <v>0.5595404770727759</v>
       </c>
       <c r="E88" t="n">
-        <v>0.382499635219574</v>
+        <v>0.3516578674316406</v>
       </c>
     </row>
     <row r="89">
@@ -2129,7 +2129,7 @@
         <v>0.3140643235168202</v>
       </c>
       <c r="E89" t="n">
-        <v>0.4464388489723206</v>
+        <v>0.2420628666877747</v>
       </c>
     </row>
     <row r="90">
@@ -2148,7 +2148,7 @@
         <v>0.2526676624648406</v>
       </c>
       <c r="E90" t="n">
-        <v>0.4964281320571899</v>
+        <v>0.2879408299922943</v>
       </c>
     </row>
     <row r="91">
@@ -2167,7 +2167,7 @@
         <v>0.4127381904675428</v>
       </c>
       <c r="E91" t="n">
-        <v>0.3522796034812927</v>
+        <v>0.2576844990253448</v>
       </c>
     </row>
     <row r="92">
@@ -2186,7 +2186,7 @@
         <v>0.3951342779447693</v>
       </c>
       <c r="E92" t="n">
-        <v>0.2305463850498199</v>
+        <v>0.2570831477642059</v>
       </c>
     </row>
     <row r="93">
@@ -2205,7 +2205,7 @@
         <v>0.4814090148225293</v>
       </c>
       <c r="E93" t="n">
-        <v>0.4735907316207886</v>
+        <v>0.3093459606170654</v>
       </c>
     </row>
     <row r="94">
@@ -2224,7 +2224,7 @@
         <v>0.5793623800096949</v>
       </c>
       <c r="E94" t="n">
-        <v>0.3403803408145905</v>
+        <v>0.3109601140022278</v>
       </c>
     </row>
     <row r="95">
@@ -2243,7 +2243,7 @@
         <v>0.3417202854593807</v>
       </c>
       <c r="E95" t="n">
-        <v>0.4784649610519409</v>
+        <v>0.229651153087616</v>
       </c>
     </row>
     <row r="96">
@@ -2262,7 +2262,7 @@
         <v>0.4094408923469865</v>
       </c>
       <c r="E96" t="n">
-        <v>0.3666864037513733</v>
+        <v>0.2428496479988098</v>
       </c>
     </row>
     <row r="97">
@@ -2281,7 +2281,7 @@
         <v>0.6004866854835119</v>
       </c>
       <c r="E97" t="n">
-        <v>0.4896670281887054</v>
+        <v>0.3591760396957397</v>
       </c>
     </row>
     <row r="98">
@@ -2300,7 +2300,7 @@
         <v>0.453425349718437</v>
       </c>
       <c r="E98" t="n">
-        <v>0.3098426461219788</v>
+        <v>0.3227367997169495</v>
       </c>
     </row>
     <row r="99">
@@ -2319,7 +2319,7 @@
         <v>0.6777444604059943</v>
       </c>
       <c r="E99" t="n">
-        <v>0.5253282189369202</v>
+        <v>0.3716527819633484</v>
       </c>
     </row>
     <row r="100">
@@ -2338,7 +2338,7 @@
         <v>0.8167969978866652</v>
       </c>
       <c r="E100" t="n">
-        <v>0.4104952216148376</v>
+        <v>0.4744416773319244</v>
       </c>
     </row>
     <row r="101">
@@ -2357,7 +2357,7 @@
         <v>0.4517791695442719</v>
       </c>
       <c r="E101" t="n">
-        <v>0.3300824463367462</v>
+        <v>0.2189347296953201</v>
       </c>
     </row>
     <row r="102">
@@ -2376,7 +2376,7 @@
         <v>0.5668168483183852</v>
       </c>
       <c r="E102" t="n">
-        <v>0.4282324016094208</v>
+        <v>0.3014898896217346</v>
       </c>
     </row>
     <row r="103">
@@ -2395,7 +2395,7 @@
         <v>0.6175863780762662</v>
       </c>
       <c r="E103" t="n">
-        <v>0.3996620178222656</v>
+        <v>0.2885795533657074</v>
       </c>
     </row>
     <row r="104">
@@ -2414,7 +2414,7 @@
         <v>0.3522266313967708</v>
       </c>
       <c r="E104" t="n">
-        <v>0.3648944497108459</v>
+        <v>0.2331543117761612</v>
       </c>
     </row>
     <row r="105">
@@ -2433,7 +2433,7 @@
         <v>0.6159886993189322</v>
       </c>
       <c r="E105" t="n">
-        <v>0.4461191594600677</v>
+        <v>0.2741120755672455</v>
       </c>
     </row>
     <row r="106">
@@ -2452,7 +2452,7 @@
         <v>0.5821438587348391</v>
       </c>
       <c r="E106" t="n">
-        <v>0.4908168911933899</v>
+        <v>0.395224928855896</v>
       </c>
     </row>
     <row r="107">
@@ -2471,7 +2471,7 @@
         <v>0.7152093964646979</v>
       </c>
       <c r="E107" t="n">
-        <v>0.3370438516139984</v>
+        <v>0.4524984061717987</v>
       </c>
     </row>
     <row r="108">
@@ -2490,7 +2490,7 @@
         <v>0.7156048294914429</v>
       </c>
       <c r="E108" t="n">
-        <v>0.3189630806446075</v>
+        <v>0.4334989786148071</v>
       </c>
     </row>
     <row r="109">
@@ -2509,7 +2509,7 @@
         <v>0.6024929436827366</v>
       </c>
       <c r="E109" t="n">
-        <v>0.3065722584724426</v>
+        <v>0.3817744851112366</v>
       </c>
     </row>
     <row r="110">
@@ -2528,7 +2528,7 @@
         <v>0.7442742806809305</v>
       </c>
       <c r="E110" t="n">
-        <v>0.3066080808639526</v>
+        <v>0.4458110332489014</v>
       </c>
     </row>
     <row r="111">
@@ -2547,7 +2547,7 @@
         <v>0.326528740540571</v>
       </c>
       <c r="E111" t="n">
-        <v>0.3607300519943237</v>
+        <v>0.265632301568985</v>
       </c>
     </row>
     <row r="112">
@@ -2566,7 +2566,7 @@
         <v>0.3305320236080006</v>
       </c>
       <c r="E112" t="n">
-        <v>0.5089449286460876</v>
+        <v>0.2824503183364868</v>
       </c>
     </row>
     <row r="113">
@@ -2585,7 +2585,7 @@
         <v>0.6557340559483333</v>
       </c>
       <c r="E113" t="n">
-        <v>0.3386413156986237</v>
+        <v>0.3647280633449554</v>
       </c>
     </row>
     <row r="114">
@@ -2604,7 +2604,7 @@
         <v>0.3110496799551626</v>
       </c>
       <c r="E114" t="n">
-        <v>0.2359439432621002</v>
+        <v>0.1962341070175171</v>
       </c>
     </row>
     <row r="115">
@@ -2623,7 +2623,7 @@
         <v>0.8101871045343427</v>
       </c>
       <c r="E115" t="n">
-        <v>0.4533505737781525</v>
+        <v>0.4717699289321899</v>
       </c>
     </row>
     <row r="116">
@@ -2642,7 +2642,7 @@
         <v>0.5934770141581799</v>
       </c>
       <c r="E116" t="n">
-        <v>0.3734950721263885</v>
+        <v>0.3513568639755249</v>
       </c>
     </row>
     <row r="117">
@@ -2661,7 +2661,7 @@
         <v>0.2076183463965128</v>
       </c>
       <c r="E117" t="n">
-        <v>0.2637119889259338</v>
+        <v>0.2094230353832245</v>
       </c>
     </row>
     <row r="118">
@@ -2680,7 +2680,7 @@
         <v>0.1579186337034669</v>
       </c>
       <c r="E118" t="n">
-        <v>0.4580274224281311</v>
+        <v>0.1732850670814514</v>
       </c>
     </row>
     <row r="119">
@@ -2699,7 +2699,7 @@
         <v>0.6516583977688162</v>
       </c>
       <c r="E119" t="n">
-        <v>0.368303507566452</v>
+        <v>0.4201074540615082</v>
       </c>
     </row>
     <row r="120">
@@ -2718,7 +2718,7 @@
         <v>0.5003805716847527</v>
       </c>
       <c r="E120" t="n">
-        <v>0.3259987235069275</v>
+        <v>0.3350562453269958</v>
       </c>
     </row>
     <row r="121">
@@ -2737,7 +2737,7 @@
         <v>0.3852531313044293</v>
       </c>
       <c r="E121" t="n">
-        <v>0.2617943584918976</v>
+        <v>0.30369633436203</v>
       </c>
     </row>
     <row r="122">
@@ -2756,7 +2756,7 @@
         <v>0.7363774751900829</v>
       </c>
       <c r="E122" t="n">
-        <v>0.3732270002365112</v>
+        <v>0.3559675514698029</v>
       </c>
     </row>
     <row r="123">
@@ -2775,7 +2775,7 @@
         <v>0.3481182439465114</v>
       </c>
       <c r="E123" t="n">
-        <v>0.3428545296192169</v>
+        <v>0.1771685928106308</v>
       </c>
     </row>
     <row r="124">
@@ -2794,7 +2794,7 @@
         <v>0.2329683492779049</v>
       </c>
       <c r="E124" t="n">
-        <v>0.2769818007946014</v>
+        <v>0.1719671785831451</v>
       </c>
     </row>
     <row r="125">
@@ -2813,7 +2813,7 @@
         <v>0.4668998612469218</v>
       </c>
       <c r="E125" t="n">
-        <v>0.322685718536377</v>
+        <v>0.2715562880039215</v>
       </c>
     </row>
     <row r="126">
@@ -2832,7 +2832,7 @@
         <v>0.5865494033047405</v>
       </c>
       <c r="E126" t="n">
-        <v>0.37175652384758</v>
+        <v>0.3075116276741028</v>
       </c>
     </row>
     <row r="127">
@@ -2851,7 +2851,7 @@
         <v>0.5463434594426863</v>
       </c>
       <c r="E127" t="n">
-        <v>0.2996761798858643</v>
+        <v>0.4033827185630798</v>
       </c>
     </row>
     <row r="128">
@@ -2870,7 +2870,7 @@
         <v>0.4072987375182022</v>
       </c>
       <c r="E128" t="n">
-        <v>0.3665753901004791</v>
+        <v>0.2985689640045166</v>
       </c>
     </row>
     <row r="129">
@@ -2889,7 +2889,7 @@
         <v>0.8172234851210609</v>
       </c>
       <c r="E129" t="n">
-        <v>0.4714722633361816</v>
+        <v>0.4292969107627869</v>
       </c>
     </row>
     <row r="130">
@@ -2908,7 +2908,7 @@
         <v>0.2655126790533767</v>
       </c>
       <c r="E130" t="n">
-        <v>0.302157461643219</v>
+        <v>0.262748122215271</v>
       </c>
     </row>
     <row r="131">
@@ -2927,7 +2927,7 @@
         <v>1</v>
       </c>
       <c r="E131" t="n">
-        <v>0.4475076496601105</v>
+        <v>0.4863153398036957</v>
       </c>
     </row>
     <row r="132">
@@ -2946,7 +2946,7 @@
         <v>0.4561219958759843</v>
       </c>
       <c r="E132" t="n">
-        <v>0.4679469168186188</v>
+        <v>0.2904912829399109</v>
       </c>
     </row>
     <row r="133">
@@ -2965,7 +2965,7 @@
         <v>0.6529596409868981</v>
       </c>
       <c r="E133" t="n">
-        <v>0.4600743353366852</v>
+        <v>0.3697324991226196</v>
       </c>
     </row>
     <row r="134">
@@ -2984,7 +2984,7 @@
         <v>0.7513501027688749</v>
       </c>
       <c r="E134" t="n">
-        <v>0.4278516173362732</v>
+        <v>0.4734005928039551</v>
       </c>
     </row>
     <row r="135">
@@ -3003,7 +3003,7 @@
         <v>0.4505662836508093</v>
       </c>
       <c r="E135" t="n">
-        <v>0.4271031320095062</v>
+        <v>0.319894552230835</v>
       </c>
     </row>
     <row r="136">
@@ -3022,7 +3022,7 @@
         <v>0.3716043921484325</v>
       </c>
       <c r="E136" t="n">
-        <v>0.4346279203891754</v>
+        <v>0.2593694031238556</v>
       </c>
     </row>
     <row r="137">
@@ -3041,7 +3041,7 @@
         <v>0.3602442582966465</v>
       </c>
       <c r="E137" t="n">
-        <v>0.2805741727352142</v>
+        <v>0.259196549654007</v>
       </c>
     </row>
     <row r="138">
@@ -3060,7 +3060,7 @@
         <v>0.3383342725218927</v>
       </c>
       <c r="E138" t="n">
-        <v>0.4058345854282379</v>
+        <v>0.2602798640727997</v>
       </c>
     </row>
     <row r="139">
@@ -3079,7 +3079,7 @@
         <v>0.5414278154421422</v>
       </c>
       <c r="E139" t="n">
-        <v>0.3605205416679382</v>
+        <v>0.3202254474163055</v>
       </c>
     </row>
     <row r="140">
@@ -3098,7 +3098,7 @@
         <v>0.5978038603527056</v>
       </c>
       <c r="E140" t="n">
-        <v>0.3607170283794403</v>
+        <v>0.3085875511169434</v>
       </c>
     </row>
     <row r="141">
@@ -3117,7 +3117,7 @@
         <v>0.7606450446375734</v>
       </c>
       <c r="E141" t="n">
-        <v>0.3971821665763855</v>
+        <v>0.4018742442131042</v>
       </c>
     </row>
     <row r="142">
@@ -3136,7 +3136,7 @@
         <v>0.3248788099659551</v>
       </c>
       <c r="E142" t="n">
-        <v>0.2971713542938232</v>
+        <v>0.2190110087394714</v>
       </c>
     </row>
     <row r="143">
@@ -3155,7 +3155,7 @@
         <v>0.6449254707683332</v>
       </c>
       <c r="E143" t="n">
-        <v>0.4267672896385193</v>
+        <v>0.3852537274360657</v>
       </c>
     </row>
     <row r="144">
@@ -3174,7 +3174,7 @@
         <v>0.2910065864195924</v>
       </c>
       <c r="E144" t="n">
-        <v>0.3873430490493774</v>
+        <v>0.2005975991487503</v>
       </c>
     </row>
     <row r="145">
@@ -3193,7 +3193,7 @@
         <v>0.7244609142174261</v>
       </c>
       <c r="E145" t="n">
-        <v>0.3903496563434601</v>
+        <v>0.4088215827941895</v>
       </c>
     </row>
     <row r="146">
@@ -3212,7 +3212,7 @@
         <v>0.6177515676508191</v>
       </c>
       <c r="E146" t="n">
-        <v>0.4558952450752258</v>
+        <v>0.331175833940506</v>
       </c>
     </row>
     <row r="147">
@@ -3231,7 +3231,7 @@
         <v>0.4409377566944086</v>
       </c>
       <c r="E147" t="n">
-        <v>0.4509144425392151</v>
+        <v>0.2745212912559509</v>
       </c>
     </row>
     <row r="148">
@@ -3250,7 +3250,7 @@
         <v>0.6822471714911353</v>
       </c>
       <c r="E148" t="n">
-        <v>0.3636813163757324</v>
+        <v>0.4585016369819641</v>
       </c>
     </row>
     <row r="149">
@@ -3269,7 +3269,7 @@
         <v>0.229207907078953</v>
       </c>
       <c r="E149" t="n">
-        <v>0.3543416261672974</v>
+        <v>0.2024387568235397</v>
       </c>
     </row>
     <row r="150">
@@ -3288,7 +3288,7 @@
         <v>0.4447499953820174</v>
       </c>
       <c r="E150" t="n">
-        <v>0.3307032883167267</v>
+        <v>0.2437346130609512</v>
       </c>
     </row>
     <row r="151">
@@ -3307,7 +3307,7 @@
         <v>0.6523426750322254</v>
       </c>
       <c r="E151" t="n">
-        <v>0.3726504743099213</v>
+        <v>0.399916410446167</v>
       </c>
     </row>
     <row r="152">
@@ -3326,7 +3326,7 @@
         <v>0.2425283543276618</v>
       </c>
       <c r="E152" t="n">
-        <v>0.2745541334152222</v>
+        <v>0.2036210298538208</v>
       </c>
     </row>
     <row r="153">
@@ -3345,7 +3345,7 @@
         <v>0.8305519596701881</v>
       </c>
       <c r="E153" t="n">
-        <v>0.5477388501167297</v>
+        <v>0.4505714774131775</v>
       </c>
     </row>
     <row r="154">
@@ -3364,7 +3364,7 @@
         <v>0.6398363875567967</v>
       </c>
       <c r="E154" t="n">
-        <v>0.3414418995380402</v>
+        <v>0.3472954332828522</v>
       </c>
     </row>
     <row r="155">
@@ -3383,7 +3383,7 @@
         <v>0.6951128286309145</v>
       </c>
       <c r="E155" t="n">
-        <v>0.3405948877334595</v>
+        <v>0.4962145090103149</v>
       </c>
     </row>
     <row r="156">
@@ -3402,7 +3402,7 @@
         <v>0.5222646030184412</v>
       </c>
       <c r="E156" t="n">
-        <v>0.4420493245124817</v>
+        <v>0.2666210830211639</v>
       </c>
     </row>
     <row r="157">
@@ -3421,7 +3421,7 @@
         <v>0.2279199221234276</v>
       </c>
       <c r="E157" t="n">
-        <v>0.4101766049861908</v>
+        <v>0.1971094608306885</v>
       </c>
     </row>
     <row r="158">
@@ -3440,7 +3440,7 @@
         <v>0.6305093830814368</v>
       </c>
       <c r="E158" t="n">
-        <v>0.3505046963691711</v>
+        <v>0.3588143289089203</v>
       </c>
     </row>
     <row r="159">
@@ -3459,7 +3459,7 @@
         <v>0.7553070853748489</v>
       </c>
       <c r="E159" t="n">
-        <v>0.3846090137958527</v>
+        <v>0.4608376026153564</v>
       </c>
     </row>
     <row r="160">
@@ -3478,7 +3478,7 @@
         <v>0.6472029960903064</v>
       </c>
       <c r="E160" t="n">
-        <v>0.4996880888938904</v>
+        <v>0.3582215011119843</v>
       </c>
     </row>
     <row r="161">
@@ -3497,7 +3497,7 @@
         <v>0.2258732884862843</v>
       </c>
       <c r="E161" t="n">
-        <v>0.3142108917236328</v>
+        <v>0.1684451997280121</v>
       </c>
     </row>
     <row r="162">
@@ -3516,7 +3516,7 @@
         <v>0.5055944330192897</v>
       </c>
       <c r="E162" t="n">
-        <v>0.3828082084655762</v>
+        <v>0.3139708340167999</v>
       </c>
     </row>
     <row r="163">
@@ -3535,7 +3535,7 @@
         <v>0.6422702459482565</v>
       </c>
       <c r="E163" t="n">
-        <v>0.4479875862598419</v>
+        <v>0.4045563340187073</v>
       </c>
     </row>
     <row r="164">
@@ -3554,7 +3554,7 @@
         <v>0.5382414352954227</v>
       </c>
       <c r="E164" t="n">
-        <v>0.4734975695610046</v>
+        <v>0.3200055658817291</v>
       </c>
     </row>
     <row r="165">
@@ -3573,7 +3573,7 @@
         <v>0.5649658988436861</v>
       </c>
       <c r="E165" t="n">
-        <v>0.3600292801856995</v>
+        <v>0.3456245064735413</v>
       </c>
     </row>
     <row r="166">
@@ -3592,7 +3592,7 @@
         <v>0.5303799613737538</v>
       </c>
       <c r="E166" t="n">
-        <v>0.4801726341247559</v>
+        <v>0.3035330772399902</v>
       </c>
     </row>
     <row r="167">
@@ -3611,7 +3611,7 @@
         <v>0.5533608565303745</v>
       </c>
       <c r="E167" t="n">
-        <v>0.4322681725025177</v>
+        <v>0.349120020866394</v>
       </c>
     </row>
     <row r="168">
@@ -3630,7 +3630,7 @@
         <v>0.4531888718182911</v>
       </c>
       <c r="E168" t="n">
-        <v>0.3327767252922058</v>
+        <v>0.2899675667285919</v>
       </c>
     </row>
     <row r="169">
@@ -3649,7 +3649,7 @@
         <v>0.401848969295322</v>
       </c>
       <c r="E169" t="n">
-        <v>0.2784067094326019</v>
+        <v>0.2410541921854019</v>
       </c>
     </row>
     <row r="170">
@@ -3668,7 +3668,7 @@
         <v>0.4417667562438528</v>
       </c>
       <c r="E170" t="n">
-        <v>0.5053969621658325</v>
+        <v>0.2490995526313782</v>
       </c>
     </row>
     <row r="171">
@@ -3687,7 +3687,7 @@
         <v>0.4393118911669173</v>
       </c>
       <c r="E171" t="n">
-        <v>0.3886117339134216</v>
+        <v>0.2946138381958008</v>
       </c>
     </row>
     <row r="172">
@@ -3706,7 +3706,7 @@
         <v>0.4234953893952308</v>
       </c>
       <c r="E172" t="n">
-        <v>0.3678858876228333</v>
+        <v>0.3321286737918854</v>
       </c>
     </row>
     <row r="173">
@@ -3725,7 +3725,7 @@
         <v>0.612644032798873</v>
       </c>
       <c r="E173" t="n">
-        <v>0.331304669380188</v>
+        <v>0.4179776310920715</v>
       </c>
     </row>
     <row r="174">
@@ -3744,7 +3744,7 @@
         <v>0.7158558277887077</v>
       </c>
       <c r="E174" t="n">
-        <v>0.3595305979251862</v>
+        <v>0.3796415030956268</v>
       </c>
     </row>
     <row r="175">
@@ -3763,7 +3763,7 @@
         <v>0.3603752761038813</v>
       </c>
       <c r="E175" t="n">
-        <v>0.3259125649929047</v>
+        <v>0.3054040670394897</v>
       </c>
     </row>
     <row r="176">
@@ -3782,7 +3782,7 @@
         <v>0.4191622526074782</v>
       </c>
       <c r="E176" t="n">
-        <v>0.3813636302947998</v>
+        <v>0.2627924978733063</v>
       </c>
     </row>
     <row r="177">
@@ -3801,7 +3801,7 @@
         <v>0.5051903811501658</v>
       </c>
       <c r="E177" t="n">
-        <v>0.572335422039032</v>
+        <v>0.2740492820739746</v>
       </c>
     </row>
     <row r="178">
@@ -3820,7 +3820,7 @@
         <v>0.5505311948166947</v>
       </c>
       <c r="E178" t="n">
-        <v>0.3099215626716614</v>
+        <v>0.3379248678684235</v>
       </c>
     </row>
     <row r="179">
@@ -3839,7 +3839,7 @@
         <v>0.393052318371826</v>
       </c>
       <c r="E179" t="n">
-        <v>0.3699355125427246</v>
+        <v>0.2718541026115417</v>
       </c>
     </row>
     <row r="180">
@@ -3858,7 +3858,7 @@
         <v>0.574582470847295</v>
       </c>
       <c r="E180" t="n">
-        <v>0.4243488609790802</v>
+        <v>0.3202790319919586</v>
       </c>
     </row>
     <row r="181">
@@ -3877,7 +3877,7 @@
         <v>0.7543874769813708</v>
       </c>
       <c r="E181" t="n">
-        <v>0.4059304296970367</v>
+        <v>0.4198689460754395</v>
       </c>
     </row>
     <row r="182">
@@ -3896,7 +3896,7 @@
         <v>0.312601707276444</v>
       </c>
       <c r="E182" t="n">
-        <v>0.3774996101856232</v>
+        <v>0.2349995523691177</v>
       </c>
     </row>
     <row r="183">
@@ -3915,7 +3915,7 @@
         <v>0.5140489288122608</v>
       </c>
       <c r="E183" t="n">
-        <v>0.3333151638507843</v>
+        <v>0.2942069470882416</v>
       </c>
     </row>
     <row r="184">
@@ -3934,7 +3934,7 @@
         <v>0.6237623318494331</v>
       </c>
       <c r="E184" t="n">
-        <v>0.3242374956607819</v>
+        <v>0.4012328386306763</v>
       </c>
     </row>
     <row r="185">
@@ -3953,7 +3953,7 @@
         <v>0.7854766509746001</v>
       </c>
       <c r="E185" t="n">
-        <v>0.389291524887085</v>
+        <v>0.4430077075958252</v>
       </c>
     </row>
     <row r="186">
@@ -3972,7 +3972,7 @@
         <v>0.2052686182343323</v>
       </c>
       <c r="E186" t="n">
-        <v>0.2695153951644897</v>
+        <v>0.1685348451137543</v>
       </c>
     </row>
     <row r="187">
@@ -3991,7 +3991,7 @@
         <v>0.4651482820979406</v>
       </c>
       <c r="E187" t="n">
-        <v>0.2965600192546844</v>
+        <v>0.3074085712432861</v>
       </c>
     </row>
     <row r="188">
@@ -4010,7 +4010,7 @@
         <v>0.6162745222965682</v>
       </c>
       <c r="E188" t="n">
-        <v>0.3403877913951874</v>
+        <v>0.4364646971225739</v>
       </c>
     </row>
     <row r="189">
@@ -4029,7 +4029,7 @@
         <v>0.5397773290067381</v>
       </c>
       <c r="E189" t="n">
-        <v>0.3076494634151459</v>
+        <v>0.3812335133552551</v>
       </c>
     </row>
     <row r="190">
@@ -4048,7 +4048,7 @@
         <v>0.4897300470567975</v>
       </c>
       <c r="E190" t="n">
-        <v>0.4413090646266937</v>
+        <v>0.3536723852157593</v>
       </c>
     </row>
     <row r="191">
@@ -4067,7 +4067,7 @@
         <v>0.6569320533147465</v>
       </c>
       <c r="E191" t="n">
-        <v>0.4276572465896606</v>
+        <v>0.3236981332302094</v>
       </c>
     </row>
     <row r="192">
@@ -4086,7 +4086,7 @@
         <v>0.5879092420299313</v>
       </c>
       <c r="E192" t="n">
-        <v>0.2927473187446594</v>
+        <v>0.3068799674510956</v>
       </c>
     </row>
     <row r="193">
@@ -4105,7 +4105,7 @@
         <v>0.6467239737471064</v>
       </c>
       <c r="E193" t="n">
-        <v>0.4025132954120636</v>
+        <v>0.3230079412460327</v>
       </c>
     </row>
     <row r="194">
@@ -4124,7 +4124,7 @@
         <v>0.3413952725234781</v>
       </c>
       <c r="E194" t="n">
-        <v>0.2287614047527313</v>
+        <v>0.2815335392951965</v>
       </c>
     </row>
     <row r="195">
@@ -4143,7 +4143,7 @@
         <v>0.7381181548437215</v>
       </c>
       <c r="E195" t="n">
-        <v>0.390975296497345</v>
+        <v>0.4344366192817688</v>
       </c>
     </row>
     <row r="196">
@@ -4162,7 +4162,7 @@
         <v>0.5887458521465457</v>
       </c>
       <c r="E196" t="n">
-        <v>0.3836422264575958</v>
+        <v>0.2930181324481964</v>
       </c>
     </row>
     <row r="197">
@@ -4181,7 +4181,7 @@
         <v>0.6326483208753498</v>
       </c>
       <c r="E197" t="n">
-        <v>0.409216582775116</v>
+        <v>0.2803178429603577</v>
       </c>
     </row>
     <row r="198">
@@ -4200,7 +4200,7 @@
         <v>0.6789825665000031</v>
       </c>
       <c r="E198" t="n">
-        <v>0.3891631066799164</v>
+        <v>0.4054732918739319</v>
       </c>
     </row>
     <row r="199">
@@ -4219,7 +4219,7 @@
         <v>0.5594678183516649</v>
       </c>
       <c r="E199" t="n">
-        <v>0.345697283744812</v>
+        <v>0.2898629903793335</v>
       </c>
     </row>
     <row r="200">
@@ -4238,7 +4238,7 @@
         <v>0.4366450205489274</v>
       </c>
       <c r="E200" t="n">
-        <v>0.4453403651714325</v>
+        <v>0.2926265001296997</v>
       </c>
     </row>
     <row r="201">
@@ -4257,7 +4257,7 @@
         <v>0.3705161228666759</v>
       </c>
       <c r="E201" t="n">
-        <v>0.4243420362472534</v>
+        <v>0.2397582978010178</v>
       </c>
     </row>
     <row r="202">
@@ -4276,7 +4276,7 @@
         <v>0.6371207124728865</v>
       </c>
       <c r="E202" t="n">
-        <v>0.4336207211017609</v>
+        <v>0.4162944853305817</v>
       </c>
     </row>
     <row r="203">
@@ -4295,7 +4295,7 @@
         <v>0.4631410104767616</v>
       </c>
       <c r="E203" t="n">
-        <v>0.4952230453491211</v>
+        <v>0.3336998224258423</v>
       </c>
     </row>
     <row r="204">
@@ -4314,7 +4314,7 @@
         <v>0.4886493512147775</v>
       </c>
       <c r="E204" t="n">
-        <v>0.3614612519741058</v>
+        <v>0.3342572748661041</v>
       </c>
     </row>
     <row r="205">
@@ -4333,7 +4333,7 @@
         <v>0.4188489226799816</v>
       </c>
       <c r="E205" t="n">
-        <v>0.4850036203861237</v>
+        <v>0.2524551749229431</v>
       </c>
     </row>
     <row r="206">
@@ -4352,7 +4352,7 @@
         <v>0.6922659580528661</v>
       </c>
       <c r="E206" t="n">
-        <v>0.4183411002159119</v>
+        <v>0.373640239238739</v>
       </c>
     </row>
     <row r="207">
@@ -4371,7 +4371,7 @@
         <v>0.5198235067264689</v>
       </c>
       <c r="E207" t="n">
-        <v>0.4064033329486847</v>
+        <v>0.2816038727760315</v>
       </c>
     </row>
     <row r="208">
@@ -4390,7 +4390,7 @@
         <v>0.1787363632444668</v>
       </c>
       <c r="E208" t="n">
-        <v>0.3881812691688538</v>
+        <v>0.1570239216089249</v>
       </c>
     </row>
     <row r="209">
@@ -4409,7 +4409,7 @@
         <v>0.9479314522908466</v>
       </c>
       <c r="E209" t="n">
-        <v>0.4166781008243561</v>
+        <v>0.5001085996627808</v>
       </c>
     </row>
     <row r="210">
@@ -4428,7 +4428,7 @@
         <v>0.6128070595014323</v>
       </c>
       <c r="E210" t="n">
-        <v>0.4719864726066589</v>
+        <v>0.3890681266784668</v>
       </c>
     </row>
     <row r="211">
@@ -4447,7 +4447,7 @@
         <v>0.5380828192106912</v>
       </c>
       <c r="E211" t="n">
-        <v>0.4284951388835907</v>
+        <v>0.3430821895599365</v>
       </c>
     </row>
     <row r="212">
@@ -4466,7 +4466,7 @@
         <v>0.7870022409526501</v>
       </c>
       <c r="E212" t="n">
-        <v>0.3680971562862396</v>
+        <v>0.5110015869140625</v>
       </c>
     </row>
     <row r="213">
@@ -4485,7 +4485,7 @@
         <v>0.4579198743362359</v>
       </c>
       <c r="E213" t="n">
-        <v>0.4276140034198761</v>
+        <v>0.3002223670482635</v>
       </c>
     </row>
     <row r="214">
@@ -4504,7 +4504,7 @@
         <v>0.4867562538305085</v>
       </c>
       <c r="E214" t="n">
-        <v>0.2878839671611786</v>
+        <v>0.2910612523555756</v>
       </c>
     </row>
     <row r="215">
@@ -4523,7 +4523,7 @@
         <v>0.5693761428778963</v>
       </c>
       <c r="E215" t="n">
-        <v>0.426360011100769</v>
+        <v>0.3141308128833771</v>
       </c>
     </row>
     <row r="216">
@@ -4542,7 +4542,7 @@
         <v>0.3386943968433396</v>
       </c>
       <c r="E216" t="n">
-        <v>0.459390789270401</v>
+        <v>0.2545609772205353</v>
       </c>
     </row>
     <row r="217">
@@ -4561,7 +4561,7 @@
         <v>0.3623159110575627</v>
       </c>
       <c r="E217" t="n">
-        <v>0.3301896452903748</v>
+        <v>0.2010528743267059</v>
       </c>
     </row>
     <row r="218">
@@ -4580,7 +4580,7 @@
         <v>0.7147446554601942</v>
       </c>
       <c r="E218" t="n">
-        <v>0.3672510981559753</v>
+        <v>0.395578920841217</v>
       </c>
     </row>
     <row r="219">
@@ -4599,7 +4599,7 @@
         <v>0.5045169397977036</v>
       </c>
       <c r="E219" t="n">
-        <v>0.3107678890228271</v>
+        <v>0.3067723214626312</v>
       </c>
     </row>
     <row r="220">
@@ -4618,7 +4618,7 @@
         <v>0.1401402364386536</v>
       </c>
       <c r="E220" t="n">
-        <v>0.2571519017219543</v>
+        <v>0.1494736969470978</v>
       </c>
     </row>
     <row r="221">
@@ -4637,7 +4637,7 @@
         <v>0.6130104518843715</v>
       </c>
       <c r="E221" t="n">
-        <v>0.3298741281032562</v>
+        <v>0.3440666198730469</v>
       </c>
     </row>
     <row r="222">
@@ -4656,7 +4656,7 @@
         <v>0.5229919304689966</v>
       </c>
       <c r="E222" t="n">
-        <v>0.3446082472801208</v>
+        <v>0.268484354019165</v>
       </c>
     </row>
     <row r="223">
@@ -4675,7 +4675,7 @@
         <v>0.6261057321237892</v>
       </c>
       <c r="E223" t="n">
-        <v>0.3152153193950653</v>
+        <v>0.3019956946372986</v>
       </c>
     </row>
     <row r="224">
@@ -4694,7 +4694,7 @@
         <v>0.4499289681983143</v>
       </c>
       <c r="E224" t="n">
-        <v>0.3696244657039642</v>
+        <v>0.3039121627807617</v>
       </c>
     </row>
     <row r="225">
@@ -4713,7 +4713,7 @@
         <v>0.4176197606532118</v>
       </c>
       <c r="E225" t="n">
-        <v>0.4010137021541595</v>
+        <v>0.2809253931045532</v>
       </c>
     </row>
     <row r="226">
@@ -4732,7 +4732,7 @@
         <v>0.003784636967092414</v>
       </c>
       <c r="E226" t="n">
-        <v>0.3881142735481262</v>
+        <v>0.1229481622576714</v>
       </c>
     </row>
     <row r="227">
@@ -4751,7 +4751,7 @@
         <v>0.5641297874992711</v>
       </c>
       <c r="E227" t="n">
-        <v>0.390236109495163</v>
+        <v>0.3161119222640991</v>
       </c>
     </row>
     <row r="228">
@@ -4770,7 +4770,7 @@
         <v>0.4697231730986305</v>
       </c>
       <c r="E228" t="n">
-        <v>0.4486697614192963</v>
+        <v>0.35884889960289</v>
       </c>
     </row>
     <row r="229">
@@ -4789,7 +4789,7 @@
         <v>0.4206654514666731</v>
       </c>
       <c r="E229" t="n">
-        <v>0.5663093328475952</v>
+        <v>0.2903031408786774</v>
       </c>
     </row>
     <row r="230">
@@ -4808,7 +4808,7 @@
         <v>0.6319267109365763</v>
       </c>
       <c r="E230" t="n">
-        <v>0.3773413002490997</v>
+        <v>0.3915734887123108</v>
       </c>
     </row>
     <row r="231">
@@ -4827,7 +4827,7 @@
         <v>0.4340910697026596</v>
       </c>
       <c r="E231" t="n">
-        <v>0.4684573411941528</v>
+        <v>0.299590528011322</v>
       </c>
     </row>
     <row r="232">
@@ -4846,7 +4846,7 @@
         <v>0.5181294666663223</v>
       </c>
       <c r="E232" t="n">
-        <v>0.2933505177497864</v>
+        <v>0.3598813712596893</v>
       </c>
     </row>
     <row r="233">
@@ -4865,7 +4865,7 @@
         <v>0.2156160294230334</v>
       </c>
       <c r="E233" t="n">
-        <v>0.2337785214185715</v>
+        <v>0.1692713797092438</v>
       </c>
     </row>
     <row r="234">
@@ -4884,7 +4884,7 @@
         <v>0.03511884664886766</v>
       </c>
       <c r="E234" t="n">
-        <v>0.3958895206451416</v>
+        <v>0.1789565682411194</v>
       </c>
     </row>
     <row r="235">
@@ -4903,7 +4903,7 @@
         <v>0.5659839038897125</v>
       </c>
       <c r="E235" t="n">
-        <v>0.3770693242549896</v>
+        <v>0.3705294132232666</v>
       </c>
     </row>
     <row r="236">
@@ -4922,7 +4922,7 @@
         <v>0.5956898062261661</v>
       </c>
       <c r="E236" t="n">
-        <v>0.3857334852218628</v>
+        <v>0.36317378282547</v>
       </c>
     </row>
     <row r="237">
@@ -4941,7 +4941,7 @@
         <v>0.5918293674223544</v>
       </c>
       <c r="E237" t="n">
-        <v>0.3545975983142853</v>
+        <v>0.4150657057762146</v>
       </c>
     </row>
     <row r="238">
@@ -4960,7 +4960,7 @@
         <v>0.6315263602726591</v>
       </c>
       <c r="E238" t="n">
-        <v>0.4577820301055908</v>
+        <v>0.429671972990036</v>
       </c>
     </row>
     <row r="239">
@@ -4979,7 +4979,7 @@
         <v>0.7133990890183162</v>
       </c>
       <c r="E239" t="n">
-        <v>0.3585376143455505</v>
+        <v>0.4143775701522827</v>
       </c>
     </row>
     <row r="240">
@@ -4998,7 +4998,7 @@
         <v>0.2946893472988129</v>
       </c>
       <c r="E240" t="n">
-        <v>0.4081933200359344</v>
+        <v>0.2081917822360992</v>
       </c>
     </row>
     <row r="241">
@@ -5017,7 +5017,7 @@
         <v>0.8553801124976155</v>
       </c>
       <c r="E241" t="n">
-        <v>0.3364952802658081</v>
+        <v>0.5012528896331787</v>
       </c>
     </row>
   </sheetData>

--- a/code/abc.xlsx
+++ b/code/abc.xlsx
@@ -476,7 +476,7 @@
         <v>0.4718292894556023</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3584714531898499</v>
+        <v>0.3012802600860596</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0.2663785756567554</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2302574217319489</v>
+        <v>0.2504742443561554</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0.1126086634691826</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1627039313316345</v>
+        <v>0.1863798201084137</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0.7030151262713138</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3668118417263031</v>
+        <v>0.3905285596847534</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0.5562226589382566</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3432400822639465</v>
+        <v>0.3228508532047272</v>
       </c>
     </row>
     <row r="7">
@@ -571,7 +571,7 @@
         <v>0.5378783324099137</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3229804635047913</v>
+        <v>0.3111382722854614</v>
       </c>
     </row>
     <row r="8">
@@ -590,7 +590,7 @@
         <v>0.2197002012579308</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1910901218652725</v>
+        <v>0.2551641762256622</v>
       </c>
     </row>
     <row r="9">
@@ -609,7 +609,7 @@
         <v>0.3821838585822958</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2398589551448822</v>
+        <v>0.2685779631137848</v>
       </c>
     </row>
     <row r="10">
@@ -628,7 +628,7 @@
         <v>0.5078522717367344</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2997565567493439</v>
+        <v>0.3204825222492218</v>
       </c>
     </row>
     <row r="11">
@@ -647,7 +647,7 @@
         <v>0.532087093917524</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3461123704910278</v>
+        <v>0.3109931945800781</v>
       </c>
     </row>
     <row r="12">
@@ -666,7 +666,7 @@
         <v>0.5890553171549628</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3976642191410065</v>
+        <v>0.3784797787666321</v>
       </c>
     </row>
     <row r="13">
@@ -685,7 +685,7 @@
         <v>0.6717420392927915</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3460845947265625</v>
+        <v>0.3699770569801331</v>
       </c>
     </row>
     <row r="14">
@@ -704,7 +704,7 @@
         <v>0.3405811454798062</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2002029418945312</v>
+        <v>0.3129520118236542</v>
       </c>
     </row>
     <row r="15">
@@ -723,7 +723,7 @@
         <v>0.6085114210329622</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3391251564025879</v>
+        <v>0.3632672727108002</v>
       </c>
     </row>
     <row r="16">
@@ -742,7 +742,7 @@
         <v>0.5695969435725253</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3056843280792236</v>
+        <v>0.3646588027477264</v>
       </c>
     </row>
     <row r="17">
@@ -761,7 +761,7 @@
         <v>0.4108766264549114</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2577455043792725</v>
+        <v>0.3048602342605591</v>
       </c>
     </row>
     <row r="18">
@@ -780,7 +780,7 @@
         <v>0.5539285091427796</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3175245523452759</v>
+        <v>0.3880194127559662</v>
       </c>
     </row>
     <row r="19">
@@ -799,7 +799,7 @@
         <v>0.5459438871344521</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3040043413639069</v>
+        <v>0.3211524188518524</v>
       </c>
     </row>
     <row r="20">
@@ -818,7 +818,7 @@
         <v>0.7066600746344167</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4177926182746887</v>
+        <v>0.3834874629974365</v>
       </c>
     </row>
     <row r="21">
@@ -837,7 +837,7 @@
         <v>0.4385378859241147</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2327111065387726</v>
+        <v>0.2712445259094238</v>
       </c>
     </row>
     <row r="22">
@@ -856,7 +856,7 @@
         <v>0.8674903038936619</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4784742295742035</v>
+        <v>0.4034221768379211</v>
       </c>
     </row>
     <row r="23">
@@ -875,7 +875,7 @@
         <v>0.8945560214903108</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5078809857368469</v>
+        <v>0.4298654198646545</v>
       </c>
     </row>
     <row r="24">
@@ -894,7 +894,7 @@
         <v>0.5725550184541643</v>
       </c>
       <c r="E24" t="n">
-        <v>0.338417112827301</v>
+        <v>0.3426400721073151</v>
       </c>
     </row>
     <row r="25">
@@ -913,7 +913,7 @@
         <v>0.4471852805991552</v>
       </c>
       <c r="E25" t="n">
-        <v>0.277927577495575</v>
+        <v>0.3061585128307343</v>
       </c>
     </row>
     <row r="26">
@@ -932,7 +932,7 @@
         <v>0.34342427790938</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2606276273727417</v>
+        <v>0.2640393972396851</v>
       </c>
     </row>
     <row r="27">
@@ -951,7 +951,7 @@
         <v>0.4240418383866151</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2650609612464905</v>
+        <v>0.2992261350154877</v>
       </c>
     </row>
     <row r="28">
@@ -970,7 +970,7 @@
         <v>0.4522596650946362</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3138247430324554</v>
+        <v>0.3138464987277985</v>
       </c>
     </row>
     <row r="29">
@@ -989,7 +989,7 @@
         <v>0.6297627593167441</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3338178992271423</v>
+        <v>0.3570608198642731</v>
       </c>
     </row>
     <row r="30">
@@ -1008,7 +1008,7 @@
         <v>0.5283024670622899</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3507561087608337</v>
+        <v>0.3082205653190613</v>
       </c>
     </row>
     <row r="31">
@@ -1027,7 +1027,7 @@
         <v>0.4815338900163211</v>
       </c>
       <c r="E31" t="n">
-        <v>0.249545693397522</v>
+        <v>0.3258762359619141</v>
       </c>
     </row>
     <row r="32">
@@ -1046,7 +1046,7 @@
         <v>0.4071213553944633</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3068732619285583</v>
+        <v>0.3345139622688293</v>
       </c>
     </row>
     <row r="33">
@@ -1065,7 +1065,7 @@
         <v>0.8406700331974928</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4437211453914642</v>
+        <v>0.4164769053459167</v>
       </c>
     </row>
     <row r="34">
@@ -1084,7 +1084,7 @@
         <v>0.7041773732732988</v>
       </c>
       <c r="E34" t="n">
-        <v>0.390238344669342</v>
+        <v>0.3707099258899689</v>
       </c>
     </row>
     <row r="35">
@@ -1103,7 +1103,7 @@
         <v>0.6391503981322637</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3921294808387756</v>
+        <v>0.3463855087757111</v>
       </c>
     </row>
     <row r="36">
@@ -1122,7 +1122,7 @@
         <v>0.3806438523032271</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2583001852035522</v>
+        <v>0.328957736492157</v>
       </c>
     </row>
     <row r="37">
@@ -1141,7 +1141,7 @@
         <v>0.643701813248332</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3632948994636536</v>
+        <v>0.3520583808422089</v>
       </c>
     </row>
     <row r="38">
@@ -1160,7 +1160,7 @@
         <v>0.5725362028759602</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3662422895431519</v>
+        <v>0.3279017806053162</v>
       </c>
     </row>
     <row r="39">
@@ -1179,7 +1179,7 @@
         <v>0.5376940996563513</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3471355736255646</v>
+        <v>0.3202548325061798</v>
       </c>
     </row>
     <row r="40">
@@ -1198,7 +1198,7 @@
         <v>0.5038707096362306</v>
       </c>
       <c r="E40" t="n">
-        <v>0.2998476922512054</v>
+        <v>0.3067526817321777</v>
       </c>
     </row>
     <row r="41">
@@ -1217,7 +1217,7 @@
         <v>0.7644148734355436</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4029545783996582</v>
+        <v>0.4092472493648529</v>
       </c>
     </row>
     <row r="42">
@@ -1236,7 +1236,7 @@
         <v>0.2005450778655851</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1935469955205917</v>
+        <v>0.2415615767240524</v>
       </c>
     </row>
     <row r="43">
@@ -1255,7 +1255,7 @@
         <v>0.5003927376628529</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3470231890678406</v>
+        <v>0.3417916297912598</v>
       </c>
     </row>
     <row r="44">
@@ -1274,7 +1274,7 @@
         <v>0.5899791305515257</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3984143733978271</v>
+        <v>0.3634026944637299</v>
       </c>
     </row>
     <row r="45">
@@ -1293,7 +1293,7 @@
         <v>0.4089015870847384</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2323698997497559</v>
+        <v>0.2872469425201416</v>
       </c>
     </row>
     <row r="46">
@@ -1312,7 +1312,7 @@
         <v>0.2896455357733722</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2603011131286621</v>
+        <v>0.2798677980899811</v>
       </c>
     </row>
     <row r="47">
@@ -1331,7 +1331,7 @@
         <v>0.333304719284623</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2333823591470718</v>
+        <v>0.2518196403980255</v>
       </c>
     </row>
     <row r="48">
@@ -1350,7 +1350,7 @@
         <v>0.5160024065185888</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2924927175045013</v>
+        <v>0.3213017582893372</v>
       </c>
     </row>
     <row r="49">
@@ -1369,7 +1369,7 @@
         <v>0.4596630687509267</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2526007294654846</v>
+        <v>0.3031203746795654</v>
       </c>
     </row>
     <row r="50">
@@ -1388,7 +1388,7 @@
         <v>0.4085868760299292</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2526963651180267</v>
+        <v>0.3175734281539917</v>
       </c>
     </row>
     <row r="51">
@@ -1407,7 +1407,7 @@
         <v>0.8137514634091724</v>
       </c>
       <c r="E51" t="n">
-        <v>0.448175460100174</v>
+        <v>0.4460083246231079</v>
       </c>
     </row>
     <row r="52">
@@ -1426,7 +1426,7 @@
         <v>0.4904422594384888</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3161142468452454</v>
+        <v>0.3218487203121185</v>
       </c>
     </row>
     <row r="53">
@@ -1445,7 +1445,7 @@
         <v>0.8003206252938104</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4884340465068817</v>
+        <v>0.4763549864292145</v>
       </c>
     </row>
     <row r="54">
@@ -1464,7 +1464,7 @@
         <v>0.5787334776234582</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3766341209411621</v>
+        <v>0.3611535429954529</v>
       </c>
     </row>
     <row r="55">
@@ -1483,7 +1483,7 @@
         <v>0.6234335561879363</v>
       </c>
       <c r="E55" t="n">
-        <v>0.3622199892997742</v>
+        <v>0.3401508033275604</v>
       </c>
     </row>
     <row r="56">
@@ -1502,7 +1502,7 @@
         <v>0.186764377897887</v>
       </c>
       <c r="E56" t="n">
-        <v>0.166445404291153</v>
+        <v>0.2125186622142792</v>
       </c>
     </row>
     <row r="57">
@@ -1521,7 +1521,7 @@
         <v>0.5445282202999282</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3542207479476929</v>
+        <v>0.3209510147571564</v>
       </c>
     </row>
     <row r="58">
@@ -1540,7 +1540,7 @@
         <v>0.4592514831876472</v>
       </c>
       <c r="E58" t="n">
-        <v>0.361298143863678</v>
+        <v>0.3322112858295441</v>
       </c>
     </row>
     <row r="59">
@@ -1559,7 +1559,7 @@
         <v>0.3078086357472377</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2466129809617996</v>
+        <v>0.2785652577877045</v>
       </c>
     </row>
     <row r="60">
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1986992955207825</v>
+        <v>0.1711001396179199</v>
       </c>
     </row>
     <row r="61">
@@ -1597,7 +1597,7 @@
         <v>0.8096109494943318</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4010947942733765</v>
+        <v>0.4025696814060211</v>
       </c>
     </row>
     <row r="62">
@@ -1616,7 +1616,7 @@
         <v>0.5738071917082077</v>
       </c>
       <c r="E62" t="n">
-        <v>0.2983664870262146</v>
+        <v>0.3144574761390686</v>
       </c>
     </row>
     <row r="63">
@@ -1635,7 +1635,7 @@
         <v>0.8731756409905234</v>
       </c>
       <c r="E63" t="n">
-        <v>0.49176886677742</v>
+        <v>0.3866601884365082</v>
       </c>
     </row>
     <row r="64">
@@ -1654,7 +1654,7 @@
         <v>0.4695497323174547</v>
       </c>
       <c r="E64" t="n">
-        <v>0.3084768652915955</v>
+        <v>0.3324480652809143</v>
       </c>
     </row>
     <row r="65">
@@ -1673,7 +1673,7 @@
         <v>0.6068667258742793</v>
       </c>
       <c r="E65" t="n">
-        <v>0.3630630970001221</v>
+        <v>0.3545563220977783</v>
       </c>
     </row>
     <row r="66">
@@ -1692,7 +1692,7 @@
         <v>0.2434721805478675</v>
       </c>
       <c r="E66" t="n">
-        <v>0.2256516218185425</v>
+        <v>0.2969633340835571</v>
       </c>
     </row>
     <row r="67">
@@ -1711,7 +1711,7 @@
         <v>0.4114272944254174</v>
       </c>
       <c r="E67" t="n">
-        <v>0.2404624670743942</v>
+        <v>0.2980005741119385</v>
       </c>
     </row>
     <row r="68">
@@ -1730,7 +1730,7 @@
         <v>0.5479266382031331</v>
       </c>
       <c r="E68" t="n">
-        <v>0.2867111563682556</v>
+        <v>0.320691704750061</v>
       </c>
     </row>
     <row r="69">
@@ -1749,7 +1749,7 @@
         <v>0.5477011793988809</v>
       </c>
       <c r="E69" t="n">
-        <v>0.3496097922325134</v>
+        <v>0.3802631795406342</v>
       </c>
     </row>
     <row r="70">
@@ -1768,7 +1768,7 @@
         <v>0.3082284957436617</v>
       </c>
       <c r="E70" t="n">
-        <v>0.2216993272304535</v>
+        <v>0.2658630311489105</v>
       </c>
     </row>
     <row r="71">
@@ -1787,7 +1787,7 @@
         <v>0.7038711963848128</v>
       </c>
       <c r="E71" t="n">
-        <v>0.4699040055274963</v>
+        <v>0.3985363841056824</v>
       </c>
     </row>
     <row r="72">
@@ -1806,7 +1806,7 @@
         <v>0.371488874654042</v>
       </c>
       <c r="E72" t="n">
-        <v>0.2050384730100632</v>
+        <v>0.2705282866954803</v>
       </c>
     </row>
     <row r="73">
@@ -1825,7 +1825,7 @@
         <v>0.4762348626730635</v>
       </c>
       <c r="E73" t="n">
-        <v>0.2808520197868347</v>
+        <v>0.2950189113616943</v>
       </c>
     </row>
     <row r="74">
@@ -1844,7 +1844,7 @@
         <v>0.6939883973878687</v>
       </c>
       <c r="E74" t="n">
-        <v>0.395131915807724</v>
+        <v>0.399543434381485</v>
       </c>
     </row>
     <row r="75">
@@ -1863,7 +1863,7 @@
         <v>0.449127131789536</v>
       </c>
       <c r="E75" t="n">
-        <v>0.2575936317443848</v>
+        <v>0.2933976054191589</v>
       </c>
     </row>
     <row r="76">
@@ -1882,7 +1882,7 @@
         <v>0.3719303008548852</v>
       </c>
       <c r="E76" t="n">
-        <v>0.241622731089592</v>
+        <v>0.2755948901176453</v>
       </c>
     </row>
     <row r="77">
@@ -1901,7 +1901,7 @@
         <v>0.5872753902738808</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3196002840995789</v>
+        <v>0.3848403692245483</v>
       </c>
     </row>
     <row r="78">
@@ -1920,7 +1920,7 @@
         <v>0.9301819164990726</v>
       </c>
       <c r="E78" t="n">
-        <v>0.4719893336296082</v>
+        <v>0.4251559674739838</v>
       </c>
     </row>
     <row r="79">
@@ -1939,7 +1939,7 @@
         <v>0.8883460463517403</v>
       </c>
       <c r="E79" t="n">
-        <v>0.4812847375869751</v>
+        <v>0.4211215972900391</v>
       </c>
     </row>
     <row r="80">
@@ -1958,7 +1958,7 @@
         <v>0.8202330231885704</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4708866775035858</v>
+        <v>0.3813499510288239</v>
       </c>
     </row>
     <row r="81">
@@ -1977,7 +1977,7 @@
         <v>0.3658223575711927</v>
       </c>
       <c r="E81" t="n">
-        <v>0.3855469226837158</v>
+        <v>0.2671923637390137</v>
       </c>
     </row>
     <row r="82">
@@ -1996,7 +1996,7 @@
         <v>0.6392568663399482</v>
       </c>
       <c r="E82" t="n">
-        <v>0.4110693633556366</v>
+        <v>0.3567295968532562</v>
       </c>
     </row>
     <row r="83">
@@ -2015,7 +2015,7 @@
         <v>0.7362068195589295</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4463639855384827</v>
+        <v>0.4089365899562836</v>
       </c>
     </row>
     <row r="84">
@@ -2034,7 +2034,7 @@
         <v>0.2303442812301529</v>
       </c>
       <c r="E84" t="n">
-        <v>0.211270198225975</v>
+        <v>0.2580905556678772</v>
       </c>
     </row>
     <row r="85">
@@ -2053,7 +2053,7 @@
         <v>0.6188220064441875</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3212018609046936</v>
+        <v>0.3553457260131836</v>
       </c>
     </row>
     <row r="86">
@@ -2072,7 +2072,7 @@
         <v>0.2756885458031615</v>
       </c>
       <c r="E86" t="n">
-        <v>0.1986942887306213</v>
+        <v>0.264664888381958</v>
       </c>
     </row>
     <row r="87">
@@ -2091,7 +2091,7 @@
         <v>0.5289969440122068</v>
       </c>
       <c r="E87" t="n">
-        <v>0.319686084985733</v>
+        <v>0.3473069965839386</v>
       </c>
     </row>
     <row r="88">
@@ -2110,7 +2110,7 @@
         <v>0.5595404770727759</v>
       </c>
       <c r="E88" t="n">
-        <v>0.3516578674316406</v>
+        <v>0.3551669716835022</v>
       </c>
     </row>
     <row r="89">
@@ -2129,7 +2129,7 @@
         <v>0.3140643235168202</v>
       </c>
       <c r="E89" t="n">
-        <v>0.2420628666877747</v>
+        <v>0.2925072610378265</v>
       </c>
     </row>
     <row r="90">
@@ -2148,7 +2148,7 @@
         <v>0.2526676624648406</v>
       </c>
       <c r="E90" t="n">
-        <v>0.2879408299922943</v>
+        <v>0.2523484528064728</v>
       </c>
     </row>
     <row r="91">
@@ -2167,7 +2167,7 @@
         <v>0.4127381904675428</v>
       </c>
       <c r="E91" t="n">
-        <v>0.2576844990253448</v>
+        <v>0.2915766835212708</v>
       </c>
     </row>
     <row r="92">
@@ -2186,7 +2186,7 @@
         <v>0.3951342779447693</v>
       </c>
       <c r="E92" t="n">
-        <v>0.2570831477642059</v>
+        <v>0.2997595071792603</v>
       </c>
     </row>
     <row r="93">
@@ -2205,7 +2205,7 @@
         <v>0.4814090148225293</v>
       </c>
       <c r="E93" t="n">
-        <v>0.3093459606170654</v>
+        <v>0.3266715109348297</v>
       </c>
     </row>
     <row r="94">
@@ -2224,7 +2224,7 @@
         <v>0.5793623800096949</v>
       </c>
       <c r="E94" t="n">
-        <v>0.3109601140022278</v>
+        <v>0.3373076021671295</v>
       </c>
     </row>
     <row r="95">
@@ -2243,7 +2243,7 @@
         <v>0.3417202854593807</v>
       </c>
       <c r="E95" t="n">
-        <v>0.229651153087616</v>
+        <v>0.332939088344574</v>
       </c>
     </row>
     <row r="96">
@@ -2262,7 +2262,7 @@
         <v>0.4094408923469865</v>
       </c>
       <c r="E96" t="n">
-        <v>0.2428496479988098</v>
+        <v>0.2512916922569275</v>
       </c>
     </row>
     <row r="97">
@@ -2281,7 +2281,7 @@
         <v>0.6004866854835119</v>
       </c>
       <c r="E97" t="n">
-        <v>0.3591760396957397</v>
+        <v>0.348604291677475</v>
       </c>
     </row>
     <row r="98">
@@ -2300,7 +2300,7 @@
         <v>0.453425349718437</v>
       </c>
       <c r="E98" t="n">
-        <v>0.3227367997169495</v>
+        <v>0.3095379769802094</v>
       </c>
     </row>
     <row r="99">
@@ -2319,7 +2319,7 @@
         <v>0.6777444604059943</v>
       </c>
       <c r="E99" t="n">
-        <v>0.3716527819633484</v>
+        <v>0.3854981958866119</v>
       </c>
     </row>
     <row r="100">
@@ -2338,7 +2338,7 @@
         <v>0.8167969978866652</v>
       </c>
       <c r="E100" t="n">
-        <v>0.4744416773319244</v>
+        <v>0.4044569432735443</v>
       </c>
     </row>
     <row r="101">
@@ -2357,7 +2357,7 @@
         <v>0.4517791695442719</v>
       </c>
       <c r="E101" t="n">
-        <v>0.2189347296953201</v>
+        <v>0.3201337456703186</v>
       </c>
     </row>
     <row r="102">
@@ -2376,7 +2376,7 @@
         <v>0.5668168483183852</v>
       </c>
       <c r="E102" t="n">
-        <v>0.3014898896217346</v>
+        <v>0.3158918023109436</v>
       </c>
     </row>
     <row r="103">
@@ -2395,7 +2395,7 @@
         <v>0.6175863780762662</v>
       </c>
       <c r="E103" t="n">
-        <v>0.2885795533657074</v>
+        <v>0.3281418085098267</v>
       </c>
     </row>
     <row r="104">
@@ -2414,7 +2414,7 @@
         <v>0.3522266313967708</v>
       </c>
       <c r="E104" t="n">
-        <v>0.2331543117761612</v>
+        <v>0.2465976178646088</v>
       </c>
     </row>
     <row r="105">
@@ -2433,7 +2433,7 @@
         <v>0.6159886993189322</v>
       </c>
       <c r="E105" t="n">
-        <v>0.2741120755672455</v>
+        <v>0.3279949724674225</v>
       </c>
     </row>
     <row r="106">
@@ -2452,7 +2452,7 @@
         <v>0.5821438587348391</v>
       </c>
       <c r="E106" t="n">
-        <v>0.395224928855896</v>
+        <v>0.3680520355701447</v>
       </c>
     </row>
     <row r="107">
@@ -2471,7 +2471,7 @@
         <v>0.7152093964646979</v>
       </c>
       <c r="E107" t="n">
-        <v>0.4524984061717987</v>
+        <v>0.3787524998188019</v>
       </c>
     </row>
     <row r="108">
@@ -2490,7 +2490,7 @@
         <v>0.7156048294914429</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4334989786148071</v>
+        <v>0.3816579580307007</v>
       </c>
     </row>
     <row r="109">
@@ -2509,7 +2509,7 @@
         <v>0.6024929436827366</v>
       </c>
       <c r="E109" t="n">
-        <v>0.3817744851112366</v>
+        <v>0.3563843667507172</v>
       </c>
     </row>
     <row r="110">
@@ -2528,7 +2528,7 @@
         <v>0.7442742806809305</v>
       </c>
       <c r="E110" t="n">
-        <v>0.4458110332489014</v>
+        <v>0.3914246261119843</v>
       </c>
     </row>
     <row r="111">
@@ -2547,7 +2547,7 @@
         <v>0.326528740540571</v>
       </c>
       <c r="E111" t="n">
-        <v>0.265632301568985</v>
+        <v>0.3040520250797272</v>
       </c>
     </row>
     <row r="112">
@@ -2566,7 +2566,7 @@
         <v>0.3305320236080006</v>
       </c>
       <c r="E112" t="n">
-        <v>0.2824503183364868</v>
+        <v>0.2766251266002655</v>
       </c>
     </row>
     <row r="113">
@@ -2585,7 +2585,7 @@
         <v>0.6557340559483333</v>
       </c>
       <c r="E113" t="n">
-        <v>0.3647280633449554</v>
+        <v>0.3572379052639008</v>
       </c>
     </row>
     <row r="114">
@@ -2604,7 +2604,7 @@
         <v>0.3110496799551626</v>
       </c>
       <c r="E114" t="n">
-        <v>0.1962341070175171</v>
+        <v>0.2562424838542938</v>
       </c>
     </row>
     <row r="115">
@@ -2623,7 +2623,7 @@
         <v>0.8101871045343427</v>
       </c>
       <c r="E115" t="n">
-        <v>0.4717699289321899</v>
+        <v>0.4207941591739655</v>
       </c>
     </row>
     <row r="116">
@@ -2642,7 +2642,7 @@
         <v>0.5934770141581799</v>
       </c>
       <c r="E116" t="n">
-        <v>0.3513568639755249</v>
+        <v>0.3536885678768158</v>
       </c>
     </row>
     <row r="117">
@@ -2661,7 +2661,7 @@
         <v>0.2076183463965128</v>
       </c>
       <c r="E117" t="n">
-        <v>0.2094230353832245</v>
+        <v>0.2190341353416443</v>
       </c>
     </row>
     <row r="118">
@@ -2680,7 +2680,7 @@
         <v>0.1579186337034669</v>
       </c>
       <c r="E118" t="n">
-        <v>0.1732850670814514</v>
+        <v>0.2342034876346588</v>
       </c>
     </row>
     <row r="119">
@@ -2699,7 +2699,7 @@
         <v>0.6516583977688162</v>
       </c>
       <c r="E119" t="n">
-        <v>0.4201074540615082</v>
+        <v>0.3090153634548187</v>
       </c>
     </row>
     <row r="120">
@@ -2718,7 +2718,7 @@
         <v>0.5003805716847527</v>
       </c>
       <c r="E120" t="n">
-        <v>0.3350562453269958</v>
+        <v>0.3625924587249756</v>
       </c>
     </row>
     <row r="121">
@@ -2737,7 +2737,7 @@
         <v>0.3852531313044293</v>
       </c>
       <c r="E121" t="n">
-        <v>0.30369633436203</v>
+        <v>0.3075237274169922</v>
       </c>
     </row>
     <row r="122">
@@ -2756,7 +2756,7 @@
         <v>0.7363774751900829</v>
       </c>
       <c r="E122" t="n">
-        <v>0.3559675514698029</v>
+        <v>0.3688942492008209</v>
       </c>
     </row>
     <row r="123">
@@ -2775,7 +2775,7 @@
         <v>0.3481182439465114</v>
       </c>
       <c r="E123" t="n">
-        <v>0.1771685928106308</v>
+        <v>0.2669634521007538</v>
       </c>
     </row>
     <row r="124">
@@ -2794,7 +2794,7 @@
         <v>0.2329683492779049</v>
       </c>
       <c r="E124" t="n">
-        <v>0.1719671785831451</v>
+        <v>0.2624796032905579</v>
       </c>
     </row>
     <row r="125">
@@ -2813,7 +2813,7 @@
         <v>0.4668998612469218</v>
       </c>
       <c r="E125" t="n">
-        <v>0.2715562880039215</v>
+        <v>0.3128005862236023</v>
       </c>
     </row>
     <row r="126">
@@ -2832,7 +2832,7 @@
         <v>0.5865494033047405</v>
       </c>
       <c r="E126" t="n">
-        <v>0.3075116276741028</v>
+        <v>0.3186877071857452</v>
       </c>
     </row>
     <row r="127">
@@ -2851,7 +2851,7 @@
         <v>0.5463434594426863</v>
       </c>
       <c r="E127" t="n">
-        <v>0.4033827185630798</v>
+        <v>0.3339145183563232</v>
       </c>
     </row>
     <row r="128">
@@ -2870,7 +2870,7 @@
         <v>0.4072987375182022</v>
       </c>
       <c r="E128" t="n">
-        <v>0.2985689640045166</v>
+        <v>0.2966647148132324</v>
       </c>
     </row>
     <row r="129">
@@ -2889,7 +2889,7 @@
         <v>0.8172234851210609</v>
       </c>
       <c r="E129" t="n">
-        <v>0.4292969107627869</v>
+        <v>0.4027939736843109</v>
       </c>
     </row>
     <row r="130">
@@ -2908,7 +2908,7 @@
         <v>0.2655126790533767</v>
       </c>
       <c r="E130" t="n">
-        <v>0.262748122215271</v>
+        <v>0.2302440851926804</v>
       </c>
     </row>
     <row r="131">
@@ -2927,7 +2927,7 @@
         <v>1</v>
       </c>
       <c r="E131" t="n">
-        <v>0.4863153398036957</v>
+        <v>0.4348098337650299</v>
       </c>
     </row>
     <row r="132">
@@ -2946,7 +2946,7 @@
         <v>0.4561219958759843</v>
       </c>
       <c r="E132" t="n">
-        <v>0.2904912829399109</v>
+        <v>0.3551146388053894</v>
       </c>
     </row>
     <row r="133">
@@ -2965,7 +2965,7 @@
         <v>0.6529596409868981</v>
       </c>
       <c r="E133" t="n">
-        <v>0.3697324991226196</v>
+        <v>0.3548021018505096</v>
       </c>
     </row>
     <row r="134">
@@ -2984,7 +2984,7 @@
         <v>0.7513501027688749</v>
       </c>
       <c r="E134" t="n">
-        <v>0.4734005928039551</v>
+        <v>0.389038622379303</v>
       </c>
     </row>
     <row r="135">
@@ -3003,7 +3003,7 @@
         <v>0.4505662836508093</v>
       </c>
       <c r="E135" t="n">
-        <v>0.319894552230835</v>
+        <v>0.3109111189842224</v>
       </c>
     </row>
     <row r="136">
@@ -3022,7 +3022,7 @@
         <v>0.3716043921484325</v>
       </c>
       <c r="E136" t="n">
-        <v>0.2593694031238556</v>
+        <v>0.2974668443202972</v>
       </c>
     </row>
     <row r="137">
@@ -3041,7 +3041,7 @@
         <v>0.3602442582966465</v>
       </c>
       <c r="E137" t="n">
-        <v>0.259196549654007</v>
+        <v>0.2829892635345459</v>
       </c>
     </row>
     <row r="138">
@@ -3060,7 +3060,7 @@
         <v>0.3383342725218927</v>
       </c>
       <c r="E138" t="n">
-        <v>0.2602798640727997</v>
+        <v>0.2474231123924255</v>
       </c>
     </row>
     <row r="139">
@@ -3079,7 +3079,7 @@
         <v>0.5414278154421422</v>
       </c>
       <c r="E139" t="n">
-        <v>0.3202254474163055</v>
+        <v>0.3045995533466339</v>
       </c>
     </row>
     <row r="140">
@@ -3098,7 +3098,7 @@
         <v>0.5978038603527056</v>
       </c>
       <c r="E140" t="n">
-        <v>0.3085875511169434</v>
+        <v>0.3555777072906494</v>
       </c>
     </row>
     <row r="141">
@@ -3117,7 +3117,7 @@
         <v>0.7606450446375734</v>
       </c>
       <c r="E141" t="n">
-        <v>0.4018742442131042</v>
+        <v>0.4114838838577271</v>
       </c>
     </row>
     <row r="142">
@@ -3136,7 +3136,7 @@
         <v>0.3248788099659551</v>
       </c>
       <c r="E142" t="n">
-        <v>0.2190110087394714</v>
+        <v>0.2479649633169174</v>
       </c>
     </row>
     <row r="143">
@@ -3155,7 +3155,7 @@
         <v>0.6449254707683332</v>
       </c>
       <c r="E143" t="n">
-        <v>0.3852537274360657</v>
+        <v>0.336914449930191</v>
       </c>
     </row>
     <row r="144">
@@ -3174,7 +3174,7 @@
         <v>0.2910065864195924</v>
       </c>
       <c r="E144" t="n">
-        <v>0.2005975991487503</v>
+        <v>0.2290596663951874</v>
       </c>
     </row>
     <row r="145">
@@ -3193,7 +3193,7 @@
         <v>0.7244609142174261</v>
       </c>
       <c r="E145" t="n">
-        <v>0.4088215827941895</v>
+        <v>0.334004282951355</v>
       </c>
     </row>
     <row r="146">
@@ -3212,7 +3212,7 @@
         <v>0.6177515676508191</v>
       </c>
       <c r="E146" t="n">
-        <v>0.331175833940506</v>
+        <v>0.3254185914993286</v>
       </c>
     </row>
     <row r="147">
@@ -3231,7 +3231,7 @@
         <v>0.4409377566944086</v>
       </c>
       <c r="E147" t="n">
-        <v>0.2745212912559509</v>
+        <v>0.2936669588088989</v>
       </c>
     </row>
     <row r="148">
@@ -3250,7 +3250,7 @@
         <v>0.6822471714911353</v>
       </c>
       <c r="E148" t="n">
-        <v>0.4585016369819641</v>
+        <v>0.3930828869342804</v>
       </c>
     </row>
     <row r="149">
@@ -3269,7 +3269,7 @@
         <v>0.229207907078953</v>
       </c>
       <c r="E149" t="n">
-        <v>0.2024387568235397</v>
+        <v>0.221895232796669</v>
       </c>
     </row>
     <row r="150">
@@ -3288,7 +3288,7 @@
         <v>0.4447499953820174</v>
       </c>
       <c r="E150" t="n">
-        <v>0.2437346130609512</v>
+        <v>0.3048452734947205</v>
       </c>
     </row>
     <row r="151">
@@ -3307,7 +3307,7 @@
         <v>0.6523426750322254</v>
       </c>
       <c r="E151" t="n">
-        <v>0.399916410446167</v>
+        <v>0.3641874492168427</v>
       </c>
     </row>
     <row r="152">
@@ -3326,7 +3326,7 @@
         <v>0.2425283543276618</v>
       </c>
       <c r="E152" t="n">
-        <v>0.2036210298538208</v>
+        <v>0.2417089343070984</v>
       </c>
     </row>
     <row r="153">
@@ -3345,7 +3345,7 @@
         <v>0.8305519596701881</v>
       </c>
       <c r="E153" t="n">
-        <v>0.4505714774131775</v>
+        <v>0.440483033657074</v>
       </c>
     </row>
     <row r="154">
@@ -3364,7 +3364,7 @@
         <v>0.6398363875567967</v>
       </c>
       <c r="E154" t="n">
-        <v>0.3472954332828522</v>
+        <v>0.3475383520126343</v>
       </c>
     </row>
     <row r="155">
@@ -3383,7 +3383,7 @@
         <v>0.6951128286309145</v>
       </c>
       <c r="E155" t="n">
-        <v>0.4962145090103149</v>
+        <v>0.4092824757099152</v>
       </c>
     </row>
     <row r="156">
@@ -3402,7 +3402,7 @@
         <v>0.5222646030184412</v>
       </c>
       <c r="E156" t="n">
-        <v>0.2666210830211639</v>
+        <v>0.3475001156330109</v>
       </c>
     </row>
     <row r="157">
@@ -3421,7 +3421,7 @@
         <v>0.2279199221234276</v>
       </c>
       <c r="E157" t="n">
-        <v>0.1971094608306885</v>
+        <v>0.2638831734657288</v>
       </c>
     </row>
     <row r="158">
@@ -3440,7 +3440,7 @@
         <v>0.6305093830814368</v>
       </c>
       <c r="E158" t="n">
-        <v>0.3588143289089203</v>
+        <v>0.3949963450431824</v>
       </c>
     </row>
     <row r="159">
@@ -3459,7 +3459,7 @@
         <v>0.7553070853748489</v>
       </c>
       <c r="E159" t="n">
-        <v>0.4608376026153564</v>
+        <v>0.415307879447937</v>
       </c>
     </row>
     <row r="160">
@@ -3478,7 +3478,7 @@
         <v>0.6472029960903064</v>
       </c>
       <c r="E160" t="n">
-        <v>0.3582215011119843</v>
+        <v>0.3637090623378754</v>
       </c>
     </row>
     <row r="161">
@@ -3497,7 +3497,7 @@
         <v>0.2258732884862843</v>
       </c>
       <c r="E161" t="n">
-        <v>0.1684451997280121</v>
+        <v>0.2037807106971741</v>
       </c>
     </row>
     <row r="162">
@@ -3516,7 +3516,7 @@
         <v>0.5055944330192897</v>
       </c>
       <c r="E162" t="n">
-        <v>0.3139708340167999</v>
+        <v>0.3581000864505768</v>
       </c>
     </row>
     <row r="163">
@@ -3535,7 +3535,7 @@
         <v>0.6422702459482565</v>
       </c>
       <c r="E163" t="n">
-        <v>0.4045563340187073</v>
+        <v>0.3394140005111694</v>
       </c>
     </row>
     <row r="164">
@@ -3554,7 +3554,7 @@
         <v>0.5382414352954227</v>
       </c>
       <c r="E164" t="n">
-        <v>0.3200055658817291</v>
+        <v>0.3156325817108154</v>
       </c>
     </row>
     <row r="165">
@@ -3573,7 +3573,7 @@
         <v>0.5649658988436861</v>
       </c>
       <c r="E165" t="n">
-        <v>0.3456245064735413</v>
+        <v>0.32876056432724</v>
       </c>
     </row>
     <row r="166">
@@ -3592,7 +3592,7 @@
         <v>0.5303799613737538</v>
       </c>
       <c r="E166" t="n">
-        <v>0.3035330772399902</v>
+        <v>0.2989640235900879</v>
       </c>
     </row>
     <row r="167">
@@ -3611,7 +3611,7 @@
         <v>0.5533608565303745</v>
       </c>
       <c r="E167" t="n">
-        <v>0.349120020866394</v>
+        <v>0.3512397706508636</v>
       </c>
     </row>
     <row r="168">
@@ -3630,7 +3630,7 @@
         <v>0.4531888718182911</v>
       </c>
       <c r="E168" t="n">
-        <v>0.2899675667285919</v>
+        <v>0.2998546063899994</v>
       </c>
     </row>
     <row r="169">
@@ -3649,7 +3649,7 @@
         <v>0.401848969295322</v>
       </c>
       <c r="E169" t="n">
-        <v>0.2410541921854019</v>
+        <v>0.2819216549396515</v>
       </c>
     </row>
     <row r="170">
@@ -3668,7 +3668,7 @@
         <v>0.4417667562438528</v>
       </c>
       <c r="E170" t="n">
-        <v>0.2490995526313782</v>
+        <v>0.3202259242534637</v>
       </c>
     </row>
     <row r="171">
@@ -3687,7 +3687,7 @@
         <v>0.4393118911669173</v>
       </c>
       <c r="E171" t="n">
-        <v>0.2946138381958008</v>
+        <v>0.3484539091587067</v>
       </c>
     </row>
     <row r="172">
@@ -3706,7 +3706,7 @@
         <v>0.4234953893952308</v>
       </c>
       <c r="E172" t="n">
-        <v>0.3321286737918854</v>
+        <v>0.3228376507759094</v>
       </c>
     </row>
     <row r="173">
@@ -3725,7 +3725,7 @@
         <v>0.612644032798873</v>
       </c>
       <c r="E173" t="n">
-        <v>0.4179776310920715</v>
+        <v>0.3251441419124603</v>
       </c>
     </row>
     <row r="174">
@@ -3744,7 +3744,7 @@
         <v>0.7158558277887077</v>
       </c>
       <c r="E174" t="n">
-        <v>0.3796415030956268</v>
+        <v>0.3437033593654633</v>
       </c>
     </row>
     <row r="175">
@@ -3763,7 +3763,7 @@
         <v>0.3603752761038813</v>
       </c>
       <c r="E175" t="n">
-        <v>0.3054040670394897</v>
+        <v>0.2996416985988617</v>
       </c>
     </row>
     <row r="176">
@@ -3782,7 +3782,7 @@
         <v>0.4191622526074782</v>
       </c>
       <c r="E176" t="n">
-        <v>0.2627924978733063</v>
+        <v>0.2948406338691711</v>
       </c>
     </row>
     <row r="177">
@@ -3801,7 +3801,7 @@
         <v>0.5051903811501658</v>
       </c>
       <c r="E177" t="n">
-        <v>0.2740492820739746</v>
+        <v>0.3458338975906372</v>
       </c>
     </row>
     <row r="178">
@@ -3820,7 +3820,7 @@
         <v>0.5505311948166947</v>
       </c>
       <c r="E178" t="n">
-        <v>0.3379248678684235</v>
+        <v>0.2998038828372955</v>
       </c>
     </row>
     <row r="179">
@@ -3839,7 +3839,7 @@
         <v>0.393052318371826</v>
       </c>
       <c r="E179" t="n">
-        <v>0.2718541026115417</v>
+        <v>0.254956841468811</v>
       </c>
     </row>
     <row r="180">
@@ -3858,7 +3858,7 @@
         <v>0.574582470847295</v>
       </c>
       <c r="E180" t="n">
-        <v>0.3202790319919586</v>
+        <v>0.3562244176864624</v>
       </c>
     </row>
     <row r="181">
@@ -3877,7 +3877,7 @@
         <v>0.7543874769813708</v>
       </c>
       <c r="E181" t="n">
-        <v>0.4198689460754395</v>
+        <v>0.3818352818489075</v>
       </c>
     </row>
     <row r="182">
@@ -3896,7 +3896,7 @@
         <v>0.312601707276444</v>
       </c>
       <c r="E182" t="n">
-        <v>0.2349995523691177</v>
+        <v>0.2472872734069824</v>
       </c>
     </row>
     <row r="183">
@@ -3915,7 +3915,7 @@
         <v>0.5140489288122608</v>
       </c>
       <c r="E183" t="n">
-        <v>0.2942069470882416</v>
+        <v>0.3511329889297485</v>
       </c>
     </row>
     <row r="184">
@@ -3934,7 +3934,7 @@
         <v>0.6237623318494331</v>
       </c>
       <c r="E184" t="n">
-        <v>0.4012328386306763</v>
+        <v>0.3436769545078278</v>
       </c>
     </row>
     <row r="185">
@@ -3953,7 +3953,7 @@
         <v>0.7854766509746001</v>
       </c>
       <c r="E185" t="n">
-        <v>0.4430077075958252</v>
+        <v>0.4031146168708801</v>
       </c>
     </row>
     <row r="186">
@@ -3972,7 +3972,7 @@
         <v>0.2052686182343323</v>
       </c>
       <c r="E186" t="n">
-        <v>0.1685348451137543</v>
+        <v>0.2209659665822983</v>
       </c>
     </row>
     <row r="187">
@@ -3991,7 +3991,7 @@
         <v>0.4651482820979406</v>
       </c>
       <c r="E187" t="n">
-        <v>0.3074085712432861</v>
+        <v>0.3011743426322937</v>
       </c>
     </row>
     <row r="188">
@@ -4010,7 +4010,7 @@
         <v>0.6162745222965682</v>
       </c>
       <c r="E188" t="n">
-        <v>0.4364646971225739</v>
+        <v>0.3635029494762421</v>
       </c>
     </row>
     <row r="189">
@@ -4029,7 +4029,7 @@
         <v>0.5397773290067381</v>
       </c>
       <c r="E189" t="n">
-        <v>0.3812335133552551</v>
+        <v>0.3672282099723816</v>
       </c>
     </row>
     <row r="190">
@@ -4048,7 +4048,7 @@
         <v>0.4897300470567975</v>
       </c>
       <c r="E190" t="n">
-        <v>0.3536723852157593</v>
+        <v>0.3202085494995117</v>
       </c>
     </row>
     <row r="191">
@@ -4067,7 +4067,7 @@
         <v>0.6569320533147465</v>
       </c>
       <c r="E191" t="n">
-        <v>0.3236981332302094</v>
+        <v>0.3414907157421112</v>
       </c>
     </row>
     <row r="192">
@@ -4086,7 +4086,7 @@
         <v>0.5879092420299313</v>
       </c>
       <c r="E192" t="n">
-        <v>0.3068799674510956</v>
+        <v>0.3619042634963989</v>
       </c>
     </row>
     <row r="193">
@@ -4105,7 +4105,7 @@
         <v>0.6467239737471064</v>
       </c>
       <c r="E193" t="n">
-        <v>0.3230079412460327</v>
+        <v>0.3473035395145416</v>
       </c>
     </row>
     <row r="194">
@@ -4124,7 +4124,7 @@
         <v>0.3413952725234781</v>
       </c>
       <c r="E194" t="n">
-        <v>0.2815335392951965</v>
+        <v>0.2625297605991364</v>
       </c>
     </row>
     <row r="195">
@@ -4143,7 +4143,7 @@
         <v>0.7381181548437215</v>
       </c>
       <c r="E195" t="n">
-        <v>0.4344366192817688</v>
+        <v>0.3648695647716522</v>
       </c>
     </row>
     <row r="196">
@@ -4162,7 +4162,7 @@
         <v>0.5887458521465457</v>
       </c>
       <c r="E196" t="n">
-        <v>0.2930181324481964</v>
+        <v>0.3593446612358093</v>
       </c>
     </row>
     <row r="197">
@@ -4181,7 +4181,7 @@
         <v>0.6326483208753498</v>
       </c>
       <c r="E197" t="n">
-        <v>0.2803178429603577</v>
+        <v>0.3590371608734131</v>
       </c>
     </row>
     <row r="198">
@@ -4200,7 +4200,7 @@
         <v>0.6789825665000031</v>
       </c>
       <c r="E198" t="n">
-        <v>0.4054732918739319</v>
+        <v>0.3646087646484375</v>
       </c>
     </row>
     <row r="199">
@@ -4219,7 +4219,7 @@
         <v>0.5594678183516649</v>
       </c>
       <c r="E199" t="n">
-        <v>0.2898629903793335</v>
+        <v>0.282008945941925</v>
       </c>
     </row>
     <row r="200">
@@ -4238,7 +4238,7 @@
         <v>0.4366450205489274</v>
       </c>
       <c r="E200" t="n">
-        <v>0.2926265001296997</v>
+        <v>0.3199330568313599</v>
       </c>
     </row>
     <row r="201">
@@ -4257,7 +4257,7 @@
         <v>0.3705161228666759</v>
       </c>
       <c r="E201" t="n">
-        <v>0.2397582978010178</v>
+        <v>0.3109845817089081</v>
       </c>
     </row>
     <row r="202">
@@ -4276,7 +4276,7 @@
         <v>0.6371207124728865</v>
       </c>
       <c r="E202" t="n">
-        <v>0.4162944853305817</v>
+        <v>0.3630879521369934</v>
       </c>
     </row>
     <row r="203">
@@ -4295,7 +4295,7 @@
         <v>0.4631410104767616</v>
       </c>
       <c r="E203" t="n">
-        <v>0.3336998224258423</v>
+        <v>0.3034780025482178</v>
       </c>
     </row>
     <row r="204">
@@ -4314,7 +4314,7 @@
         <v>0.4886493512147775</v>
       </c>
       <c r="E204" t="n">
-        <v>0.3342572748661041</v>
+        <v>0.2941492199897766</v>
       </c>
     </row>
     <row r="205">
@@ -4333,7 +4333,7 @@
         <v>0.4188489226799816</v>
       </c>
       <c r="E205" t="n">
-        <v>0.2524551749229431</v>
+        <v>0.2910186052322388</v>
       </c>
     </row>
     <row r="206">
@@ -4352,7 +4352,7 @@
         <v>0.6922659580528661</v>
       </c>
       <c r="E206" t="n">
-        <v>0.373640239238739</v>
+        <v>0.3484833836555481</v>
       </c>
     </row>
     <row r="207">
@@ -4371,7 +4371,7 @@
         <v>0.5198235067264689</v>
       </c>
       <c r="E207" t="n">
-        <v>0.2816038727760315</v>
+        <v>0.3167439997196198</v>
       </c>
     </row>
     <row r="208">
@@ -4390,7 +4390,7 @@
         <v>0.1787363632444668</v>
       </c>
       <c r="E208" t="n">
-        <v>0.1570239216089249</v>
+        <v>0.2561859786510468</v>
       </c>
     </row>
     <row r="209">
@@ -4409,7 +4409,7 @@
         <v>0.9479314522908466</v>
       </c>
       <c r="E209" t="n">
-        <v>0.5001085996627808</v>
+        <v>0.4398033022880554</v>
       </c>
     </row>
     <row r="210">
@@ -4428,7 +4428,7 @@
         <v>0.6128070595014323</v>
       </c>
       <c r="E210" t="n">
-        <v>0.3890681266784668</v>
+        <v>0.3530303537845612</v>
       </c>
     </row>
     <row r="211">
@@ -4447,7 +4447,7 @@
         <v>0.5380828192106912</v>
       </c>
       <c r="E211" t="n">
-        <v>0.3430821895599365</v>
+        <v>0.3549987077713013</v>
       </c>
     </row>
     <row r="212">
@@ -4466,7 +4466,7 @@
         <v>0.7870022409526501</v>
       </c>
       <c r="E212" t="n">
-        <v>0.5110015869140625</v>
+        <v>0.3647055327892303</v>
       </c>
     </row>
     <row r="213">
@@ -4485,7 +4485,7 @@
         <v>0.4579198743362359</v>
       </c>
       <c r="E213" t="n">
-        <v>0.3002223670482635</v>
+        <v>0.3247435390949249</v>
       </c>
     </row>
     <row r="214">
@@ -4504,7 +4504,7 @@
         <v>0.4867562538305085</v>
       </c>
       <c r="E214" t="n">
-        <v>0.2910612523555756</v>
+        <v>0.3102851808071136</v>
       </c>
     </row>
     <row r="215">
@@ -4523,7 +4523,7 @@
         <v>0.5693761428778963</v>
       </c>
       <c r="E215" t="n">
-        <v>0.3141308128833771</v>
+        <v>0.3085424602031708</v>
       </c>
     </row>
     <row r="216">
@@ -4542,7 +4542,7 @@
         <v>0.3386943968433396</v>
       </c>
       <c r="E216" t="n">
-        <v>0.2545609772205353</v>
+        <v>0.2952964007854462</v>
       </c>
     </row>
     <row r="217">
@@ -4561,7 +4561,7 @@
         <v>0.3623159110575627</v>
       </c>
       <c r="E217" t="n">
-        <v>0.2010528743267059</v>
+        <v>0.2506773471832275</v>
       </c>
     </row>
     <row r="218">
@@ -4580,7 +4580,7 @@
         <v>0.7147446554601942</v>
       </c>
       <c r="E218" t="n">
-        <v>0.395578920841217</v>
+        <v>0.3802588582038879</v>
       </c>
     </row>
     <row r="219">
@@ -4599,7 +4599,7 @@
         <v>0.5045169397977036</v>
       </c>
       <c r="E219" t="n">
-        <v>0.3067723214626312</v>
+        <v>0.3520343601703644</v>
       </c>
     </row>
     <row r="220">
@@ -4618,7 +4618,7 @@
         <v>0.1401402364386536</v>
       </c>
       <c r="E220" t="n">
-        <v>0.1494736969470978</v>
+        <v>0.2042438983917236</v>
       </c>
     </row>
     <row r="221">
@@ -4637,7 +4637,7 @@
         <v>0.6130104518843715</v>
       </c>
       <c r="E221" t="n">
-        <v>0.3440666198730469</v>
+        <v>0.3306215107440948</v>
       </c>
     </row>
     <row r="222">
@@ -4656,7 +4656,7 @@
         <v>0.5229919304689966</v>
       </c>
       <c r="E222" t="n">
-        <v>0.268484354019165</v>
+        <v>0.3162724673748016</v>
       </c>
     </row>
     <row r="223">
@@ -4675,7 +4675,7 @@
         <v>0.6261057321237892</v>
       </c>
       <c r="E223" t="n">
-        <v>0.3019956946372986</v>
+        <v>0.342561274766922</v>
       </c>
     </row>
     <row r="224">
@@ -4694,7 +4694,7 @@
         <v>0.4499289681983143</v>
       </c>
       <c r="E224" t="n">
-        <v>0.3039121627807617</v>
+        <v>0.2923728823661804</v>
       </c>
     </row>
     <row r="225">
@@ -4713,7 +4713,7 @@
         <v>0.4176197606532118</v>
       </c>
       <c r="E225" t="n">
-        <v>0.2809253931045532</v>
+        <v>0.2953807711601257</v>
       </c>
     </row>
     <row r="226">
@@ -4732,7 +4732,7 @@
         <v>0.003784636967092414</v>
       </c>
       <c r="E226" t="n">
-        <v>0.1229481622576714</v>
+        <v>0.1864545941352844</v>
       </c>
     </row>
     <row r="227">
@@ -4751,7 +4751,7 @@
         <v>0.5641297874992711</v>
       </c>
       <c r="E227" t="n">
-        <v>0.3161119222640991</v>
+        <v>0.3132887780666351</v>
       </c>
     </row>
     <row r="228">
@@ -4770,7 +4770,7 @@
         <v>0.4697231730986305</v>
       </c>
       <c r="E228" t="n">
-        <v>0.35884889960289</v>
+        <v>0.311331033706665</v>
       </c>
     </row>
     <row r="229">
@@ -4789,7 +4789,7 @@
         <v>0.4206654514666731</v>
       </c>
       <c r="E229" t="n">
-        <v>0.2903031408786774</v>
+        <v>0.282197892665863</v>
       </c>
     </row>
     <row r="230">
@@ -4808,7 +4808,7 @@
         <v>0.6319267109365763</v>
       </c>
       <c r="E230" t="n">
-        <v>0.3915734887123108</v>
+        <v>0.363290935754776</v>
       </c>
     </row>
     <row r="231">
@@ -4827,7 +4827,7 @@
         <v>0.4340910697026596</v>
       </c>
       <c r="E231" t="n">
-        <v>0.299590528011322</v>
+        <v>0.2850708663463593</v>
       </c>
     </row>
     <row r="232">
@@ -4846,7 +4846,7 @@
         <v>0.5181294666663223</v>
       </c>
       <c r="E232" t="n">
-        <v>0.3598813712596893</v>
+        <v>0.3322508633136749</v>
       </c>
     </row>
     <row r="233">
@@ -4865,7 +4865,7 @@
         <v>0.2156160294230334</v>
       </c>
       <c r="E233" t="n">
-        <v>0.1692713797092438</v>
+        <v>0.2351742088794708</v>
       </c>
     </row>
     <row r="234">
@@ -4884,7 +4884,7 @@
         <v>0.03511884664886766</v>
       </c>
       <c r="E234" t="n">
-        <v>0.1789565682411194</v>
+        <v>0.2261188477277756</v>
       </c>
     </row>
     <row r="235">
@@ -4903,7 +4903,7 @@
         <v>0.5659839038897125</v>
       </c>
       <c r="E235" t="n">
-        <v>0.3705294132232666</v>
+        <v>0.3372502624988556</v>
       </c>
     </row>
     <row r="236">
@@ -4922,7 +4922,7 @@
         <v>0.5956898062261661</v>
       </c>
       <c r="E236" t="n">
-        <v>0.36317378282547</v>
+        <v>0.3197153210639954</v>
       </c>
     </row>
     <row r="237">
@@ -4941,7 +4941,7 @@
         <v>0.5918293674223544</v>
       </c>
       <c r="E237" t="n">
-        <v>0.4150657057762146</v>
+        <v>0.3119047880172729</v>
       </c>
     </row>
     <row r="238">
@@ -4960,7 +4960,7 @@
         <v>0.6315263602726591</v>
       </c>
       <c r="E238" t="n">
-        <v>0.429671972990036</v>
+        <v>0.3658110201358795</v>
       </c>
     </row>
     <row r="239">
@@ -4979,7 +4979,7 @@
         <v>0.7133990890183162</v>
       </c>
       <c r="E239" t="n">
-        <v>0.4143775701522827</v>
+        <v>0.3673279881477356</v>
       </c>
     </row>
     <row r="240">
@@ -4998,7 +4998,7 @@
         <v>0.2946893472988129</v>
       </c>
       <c r="E240" t="n">
-        <v>0.2081917822360992</v>
+        <v>0.2878139019012451</v>
       </c>
     </row>
     <row r="241">
@@ -5017,7 +5017,7 @@
         <v>0.8553801124976155</v>
       </c>
       <c r="E241" t="n">
-        <v>0.5012528896331787</v>
+        <v>0.4335365295410156</v>
       </c>
     </row>
   </sheetData>

--- a/code/abc.xlsx
+++ b/code/abc.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>SuitabilityScore_AE</t>
+          <t>SuitabilityScore_AE_scaled</t>
         </is>
       </c>
     </row>
@@ -473,10 +473,10 @@
         <v>0.3464350700378418</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4718292894556023</v>
+        <v>0.4658589972128124</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3012802600860596</v>
+        <v>0.4165003299713135</v>
       </c>
     </row>
     <row r="3">
@@ -492,10 +492,10 @@
         <v>0.4093953371047974</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2663785756567554</v>
+        <v>0.26611878593393</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2504742443561554</v>
+        <v>0.2829636931419373</v>
       </c>
     </row>
     <row r="4">
@@ -511,10 +511,10 @@
         <v>0.3961786031723022</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1126086634691826</v>
+        <v>0.1542205110144878</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1863798201084137</v>
+        <v>0.1652764081954956</v>
       </c>
     </row>
     <row r="5">
@@ -530,10 +530,10 @@
         <v>0.3384871482849121</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7030151262713138</v>
+        <v>0.6568289869240305</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3905285596847534</v>
+        <v>0.7758393287658691</v>
       </c>
     </row>
     <row r="6">
@@ -549,10 +549,10 @@
         <v>0.3959577083587646</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5562226589382566</v>
+        <v>0.5699967376159442</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3228508532047272</v>
+        <v>0.4008513689041138</v>
       </c>
     </row>
     <row r="7">
@@ -568,10 +568,10 @@
         <v>0.3727239370346069</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5378783324099137</v>
+        <v>0.5400912954731005</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3111382722854614</v>
+        <v>0.5633368492126465</v>
       </c>
     </row>
     <row r="8">
@@ -587,10 +587,10 @@
         <v>0.4215753078460693</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2197002012579308</v>
+        <v>0.2610706314905201</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2551641762256622</v>
+        <v>0.2949801683425903</v>
       </c>
     </row>
     <row r="9">
@@ -606,10 +606,10 @@
         <v>0.3454305529594421</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3821838585822958</v>
+        <v>0.3860141373139168</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2685779631137848</v>
+        <v>0.2866124510765076</v>
       </c>
     </row>
     <row r="10">
@@ -625,10 +625,10 @@
         <v>0.3689615726470947</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5078522717367344</v>
+        <v>0.5252343484900497</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3204825222492218</v>
+        <v>0.4628561735153198</v>
       </c>
     </row>
     <row r="11">
@@ -644,10 +644,10 @@
         <v>0.3691005706787109</v>
       </c>
       <c r="D11" t="n">
-        <v>0.532087093917524</v>
+        <v>0.5217985199084989</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3109931945800781</v>
+        <v>0.5287468433380127</v>
       </c>
     </row>
     <row r="12">
@@ -663,10 +663,10 @@
         <v>0.4910650253295898</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5890553171549628</v>
+        <v>0.5768653994996308</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3784797787666321</v>
+        <v>0.6311920881271362</v>
       </c>
     </row>
     <row r="13">
@@ -682,10 +682,10 @@
         <v>0.3939095139503479</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6717420392927915</v>
+        <v>0.6481300917589692</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3699770569801331</v>
+        <v>0.7604975700378418</v>
       </c>
     </row>
     <row r="14">
@@ -701,10 +701,10 @@
         <v>0.5016705393791199</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3405811454798062</v>
+        <v>0.3096604442698492</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3129520118236542</v>
+        <v>0.5050957202911377</v>
       </c>
     </row>
     <row r="15">
@@ -720,10 +720,10 @@
         <v>0.4155613780021667</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6085114210329622</v>
+        <v>0.5896180297494468</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3632672727108002</v>
+        <v>0.6389901638031006</v>
       </c>
     </row>
     <row r="16">
@@ -739,10 +739,10 @@
         <v>0.4749859571456909</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5695969435725253</v>
+        <v>0.5367558832942898</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3646588027477264</v>
+        <v>0.7955735921859741</v>
       </c>
     </row>
     <row r="17">
@@ -758,10 +758,10 @@
         <v>0.420771062374115</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4108766264549114</v>
+        <v>0.4219224874460986</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3048602342605591</v>
+        <v>0.4122264385223389</v>
       </c>
     </row>
     <row r="18">
@@ -777,10 +777,10 @@
         <v>0.3333438634872437</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5539285091427796</v>
+        <v>0.5208620526479287</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3880194127559662</v>
+        <v>0.6394234895706177</v>
       </c>
     </row>
     <row r="19">
@@ -796,10 +796,10 @@
         <v>0.4374176263809204</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5459438871344521</v>
+        <v>0.5938999620715121</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3211524188518524</v>
+        <v>0.475940465927124</v>
       </c>
     </row>
     <row r="20">
@@ -815,10 +815,10 @@
         <v>0.4600682258605957</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7066600746344167</v>
+        <v>0.6601947659576001</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3834874629974365</v>
+        <v>0.9103186130523682</v>
       </c>
     </row>
     <row r="21">
@@ -834,10 +834,10 @@
         <v>0.5006877183914185</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4385378859241147</v>
+        <v>0.4778975732572369</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2712445259094238</v>
+        <v>0.3107383251190186</v>
       </c>
     </row>
     <row r="22">
@@ -853,10 +853,10 @@
         <v>0.3747408390045166</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8674903038936619</v>
+        <v>0.8427929302705077</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4034221768379211</v>
+        <v>0.7285401821136475</v>
       </c>
     </row>
     <row r="23">
@@ -872,10 +872,10 @@
         <v>0.3825347423553467</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8945560214903108</v>
+        <v>0.8854702816633534</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4298654198646545</v>
+        <v>0.7306649684906006</v>
       </c>
     </row>
     <row r="24">
@@ -891,10 +891,10 @@
         <v>0.4155949354171753</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5725550184541643</v>
+        <v>0.5907216140750924</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3426400721073151</v>
+        <v>0.5426698923110962</v>
       </c>
     </row>
     <row r="25">
@@ -910,10 +910,10 @@
         <v>0.322242259979248</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4471852805991552</v>
+        <v>0.4560150293137588</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3061585128307343</v>
+        <v>0.3674314022064209</v>
       </c>
     </row>
     <row r="26">
@@ -929,10 +929,10 @@
         <v>0.4679323434829712</v>
       </c>
       <c r="D26" t="n">
-        <v>0.34342427790938</v>
+        <v>0.382035006867538</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2640393972396851</v>
+        <v>0.3920935392379761</v>
       </c>
     </row>
     <row r="27">
@@ -948,10 +948,10 @@
         <v>0.3546630144119263</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4240418383866151</v>
+        <v>0.4342946249170323</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2992261350154877</v>
+        <v>0.5300215482711792</v>
       </c>
     </row>
     <row r="28">
@@ -967,10 +967,10 @@
         <v>0.3633321523666382</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4522596650946362</v>
+        <v>0.4608120337333346</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3138464987277985</v>
+        <v>0.405121922492981</v>
       </c>
     </row>
     <row r="29">
@@ -986,10 +986,10 @@
         <v>0.4166116714477539</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6297627593167441</v>
+        <v>0.6285682027095737</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3570608198642731</v>
+        <v>0.5929485559463501</v>
       </c>
     </row>
     <row r="30">
@@ -1005,10 +1005,10 @@
         <v>0.4005612134933472</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5283024670622899</v>
+        <v>0.5415871087447383</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3082205653190613</v>
+        <v>0.4359411001205444</v>
       </c>
     </row>
     <row r="31">
@@ -1024,10 +1024,10 @@
         <v>0.3662296533584595</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4815338900163211</v>
+        <v>0.4891452256907638</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3258762359619141</v>
+        <v>0.4835344552993774</v>
       </c>
     </row>
     <row r="32">
@@ -1043,10 +1043,10 @@
         <v>0.4897263050079346</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4071213553944633</v>
+        <v>0.3673263456685947</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3345139622688293</v>
+        <v>0.5642215013504028</v>
       </c>
     </row>
     <row r="33">
@@ -1062,10 +1062,10 @@
         <v>0.4914635419845581</v>
       </c>
       <c r="D33" t="n">
-        <v>0.8406700331974928</v>
+        <v>0.8078300760232686</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4164769053459167</v>
+        <v>0.9060748815536499</v>
       </c>
     </row>
     <row r="34">
@@ -1081,10 +1081,10 @@
         <v>0.4234172701835632</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7041773732732988</v>
+        <v>0.6881574647992278</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3707099258899689</v>
+        <v>0.6142210960388184</v>
       </c>
     </row>
     <row r="35">
@@ -1100,10 +1100,10 @@
         <v>0.401211142539978</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6391503981322637</v>
+        <v>0.6219464548050148</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3463855087757111</v>
+        <v>0.8230389356613159</v>
       </c>
     </row>
     <row r="36">
@@ -1119,10 +1119,10 @@
         <v>0.4112342000007629</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3806438523032271</v>
+        <v>0.3533342338924644</v>
       </c>
       <c r="E36" t="n">
-        <v>0.328957736492157</v>
+        <v>0.534398078918457</v>
       </c>
     </row>
     <row r="37">
@@ -1138,10 +1138,10 @@
         <v>0.3317763209342957</v>
       </c>
       <c r="D37" t="n">
-        <v>0.643701813248332</v>
+        <v>0.6184546475894324</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3520583808422089</v>
+        <v>0.7225059270858765</v>
       </c>
     </row>
     <row r="38">
@@ -1157,10 +1157,10 @@
         <v>0.4106361269950867</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5725362028759602</v>
+        <v>0.5873390320259895</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3279017806053162</v>
+        <v>0.3839554786682129</v>
       </c>
     </row>
     <row r="39">
@@ -1176,10 +1176,10 @@
         <v>0.3704996705055237</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5376940996563513</v>
+        <v>0.5205569787890593</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3202548325061798</v>
+        <v>0.5084983110427856</v>
       </c>
     </row>
     <row r="40">
@@ -1195,10 +1195,10 @@
         <v>0.4766713380813599</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5038707096362306</v>
+        <v>0.5269002750931512</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3067526817321777</v>
+        <v>0.464025616645813</v>
       </c>
     </row>
     <row r="41">
@@ -1214,10 +1214,10 @@
         <v>0.3072112798690796</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7644148734355436</v>
+        <v>0.7378703319273857</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4092472493648529</v>
+        <v>0.7224135398864746</v>
       </c>
     </row>
     <row r="42">
@@ -1233,10 +1233,10 @@
         <v>0.4512836337089539</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2005450778655851</v>
+        <v>0.224471877409478</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2415615767240524</v>
+        <v>0.2343115210533142</v>
       </c>
     </row>
     <row r="43">
@@ -1252,10 +1252,10 @@
         <v>0.4429749250411987</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5003927376628529</v>
+        <v>0.4914081505846904</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3417916297912598</v>
+        <v>0.4797710180282593</v>
       </c>
     </row>
     <row r="44">
@@ -1271,10 +1271,10 @@
         <v>0.3059540987014771</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5899791305515257</v>
+        <v>0.5543034483941722</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3634026944637299</v>
+        <v>0.6832659244537354</v>
       </c>
     </row>
     <row r="45">
@@ -1290,10 +1290,10 @@
         <v>0.4241412281990051</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4089015870847384</v>
+        <v>0.4411133955521737</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2872469425201416</v>
+        <v>0.3592754602432251</v>
       </c>
     </row>
     <row r="46">
@@ -1309,10 +1309,10 @@
         <v>0.5021176636219025</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2896455357733722</v>
+        <v>0.2740307740676214</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2798677980899811</v>
+        <v>0.3121668100357056</v>
       </c>
     </row>
     <row r="47">
@@ -1328,10 +1328,10 @@
         <v>0.352011501789093</v>
       </c>
       <c r="D47" t="n">
-        <v>0.333304719284623</v>
+        <v>0.4132676708279751</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2518196403980255</v>
+        <v>0.1647806167602539</v>
       </c>
     </row>
     <row r="48">
@@ -1347,10 +1347,10 @@
         <v>0.4837680459022522</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5160024065185888</v>
+        <v>0.5012608501106762</v>
       </c>
       <c r="E48" t="n">
-        <v>0.3213017582893372</v>
+        <v>0.4550658464431763</v>
       </c>
     </row>
     <row r="49">
@@ -1366,10 +1366,10 @@
         <v>0.4238544702529907</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4596630687509267</v>
+        <v>0.4868788762130884</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3031203746795654</v>
+        <v>0.5270390510559082</v>
       </c>
     </row>
     <row r="50">
@@ -1385,10 +1385,10 @@
         <v>0.5074985921382904</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4085868760299292</v>
+        <v>0.3970136782933784</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3175734281539917</v>
+        <v>0.4496980905532837</v>
       </c>
     </row>
     <row r="51">
@@ -1404,10 +1404,10 @@
         <v>0.4362500905990601</v>
       </c>
       <c r="D51" t="n">
-        <v>0.8137514634091724</v>
+        <v>0.7668515515256189</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4460083246231079</v>
+        <v>0.8156111240386963</v>
       </c>
     </row>
     <row r="52">
@@ -1423,10 +1423,10 @@
         <v>0.5072060823440552</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4904422594384888</v>
+        <v>0.5143740108235703</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3218487203121185</v>
+        <v>0.4978469610214233</v>
       </c>
     </row>
     <row r="53">
@@ -1442,10 +1442,10 @@
         <v>0.422666072845459</v>
       </c>
       <c r="D53" t="n">
-        <v>0.8003206252938104</v>
+        <v>0.7506369606225098</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4763549864292145</v>
+        <v>0.8728795051574707</v>
       </c>
     </row>
     <row r="54">
@@ -1461,10 +1461,10 @@
         <v>0.3768035173416138</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5787334776234582</v>
+        <v>0.5581406813733749</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3611535429954529</v>
+        <v>0.6357004642486572</v>
       </c>
     </row>
     <row r="55">
@@ -1480,10 +1480,10 @@
         <v>0.4090797901153564</v>
       </c>
       <c r="D55" t="n">
-        <v>0.6234335561879363</v>
+        <v>0.615325733299028</v>
       </c>
       <c r="E55" t="n">
-        <v>0.3401508033275604</v>
+        <v>0.6517151594161987</v>
       </c>
     </row>
     <row r="56">
@@ -1499,10 +1499,10 @@
         <v>0.4243792295455933</v>
       </c>
       <c r="D56" t="n">
-        <v>0.186764377897887</v>
+        <v>0.2257129012118098</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2125186622142792</v>
+        <v>0.1372278928756714</v>
       </c>
     </row>
     <row r="57">
@@ -1518,10 +1518,10 @@
         <v>0.414300799369812</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5445282202999282</v>
+        <v>0.5474475218260664</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3209510147571564</v>
+        <v>0.3684846162796021</v>
       </c>
     </row>
     <row r="58">
@@ -1537,10 +1537,10 @@
         <v>0.4886954426765442</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4592514831876472</v>
+        <v>0.4257068213972912</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3322112858295441</v>
+        <v>0.416710376739502</v>
       </c>
     </row>
     <row r="59">
@@ -1556,10 +1556,10 @@
         <v>0.5316489636898041</v>
       </c>
       <c r="D59" t="n">
-        <v>0.3078086357472377</v>
+        <v>0.324277307937068</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2785652577877045</v>
+        <v>0.1742652654647827</v>
       </c>
     </row>
     <row r="60">
@@ -1575,10 +1575,10 @@
         <v>0.4718712568283081</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>0.0436871510223838</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1711001396179199</v>
+        <v>0.02745825052261353</v>
       </c>
     </row>
     <row r="61">
@@ -1594,10 +1594,10 @@
         <v>0.3497657179832458</v>
       </c>
       <c r="D61" t="n">
-        <v>0.8096109494943318</v>
+        <v>0.7922328811476829</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4025696814060211</v>
+        <v>0.7995402812957764</v>
       </c>
     </row>
     <row r="62">
@@ -1613,10 +1613,10 @@
         <v>0.3302484750747681</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5738071917082077</v>
+        <v>0.6100223652036029</v>
       </c>
       <c r="E62" t="n">
-        <v>0.3144574761390686</v>
+        <v>0.3729335069656372</v>
       </c>
     </row>
     <row r="63">
@@ -1632,10 +1632,10 @@
         <v>0.3332918286323547</v>
       </c>
       <c r="D63" t="n">
-        <v>0.8731756409905234</v>
+        <v>0.8412674696195548</v>
       </c>
       <c r="E63" t="n">
-        <v>0.3866601884365082</v>
+        <v>0.843023419380188</v>
       </c>
     </row>
     <row r="64">
@@ -1651,10 +1651,10 @@
         <v>0.3703010678291321</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4695497323174547</v>
+        <v>0.4881611810072674</v>
       </c>
       <c r="E64" t="n">
-        <v>0.3324480652809143</v>
+        <v>0.4857807159423828</v>
       </c>
     </row>
     <row r="65">
@@ -1670,10 +1670,10 @@
         <v>0.3376073837280273</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6068667258742793</v>
+        <v>0.6272582180227071</v>
       </c>
       <c r="E65" t="n">
-        <v>0.3545563220977783</v>
+        <v>0.5966999530792236</v>
       </c>
     </row>
     <row r="66">
@@ -1689,10 +1689,10 @@
         <v>0.5282220542430878</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2434721805478675</v>
+        <v>0.2288389815540804</v>
       </c>
       <c r="E66" t="n">
-        <v>0.2969633340835571</v>
+        <v>0.3658820390701294</v>
       </c>
     </row>
     <row r="67">
@@ -1708,10 +1708,10 @@
         <v>0.5515282154083252</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4114272944254174</v>
+        <v>0.427959317504904</v>
       </c>
       <c r="E67" t="n">
-        <v>0.2980005741119385</v>
+        <v>0.3591974973678589</v>
       </c>
     </row>
     <row r="68">
@@ -1727,10 +1727,10 @@
         <v>0.3960380554199219</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5479266382031331</v>
+        <v>0.5925591225130913</v>
       </c>
       <c r="E68" t="n">
-        <v>0.320691704750061</v>
+        <v>0.4916188716888428</v>
       </c>
     </row>
     <row r="69">
@@ -1746,10 +1746,10 @@
         <v>0.2729861736297607</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5477011793988809</v>
+        <v>0.4948999402161726</v>
       </c>
       <c r="E69" t="n">
-        <v>0.3802631795406342</v>
+        <v>0.5156837701797485</v>
       </c>
     </row>
     <row r="70">
@@ -1765,10 +1765,10 @@
         <v>0.3893609046936035</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3082284957436617</v>
+        <v>0.3314333352070569</v>
       </c>
       <c r="E70" t="n">
-        <v>0.2658630311489105</v>
+        <v>0.3637154102325439</v>
       </c>
     </row>
     <row r="71">
@@ -1784,10 +1784,10 @@
         <v>0.3980792760848999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.7038711963848128</v>
+        <v>0.6388851445878183</v>
       </c>
       <c r="E71" t="n">
-        <v>0.3985363841056824</v>
+        <v>0.745023250579834</v>
       </c>
     </row>
     <row r="72">
@@ -1803,10 +1803,10 @@
         <v>0.3973397016525269</v>
       </c>
       <c r="D72" t="n">
-        <v>0.371488874654042</v>
+        <v>0.384305030862348</v>
       </c>
       <c r="E72" t="n">
-        <v>0.2705282866954803</v>
+        <v>0.5210686922073364</v>
       </c>
     </row>
     <row r="73">
@@ -1822,10 +1822,10 @@
         <v>0.3506050109863281</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4762348626730635</v>
+        <v>0.5169058493232235</v>
       </c>
       <c r="E73" t="n">
-        <v>0.2950189113616943</v>
+        <v>0.3743706941604614</v>
       </c>
     </row>
     <row r="74">
@@ -1841,10 +1841,10 @@
         <v>0.3337260484695435</v>
       </c>
       <c r="D74" t="n">
-        <v>0.6939883973878687</v>
+        <v>0.6620616259275335</v>
       </c>
       <c r="E74" t="n">
-        <v>0.399543434381485</v>
+        <v>0.7250519990921021</v>
       </c>
     </row>
     <row r="75">
@@ -1860,10 +1860,10 @@
         <v>0.3301266431808472</v>
       </c>
       <c r="D75" t="n">
-        <v>0.449127131789536</v>
+        <v>0.4764191194772784</v>
       </c>
       <c r="E75" t="n">
-        <v>0.2933976054191589</v>
+        <v>0.4041485786437988</v>
       </c>
     </row>
     <row r="76">
@@ -1879,10 +1879,10 @@
         <v>0.4371283054351807</v>
       </c>
       <c r="D76" t="n">
-        <v>0.3719303008548852</v>
+        <v>0.3841300107054905</v>
       </c>
       <c r="E76" t="n">
-        <v>0.2755948901176453</v>
+        <v>0.3000336289405823</v>
       </c>
     </row>
     <row r="77">
@@ -1898,10 +1898,10 @@
         <v>0.51978999376297</v>
       </c>
       <c r="D77" t="n">
-        <v>0.5872753902738808</v>
+        <v>0.5197333261245638</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3848403692245483</v>
+        <v>0.7782418727874756</v>
       </c>
     </row>
     <row r="78">
@@ -1917,10 +1917,10 @@
         <v>0.3389760255813599</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9301819164990726</v>
+        <v>0.9146738891995038</v>
       </c>
       <c r="E78" t="n">
-        <v>0.4251559674739838</v>
+        <v>0.8968783617019653</v>
       </c>
     </row>
     <row r="79">
@@ -1936,10 +1936,10 @@
         <v>0.3494926691055298</v>
       </c>
       <c r="D79" t="n">
-        <v>0.8883460463517403</v>
+        <v>0.8553941274298166</v>
       </c>
       <c r="E79" t="n">
-        <v>0.4211215972900391</v>
+        <v>0.8780896663665771</v>
       </c>
     </row>
     <row r="80">
@@ -1955,10 +1955,10 @@
         <v>0.3923445343971252</v>
       </c>
       <c r="D80" t="n">
-        <v>0.8202330231885704</v>
+        <v>0.8100385889742545</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3813499510288239</v>
+        <v>0.8250395059585571</v>
       </c>
     </row>
     <row r="81">
@@ -1974,10 +1974,10 @@
         <v>0.4327899813652039</v>
       </c>
       <c r="D81" t="n">
-        <v>0.3658223575711927</v>
+        <v>0.3577619887037198</v>
       </c>
       <c r="E81" t="n">
-        <v>0.2671923637390137</v>
+        <v>0.2119062542915344</v>
       </c>
     </row>
     <row r="82">
@@ -1993,10 +1993,10 @@
         <v>0.3737071752548218</v>
       </c>
       <c r="D82" t="n">
-        <v>0.6392568663399482</v>
+        <v>0.5844862158714405</v>
       </c>
       <c r="E82" t="n">
-        <v>0.3567295968532562</v>
+        <v>0.6822782754898071</v>
       </c>
     </row>
     <row r="83">
@@ -2012,10 +2012,10 @@
         <v>0.4292087554931641</v>
       </c>
       <c r="D83" t="n">
-        <v>0.7362068195589295</v>
+        <v>0.6923398447239247</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4089365899562836</v>
+        <v>0.7716084718704224</v>
       </c>
     </row>
     <row r="84">
@@ -2031,10 +2031,10 @@
         <v>0.3453987836837769</v>
       </c>
       <c r="D84" t="n">
-        <v>0.2303442812301529</v>
+        <v>0.2163786605394558</v>
       </c>
       <c r="E84" t="n">
-        <v>0.2580905556678772</v>
+        <v>0.4532111883163452</v>
       </c>
     </row>
     <row r="85">
@@ -2050,10 +2050,10 @@
         <v>0.3607552051544189</v>
       </c>
       <c r="D85" t="n">
-        <v>0.6188220064441875</v>
+        <v>0.616838370961081</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3553457260131836</v>
+        <v>0.5622304677963257</v>
       </c>
     </row>
     <row r="86">
@@ -2069,10 +2069,10 @@
         <v>0.5053260028362274</v>
       </c>
       <c r="D86" t="n">
-        <v>0.2756885458031615</v>
+        <v>0.2809618289953163</v>
       </c>
       <c r="E86" t="n">
-        <v>0.264664888381958</v>
+        <v>0.414854884147644</v>
       </c>
     </row>
     <row r="87">
@@ -2088,10 +2088,10 @@
         <v>0.3704531192779541</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5289969440122068</v>
+        <v>0.5302564079054582</v>
       </c>
       <c r="E87" t="n">
-        <v>0.3473069965839386</v>
+        <v>0.537729024887085</v>
       </c>
     </row>
     <row r="88">
@@ -2107,10 +2107,10 @@
         <v>0.4378925561904907</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5595404770727759</v>
+        <v>0.5453541254440986</v>
       </c>
       <c r="E88" t="n">
-        <v>0.3551669716835022</v>
+        <v>0.5365762710571289</v>
       </c>
     </row>
     <row r="89">
@@ -2126,10 +2126,10 @@
         <v>0.3489640951156616</v>
       </c>
       <c r="D89" t="n">
-        <v>0.3140643235168202</v>
+        <v>0.2930750920651481</v>
       </c>
       <c r="E89" t="n">
-        <v>0.2925072610378265</v>
+        <v>0.4169957637786865</v>
       </c>
     </row>
     <row r="90">
@@ -2145,10 +2145,10 @@
         <v>0.4873577356338501</v>
       </c>
       <c r="D90" t="n">
-        <v>0.2526676624648406</v>
+        <v>0.2372906976246388</v>
       </c>
       <c r="E90" t="n">
-        <v>0.2523484528064728</v>
+        <v>0.2910094857215881</v>
       </c>
     </row>
     <row r="91">
@@ -2164,10 +2164,10 @@
         <v>0.5303969979286194</v>
       </c>
       <c r="D91" t="n">
-        <v>0.4127381904675428</v>
+        <v>0.4398164413837071</v>
       </c>
       <c r="E91" t="n">
-        <v>0.2915766835212708</v>
+        <v>0.2729471325874329</v>
       </c>
     </row>
     <row r="92">
@@ -2183,10 +2183,10 @@
         <v>0.411342978477478</v>
       </c>
       <c r="D92" t="n">
-        <v>0.3951342779447693</v>
+        <v>0.431316630233343</v>
       </c>
       <c r="E92" t="n">
-        <v>0.2997595071792603</v>
+        <v>0.3865400552749634</v>
       </c>
     </row>
     <row r="93">
@@ -2202,10 +2202,10 @@
         <v>0.351271390914917</v>
       </c>
       <c r="D93" t="n">
-        <v>0.4814090148225293</v>
+        <v>0.4668418806589202</v>
       </c>
       <c r="E93" t="n">
-        <v>0.3266715109348297</v>
+        <v>0.4933158159255981</v>
       </c>
     </row>
     <row r="94">
@@ -2221,10 +2221,10 @@
         <v>0.4380466341972351</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5793623800096949</v>
+        <v>0.5970274722332621</v>
       </c>
       <c r="E94" t="n">
-        <v>0.3373076021671295</v>
+        <v>0.5878901481628418</v>
       </c>
     </row>
     <row r="95">
@@ -2240,10 +2240,10 @@
         <v>0.4449753165245056</v>
       </c>
       <c r="D95" t="n">
-        <v>0.3417202854593807</v>
+        <v>0.296982841254651</v>
       </c>
       <c r="E95" t="n">
-        <v>0.332939088344574</v>
+        <v>0.5072715282440186</v>
       </c>
     </row>
     <row r="96">
@@ -2259,10 +2259,10 @@
         <v>0.4313420057296753</v>
       </c>
       <c r="D96" t="n">
-        <v>0.4094408923469865</v>
+        <v>0.4362939082515417</v>
       </c>
       <c r="E96" t="n">
-        <v>0.2512916922569275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2278,10 +2278,10 @@
         <v>0.4528003931045532</v>
       </c>
       <c r="D97" t="n">
-        <v>0.6004866854835119</v>
+        <v>0.589721761576356</v>
       </c>
       <c r="E97" t="n">
-        <v>0.348604291677475</v>
+        <v>0.5104649066925049</v>
       </c>
     </row>
     <row r="98">
@@ -2297,10 +2297,10 @@
         <v>0.434491753578186</v>
       </c>
       <c r="D98" t="n">
-        <v>0.453425349718437</v>
+        <v>0.4550921315831673</v>
       </c>
       <c r="E98" t="n">
-        <v>0.3095379769802094</v>
+        <v>0.4970592260360718</v>
       </c>
     </row>
     <row r="99">
@@ -2316,10 +2316,10 @@
         <v>0.5056656301021576</v>
       </c>
       <c r="D99" t="n">
-        <v>0.6777444604059943</v>
+        <v>0.6356453714360066</v>
       </c>
       <c r="E99" t="n">
-        <v>0.3854981958866119</v>
+        <v>0.6998101472854614</v>
       </c>
     </row>
     <row r="100">
@@ -2335,10 +2335,10 @@
         <v>0.4635512828826904</v>
       </c>
       <c r="D100" t="n">
-        <v>0.8167969978866652</v>
+        <v>0.7920569873701143</v>
       </c>
       <c r="E100" t="n">
-        <v>0.4044569432735443</v>
+        <v>0.7577341794967651</v>
       </c>
     </row>
     <row r="101">
@@ -2354,10 +2354,10 @@
         <v>0.3707008957862854</v>
       </c>
       <c r="D101" t="n">
-        <v>0.4517791695442719</v>
+        <v>0.4140430158677897</v>
       </c>
       <c r="E101" t="n">
-        <v>0.3201337456703186</v>
+        <v>0.8514002561569214</v>
       </c>
     </row>
     <row r="102">
@@ -2373,10 +2373,10 @@
         <v>0.3833391666412354</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5668168483183852</v>
+        <v>0.5801852323629771</v>
       </c>
       <c r="E102" t="n">
-        <v>0.3158918023109436</v>
+        <v>0.500191330909729</v>
       </c>
     </row>
     <row r="103">
@@ -2392,10 +2392,10 @@
         <v>0.3815202116966248</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6175863780762662</v>
+        <v>0.6415290165764495</v>
       </c>
       <c r="E103" t="n">
-        <v>0.3281418085098267</v>
+        <v>0.5428410768508911</v>
       </c>
     </row>
     <row r="104">
@@ -2411,10 +2411,10 @@
         <v>0.4006341695785522</v>
       </c>
       <c r="D104" t="n">
-        <v>0.3522266313967708</v>
+        <v>0.3631671552045042</v>
       </c>
       <c r="E104" t="n">
-        <v>0.2465976178646088</v>
+        <v>0.2734281420707703</v>
       </c>
     </row>
     <row r="105">
@@ -2430,10 +2430,10 @@
         <v>0.5198417901992798</v>
       </c>
       <c r="D105" t="n">
-        <v>0.6159886993189322</v>
+        <v>0.6100423164439885</v>
       </c>
       <c r="E105" t="n">
-        <v>0.3279949724674225</v>
+        <v>0.568897008895874</v>
       </c>
     </row>
     <row r="106">
@@ -2449,10 +2449,10 @@
         <v>0.4238477945327759</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5821438587348391</v>
+        <v>0.5386956572493644</v>
       </c>
       <c r="E106" t="n">
-        <v>0.3680520355701447</v>
+        <v>0.5794458389282227</v>
       </c>
     </row>
     <row r="107">
@@ -2468,10 +2468,10 @@
         <v>0.3981306552886963</v>
       </c>
       <c r="D107" t="n">
-        <v>0.7152093964646979</v>
+        <v>0.7142410946811519</v>
       </c>
       <c r="E107" t="n">
-        <v>0.3787524998188019</v>
+        <v>0.6103401184082031</v>
       </c>
     </row>
     <row r="108">
@@ -2487,10 +2487,10 @@
         <v>0.3474119305610657</v>
       </c>
       <c r="D108" t="n">
-        <v>0.7156048294914429</v>
+        <v>0.6889539134427998</v>
       </c>
       <c r="E108" t="n">
-        <v>0.3816579580307007</v>
+        <v>0.6853984594345093</v>
       </c>
     </row>
     <row r="109">
@@ -2506,10 +2506,10 @@
         <v>0.3589032888412476</v>
       </c>
       <c r="D109" t="n">
-        <v>0.6024929436827366</v>
+        <v>0.6173587744816841</v>
       </c>
       <c r="E109" t="n">
-        <v>0.3563843667507172</v>
+        <v>0.5438603162765503</v>
       </c>
     </row>
     <row r="110">
@@ -2525,10 +2525,10 @@
         <v>0.3562966585159302</v>
       </c>
       <c r="D110" t="n">
-        <v>0.7442742806809305</v>
+        <v>0.7395960163887838</v>
       </c>
       <c r="E110" t="n">
-        <v>0.3914246261119843</v>
+        <v>0.6869229078292847</v>
       </c>
     </row>
     <row r="111">
@@ -2544,10 +2544,10 @@
         <v>0.4996271729469299</v>
       </c>
       <c r="D111" t="n">
-        <v>0.326528740540571</v>
+        <v>0.3278175688173771</v>
       </c>
       <c r="E111" t="n">
-        <v>0.3040520250797272</v>
+        <v>0.4857543706893921</v>
       </c>
     </row>
     <row r="112">
@@ -2563,10 +2563,10 @@
         <v>0.4731094241142273</v>
       </c>
       <c r="D112" t="n">
-        <v>0.3305320236080006</v>
+        <v>0.318017735898602</v>
       </c>
       <c r="E112" t="n">
-        <v>0.2766251266002655</v>
+        <v>0.3106603622436523</v>
       </c>
     </row>
     <row r="113">
@@ -2582,10 +2582,10 @@
         <v>0.5048799812793732</v>
       </c>
       <c r="D113" t="n">
-        <v>0.6557340559483333</v>
+        <v>0.687337330524587</v>
       </c>
       <c r="E113" t="n">
-        <v>0.3572379052639008</v>
+        <v>0.4567338228225708</v>
       </c>
     </row>
     <row r="114">
@@ -2601,10 +2601,10 @@
         <v>0.3628027439117432</v>
       </c>
       <c r="D114" t="n">
-        <v>0.3110496799551626</v>
+        <v>0.3352113940693094</v>
       </c>
       <c r="E114" t="n">
-        <v>0.2562424838542938</v>
+        <v>0.5485808849334717</v>
       </c>
     </row>
     <row r="115">
@@ -2620,10 +2620,10 @@
         <v>0.3507097363471985</v>
       </c>
       <c r="D115" t="n">
-        <v>0.8101871045343427</v>
+        <v>0.7656477361428566</v>
       </c>
       <c r="E115" t="n">
-        <v>0.4207941591739655</v>
+        <v>0.7985867261886597</v>
       </c>
     </row>
     <row r="116">
@@ -2639,10 +2639,10 @@
         <v>0.5062442421913147</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5934770141581799</v>
+        <v>0.5991717630073409</v>
       </c>
       <c r="E116" t="n">
-        <v>0.3536885678768158</v>
+        <v>0.5870664119720459</v>
       </c>
     </row>
     <row r="117">
@@ -2658,10 +2658,10 @@
         <v>0.5334791839122772</v>
       </c>
       <c r="D117" t="n">
-        <v>0.2076183463965128</v>
+        <v>0.284687898093765</v>
       </c>
       <c r="E117" t="n">
-        <v>0.2190341353416443</v>
+        <v>0.07878464460372925</v>
       </c>
     </row>
     <row r="118">
@@ -2677,10 +2677,10 @@
         <v>0.5689852833747864</v>
       </c>
       <c r="D118" t="n">
-        <v>0.1579186337034669</v>
+        <v>0.1525276935761176</v>
       </c>
       <c r="E118" t="n">
-        <v>0.2342034876346588</v>
+        <v>0.2963701486587524</v>
       </c>
     </row>
     <row r="119">
@@ -2696,10 +2696,10 @@
         <v>0.5646881461143494</v>
       </c>
       <c r="D119" t="n">
-        <v>0.6516583977688162</v>
+        <v>0.648534066399944</v>
       </c>
       <c r="E119" t="n">
-        <v>0.3090153634548187</v>
+        <v>0.3335795402526855</v>
       </c>
     </row>
     <row r="120">
@@ -2715,10 +2715,10 @@
         <v>0.3670908212661743</v>
       </c>
       <c r="D120" t="n">
-        <v>0.5003805716847527</v>
+        <v>0.4629611806648403</v>
       </c>
       <c r="E120" t="n">
-        <v>0.3625924587249756</v>
+        <v>0.5695246458053589</v>
       </c>
     </row>
     <row r="121">
@@ -2734,10 +2734,10 @@
         <v>0.3448203206062317</v>
       </c>
       <c r="D121" t="n">
-        <v>0.3852531313044293</v>
+        <v>0.4117382663887237</v>
       </c>
       <c r="E121" t="n">
-        <v>0.3075237274169922</v>
+        <v>0.3207629919052124</v>
       </c>
     </row>
     <row r="122">
@@ -2753,10 +2753,10 @@
         <v>0.4151703715324402</v>
       </c>
       <c r="D122" t="n">
-        <v>0.7363774751900829</v>
+        <v>0.7390524821316555</v>
       </c>
       <c r="E122" t="n">
-        <v>0.3688942492008209</v>
+        <v>0.6580761671066284</v>
       </c>
     </row>
     <row r="123">
@@ -2772,10 +2772,10 @@
         <v>0.4172475337982178</v>
       </c>
       <c r="D123" t="n">
-        <v>0.3481182439465114</v>
+        <v>0.3588295719086791</v>
       </c>
       <c r="E123" t="n">
-        <v>0.2669634521007538</v>
+        <v>0.4935256242752075</v>
       </c>
     </row>
     <row r="124">
@@ -2791,10 +2791,10 @@
         <v>0.3722312450408936</v>
       </c>
       <c r="D124" t="n">
-        <v>0.2329683492779049</v>
+        <v>0.2518499651104993</v>
       </c>
       <c r="E124" t="n">
-        <v>0.2624796032905579</v>
+        <v>0.3999811410903931</v>
       </c>
     </row>
     <row r="125">
@@ -2810,10 +2810,10 @@
         <v>0.3496925830841064</v>
       </c>
       <c r="D125" t="n">
-        <v>0.4668998612469218</v>
+        <v>0.47634835474987</v>
       </c>
       <c r="E125" t="n">
-        <v>0.3128005862236023</v>
+        <v>0.4432196617126465</v>
       </c>
     </row>
     <row r="126">
@@ -2829,10 +2829,10 @@
         <v>0.4666987061500549</v>
       </c>
       <c r="D126" t="n">
-        <v>0.5865494033047405</v>
+        <v>0.6407855645388454</v>
       </c>
       <c r="E126" t="n">
-        <v>0.3186877071857452</v>
+        <v>0.3680546283721924</v>
       </c>
     </row>
     <row r="127">
@@ -2848,10 +2848,10 @@
         <v>0.4520687460899353</v>
       </c>
       <c r="D127" t="n">
-        <v>0.5463434594426863</v>
+        <v>0.531523979576641</v>
       </c>
       <c r="E127" t="n">
-        <v>0.3339145183563232</v>
+        <v>0.5155515670776367</v>
       </c>
     </row>
     <row r="128">
@@ -2867,10 +2867,10 @@
         <v>0.4231154918670654</v>
       </c>
       <c r="D128" t="n">
-        <v>0.4072987375182022</v>
+        <v>0.3882329214550708</v>
       </c>
       <c r="E128" t="n">
-        <v>0.2966647148132324</v>
+        <v>0.4858467578887939</v>
       </c>
     </row>
     <row r="129">
@@ -2886,10 +2886,10 @@
         <v>0.4920030832290649</v>
       </c>
       <c r="D129" t="n">
-        <v>0.8172234851210609</v>
+        <v>0.7930517229927462</v>
       </c>
       <c r="E129" t="n">
-        <v>0.4027939736843109</v>
+        <v>0.7969862222671509</v>
       </c>
     </row>
     <row r="130">
@@ -2905,10 +2905,10 @@
         <v>0.4198319911956787</v>
       </c>
       <c r="D130" t="n">
-        <v>0.2655126790533767</v>
+        <v>0.287514107971471</v>
       </c>
       <c r="E130" t="n">
-        <v>0.2302440851926804</v>
+        <v>0.1740119457244873</v>
       </c>
     </row>
     <row r="131">
@@ -2927,7 +2927,7 @@
         <v>1</v>
       </c>
       <c r="E131" t="n">
-        <v>0.4348098337650299</v>
+        <v>0.8904651403427124</v>
       </c>
     </row>
     <row r="132">
@@ -2943,10 +2943,10 @@
         <v>0.413801372051239</v>
       </c>
       <c r="D132" t="n">
-        <v>0.4561219958759843</v>
+        <v>0.391853760359141</v>
       </c>
       <c r="E132" t="n">
-        <v>0.3551146388053894</v>
+        <v>0.7387233972549438</v>
       </c>
     </row>
     <row r="133">
@@ -2962,10 +2962,10 @@
         <v>0.3620471954345703</v>
       </c>
       <c r="D133" t="n">
-        <v>0.6529596409868981</v>
+        <v>0.65171087827096</v>
       </c>
       <c r="E133" t="n">
-        <v>0.3548021018505096</v>
+        <v>0.5764850378036499</v>
       </c>
     </row>
     <row r="134">
@@ -2981,10 +2981,10 @@
         <v>0.3471646308898926</v>
       </c>
       <c r="D134" t="n">
-        <v>0.7513501027688749</v>
+        <v>0.7132662182700743</v>
       </c>
       <c r="E134" t="n">
-        <v>0.389038622379303</v>
+        <v>0.7424541711807251</v>
       </c>
     </row>
     <row r="135">
@@ -3000,10 +3000,10 @@
         <v>0.3548591732978821</v>
       </c>
       <c r="D135" t="n">
-        <v>0.4505662836508093</v>
+        <v>0.4424940551456553</v>
       </c>
       <c r="E135" t="n">
-        <v>0.3109111189842224</v>
+        <v>0.3851691484451294</v>
       </c>
     </row>
     <row r="136">
@@ -3019,10 +3019,10 @@
         <v>0.3926620483398438</v>
       </c>
       <c r="D136" t="n">
-        <v>0.3716043921484325</v>
+        <v>0.3678440918715143</v>
       </c>
       <c r="E136" t="n">
-        <v>0.2974668443202972</v>
+        <v>0.4857248067855835</v>
       </c>
     </row>
     <row r="137">
@@ -3038,10 +3038,10 @@
         <v>0.3766688704490662</v>
       </c>
       <c r="D137" t="n">
-        <v>0.3602442582966465</v>
+        <v>0.3477340459372013</v>
       </c>
       <c r="E137" t="n">
-        <v>0.2829892635345459</v>
+        <v>0.4742112159729004</v>
       </c>
     </row>
     <row r="138">
@@ -3057,10 +3057,10 @@
         <v>0.3574055433273315</v>
       </c>
       <c r="D138" t="n">
-        <v>0.3383342725218927</v>
+        <v>0.3627333013999131</v>
       </c>
       <c r="E138" t="n">
-        <v>0.2474231123924255</v>
+        <v>0.1456945538520813</v>
       </c>
     </row>
     <row r="139">
@@ -3076,10 +3076,10 @@
         <v>0.3701496124267578</v>
       </c>
       <c r="D139" t="n">
-        <v>0.5414278154421422</v>
+        <v>0.5432253281601593</v>
       </c>
       <c r="E139" t="n">
-        <v>0.3045995533466339</v>
+        <v>0.5105941295623779</v>
       </c>
     </row>
     <row r="140">
@@ -3095,10 +3095,10 @@
         <v>0.4150612950325012</v>
       </c>
       <c r="D140" t="n">
-        <v>0.5978038603527056</v>
+        <v>0.5992331877860417</v>
       </c>
       <c r="E140" t="n">
-        <v>0.3555777072906494</v>
+        <v>0.6245576143264771</v>
       </c>
     </row>
     <row r="141">
@@ -3114,10 +3114,10 @@
         <v>0.3893605470657349</v>
       </c>
       <c r="D141" t="n">
-        <v>0.7606450446375734</v>
+        <v>0.7027986545526137</v>
       </c>
       <c r="E141" t="n">
-        <v>0.4114838838577271</v>
+        <v>0.8559033870697021</v>
       </c>
     </row>
     <row r="142">
@@ -3133,10 +3133,10 @@
         <v>0.3999627232551575</v>
       </c>
       <c r="D142" t="n">
-        <v>0.3248788099659551</v>
+        <v>0.3724425899115714</v>
       </c>
       <c r="E142" t="n">
-        <v>0.2479649633169174</v>
+        <v>0.3140213489532471</v>
       </c>
     </row>
     <row r="143">
@@ -3152,10 +3152,10 @@
         <v>0.3958209156990051</v>
       </c>
       <c r="D143" t="n">
-        <v>0.6449254707683332</v>
+        <v>0.6285823341231541</v>
       </c>
       <c r="E143" t="n">
-        <v>0.336914449930191</v>
+        <v>0.5426557064056396</v>
       </c>
     </row>
     <row r="144">
@@ -3171,10 +3171,10 @@
         <v>0.5065527856349945</v>
       </c>
       <c r="D144" t="n">
-        <v>0.2910065864195924</v>
+        <v>0.3025488152435983</v>
       </c>
       <c r="E144" t="n">
-        <v>0.2290596663951874</v>
+        <v>0.2696664333343506</v>
       </c>
     </row>
     <row r="145">
@@ -3190,10 +3190,10 @@
         <v>0.3996473550796509</v>
       </c>
       <c r="D145" t="n">
-        <v>0.7244609142174261</v>
+        <v>0.713130478705313</v>
       </c>
       <c r="E145" t="n">
-        <v>0.334004282951355</v>
+        <v>0.3881702423095703</v>
       </c>
     </row>
     <row r="146">
@@ -3209,10 +3209,10 @@
         <v>0.3528652191162109</v>
       </c>
       <c r="D146" t="n">
-        <v>0.6177515676508191</v>
+        <v>0.6273845011209318</v>
       </c>
       <c r="E146" t="n">
-        <v>0.3254185914993286</v>
+        <v>0.4160361289978027</v>
       </c>
     </row>
     <row r="147">
@@ -3228,10 +3228,10 @@
         <v>0.5003732144832611</v>
       </c>
       <c r="D147" t="n">
-        <v>0.4409377566944086</v>
+        <v>0.4586318672384466</v>
       </c>
       <c r="E147" t="n">
-        <v>0.2936669588088989</v>
+        <v>0.3685939311981201</v>
       </c>
     </row>
     <row r="148">
@@ -3247,10 +3247,10 @@
         <v>0.401368260383606</v>
       </c>
       <c r="D148" t="n">
-        <v>0.6822471714911353</v>
+        <v>0.6643106455924876</v>
       </c>
       <c r="E148" t="n">
-        <v>0.3930828869342804</v>
+        <v>0.689522385597229</v>
       </c>
     </row>
     <row r="149">
@@ -3266,10 +3266,10 @@
         <v>0.4605728983879089</v>
       </c>
       <c r="D149" t="n">
-        <v>0.229207907078953</v>
+        <v>0.2679115008781386</v>
       </c>
       <c r="E149" t="n">
-        <v>0.221895232796669</v>
+        <v>0.1088623404502869</v>
       </c>
     </row>
     <row r="150">
@@ -3285,10 +3285,10 @@
         <v>0.3422582149505615</v>
       </c>
       <c r="D150" t="n">
-        <v>0.4447499953820174</v>
+        <v>0.4339377239053986</v>
       </c>
       <c r="E150" t="n">
-        <v>0.3048452734947205</v>
+        <v>0.480970025062561</v>
       </c>
     </row>
     <row r="151">
@@ -3304,10 +3304,10 @@
         <v>0.3373516201972961</v>
       </c>
       <c r="D151" t="n">
-        <v>0.6523426750322254</v>
+        <v>0.6529545960031772</v>
       </c>
       <c r="E151" t="n">
-        <v>0.3641874492168427</v>
+        <v>0.5070890188217163</v>
       </c>
     </row>
     <row r="152">
@@ -3323,10 +3323,10 @@
         <v>0.4600169658660889</v>
       </c>
       <c r="D152" t="n">
-        <v>0.2425283543276618</v>
+        <v>0.2827727673027198</v>
       </c>
       <c r="E152" t="n">
-        <v>0.2417089343070984</v>
+        <v>0.1245633363723755</v>
       </c>
     </row>
     <row r="153">
@@ -3342,10 +3342,10 @@
         <v>0.486409068107605</v>
       </c>
       <c r="D153" t="n">
-        <v>0.8305519596701881</v>
+        <v>0.7986643107342619</v>
       </c>
       <c r="E153" t="n">
-        <v>0.440483033657074</v>
+        <v>0.7840514183044434</v>
       </c>
     </row>
     <row r="154">
@@ -3361,10 +3361,10 @@
         <v>0.3686760067939758</v>
       </c>
       <c r="D154" t="n">
-        <v>0.6398363875567967</v>
+        <v>0.6681306988890261</v>
       </c>
       <c r="E154" t="n">
-        <v>0.3475383520126343</v>
+        <v>0.4640085697174072</v>
       </c>
     </row>
     <row r="155">
@@ -3380,10 +3380,10 @@
         <v>0.4201706647872925</v>
       </c>
       <c r="D155" t="n">
-        <v>0.6951128286309145</v>
+        <v>0.6677288752445207</v>
       </c>
       <c r="E155" t="n">
-        <v>0.4092824757099152</v>
+        <v>0.6206921339035034</v>
       </c>
     </row>
     <row r="156">
@@ -3399,10 +3399,10 @@
         <v>0.4925417304039001</v>
       </c>
       <c r="D156" t="n">
-        <v>0.5222646030184412</v>
+        <v>0.5133360349608135</v>
       </c>
       <c r="E156" t="n">
-        <v>0.3475001156330109</v>
+        <v>0.5148030519485474</v>
       </c>
     </row>
     <row r="157">
@@ -3418,10 +3418,10 @@
         <v>0.4599838256835938</v>
       </c>
       <c r="D157" t="n">
-        <v>0.2279199221234276</v>
+        <v>0.2114765545149055</v>
       </c>
       <c r="E157" t="n">
-        <v>0.2638831734657288</v>
+        <v>0.3585561513900757</v>
       </c>
     </row>
     <row r="158">
@@ -3437,10 +3437,10 @@
         <v>0.3406170010566711</v>
       </c>
       <c r="D158" t="n">
-        <v>0.6305093830814368</v>
+        <v>0.6204973523974888</v>
       </c>
       <c r="E158" t="n">
-        <v>0.3949963450431824</v>
+        <v>0.6516467332839966</v>
       </c>
     </row>
     <row r="159">
@@ -3456,10 +3456,10 @@
         <v>0.4131739139556885</v>
       </c>
       <c r="D159" t="n">
-        <v>0.7553070853748489</v>
+        <v>0.7249176580366468</v>
       </c>
       <c r="E159" t="n">
-        <v>0.415307879447937</v>
+        <v>0.708965539932251</v>
       </c>
     </row>
     <row r="160">
@@ -3475,10 +3475,10 @@
         <v>0.4097515940666199</v>
       </c>
       <c r="D160" t="n">
-        <v>0.6472029960903064</v>
+        <v>0.6366397729263417</v>
       </c>
       <c r="E160" t="n">
-        <v>0.3637090623378754</v>
+        <v>0.6266645193099976</v>
       </c>
     </row>
     <row r="161">
@@ -3494,10 +3494,10 @@
         <v>0.4745384454727173</v>
       </c>
       <c r="D161" t="n">
-        <v>0.2258732884862843</v>
+        <v>0.2558568919187612</v>
       </c>
       <c r="E161" t="n">
-        <v>0.2037807106971741</v>
+        <v>0.2684544920921326</v>
       </c>
     </row>
     <row r="162">
@@ -3513,10 +3513,10 @@
         <v>0.4099180698394775</v>
       </c>
       <c r="D162" t="n">
-        <v>0.5055944330192897</v>
+        <v>0.5041334903540809</v>
       </c>
       <c r="E162" t="n">
-        <v>0.3581000864505768</v>
+        <v>0.4598367214202881</v>
       </c>
     </row>
     <row r="163">
@@ -3532,10 +3532,10 @@
         <v>0.3585231304168701</v>
       </c>
       <c r="D163" t="n">
-        <v>0.6422702459482565</v>
+        <v>0.6350497167410412</v>
       </c>
       <c r="E163" t="n">
-        <v>0.3394140005111694</v>
+        <v>0.5303043127059937</v>
       </c>
     </row>
     <row r="164">
@@ -3551,10 +3551,10 @@
         <v>0.3713550567626953</v>
       </c>
       <c r="D164" t="n">
-        <v>0.5382414352954227</v>
+        <v>0.5313329110510701</v>
       </c>
       <c r="E164" t="n">
-        <v>0.3156325817108154</v>
+        <v>0.5784229040145874</v>
       </c>
     </row>
     <row r="165">
@@ -3570,10 +3570,10 @@
         <v>0.3460270762443542</v>
       </c>
       <c r="D165" t="n">
-        <v>0.5649658988436861</v>
+        <v>0.5964767828909471</v>
       </c>
       <c r="E165" t="n">
-        <v>0.32876056432724</v>
+        <v>0.3803068399429321</v>
       </c>
     </row>
     <row r="166">
@@ -3589,10 +3589,10 @@
         <v>0.4435329437255859</v>
       </c>
       <c r="D166" t="n">
-        <v>0.5303799613737538</v>
+        <v>0.5678150478400172</v>
       </c>
       <c r="E166" t="n">
-        <v>0.2989640235900879</v>
+        <v>0.3289245367050171</v>
       </c>
     </row>
     <row r="167">
@@ -3608,10 +3608,10 @@
         <v>0.3931361436843872</v>
       </c>
       <c r="D167" t="n">
-        <v>0.5533608565303745</v>
+        <v>0.5324371561896548</v>
       </c>
       <c r="E167" t="n">
-        <v>0.3512397706508636</v>
+        <v>0.6190277338027954</v>
       </c>
     </row>
     <row r="168">
@@ -3627,10 +3627,10 @@
         <v>0.3336682319641113</v>
       </c>
       <c r="D168" t="n">
-        <v>0.4531888718182911</v>
+        <v>0.4752738134752427</v>
       </c>
       <c r="E168" t="n">
-        <v>0.2998546063899994</v>
+        <v>0.2735278606414795</v>
       </c>
     </row>
     <row r="169">
@@ -3646,10 +3646,10 @@
         <v>0.3152753710746765</v>
       </c>
       <c r="D169" t="n">
-        <v>0.401848969295322</v>
+        <v>0.4281773300454242</v>
       </c>
       <c r="E169" t="n">
-        <v>0.2819216549396515</v>
+        <v>0.3165531158447266</v>
       </c>
     </row>
     <row r="170">
@@ -3665,10 +3665,10 @@
         <v>0.4532883763313293</v>
       </c>
       <c r="D170" t="n">
-        <v>0.4417667562438528</v>
+        <v>0.4305238694826122</v>
       </c>
       <c r="E170" t="n">
-        <v>0.3202259242534637</v>
+        <v>0.5167598724365234</v>
       </c>
     </row>
     <row r="171">
@@ -3684,10 +3684,10 @@
         <v>0.3431857228279114</v>
       </c>
       <c r="D171" t="n">
-        <v>0.4393118911669173</v>
+        <v>0.3888976775405714</v>
       </c>
       <c r="E171" t="n">
-        <v>0.3484539091587067</v>
+        <v>0.7082692384719849</v>
       </c>
     </row>
     <row r="172">
@@ -3703,10 +3703,10 @@
         <v>0.4422545433044434</v>
       </c>
       <c r="D172" t="n">
-        <v>0.4234953893952308</v>
+        <v>0.3874777254644122</v>
       </c>
       <c r="E172" t="n">
-        <v>0.3228376507759094</v>
+        <v>0.4706805944442749</v>
       </c>
     </row>
     <row r="173">
@@ -3722,10 +3722,10 @@
         <v>0.3582428097724915</v>
       </c>
       <c r="D173" t="n">
-        <v>0.612644032798873</v>
+        <v>0.6394400686054684</v>
       </c>
       <c r="E173" t="n">
-        <v>0.3251441419124603</v>
+        <v>0.4482684135437012</v>
       </c>
     </row>
     <row r="174">
@@ -3741,10 +3741,10 @@
         <v>0.37678062915802</v>
       </c>
       <c r="D174" t="n">
-        <v>0.7158558277887077</v>
+        <v>0.7234306254589239</v>
       </c>
       <c r="E174" t="n">
-        <v>0.3437033593654633</v>
+        <v>0.6889363527297974</v>
       </c>
     </row>
     <row r="175">
@@ -3760,10 +3760,10 @@
         <v>0.2992711067199707</v>
       </c>
       <c r="D175" t="n">
-        <v>0.3603752761038813</v>
+        <v>0.3320352738078148</v>
       </c>
       <c r="E175" t="n">
-        <v>0.2996416985988617</v>
+        <v>0.4025661945343018</v>
       </c>
     </row>
     <row r="176">
@@ -3779,10 +3779,10 @@
         <v>0.460364818572998</v>
       </c>
       <c r="D176" t="n">
-        <v>0.4191622526074782</v>
+        <v>0.4525021083452706</v>
       </c>
       <c r="E176" t="n">
-        <v>0.2948406338691711</v>
+        <v>0.2928779125213623</v>
       </c>
     </row>
     <row r="177">
@@ -3798,10 +3798,10 @@
         <v>0.4367918968200684</v>
       </c>
       <c r="D177" t="n">
-        <v>0.5051903811501658</v>
+        <v>0.4686584989173575</v>
       </c>
       <c r="E177" t="n">
-        <v>0.3458338975906372</v>
+        <v>0.5563528537750244</v>
       </c>
     </row>
     <row r="178">
@@ -3817,10 +3817,10 @@
         <v>0.3736805319786072</v>
       </c>
       <c r="D178" t="n">
-        <v>0.5505311948166947</v>
+        <v>0.5856840873475903</v>
       </c>
       <c r="E178" t="n">
-        <v>0.2998038828372955</v>
+        <v>0.4500360488891602</v>
       </c>
     </row>
     <row r="179">
@@ -3836,10 +3836,10 @@
         <v>0.4246033430099487</v>
       </c>
       <c r="D179" t="n">
-        <v>0.393052318371826</v>
+        <v>0.4095455514711904</v>
       </c>
       <c r="E179" t="n">
-        <v>0.254956841468811</v>
+        <v>0.3789914846420288</v>
       </c>
     </row>
     <row r="180">
@@ -3855,10 +3855,10 @@
         <v>0.4445632100105286</v>
       </c>
       <c r="D180" t="n">
-        <v>0.574582470847295</v>
+        <v>0.588797932176656</v>
       </c>
       <c r="E180" t="n">
-        <v>0.3562244176864624</v>
+        <v>0.4960925579071045</v>
       </c>
     </row>
     <row r="181">
@@ -3874,10 +3874,10 @@
         <v>0.4203585386276245</v>
       </c>
       <c r="D181" t="n">
-        <v>0.7543874769813708</v>
+        <v>0.7626128478787573</v>
       </c>
       <c r="E181" t="n">
-        <v>0.3818352818489075</v>
+        <v>0.5144643783569336</v>
       </c>
     </row>
     <row r="182">
@@ -3893,10 +3893,10 @@
         <v>0.3879453539848328</v>
       </c>
       <c r="D182" t="n">
-        <v>0.312601707276444</v>
+        <v>0.3401303740195293</v>
       </c>
       <c r="E182" t="n">
-        <v>0.2472872734069824</v>
+        <v>0.2367598414421082</v>
       </c>
     </row>
     <row r="183">
@@ -3912,10 +3912,10 @@
         <v>0.3182101845741272</v>
       </c>
       <c r="D183" t="n">
-        <v>0.5140489288122608</v>
+        <v>0.5037709733567705</v>
       </c>
       <c r="E183" t="n">
-        <v>0.3511329889297485</v>
+        <v>0.5477159023284912</v>
       </c>
     </row>
     <row r="184">
@@ -3931,10 +3931,10 @@
         <v>0.3450238108634949</v>
       </c>
       <c r="D184" t="n">
-        <v>0.6237623318494331</v>
+        <v>0.6103391820721676</v>
       </c>
       <c r="E184" t="n">
-        <v>0.3436769545078278</v>
+        <v>0.6427892446517944</v>
       </c>
     </row>
     <row r="185">
@@ -3950,10 +3950,10 @@
         <v>0.4061427116394043</v>
       </c>
       <c r="D185" t="n">
-        <v>0.7854766509746001</v>
+        <v>0.747884717488397</v>
       </c>
       <c r="E185" t="n">
-        <v>0.4031146168708801</v>
+        <v>0.752791166305542</v>
       </c>
     </row>
     <row r="186">
@@ -3969,10 +3969,10 @@
         <v>0.4243248701095581</v>
       </c>
       <c r="D186" t="n">
-        <v>0.2052686182343323</v>
+        <v>0.2373114156849133</v>
       </c>
       <c r="E186" t="n">
-        <v>0.2209659665822983</v>
+        <v>0.2563125491142273</v>
       </c>
     </row>
     <row r="187">
@@ -3988,10 +3988,10 @@
         <v>0.3894197940826416</v>
       </c>
       <c r="D187" t="n">
-        <v>0.4651482820979406</v>
+        <v>0.4788238632566368</v>
       </c>
       <c r="E187" t="n">
-        <v>0.3011743426322937</v>
+        <v>0.4368557929992676</v>
       </c>
     </row>
     <row r="188">
@@ -4007,10 +4007,10 @@
         <v>0.3494415879249573</v>
       </c>
       <c r="D188" t="n">
-        <v>0.6162745222965682</v>
+        <v>0.5919654476944822</v>
       </c>
       <c r="E188" t="n">
-        <v>0.3635029494762421</v>
+        <v>0.5531498193740845</v>
       </c>
     </row>
     <row r="189">
@@ -4026,10 +4026,10 @@
         <v>0.3376830220222473</v>
       </c>
       <c r="D189" t="n">
-        <v>0.5397773290067381</v>
+        <v>0.5270580116038031</v>
       </c>
       <c r="E189" t="n">
-        <v>0.3672282099723816</v>
+        <v>0.4338048696517944</v>
       </c>
     </row>
     <row r="190">
@@ -4045,10 +4045,10 @@
         <v>0.3591710925102234</v>
       </c>
       <c r="D190" t="n">
-        <v>0.4897300470567975</v>
+        <v>0.48022769420441</v>
       </c>
       <c r="E190" t="n">
-        <v>0.3202085494995117</v>
+        <v>0.422533392906189</v>
       </c>
     </row>
     <row r="191">
@@ -4064,10 +4064,10 @@
         <v>0.4580976963043213</v>
       </c>
       <c r="D191" t="n">
-        <v>0.6569320533147465</v>
+        <v>0.6678305917443127</v>
       </c>
       <c r="E191" t="n">
-        <v>0.3414907157421112</v>
+        <v>0.6415274143218994</v>
       </c>
     </row>
     <row r="192">
@@ -4083,10 +4083,10 @@
         <v>0.3364182710647583</v>
       </c>
       <c r="D192" t="n">
-        <v>0.5879092420299313</v>
+        <v>0.5854446706297738</v>
       </c>
       <c r="E192" t="n">
-        <v>0.3619042634963989</v>
+        <v>0.6189002990722656</v>
       </c>
     </row>
     <row r="193">
@@ -4102,10 +4102,10 @@
         <v>0.4793822765350342</v>
       </c>
       <c r="D193" t="n">
-        <v>0.6467239737471064</v>
+        <v>0.6519907928769666</v>
       </c>
       <c r="E193" t="n">
-        <v>0.3473035395145416</v>
+        <v>0.6598019599914551</v>
       </c>
     </row>
     <row r="194">
@@ -4121,10 +4121,10 @@
         <v>0.4342333078384399</v>
       </c>
       <c r="D194" t="n">
-        <v>0.3413952725234781</v>
+        <v>0.3857389304022416</v>
       </c>
       <c r="E194" t="n">
-        <v>0.2625297605991364</v>
+        <v>0.3032733201980591</v>
       </c>
     </row>
     <row r="195">
@@ -4140,10 +4140,10 @@
         <v>0.3410910367965698</v>
       </c>
       <c r="D195" t="n">
-        <v>0.7381181548437215</v>
+        <v>0.7039908218247067</v>
       </c>
       <c r="E195" t="n">
-        <v>0.3648695647716522</v>
+        <v>0.7291226387023926</v>
       </c>
     </row>
     <row r="196">
@@ -4159,10 +4159,10 @@
         <v>0.4436343908309937</v>
       </c>
       <c r="D196" t="n">
-        <v>0.5887458521465457</v>
+        <v>0.5596460740808962</v>
       </c>
       <c r="E196" t="n">
-        <v>0.3593446612358093</v>
+        <v>0.797455906867981</v>
       </c>
     </row>
     <row r="197">
@@ -4178,10 +4178,10 @@
         <v>0.3474425673484802</v>
       </c>
       <c r="D197" t="n">
-        <v>0.6326483208753498</v>
+        <v>0.6261667529512854</v>
       </c>
       <c r="E197" t="n">
-        <v>0.3590371608734131</v>
+        <v>0.588448166847229</v>
       </c>
     </row>
     <row r="198">
@@ -4197,10 +4197,10 @@
         <v>0.4233912229537964</v>
       </c>
       <c r="D198" t="n">
-        <v>0.6789825665000031</v>
+        <v>0.6531804777012302</v>
       </c>
       <c r="E198" t="n">
-        <v>0.3646087646484375</v>
+        <v>0.6915570497512817</v>
       </c>
     </row>
     <row r="199">
@@ -4216,10 +4216,10 @@
         <v>0.5225757658481598</v>
       </c>
       <c r="D199" t="n">
-        <v>0.5594678183516649</v>
+        <v>0.6025327734017238</v>
       </c>
       <c r="E199" t="n">
-        <v>0.282008945941925</v>
+        <v>0.1123009324073792</v>
       </c>
     </row>
     <row r="200">
@@ -4235,10 +4235,10 @@
         <v>0.3867651224136353</v>
       </c>
       <c r="D200" t="n">
-        <v>0.4366450205489274</v>
+        <v>0.431740458156841</v>
       </c>
       <c r="E200" t="n">
-        <v>0.3199330568313599</v>
+        <v>0.4031950235366821</v>
       </c>
     </row>
     <row r="201">
@@ -4254,10 +4254,10 @@
         <v>0.4856423735618591</v>
       </c>
       <c r="D201" t="n">
-        <v>0.3705161228666759</v>
+        <v>0.3460986956255455</v>
       </c>
       <c r="E201" t="n">
-        <v>0.3109845817089081</v>
+        <v>0.5508662462234497</v>
       </c>
     </row>
     <row r="202">
@@ -4273,10 +4273,10 @@
         <v>0.387920618057251</v>
       </c>
       <c r="D202" t="n">
-        <v>0.6371207124728865</v>
+        <v>0.5747144062737374</v>
       </c>
       <c r="E202" t="n">
-        <v>0.3630879521369934</v>
+        <v>0.700533390045166</v>
       </c>
     </row>
     <row r="203">
@@ -4292,10 +4292,10 @@
         <v>0.3863934278488159</v>
       </c>
       <c r="D203" t="n">
-        <v>0.4631410104767616</v>
+        <v>0.4593736006153816</v>
       </c>
       <c r="E203" t="n">
-        <v>0.3034780025482178</v>
+        <v>0.3333641886711121</v>
       </c>
     </row>
     <row r="204">
@@ -4311,10 +4311,10 @@
         <v>0.2870893478393555</v>
       </c>
       <c r="D204" t="n">
-        <v>0.4886493512147775</v>
+        <v>0.5080531136935033</v>
       </c>
       <c r="E204" t="n">
-        <v>0.2941492199897766</v>
+        <v>0.1907501220703125</v>
       </c>
     </row>
     <row r="205">
@@ -4330,10 +4330,10 @@
         <v>0.4532497525215149</v>
       </c>
       <c r="D205" t="n">
-        <v>0.4188489226799816</v>
+        <v>0.4430635965155212</v>
       </c>
       <c r="E205" t="n">
-        <v>0.2910186052322388</v>
+        <v>0.2818751931190491</v>
       </c>
     </row>
     <row r="206">
@@ -4349,10 +4349,10 @@
         <v>0.5455437898635864</v>
       </c>
       <c r="D206" t="n">
-        <v>0.6922659580528661</v>
+        <v>0.7202942444674449</v>
       </c>
       <c r="E206" t="n">
-        <v>0.3484833836555481</v>
+        <v>0.5602633953094482</v>
       </c>
     </row>
     <row r="207">
@@ -4368,10 +4368,10 @@
         <v>0.2938455939292908</v>
       </c>
       <c r="D207" t="n">
-        <v>0.5198235067264689</v>
+        <v>0.5165404240532057</v>
       </c>
       <c r="E207" t="n">
-        <v>0.3167439997196198</v>
+        <v>0.5702530145645142</v>
       </c>
     </row>
     <row r="208">
@@ -4387,10 +4387,10 @@
         <v>0.4335538148880005</v>
       </c>
       <c r="D208" t="n">
-        <v>0.1787363632444668</v>
+        <v>0.1566119045654896</v>
       </c>
       <c r="E208" t="n">
-        <v>0.2561859786510468</v>
+        <v>0.4445116519927979</v>
       </c>
     </row>
     <row r="209">
@@ -4406,10 +4406,10 @@
         <v>0.421266496181488</v>
       </c>
       <c r="D209" t="n">
-        <v>0.9479314522908466</v>
+        <v>0.9185070215868324</v>
       </c>
       <c r="E209" t="n">
-        <v>0.4398033022880554</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -4425,10 +4425,10 @@
         <v>0.3954955339431763</v>
       </c>
       <c r="D210" t="n">
-        <v>0.6128070595014323</v>
+        <v>0.6029393545603345</v>
       </c>
       <c r="E210" t="n">
-        <v>0.3530303537845612</v>
+        <v>0.4887250661849976</v>
       </c>
     </row>
     <row r="211">
@@ -4444,10 +4444,10 @@
         <v>0.4942405223846436</v>
       </c>
       <c r="D211" t="n">
-        <v>0.5380828192106912</v>
+        <v>0.5083839056383523</v>
       </c>
       <c r="E211" t="n">
-        <v>0.3549987077713013</v>
+        <v>0.6188430786132812</v>
       </c>
     </row>
     <row r="212">
@@ -4463,10 +4463,10 @@
         <v>0.4292281866073608</v>
       </c>
       <c r="D212" t="n">
-        <v>0.7870022409526501</v>
+        <v>0.7538083952943735</v>
       </c>
       <c r="E212" t="n">
-        <v>0.3647055327892303</v>
+        <v>0.4936755895614624</v>
       </c>
     </row>
     <row r="213">
@@ -4482,10 +4482,10 @@
         <v>0.3453768491744995</v>
       </c>
       <c r="D213" t="n">
-        <v>0.4579198743362359</v>
+        <v>0.4741143696926182</v>
       </c>
       <c r="E213" t="n">
-        <v>0.3247435390949249</v>
+        <v>0.4095537662506104</v>
       </c>
     </row>
     <row r="214">
@@ -4501,10 +4501,10 @@
         <v>0.3897982835769653</v>
       </c>
       <c r="D214" t="n">
-        <v>0.4867562538305085</v>
+        <v>0.4859236245618459</v>
       </c>
       <c r="E214" t="n">
-        <v>0.3102851808071136</v>
+        <v>0.5055580139160156</v>
       </c>
     </row>
     <row r="215">
@@ -4520,10 +4520,10 @@
         <v>0.3873427510261536</v>
       </c>
       <c r="D215" t="n">
-        <v>0.5693761428778963</v>
+        <v>0.5839084065868059</v>
       </c>
       <c r="E215" t="n">
-        <v>0.3085424602031708</v>
+        <v>0.4197825193405151</v>
       </c>
     </row>
     <row r="216">
@@ -4539,10 +4539,10 @@
         <v>0.3980547189712524</v>
       </c>
       <c r="D216" t="n">
-        <v>0.3386943968433396</v>
+        <v>0.3307350262481406</v>
       </c>
       <c r="E216" t="n">
-        <v>0.2952964007854462</v>
+        <v>0.3034957051277161</v>
       </c>
     </row>
     <row r="217">
@@ -4558,10 +4558,10 @@
         <v>0.4027053117752075</v>
       </c>
       <c r="D217" t="n">
-        <v>0.3623159110575627</v>
+        <v>0.3995412086078207</v>
       </c>
       <c r="E217" t="n">
-        <v>0.2506773471832275</v>
+        <v>0.2764788866043091</v>
       </c>
     </row>
     <row r="218">
@@ -4577,10 +4577,10 @@
         <v>0.3685394525527954</v>
       </c>
       <c r="D218" t="n">
-        <v>0.7147446554601942</v>
+        <v>0.7220191732191068</v>
       </c>
       <c r="E218" t="n">
-        <v>0.3802588582038879</v>
+        <v>0.6016641855239868</v>
       </c>
     </row>
     <row r="219">
@@ -4596,10 +4596,10 @@
         <v>0.3507715463638306</v>
       </c>
       <c r="D219" t="n">
-        <v>0.5045169397977036</v>
+        <v>0.503368328259411</v>
       </c>
       <c r="E219" t="n">
-        <v>0.3520343601703644</v>
+        <v>0.5099568367004395</v>
       </c>
     </row>
     <row r="220">
@@ -4615,10 +4615,10 @@
         <v>0.3754293322563171</v>
       </c>
       <c r="D220" t="n">
-        <v>0.1401402364386536</v>
+        <v>0.1501545456526452</v>
       </c>
       <c r="E220" t="n">
-        <v>0.2042438983917236</v>
+        <v>0.244005024433136</v>
       </c>
     </row>
     <row r="221">
@@ -4634,10 +4634,10 @@
         <v>0.5104913115501404</v>
       </c>
       <c r="D221" t="n">
-        <v>0.6130104518843715</v>
+        <v>0.6093077546651425</v>
       </c>
       <c r="E221" t="n">
-        <v>0.3306215107440948</v>
+        <v>0.6401152610778809</v>
       </c>
     </row>
     <row r="222">
@@ -4653,10 +4653,10 @@
         <v>0.3488409519195557</v>
       </c>
       <c r="D222" t="n">
-        <v>0.5229919304689966</v>
+        <v>0.5459304474401625</v>
       </c>
       <c r="E222" t="n">
-        <v>0.3162724673748016</v>
+        <v>0.4013029336929321</v>
       </c>
     </row>
     <row r="223">
@@ -4672,10 +4672,10 @@
         <v>0.3756471872329712</v>
       </c>
       <c r="D223" t="n">
-        <v>0.6261057321237892</v>
+        <v>0.6260833157743065</v>
       </c>
       <c r="E223" t="n">
-        <v>0.342561274766922</v>
+        <v>0.7035770416259766</v>
       </c>
     </row>
     <row r="224">
@@ -4691,10 +4691,10 @@
         <v>0.3918845653533936</v>
       </c>
       <c r="D224" t="n">
-        <v>0.4499289681983143</v>
+        <v>0.4553063867185387</v>
       </c>
       <c r="E224" t="n">
-        <v>0.2923728823661804</v>
+        <v>0.4618561267852783</v>
       </c>
     </row>
     <row r="225">
@@ -4710,10 +4710,10 @@
         <v>0.4474970102310181</v>
       </c>
       <c r="D225" t="n">
-        <v>0.4176197606532118</v>
+        <v>0.4100417520044723</v>
       </c>
       <c r="E225" t="n">
-        <v>0.2953807711601257</v>
+        <v>0.3772468566894531</v>
       </c>
     </row>
     <row r="226">
@@ -4729,10 +4729,10 @@
         <v>0.5009998083114624</v>
       </c>
       <c r="D226" t="n">
-        <v>0.003784636967092414</v>
+        <v>0</v>
       </c>
       <c r="E226" t="n">
-        <v>0.1864545941352844</v>
+        <v>0.2235699892044067</v>
       </c>
     </row>
     <row r="227">
@@ -4748,10 +4748,10 @@
         <v>0.4756021499633789</v>
       </c>
       <c r="D227" t="n">
-        <v>0.5641297874992711</v>
+        <v>0.5778431154322189</v>
       </c>
       <c r="E227" t="n">
-        <v>0.3132887780666351</v>
+        <v>0.4686589241027832</v>
       </c>
     </row>
     <row r="228">
@@ -4767,10 +4767,10 @@
         <v>0.4448135495185852</v>
       </c>
       <c r="D228" t="n">
-        <v>0.4697231730986305</v>
+        <v>0.4567497836995622</v>
       </c>
       <c r="E228" t="n">
-        <v>0.311331033706665</v>
+        <v>0.4159091711044312</v>
       </c>
     </row>
     <row r="229">
@@ -4786,10 +4786,10 @@
         <v>0.3922623991966248</v>
       </c>
       <c r="D229" t="n">
-        <v>0.4206654514666731</v>
+        <v>0.4166762952774331</v>
       </c>
       <c r="E229" t="n">
-        <v>0.282197892665863</v>
+        <v>0.1298782825469971</v>
       </c>
     </row>
     <row r="230">
@@ -4805,10 +4805,10 @@
         <v>0.3482125997543335</v>
       </c>
       <c r="D230" t="n">
-        <v>0.6319267109365763</v>
+        <v>0.6318557322586399</v>
       </c>
       <c r="E230" t="n">
-        <v>0.363290935754776</v>
+        <v>0.4580107927322388</v>
       </c>
     </row>
     <row r="231">
@@ -4824,10 +4824,10 @@
         <v>0.4825873374938965</v>
       </c>
       <c r="D231" t="n">
-        <v>0.4340910697026596</v>
+        <v>0.4444453611275909</v>
       </c>
       <c r="E231" t="n">
-        <v>0.2850708663463593</v>
+        <v>0.4695585966110229</v>
       </c>
     </row>
     <row r="232">
@@ -4843,10 +4843,10 @@
         <v>0.3567507863044739</v>
       </c>
       <c r="D232" t="n">
-        <v>0.5181294666663223</v>
+        <v>0.5101306105995167</v>
       </c>
       <c r="E232" t="n">
-        <v>0.3322508633136749</v>
+        <v>0.6250724792480469</v>
       </c>
     </row>
     <row r="233">
@@ -4862,10 +4862,10 @@
         <v>0.47298264503479</v>
       </c>
       <c r="D233" t="n">
-        <v>0.2156160294230334</v>
+        <v>0.2630634801673292</v>
       </c>
       <c r="E233" t="n">
-        <v>0.2351742088794708</v>
+        <v>0.1688469052314758</v>
       </c>
     </row>
     <row r="234">
@@ -4881,10 +4881,10 @@
         <v>0.5018600523471832</v>
       </c>
       <c r="D234" t="n">
-        <v>0.03511884664886766</v>
+        <v>0.03889326282830796</v>
       </c>
       <c r="E234" t="n">
-        <v>0.2261188477277756</v>
+        <v>0.1699195504188538</v>
       </c>
     </row>
     <row r="235">
@@ -4900,10 +4900,10 @@
         <v>0.5681837797164917</v>
       </c>
       <c r="D235" t="n">
-        <v>0.5659839038897125</v>
+        <v>0.542182113084654</v>
       </c>
       <c r="E235" t="n">
-        <v>0.3372502624988556</v>
+        <v>0.7081301212310791</v>
       </c>
     </row>
     <row r="236">
@@ -4919,10 +4919,10 @@
         <v>0.4384068846702576</v>
       </c>
       <c r="D236" t="n">
-        <v>0.5956898062261661</v>
+        <v>0.6199515928197616</v>
       </c>
       <c r="E236" t="n">
-        <v>0.3197153210639954</v>
+        <v>0.176360011100769</v>
       </c>
     </row>
     <row r="237">
@@ -4938,10 +4938,10 @@
         <v>0.5290482342243195</v>
       </c>
       <c r="D237" t="n">
-        <v>0.5918293674223544</v>
+        <v>0.5498851657186132</v>
       </c>
       <c r="E237" t="n">
-        <v>0.3119047880172729</v>
+        <v>0.3862444162368774</v>
       </c>
     </row>
     <row r="238">
@@ -4957,10 +4957,10 @@
         <v>0.4376034736633301</v>
       </c>
       <c r="D238" t="n">
-        <v>0.6315263602726591</v>
+        <v>0.6024801677134364</v>
       </c>
       <c r="E238" t="n">
-        <v>0.3658110201358795</v>
+        <v>0.5599287748336792</v>
       </c>
     </row>
     <row r="239">
@@ -4976,10 +4976,10 @@
         <v>0.4019436240196228</v>
       </c>
       <c r="D239" t="n">
-        <v>0.7133990890183162</v>
+        <v>0.7181779675771274</v>
       </c>
       <c r="E239" t="n">
-        <v>0.3673279881477356</v>
+        <v>0.7204183340072632</v>
       </c>
     </row>
     <row r="240">
@@ -4995,10 +4995,10 @@
         <v>0.4210166931152344</v>
       </c>
       <c r="D240" t="n">
-        <v>0.2946893472988129</v>
+        <v>0.3017627676430558</v>
       </c>
       <c r="E240" t="n">
-        <v>0.2878139019012451</v>
+        <v>0.2894683480262756</v>
       </c>
     </row>
     <row r="241">
@@ -5014,10 +5014,10 @@
         <v>0.3603168129920959</v>
       </c>
       <c r="D241" t="n">
-        <v>0.8553801124976155</v>
+        <v>0.8269365007808978</v>
       </c>
       <c r="E241" t="n">
-        <v>0.4335365295410156</v>
+        <v>0.9066417217254639</v>
       </c>
     </row>
   </sheetData>

--- a/code/abc.xlsx
+++ b/code/abc.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>SuitabilityScore_AE_scaled</t>
+          <t>SuitabilityScore_AE_norm_scale</t>
         </is>
       </c>
     </row>
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6535649299621582</v>
+        <v>0.6089487075805664</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3464350700378418</v>
+        <v>0.3910512924194336</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4658589972128124</v>
+        <v>0.5105826144770806</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4165003299713135</v>
+        <v>0.4426313638687134</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5906046628952026</v>
+        <v>0.5515444874763489</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4093953371047974</v>
+        <v>0.4484555125236511</v>
       </c>
       <c r="D3" t="n">
-        <v>0.26611878593393</v>
+        <v>0.1671832763976986</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2829636931419373</v>
+        <v>0.1204679608345032</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6038213968276978</v>
+        <v>0.5615766048431396</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3961786031723022</v>
+        <v>0.4384233951568604</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1542205110144878</v>
+        <v>0.1961502082134869</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1652764081954956</v>
+        <v>0.1236985325813293</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6615128517150879</v>
+        <v>0.6439017057418823</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3384871482849121</v>
+        <v>0.3560982942581177</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6568289869240305</v>
+        <v>0.6570375179892829</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7758393287658691</v>
+        <v>0.7691932916641235</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6040422916412354</v>
+        <v>0.5931485891342163</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3959577083587646</v>
+        <v>0.4068514108657837</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5699967376159442</v>
+        <v>0.5626289149944352</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4008513689041138</v>
+        <v>0.3900593519210815</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6272760629653931</v>
+        <v>0.5917879343032837</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3727239370346069</v>
+        <v>0.4082120656967163</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5400912954731005</v>
+        <v>0.5813498535622282</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5633368492126465</v>
+        <v>0.6199451684951782</v>
       </c>
     </row>
     <row r="8">
@@ -581,16 +581,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5784246921539307</v>
+        <v>0.5318425893783569</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4215753078460693</v>
+        <v>0.4681574106216431</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2610706314905201</v>
+        <v>0.3666800197211766</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2949801683425903</v>
+        <v>0.3067046999931335</v>
       </c>
     </row>
     <row r="9">
@@ -600,16 +600,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6545694470405579</v>
+        <v>0.6283011436462402</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3454305529594421</v>
+        <v>0.3716988563537598</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3860141373139168</v>
+        <v>0.3594469562281252</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2866124510765076</v>
+        <v>0.2316972613334656</v>
       </c>
     </row>
     <row r="10">
@@ -619,16 +619,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6310384273529053</v>
+        <v>0.6085882782936096</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3689615726470947</v>
+        <v>0.3914117217063904</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5252343484900497</v>
+        <v>0.4664409632231428</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4628561735153198</v>
+        <v>0.4486802816390991</v>
       </c>
     </row>
     <row r="11">
@@ -638,16 +638,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6308994293212891</v>
+        <v>0.6081981062889099</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3691005706787109</v>
+        <v>0.3918018937110901</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5217985199084989</v>
+        <v>0.5905366933082273</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5287468433380127</v>
+        <v>0.4914919137954712</v>
       </c>
     </row>
     <row r="12">
@@ -657,16 +657,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5089349746704102</v>
+        <v>0.5083140730857849</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4910650253295898</v>
+        <v>0.4916859269142151</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5768653994996308</v>
+        <v>0.5724032115051595</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6311920881271362</v>
+        <v>0.5914679765701294</v>
       </c>
     </row>
     <row r="13">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6060904860496521</v>
+        <v>0.5642143487930298</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3939095139503479</v>
+        <v>0.4357856512069702</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6481300917589692</v>
+        <v>0.5962228456464087</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7604975700378418</v>
+        <v>0.7157618999481201</v>
       </c>
     </row>
     <row r="14">
@@ -695,16 +695,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4983294606208801</v>
+        <v>0.4854750633239746</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5016705393791199</v>
+        <v>0.5145249366760254</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3096604442698492</v>
+        <v>0.2883127669161267</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5050957202911377</v>
+        <v>0.3547828197479248</v>
       </c>
     </row>
     <row r="15">
@@ -714,16 +714,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5844386219978333</v>
+        <v>0.5543668270111084</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4155613780021667</v>
+        <v>0.4456331729888916</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5896180297494468</v>
+        <v>0.5367781380579331</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6389901638031006</v>
+        <v>0.5570417642593384</v>
       </c>
     </row>
     <row r="16">
@@ -733,16 +733,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5250140428543091</v>
+        <v>0.5246469378471375</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4749859571456909</v>
+        <v>0.4753530621528625</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5367558832942898</v>
+        <v>0.6352126961575824</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7955735921859741</v>
+        <v>0.6860847473144531</v>
       </c>
     </row>
     <row r="17">
@@ -752,16 +752,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.579228937625885</v>
+        <v>0.5465770959854126</v>
       </c>
       <c r="C17" t="n">
-        <v>0.420771062374115</v>
+        <v>0.4534229040145874</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4219224874460986</v>
+        <v>0.2884581883313927</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4122264385223389</v>
+        <v>0.3594585657119751</v>
       </c>
     </row>
     <row r="18">
@@ -771,16 +771,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.6666561365127563</v>
+        <v>0.6401391625404358</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3333438634872437</v>
+        <v>0.3598608374595642</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5208620526479287</v>
+        <v>0.348697458375874</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6394234895706177</v>
+        <v>0.5753514766693115</v>
       </c>
     </row>
     <row r="19">
@@ -790,16 +790,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.5625823736190796</v>
+        <v>0.5168957710266113</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4374176263809204</v>
+        <v>0.4831042289733887</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5938999620715121</v>
+        <v>0.6620562813994736</v>
       </c>
       <c r="E19" t="n">
-        <v>0.475940465927124</v>
+        <v>0.4841436147689819</v>
       </c>
     </row>
     <row r="20">
@@ -809,16 +809,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.5399317741394043</v>
+        <v>0.507938027381897</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4600682258605957</v>
+        <v>0.492061972618103</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6601947659576001</v>
+        <v>0.7337574042757995</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9103186130523682</v>
+        <v>0.9089876413345337</v>
       </c>
     </row>
     <row r="21">
@@ -828,16 +828,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4993122816085815</v>
+        <v>0.4684543311595917</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5006877183914185</v>
+        <v>0.5315456688404083</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4778975732572369</v>
+        <v>0.4819821799220537</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3107383251190186</v>
+        <v>0.2928026914596558</v>
       </c>
     </row>
     <row r="22">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.6252591609954834</v>
+        <v>0.598842978477478</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3747408390045166</v>
+        <v>0.401157021522522</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8427929302705077</v>
+        <v>0.7984529756903168</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7285401821136475</v>
+        <v>0.6846257448196411</v>
       </c>
     </row>
     <row r="23">
@@ -866,16 +866,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.6174652576446533</v>
+        <v>0.6244564056396484</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3825347423553467</v>
+        <v>0.3755435943603516</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8854702816633534</v>
+        <v>0.6621086344122971</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7306649684906006</v>
+        <v>0.6722981929779053</v>
       </c>
     </row>
     <row r="24">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.5844050645828247</v>
+        <v>0.5607739090919495</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4155949354171753</v>
+        <v>0.4392260909080505</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5907216140750924</v>
+        <v>0.5260075001557358</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5426698923110962</v>
+        <v>0.4508063793182373</v>
       </c>
     </row>
     <row r="25">
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.677757740020752</v>
+        <v>0.6487879753112793</v>
       </c>
       <c r="C25" t="n">
-        <v>0.322242259979248</v>
+        <v>0.3512120246887207</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4560150293137588</v>
+        <v>0.3379384987618167</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3674314022064209</v>
+        <v>0.2733950018882751</v>
       </c>
     </row>
     <row r="26">
@@ -923,16 +923,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.5320676565170288</v>
+        <v>0.4638515710830688</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4679323434829712</v>
+        <v>0.5361484289169312</v>
       </c>
       <c r="D26" t="n">
-        <v>0.382035006867538</v>
+        <v>0.4576094085289298</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3920935392379761</v>
+        <v>0.3387235999107361</v>
       </c>
     </row>
     <row r="27">
@@ -942,16 +942,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.6453369855880737</v>
+        <v>0.622394323348999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3546630144119263</v>
+        <v>0.377605676651001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4342946249170323</v>
+        <v>0.5329487077672656</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5300215482711792</v>
+        <v>0.5027188062667847</v>
       </c>
     </row>
     <row r="28">
@@ -961,16 +961,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.6366678476333618</v>
+        <v>0.6162061095237732</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3633321523666382</v>
+        <v>0.3837938904762268</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4608120337333346</v>
+        <v>0.3805875379737808</v>
       </c>
       <c r="E28" t="n">
-        <v>0.405121922492981</v>
+        <v>0.343306303024292</v>
       </c>
     </row>
     <row r="29">
@@ -980,16 +980,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.5833883285522461</v>
+        <v>0.5663346648216248</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4166116714477539</v>
+        <v>0.4336653351783752</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6285682027095737</v>
+        <v>0.5403515798452172</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5929485559463501</v>
+        <v>0.5338237285614014</v>
       </c>
     </row>
     <row r="30">
@@ -999,16 +999,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.5994387865066528</v>
+        <v>0.5584570169448853</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4005612134933472</v>
+        <v>0.4415429830551147</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5415871087447383</v>
+        <v>0.5307498320388849</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4359411001205444</v>
+        <v>0.3958691358566284</v>
       </c>
     </row>
     <row r="31">
@@ -1018,16 +1018,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.6337703466415405</v>
+        <v>0.5868507623672485</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3662296533584595</v>
+        <v>0.4131492376327515</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4891452256907638</v>
+        <v>0.4616442136559682</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4835344552993774</v>
+        <v>0.4609599113464355</v>
       </c>
     </row>
     <row r="32">
@@ -1037,16 +1037,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.5102736949920654</v>
+        <v>0.5282207727432251</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4897263050079346</v>
+        <v>0.4717792272567749</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3673263456685947</v>
+        <v>0.2545096488056438</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5642215013504028</v>
+        <v>0.4993933439254761</v>
       </c>
     </row>
     <row r="33">
@@ -1056,16 +1056,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.5085364580154419</v>
+        <v>0.4799972176551819</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4914635419845581</v>
+        <v>0.5200027823448181</v>
       </c>
       <c r="D33" t="n">
-        <v>0.8078300760232686</v>
+        <v>0.8258087950098401</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9060748815536499</v>
+        <v>0.9658019542694092</v>
       </c>
     </row>
     <row r="34">
@@ -1075,16 +1075,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.5765827298164368</v>
+        <v>0.5446202754974365</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4234172701835632</v>
+        <v>0.4553797245025635</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6881574647992278</v>
+        <v>0.6580045876933459</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6142210960388184</v>
+        <v>0.6433321237564087</v>
       </c>
     </row>
     <row r="35">
@@ -1094,16 +1094,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.598788857460022</v>
+        <v>0.5794036388397217</v>
       </c>
       <c r="C35" t="n">
-        <v>0.401211142539978</v>
+        <v>0.4205963611602783</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6219464548050148</v>
+        <v>0.7250079580699819</v>
       </c>
       <c r="E35" t="n">
-        <v>0.8230389356613159</v>
+        <v>0.8633438348770142</v>
       </c>
     </row>
     <row r="36">
@@ -1113,16 +1113,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.5887657999992371</v>
+        <v>0.5507793426513672</v>
       </c>
       <c r="C36" t="n">
-        <v>0.4112342000007629</v>
+        <v>0.4492206573486328</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3533342338924644</v>
+        <v>0.2492610899871395</v>
       </c>
       <c r="E36" t="n">
-        <v>0.534398078918457</v>
+        <v>0.3950457572937012</v>
       </c>
     </row>
     <row r="37">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.6682236790657043</v>
+        <v>0.6220468282699585</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3317763209342957</v>
+        <v>0.3779531717300415</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6184546475894324</v>
+        <v>0.6315844616866919</v>
       </c>
       <c r="E37" t="n">
-        <v>0.7225059270858765</v>
+        <v>0.7254514694213867</v>
       </c>
     </row>
     <row r="38">
@@ -1151,16 +1151,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.5893638730049133</v>
+        <v>0.5685303211212158</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4106361269950867</v>
+        <v>0.4314696788787842</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5873390320259895</v>
+        <v>0.5312502800107024</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3839554786682129</v>
+        <v>0.3349621891975403</v>
       </c>
     </row>
     <row r="39">
@@ -1170,16 +1170,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.6295003294944763</v>
+        <v>0.6010332107543945</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3704996705055237</v>
+        <v>0.3989667892456055</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5205569787890593</v>
+        <v>0.5475353893585431</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5084983110427856</v>
+        <v>0.4649946689605713</v>
       </c>
     </row>
     <row r="40">
@@ -1189,16 +1189,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.5233286619186401</v>
+        <v>0.5078012943267822</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4766713380813599</v>
+        <v>0.4921987056732178</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5269002750931512</v>
+        <v>0.4396305069082735</v>
       </c>
       <c r="E40" t="n">
-        <v>0.464025616645813</v>
+        <v>0.3704736232757568</v>
       </c>
     </row>
     <row r="41">
@@ -1208,16 +1208,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.6927887201309204</v>
+        <v>0.6428162455558777</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3072112798690796</v>
+        <v>0.3571837544441223</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7378703319273857</v>
+        <v>0.6096729964039561</v>
       </c>
       <c r="E41" t="n">
-        <v>0.7224135398864746</v>
+        <v>0.6660270690917969</v>
       </c>
     </row>
     <row r="42">
@@ -1227,16 +1227,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.5487163662910461</v>
+        <v>0.5420522093772888</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4512836337089539</v>
+        <v>0.4579477906227112</v>
       </c>
       <c r="D42" t="n">
-        <v>0.224471877409478</v>
+        <v>0.3812024540298917</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2343115210533142</v>
+        <v>0.2018061876296997</v>
       </c>
     </row>
     <row r="43">
@@ -1246,16 +1246,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.5570250749588013</v>
+        <v>0.5472961664199829</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4429749250411987</v>
+        <v>0.4527038335800171</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4914081505846904</v>
+        <v>0.3951938615760354</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4797710180282593</v>
+        <v>0.4043962955474854</v>
       </c>
     </row>
     <row r="44">
@@ -1265,16 +1265,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.6940459012985229</v>
+        <v>0.6705746054649353</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3059540987014771</v>
+        <v>0.3294253945350647</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5543034483941722</v>
+        <v>0.6204946429420128</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6832659244537354</v>
+        <v>0.6730955839157104</v>
       </c>
     </row>
     <row r="45">
@@ -1284,16 +1284,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.5758587718009949</v>
+        <v>0.5625742077827454</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4241412281990051</v>
+        <v>0.4374257922172546</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4411133955521737</v>
+        <v>0.321400159828484</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3592754602432251</v>
+        <v>0.2968757748603821</v>
       </c>
     </row>
     <row r="46">
@@ -1303,16 +1303,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.4978823363780975</v>
+        <v>0.4994285702705383</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5021176636219025</v>
+        <v>0.5005714297294617</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2740307740676214</v>
+        <v>0.06366062416862389</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3121668100357056</v>
+        <v>0.1703739762306213</v>
       </c>
     </row>
     <row r="47">
@@ -1322,16 +1322,16 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.647988498210907</v>
+        <v>0.6017799377441406</v>
       </c>
       <c r="C47" t="n">
-        <v>0.352011501789093</v>
+        <v>0.3982200622558594</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4132676708279751</v>
+        <v>0.4384976977627029</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1647806167602539</v>
+        <v>0.1631680130958557</v>
       </c>
     </row>
     <row r="48">
@@ -1341,16 +1341,16 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.5162319540977478</v>
+        <v>0.4961274862289429</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4837680459022522</v>
+        <v>0.5038725137710571</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5012608501106762</v>
+        <v>0.537002236927915</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4550658464431763</v>
+        <v>0.4089597463607788</v>
       </c>
     </row>
     <row r="49">
@@ -1360,16 +1360,16 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.5761455297470093</v>
+        <v>0.5696621537208557</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4238544702529907</v>
+        <v>0.4303378462791443</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4868788762130884</v>
+        <v>0.3787726561576659</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5270390510559082</v>
+        <v>0.4755451679229736</v>
       </c>
     </row>
     <row r="50">
@@ -1379,16 +1379,16 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.4925014078617096</v>
+        <v>0.4826945066452026</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5074985921382904</v>
+        <v>0.5173054933547974</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3970136782933784</v>
+        <v>0.4028470790633287</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4496980905532837</v>
+        <v>0.3689718246459961</v>
       </c>
     </row>
     <row r="51">
@@ -1398,16 +1398,16 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.5637499094009399</v>
+        <v>0.5557889938354492</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4362500905990601</v>
+        <v>0.4442110061645508</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7668515515256189</v>
+        <v>0.5793596652791645</v>
       </c>
       <c r="E51" t="n">
-        <v>0.8156111240386963</v>
+        <v>0.7948834896087646</v>
       </c>
     </row>
     <row r="52">
@@ -1417,16 +1417,16 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.4927939176559448</v>
+        <v>0.4821966886520386</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5072060823440552</v>
+        <v>0.5178033113479614</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5143740108235703</v>
+        <v>0.5001075770696212</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4978469610214233</v>
+        <v>0.4744595289230347</v>
       </c>
     </row>
     <row r="53">
@@ -1436,16 +1436,16 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.577333927154541</v>
+        <v>0.5590968132019043</v>
       </c>
       <c r="C53" t="n">
-        <v>0.422666072845459</v>
+        <v>0.4409031867980957</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7506369606225098</v>
+        <v>0.4763870780951244</v>
       </c>
       <c r="E53" t="n">
-        <v>0.8728795051574707</v>
+        <v>0.7847824096679688</v>
       </c>
     </row>
     <row r="54">
@@ -1455,16 +1455,16 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.6231964826583862</v>
+        <v>0.5857820510864258</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3768035173416138</v>
+        <v>0.4142179489135742</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5581406813733749</v>
+        <v>0.5522605516791496</v>
       </c>
       <c r="E54" t="n">
-        <v>0.6357004642486572</v>
+        <v>0.5941437482833862</v>
       </c>
     </row>
     <row r="55">
@@ -1474,16 +1474,16 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.5909202098846436</v>
+        <v>0.5934573411941528</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4090797901153564</v>
+        <v>0.4065426588058472</v>
       </c>
       <c r="D55" t="n">
-        <v>0.615325733299028</v>
+        <v>0.5564857839882927</v>
       </c>
       <c r="E55" t="n">
-        <v>0.6517151594161987</v>
+        <v>0.6556057929992676</v>
       </c>
     </row>
     <row r="56">
@@ -1493,16 +1493,16 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.5756207704544067</v>
+        <v>0.541027843952179</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4243792295455933</v>
+        <v>0.458972156047821</v>
       </c>
       <c r="D56" t="n">
-        <v>0.2257129012118098</v>
+        <v>0.2919272935691455</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1372278928756714</v>
+        <v>0.1278279423713684</v>
       </c>
     </row>
     <row r="57">
@@ -1512,16 +1512,16 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.585699200630188</v>
+        <v>0.5746532678604126</v>
       </c>
       <c r="C57" t="n">
-        <v>0.414300799369812</v>
+        <v>0.4253467321395874</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5474475218260664</v>
+        <v>0.4047009397148149</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3684846162796021</v>
+        <v>0.2857626080513</v>
       </c>
     </row>
     <row r="58">
@@ -1531,16 +1531,16 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.5113045573234558</v>
+        <v>0.513573944568634</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4886954426765442</v>
+        <v>0.486426055431366</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4257068213972912</v>
+        <v>0.1807294608206214</v>
       </c>
       <c r="E58" t="n">
-        <v>0.416710376739502</v>
+        <v>0.2442475557327271</v>
       </c>
     </row>
     <row r="59">
@@ -1550,16 +1550,16 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.4683510363101959</v>
+        <v>0.4747325479984283</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5316489636898041</v>
+        <v>0.5252674520015717</v>
       </c>
       <c r="D59" t="n">
-        <v>0.324277307937068</v>
+        <v>0.1718481187123845</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1742652654647827</v>
+        <v>0.1368434429168701</v>
       </c>
     </row>
     <row r="60">
@@ -1569,16 +1569,16 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.5281287431716919</v>
+        <v>0.5255399942398071</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4718712568283081</v>
+        <v>0.4744600057601929</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0436871510223838</v>
+        <v>0.01882982835454561</v>
       </c>
       <c r="E60" t="n">
-        <v>0.02745825052261353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1588,16 +1588,16 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.6502342820167542</v>
+        <v>0.6059603691101074</v>
       </c>
       <c r="C61" t="n">
-        <v>0.3497657179832458</v>
+        <v>0.3940396308898926</v>
       </c>
       <c r="D61" t="n">
-        <v>0.7922328811476829</v>
+        <v>0.6783122022723218</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7995402812957764</v>
+        <v>0.7827403545379639</v>
       </c>
     </row>
     <row r="62">
@@ -1607,16 +1607,16 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.6697515249252319</v>
+        <v>0.6339240074157715</v>
       </c>
       <c r="C62" t="n">
-        <v>0.3302484750747681</v>
+        <v>0.3660759925842285</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6100223652036029</v>
+        <v>0.4541283111842458</v>
       </c>
       <c r="E62" t="n">
-        <v>0.3729335069656372</v>
+        <v>0.3158775568008423</v>
       </c>
     </row>
     <row r="63">
@@ -1626,16 +1626,16 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.6667081713676453</v>
+        <v>0.6434110403060913</v>
       </c>
       <c r="C63" t="n">
-        <v>0.3332918286323547</v>
+        <v>0.3565889596939087</v>
       </c>
       <c r="D63" t="n">
-        <v>0.8412674696195548</v>
+        <v>0.9735837053412657</v>
       </c>
       <c r="E63" t="n">
-        <v>0.843023419380188</v>
+        <v>0.9382219314575195</v>
       </c>
     </row>
     <row r="64">
@@ -1645,16 +1645,16 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.6296989321708679</v>
+        <v>0.6086956262588501</v>
       </c>
       <c r="C64" t="n">
-        <v>0.3703010678291321</v>
+        <v>0.3913043737411499</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4881611810072674</v>
+        <v>0.2434377609203213</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4857807159423828</v>
+        <v>0.4860548973083496</v>
       </c>
     </row>
     <row r="65">
@@ -1664,16 +1664,16 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.6623926162719727</v>
+        <v>0.646146297454834</v>
       </c>
       <c r="C65" t="n">
-        <v>0.3376073837280273</v>
+        <v>0.353853702545166</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6272582180227071</v>
+        <v>0.7060551423394663</v>
       </c>
       <c r="E65" t="n">
-        <v>0.5966999530792236</v>
+        <v>0.6167287826538086</v>
       </c>
     </row>
     <row r="66">
@@ -1683,16 +1683,16 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.4717779457569122</v>
+        <v>0.4781573414802551</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5282220542430878</v>
+        <v>0.5218426585197449</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2288389815540804</v>
+        <v>0.1944873617849509</v>
       </c>
       <c r="E66" t="n">
-        <v>0.3658820390701294</v>
+        <v>0.215991199016571</v>
       </c>
     </row>
     <row r="67">
@@ -1702,16 +1702,16 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.4484717845916748</v>
+        <v>0.4468657374382019</v>
       </c>
       <c r="C67" t="n">
-        <v>0.5515282154083252</v>
+        <v>0.5531342625617981</v>
       </c>
       <c r="D67" t="n">
-        <v>0.427959317504904</v>
+        <v>0.5223086214927228</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3591974973678589</v>
+        <v>0.3176490664482117</v>
       </c>
     </row>
     <row r="68">
@@ -1721,16 +1721,16 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.6039619445800781</v>
+        <v>0.5989409685134888</v>
       </c>
       <c r="C68" t="n">
-        <v>0.3960380554199219</v>
+        <v>0.4010590314865112</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5925591225130913</v>
+        <v>0.608769986430116</v>
       </c>
       <c r="E68" t="n">
-        <v>0.4916188716888428</v>
+        <v>0.4791066646575928</v>
       </c>
     </row>
     <row r="69">
@@ -1740,16 +1740,16 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.7270138263702393</v>
+        <v>0.6871676445007324</v>
       </c>
       <c r="C69" t="n">
-        <v>0.2729861736297607</v>
+        <v>0.3128323554992676</v>
       </c>
       <c r="D69" t="n">
-        <v>0.4948999402161726</v>
+        <v>0.3708355816560863</v>
       </c>
       <c r="E69" t="n">
-        <v>0.5156837701797485</v>
+        <v>0.4228558540344238</v>
       </c>
     </row>
     <row r="70">
@@ -1759,16 +1759,16 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.6106390953063965</v>
+        <v>0.5615541934967041</v>
       </c>
       <c r="C70" t="n">
-        <v>0.3893609046936035</v>
+        <v>0.4384458065032959</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3314333352070569</v>
+        <v>0.3227379493694651</v>
       </c>
       <c r="E70" t="n">
-        <v>0.3637154102325439</v>
+        <v>0.3139896988868713</v>
       </c>
     </row>
     <row r="71">
@@ -1778,16 +1778,16 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.6019207239151001</v>
+        <v>0.5924681425094604</v>
       </c>
       <c r="C71" t="n">
-        <v>0.3980792760848999</v>
+        <v>0.4075318574905396</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6388851445878183</v>
+        <v>0.5848552799952553</v>
       </c>
       <c r="E71" t="n">
-        <v>0.745023250579834</v>
+        <v>0.7196829319000244</v>
       </c>
     </row>
     <row r="72">
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.6026602983474731</v>
+        <v>0.5930689573287964</v>
       </c>
       <c r="C72" t="n">
-        <v>0.3973397016525269</v>
+        <v>0.4069310426712036</v>
       </c>
       <c r="D72" t="n">
-        <v>0.384305030862348</v>
+        <v>0.4607423395417432</v>
       </c>
       <c r="E72" t="n">
-        <v>0.5210686922073364</v>
+        <v>0.4762401580810547</v>
       </c>
     </row>
     <row r="73">
@@ -1816,16 +1816,16 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.6493949890136719</v>
+        <v>0.6199178695678711</v>
       </c>
       <c r="C73" t="n">
-        <v>0.3506050109863281</v>
+        <v>0.3800821304321289</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5169058493232235</v>
+        <v>0.3828144080436052</v>
       </c>
       <c r="E73" t="n">
-        <v>0.3743706941604614</v>
+        <v>0.3197878003120422</v>
       </c>
     </row>
     <row r="74">
@@ -1835,16 +1835,16 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.6662739515304565</v>
+        <v>0.6532189249992371</v>
       </c>
       <c r="C74" t="n">
-        <v>0.3337260484695435</v>
+        <v>0.3467810750007629</v>
       </c>
       <c r="D74" t="n">
-        <v>0.6620616259275335</v>
+        <v>0.5093635428789567</v>
       </c>
       <c r="E74" t="n">
-        <v>0.7250519990921021</v>
+        <v>0.6557159423828125</v>
       </c>
     </row>
     <row r="75">
@@ -1854,16 +1854,16 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.6698733568191528</v>
+        <v>0.6401420831680298</v>
       </c>
       <c r="C75" t="n">
-        <v>0.3301266431808472</v>
+        <v>0.3598579168319702</v>
       </c>
       <c r="D75" t="n">
-        <v>0.4764191194772784</v>
+        <v>0.4213131492188185</v>
       </c>
       <c r="E75" t="n">
-        <v>0.4041485786437988</v>
+        <v>0.4037101268768311</v>
       </c>
     </row>
     <row r="76">
@@ -1873,16 +1873,16 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.5628716945648193</v>
+        <v>0.5361326932907104</v>
       </c>
       <c r="C76" t="n">
-        <v>0.4371283054351807</v>
+        <v>0.4638673067092896</v>
       </c>
       <c r="D76" t="n">
-        <v>0.3841300107054905</v>
+        <v>0.3055752383760599</v>
       </c>
       <c r="E76" t="n">
-        <v>0.3000336289405823</v>
+        <v>0.2147849202156067</v>
       </c>
     </row>
     <row r="77">
@@ -1892,16 +1892,16 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.48021000623703</v>
+        <v>0.4516919255256653</v>
       </c>
       <c r="C77" t="n">
-        <v>0.51978999376297</v>
+        <v>0.5483080744743347</v>
       </c>
       <c r="D77" t="n">
-        <v>0.5197333261245638</v>
+        <v>0.5359814131032083</v>
       </c>
       <c r="E77" t="n">
-        <v>0.7782418727874756</v>
+        <v>0.7098006010055542</v>
       </c>
     </row>
     <row r="78">
@@ -1911,16 +1911,16 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.6610239744186401</v>
+        <v>0.6534938812255859</v>
       </c>
       <c r="C78" t="n">
-        <v>0.3389760255813599</v>
+        <v>0.3465061187744141</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9146738891995038</v>
+        <v>0.876153883381086</v>
       </c>
       <c r="E78" t="n">
-        <v>0.8968783617019653</v>
+        <v>0.9221301078796387</v>
       </c>
     </row>
     <row r="79">
@@ -1930,16 +1930,16 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.6505073308944702</v>
+        <v>0.6266897916793823</v>
       </c>
       <c r="C79" t="n">
-        <v>0.3494926691055298</v>
+        <v>0.3733102083206177</v>
       </c>
       <c r="D79" t="n">
-        <v>0.8553941274298166</v>
+        <v>0.7788947855638861</v>
       </c>
       <c r="E79" t="n">
-        <v>0.8780896663665771</v>
+        <v>0.8942131996154785</v>
       </c>
     </row>
     <row r="80">
@@ -1949,16 +1949,16 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.6076554656028748</v>
+        <v>0.5649580359458923</v>
       </c>
       <c r="C80" t="n">
-        <v>0.3923445343971252</v>
+        <v>0.4350419640541077</v>
       </c>
       <c r="D80" t="n">
-        <v>0.8100385889742545</v>
+        <v>0.9240928882126436</v>
       </c>
       <c r="E80" t="n">
-        <v>0.8250395059585571</v>
+        <v>0.8340854644775391</v>
       </c>
     </row>
     <row r="81">
@@ -1968,16 +1968,16 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.5672100186347961</v>
+        <v>0.5341765284538269</v>
       </c>
       <c r="C81" t="n">
-        <v>0.4327899813652039</v>
+        <v>0.4658234715461731</v>
       </c>
       <c r="D81" t="n">
-        <v>0.3577619887037198</v>
+        <v>0.2752576343562474</v>
       </c>
       <c r="E81" t="n">
-        <v>0.2119062542915344</v>
+        <v>0.1339019536972046</v>
       </c>
     </row>
     <row r="82">
@@ -1987,16 +1987,16 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.6262928247451782</v>
+        <v>0.5920878052711487</v>
       </c>
       <c r="C82" t="n">
-        <v>0.3737071752548218</v>
+        <v>0.4079121947288513</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5844862158714405</v>
+        <v>0.6378979270419883</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6822782754898071</v>
+        <v>0.6453602313995361</v>
       </c>
     </row>
     <row r="83">
@@ -2006,16 +2006,16 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.5707912445068359</v>
+        <v>0.5570347309112549</v>
       </c>
       <c r="C83" t="n">
-        <v>0.4292087554931641</v>
+        <v>0.4429652690887451</v>
       </c>
       <c r="D83" t="n">
-        <v>0.6923398447239247</v>
+        <v>0.6554948093402154</v>
       </c>
       <c r="E83" t="n">
-        <v>0.7716084718704224</v>
+        <v>0.7285913228988647</v>
       </c>
     </row>
     <row r="84">
@@ -2025,16 +2025,16 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.6546012163162231</v>
+        <v>0.6226181387901306</v>
       </c>
       <c r="C84" t="n">
-        <v>0.3453987836837769</v>
+        <v>0.3773818612098694</v>
       </c>
       <c r="D84" t="n">
-        <v>0.2163786605394558</v>
+        <v>0.3269229442312045</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4532111883163452</v>
+        <v>0.3424119353294373</v>
       </c>
     </row>
     <row r="85">
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.6392447948455811</v>
+        <v>0.6185123920440674</v>
       </c>
       <c r="C85" t="n">
-        <v>0.3607552051544189</v>
+        <v>0.3814876079559326</v>
       </c>
       <c r="D85" t="n">
-        <v>0.616838370961081</v>
+        <v>0.546644712515624</v>
       </c>
       <c r="E85" t="n">
-        <v>0.5622304677963257</v>
+        <v>0.5733197927474976</v>
       </c>
     </row>
     <row r="86">
@@ -2063,16 +2063,16 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.4946739971637726</v>
+        <v>0.4914084672927856</v>
       </c>
       <c r="C86" t="n">
-        <v>0.5053260028362274</v>
+        <v>0.5085915327072144</v>
       </c>
       <c r="D86" t="n">
-        <v>0.2809618289953163</v>
+        <v>0.3689349709751328</v>
       </c>
       <c r="E86" t="n">
-        <v>0.414854884147644</v>
+        <v>0.3483465313911438</v>
       </c>
     </row>
     <row r="87">
@@ -2082,16 +2082,16 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.6295468807220459</v>
+        <v>0.6249130964279175</v>
       </c>
       <c r="C87" t="n">
-        <v>0.3704531192779541</v>
+        <v>0.3750869035720825</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5302564079054582</v>
+        <v>0.4485921127448264</v>
       </c>
       <c r="E87" t="n">
-        <v>0.537729024887085</v>
+        <v>0.4884147644042969</v>
       </c>
     </row>
     <row r="88">
@@ -2101,16 +2101,16 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.5621074438095093</v>
+        <v>0.5316505432128906</v>
       </c>
       <c r="C88" t="n">
-        <v>0.4378925561904907</v>
+        <v>0.4683494567871094</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5453541254440986</v>
+        <v>0.5062715298747972</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5365762710571289</v>
+        <v>0.4905019998550415</v>
       </c>
     </row>
     <row r="89">
@@ -2120,16 +2120,16 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.6510359048843384</v>
+        <v>0.643172562122345</v>
       </c>
       <c r="C89" t="n">
-        <v>0.3489640951156616</v>
+        <v>0.356827437877655</v>
       </c>
       <c r="D89" t="n">
-        <v>0.2930750920651481</v>
+        <v>0.2665611129322554</v>
       </c>
       <c r="E89" t="n">
-        <v>0.4169957637786865</v>
+        <v>0.2876932621002197</v>
       </c>
     </row>
     <row r="90">
@@ -2139,16 +2139,16 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.5126422643661499</v>
+        <v>0.5227036476135254</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4873577356338501</v>
+        <v>0.4772963523864746</v>
       </c>
       <c r="D90" t="n">
-        <v>0.2372906976246388</v>
+        <v>0.2411871713115532</v>
       </c>
       <c r="E90" t="n">
-        <v>0.2910094857215881</v>
+        <v>0.169277548789978</v>
       </c>
     </row>
     <row r="91">
@@ -2158,16 +2158,16 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.4696030020713806</v>
+        <v>0.4388120174407959</v>
       </c>
       <c r="C91" t="n">
-        <v>0.5303969979286194</v>
+        <v>0.5611879825592041</v>
       </c>
       <c r="D91" t="n">
-        <v>0.4398164413837071</v>
+        <v>0.3523849647672331</v>
       </c>
       <c r="E91" t="n">
-        <v>0.2729471325874329</v>
+        <v>0.1937243342399597</v>
       </c>
     </row>
     <row r="92">
@@ -2177,16 +2177,16 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.588657021522522</v>
+        <v>0.5652368068695068</v>
       </c>
       <c r="C92" t="n">
-        <v>0.411342978477478</v>
+        <v>0.4347631931304932</v>
       </c>
       <c r="D92" t="n">
-        <v>0.431316630233343</v>
+        <v>0.5090798271457108</v>
       </c>
       <c r="E92" t="n">
-        <v>0.3865400552749634</v>
+        <v>0.4026491641998291</v>
       </c>
     </row>
     <row r="93">
@@ -2196,16 +2196,16 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.648728609085083</v>
+        <v>0.6184109449386597</v>
       </c>
       <c r="C93" t="n">
-        <v>0.351271390914917</v>
+        <v>0.3815890550613403</v>
       </c>
       <c r="D93" t="n">
-        <v>0.4668418806589202</v>
+        <v>0.3425204201882768</v>
       </c>
       <c r="E93" t="n">
-        <v>0.4933158159255981</v>
+        <v>0.384013295173645</v>
       </c>
     </row>
     <row r="94">
@@ -2215,16 +2215,16 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.5619533658027649</v>
+        <v>0.549363911151886</v>
       </c>
       <c r="C94" t="n">
-        <v>0.4380466341972351</v>
+        <v>0.450636088848114</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5970274722332621</v>
+        <v>0.5842937203044116</v>
       </c>
       <c r="E94" t="n">
-        <v>0.5878901481628418</v>
+        <v>0.5372060537338257</v>
       </c>
     </row>
     <row r="95">
@@ -2234,16 +2234,16 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.5550246834754944</v>
+        <v>0.5495946407318115</v>
       </c>
       <c r="C95" t="n">
-        <v>0.4449753165245056</v>
+        <v>0.4504053592681885</v>
       </c>
       <c r="D95" t="n">
-        <v>0.296982841254651</v>
+        <v>0.2164495353869377</v>
       </c>
       <c r="E95" t="n">
-        <v>0.5072715282440186</v>
+        <v>0.3579152822494507</v>
       </c>
     </row>
     <row r="96">
@@ -2253,16 +2253,16 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.5686579942703247</v>
+        <v>0.5374869108200073</v>
       </c>
       <c r="C96" t="n">
-        <v>0.4313420057296753</v>
+        <v>0.4625130891799927</v>
       </c>
       <c r="D96" t="n">
-        <v>0.4362939082515417</v>
+        <v>0.3461229829244143</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>0.01914185285568237</v>
       </c>
     </row>
     <row r="97">
@@ -2272,16 +2272,16 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.5471996068954468</v>
+        <v>0.517577052116394</v>
       </c>
       <c r="C97" t="n">
-        <v>0.4528003931045532</v>
+        <v>0.482422947883606</v>
       </c>
       <c r="D97" t="n">
-        <v>0.589721761576356</v>
+        <v>0.4046725455846212</v>
       </c>
       <c r="E97" t="n">
-        <v>0.5104649066925049</v>
+        <v>0.4033141136169434</v>
       </c>
     </row>
     <row r="98">
@@ -2291,16 +2291,16 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.565508246421814</v>
+        <v>0.5218163728713989</v>
       </c>
       <c r="C98" t="n">
-        <v>0.434491753578186</v>
+        <v>0.4781836271286011</v>
       </c>
       <c r="D98" t="n">
-        <v>0.4550921315831673</v>
+        <v>0.5756614117876253</v>
       </c>
       <c r="E98" t="n">
-        <v>0.4970592260360718</v>
+        <v>0.4380341768264771</v>
       </c>
     </row>
     <row r="99">
@@ -2310,16 +2310,16 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.4943343698978424</v>
+        <v>0.4687840342521667</v>
       </c>
       <c r="C99" t="n">
-        <v>0.5056656301021576</v>
+        <v>0.5312159657478333</v>
       </c>
       <c r="D99" t="n">
-        <v>0.6356453714360066</v>
+        <v>0.5354541749355176</v>
       </c>
       <c r="E99" t="n">
-        <v>0.6998101472854614</v>
+        <v>0.6267043352127075</v>
       </c>
     </row>
     <row r="100">
@@ -2329,16 +2329,16 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.5364487171173096</v>
+        <v>0.5169509649276733</v>
       </c>
       <c r="C100" t="n">
-        <v>0.4635512828826904</v>
+        <v>0.4830490350723267</v>
       </c>
       <c r="D100" t="n">
-        <v>0.7920569873701143</v>
+        <v>0.6921208745474057</v>
       </c>
       <c r="E100" t="n">
-        <v>0.7577341794967651</v>
+        <v>0.7476886510848999</v>
       </c>
     </row>
     <row r="101">
@@ -2348,16 +2348,16 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.6292991042137146</v>
+        <v>0.611096978187561</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3707008957862854</v>
+        <v>0.388903021812439</v>
       </c>
       <c r="D101" t="n">
-        <v>0.4140430158677897</v>
+        <v>0.5153265173735353</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8514002561569214</v>
+        <v>0.7502598762512207</v>
       </c>
     </row>
     <row r="102">
@@ -2367,16 +2367,16 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.6166608333587646</v>
+        <v>0.5822498798370361</v>
       </c>
       <c r="C102" t="n">
-        <v>0.3833391666412354</v>
+        <v>0.4177501201629639</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5801852323629771</v>
+        <v>0.565272560535385</v>
       </c>
       <c r="E102" t="n">
-        <v>0.500191330909729</v>
+        <v>0.453376293182373</v>
       </c>
     </row>
     <row r="103">
@@ -2386,16 +2386,16 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.6184797883033752</v>
+        <v>0.6003119349479675</v>
       </c>
       <c r="C103" t="n">
-        <v>0.3815202116966248</v>
+        <v>0.3996880650520325</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6415290165764495</v>
+        <v>0.6742505327232551</v>
       </c>
       <c r="E103" t="n">
-        <v>0.5428410768508911</v>
+        <v>0.5321557521820068</v>
       </c>
     </row>
     <row r="104">
@@ -2405,16 +2405,16 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.5993658304214478</v>
+        <v>0.5920939445495605</v>
       </c>
       <c r="C104" t="n">
-        <v>0.4006341695785522</v>
+        <v>0.4079060554504395</v>
       </c>
       <c r="D104" t="n">
-        <v>0.3631671552045042</v>
+        <v>0.3806770294426117</v>
       </c>
       <c r="E104" t="n">
-        <v>0.2734281420707703</v>
+        <v>0.2164083123207092</v>
       </c>
     </row>
     <row r="105">
@@ -2424,16 +2424,16 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.4801582098007202</v>
+        <v>0.4917824268341064</v>
       </c>
       <c r="C105" t="n">
-        <v>0.5198417901992798</v>
+        <v>0.5082175731658936</v>
       </c>
       <c r="D105" t="n">
-        <v>0.6100423164439885</v>
+        <v>0.7875915172244417</v>
       </c>
       <c r="E105" t="n">
-        <v>0.568897008895874</v>
+        <v>0.5710842609405518</v>
       </c>
     </row>
     <row r="106">
@@ -2443,16 +2443,16 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.5761522054672241</v>
+        <v>0.5428372621536255</v>
       </c>
       <c r="C106" t="n">
-        <v>0.4238477945327759</v>
+        <v>0.4571627378463745</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5386956572493644</v>
+        <v>0.5580652900488439</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5794458389282227</v>
+        <v>0.4968180656433105</v>
       </c>
     </row>
     <row r="107">
@@ -2462,16 +2462,16 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.6018693447113037</v>
+        <v>0.5823487043380737</v>
       </c>
       <c r="C107" t="n">
-        <v>0.3981306552886963</v>
+        <v>0.4176512956619263</v>
       </c>
       <c r="D107" t="n">
-        <v>0.7142410946811519</v>
+        <v>0.6648154686411211</v>
       </c>
       <c r="E107" t="n">
-        <v>0.6103401184082031</v>
+        <v>0.6079947948455811</v>
       </c>
     </row>
     <row r="108">
@@ -2481,16 +2481,16 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.6525880694389343</v>
+        <v>0.634444534778595</v>
       </c>
       <c r="C108" t="n">
-        <v>0.3474119305610657</v>
+        <v>0.365555465221405</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6889539134427998</v>
+        <v>0.6971947069120028</v>
       </c>
       <c r="E108" t="n">
-        <v>0.6853984594345093</v>
+        <v>0.7118945121765137</v>
       </c>
     </row>
     <row r="109">
@@ -2500,16 +2500,16 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.6410967111587524</v>
+        <v>0.62579345703125</v>
       </c>
       <c r="C109" t="n">
-        <v>0.3589032888412476</v>
+        <v>0.37420654296875</v>
       </c>
       <c r="D109" t="n">
-        <v>0.6173587744816841</v>
+        <v>0.5546823978146804</v>
       </c>
       <c r="E109" t="n">
-        <v>0.5438603162765503</v>
+        <v>0.4762556552886963</v>
       </c>
     </row>
     <row r="110">
@@ -2519,16 +2519,16 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.6437033414840698</v>
+        <v>0.6302820444107056</v>
       </c>
       <c r="C110" t="n">
-        <v>0.3562966585159302</v>
+        <v>0.3697179555892944</v>
       </c>
       <c r="D110" t="n">
-        <v>0.7395960163887838</v>
+        <v>0.7340256106750032</v>
       </c>
       <c r="E110" t="n">
-        <v>0.6869229078292847</v>
+        <v>0.7102515697479248</v>
       </c>
     </row>
     <row r="111">
@@ -2538,16 +2538,16 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.5003728270530701</v>
+        <v>0.5177156925201416</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4996271729469299</v>
+        <v>0.4822843074798584</v>
       </c>
       <c r="D111" t="n">
-        <v>0.3278175688173771</v>
+        <v>0.2556551024911877</v>
       </c>
       <c r="E111" t="n">
-        <v>0.4857543706893921</v>
+        <v>0.390872597694397</v>
       </c>
     </row>
     <row r="112">
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.5268905758857727</v>
+        <v>0.5183564424514771</v>
       </c>
       <c r="C112" t="n">
-        <v>0.4731094241142273</v>
+        <v>0.4816435575485229</v>
       </c>
       <c r="D112" t="n">
-        <v>0.318017735898602</v>
+        <v>0.1565731961108527</v>
       </c>
       <c r="E112" t="n">
-        <v>0.3106603622436523</v>
+        <v>0.1576111316680908</v>
       </c>
     </row>
     <row r="113">
@@ -2576,16 +2576,16 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.4951200187206268</v>
+        <v>0.4861728250980377</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5048799812793732</v>
+        <v>0.5138271749019623</v>
       </c>
       <c r="D113" t="n">
-        <v>0.687337330524587</v>
+        <v>0.5606025547166716</v>
       </c>
       <c r="E113" t="n">
-        <v>0.4567338228225708</v>
+        <v>0.4234123229980469</v>
       </c>
     </row>
     <row r="114">
@@ -2595,16 +2595,16 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.6371972560882568</v>
+        <v>0.5920306444168091</v>
       </c>
       <c r="C114" t="n">
-        <v>0.3628027439117432</v>
+        <v>0.4079693555831909</v>
       </c>
       <c r="D114" t="n">
-        <v>0.3352113940693094</v>
+        <v>0.3818540414402924</v>
       </c>
       <c r="E114" t="n">
-        <v>0.5485808849334717</v>
+        <v>0.459559440612793</v>
       </c>
     </row>
     <row r="115">
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.6492902636528015</v>
+        <v>0.6273502111434937</v>
       </c>
       <c r="C115" t="n">
-        <v>0.3507097363471985</v>
+        <v>0.3726497888565063</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7656477361428566</v>
+        <v>0.6971537242437076</v>
       </c>
       <c r="E115" t="n">
-        <v>0.7985867261886597</v>
+        <v>0.7375683784484863</v>
       </c>
     </row>
     <row r="116">
@@ -2633,16 +2633,16 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.4937557578086853</v>
+        <v>0.4919197261333466</v>
       </c>
       <c r="C116" t="n">
-        <v>0.5062442421913147</v>
+        <v>0.5080802738666534</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5991717630073409</v>
+        <v>0.4993262940290328</v>
       </c>
       <c r="E116" t="n">
-        <v>0.5870664119720459</v>
+        <v>0.5223513841629028</v>
       </c>
     </row>
     <row r="117">
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.4665208160877228</v>
+        <v>0.4465136528015137</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5334791839122772</v>
+        <v>0.5534863471984863</v>
       </c>
       <c r="D117" t="n">
-        <v>0.284687898093765</v>
+        <v>0.2576232652536243</v>
       </c>
       <c r="E117" t="n">
-        <v>0.07878464460372925</v>
+        <v>0.04182910919189453</v>
       </c>
     </row>
     <row r="118">
@@ -2671,16 +2671,16 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.4310147166252136</v>
+        <v>0.3993527889251709</v>
       </c>
       <c r="C118" t="n">
-        <v>0.5689852833747864</v>
+        <v>0.6006472110748291</v>
       </c>
       <c r="D118" t="n">
-        <v>0.1525276935761176</v>
+        <v>0.1245077232696615</v>
       </c>
       <c r="E118" t="n">
-        <v>0.2963701486587524</v>
+        <v>0.1884226202964783</v>
       </c>
     </row>
     <row r="119">
@@ -2690,16 +2690,16 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.4353118538856506</v>
+        <v>0.4455098509788513</v>
       </c>
       <c r="C119" t="n">
-        <v>0.5646881461143494</v>
+        <v>0.5544901490211487</v>
       </c>
       <c r="D119" t="n">
-        <v>0.648534066399944</v>
+        <v>0.6936740022237635</v>
       </c>
       <c r="E119" t="n">
-        <v>0.3335795402526855</v>
+        <v>0.3517841100692749</v>
       </c>
     </row>
     <row r="120">
@@ -2709,16 +2709,16 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.6329091787338257</v>
+        <v>0.6051150560379028</v>
       </c>
       <c r="C120" t="n">
-        <v>0.3670908212661743</v>
+        <v>0.3948849439620972</v>
       </c>
       <c r="D120" t="n">
-        <v>0.4629611806648403</v>
+        <v>0.3885647698558813</v>
       </c>
       <c r="E120" t="n">
-        <v>0.5695246458053589</v>
+        <v>0.5526906251907349</v>
       </c>
     </row>
     <row r="121">
@@ -2728,16 +2728,16 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.6551796793937683</v>
+        <v>0.6307796835899353</v>
       </c>
       <c r="C121" t="n">
-        <v>0.3448203206062317</v>
+        <v>0.3692203164100647</v>
       </c>
       <c r="D121" t="n">
-        <v>0.4117382663887237</v>
+        <v>0.2637443209234543</v>
       </c>
       <c r="E121" t="n">
-        <v>0.3207629919052124</v>
+        <v>0.2795842885971069</v>
       </c>
     </row>
     <row r="122">
@@ -2747,16 +2747,16 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.5848296284675598</v>
+        <v>0.5610477924346924</v>
       </c>
       <c r="C122" t="n">
-        <v>0.4151703715324402</v>
+        <v>0.4389522075653076</v>
       </c>
       <c r="D122" t="n">
-        <v>0.7390524821316555</v>
+        <v>0.6464404241248166</v>
       </c>
       <c r="E122" t="n">
-        <v>0.6580761671066284</v>
+        <v>0.663658618927002</v>
       </c>
     </row>
     <row r="123">
@@ -2766,16 +2766,16 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.5827524662017822</v>
+        <v>0.571408212184906</v>
       </c>
       <c r="C123" t="n">
-        <v>0.4172475337982178</v>
+        <v>0.428591787815094</v>
       </c>
       <c r="D123" t="n">
-        <v>0.3588295719086791</v>
+        <v>0.3930419462769485</v>
       </c>
       <c r="E123" t="n">
-        <v>0.4935256242752075</v>
+        <v>0.4265578985214233</v>
       </c>
     </row>
     <row r="124">
@@ -2785,16 +2785,16 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.6277687549591064</v>
+        <v>0.611966609954834</v>
       </c>
       <c r="C124" t="n">
-        <v>0.3722312450408936</v>
+        <v>0.388033390045166</v>
       </c>
       <c r="D124" t="n">
-        <v>0.2518499651104993</v>
+        <v>0.2248723802143443</v>
       </c>
       <c r="E124" t="n">
-        <v>0.3999811410903931</v>
+        <v>0.3515310287475586</v>
       </c>
     </row>
     <row r="125">
@@ -2804,16 +2804,16 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.6503074169158936</v>
+        <v>0.6334807872772217</v>
       </c>
       <c r="C125" t="n">
-        <v>0.3496925830841064</v>
+        <v>0.3665192127227783</v>
       </c>
       <c r="D125" t="n">
-        <v>0.47634835474987</v>
+        <v>0.4042469914899072</v>
       </c>
       <c r="E125" t="n">
-        <v>0.4432196617126465</v>
+        <v>0.4120975732803345</v>
       </c>
     </row>
     <row r="126">
@@ -2823,16 +2823,16 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.5333012938499451</v>
+        <v>0.5023958683013916</v>
       </c>
       <c r="C126" t="n">
-        <v>0.4666987061500549</v>
+        <v>0.4976041316986084</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6407855645388454</v>
+        <v>0.5081206852066403</v>
       </c>
       <c r="E126" t="n">
-        <v>0.3680546283721924</v>
+        <v>0.3361043334007263</v>
       </c>
     </row>
     <row r="127">
@@ -2842,16 +2842,16 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.5479312539100647</v>
+        <v>0.5384917259216309</v>
       </c>
       <c r="C127" t="n">
-        <v>0.4520687460899353</v>
+        <v>0.4615082740783691</v>
       </c>
       <c r="D127" t="n">
-        <v>0.531523979576641</v>
+        <v>0.5748227027315138</v>
       </c>
       <c r="E127" t="n">
-        <v>0.5155515670776367</v>
+        <v>0.5357968807220459</v>
       </c>
     </row>
     <row r="128">
@@ -2861,16 +2861,16 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.5768845081329346</v>
+        <v>0.5853080749511719</v>
       </c>
       <c r="C128" t="n">
-        <v>0.4231154918670654</v>
+        <v>0.4146919250488281</v>
       </c>
       <c r="D128" t="n">
-        <v>0.3882329214550708</v>
+        <v>0.4526408621277782</v>
       </c>
       <c r="E128" t="n">
-        <v>0.4858467578887939</v>
+        <v>0.4655193090438843</v>
       </c>
     </row>
     <row r="129">
@@ -2880,16 +2880,16 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.5079969167709351</v>
+        <v>0.4788523614406586</v>
       </c>
       <c r="C129" t="n">
-        <v>0.4920030832290649</v>
+        <v>0.5211476385593414</v>
       </c>
       <c r="D129" t="n">
-        <v>0.7930517229927462</v>
+        <v>0.8048645563934078</v>
       </c>
       <c r="E129" t="n">
-        <v>0.7969862222671509</v>
+        <v>0.7290475368499756</v>
       </c>
     </row>
     <row r="130">
@@ -2899,16 +2899,16 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.5801680088043213</v>
+        <v>0.5522424578666687</v>
       </c>
       <c r="C130" t="n">
-        <v>0.4198319911956787</v>
+        <v>0.4477575421333313</v>
       </c>
       <c r="D130" t="n">
-        <v>0.287514107971471</v>
+        <v>0.3338908397510908</v>
       </c>
       <c r="E130" t="n">
-        <v>0.1740119457244873</v>
+        <v>0.1238672733306885</v>
       </c>
     </row>
     <row r="131">
@@ -2918,16 +2918,16 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.6559535264968872</v>
+        <v>0.6165109872817993</v>
       </c>
       <c r="C131" t="n">
-        <v>0.3440464735031128</v>
+        <v>0.3834890127182007</v>
       </c>
       <c r="D131" t="n">
         <v>1</v>
       </c>
       <c r="E131" t="n">
-        <v>0.8904651403427124</v>
+        <v>0.9399939775466919</v>
       </c>
     </row>
     <row r="132">
@@ -2937,16 +2937,16 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.586198627948761</v>
+        <v>0.5527165532112122</v>
       </c>
       <c r="C132" t="n">
-        <v>0.413801372051239</v>
+        <v>0.4472834467887878</v>
       </c>
       <c r="D132" t="n">
-        <v>0.391853760359141</v>
+        <v>0.3836733514352911</v>
       </c>
       <c r="E132" t="n">
-        <v>0.7387233972549438</v>
+        <v>0.5928397178649902</v>
       </c>
     </row>
     <row r="133">
@@ -2956,16 +2956,16 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.6379528045654297</v>
+        <v>0.6206855773925781</v>
       </c>
       <c r="C133" t="n">
-        <v>0.3620471954345703</v>
+        <v>0.3793144226074219</v>
       </c>
       <c r="D133" t="n">
-        <v>0.65171087827096</v>
+        <v>0.5605110344961836</v>
       </c>
       <c r="E133" t="n">
-        <v>0.5764850378036499</v>
+        <v>0.4947690963745117</v>
       </c>
     </row>
     <row r="134">
@@ -2975,16 +2975,16 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.6528353691101074</v>
+        <v>0.6322867870330811</v>
       </c>
       <c r="C134" t="n">
-        <v>0.3471646308898926</v>
+        <v>0.3677132129669189</v>
       </c>
       <c r="D134" t="n">
-        <v>0.7132662182700743</v>
+        <v>0.7509264719684363</v>
       </c>
       <c r="E134" t="n">
-        <v>0.7424541711807251</v>
+        <v>0.7124089002609253</v>
       </c>
     </row>
     <row r="135">
@@ -2994,16 +2994,16 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.6451408267021179</v>
+        <v>0.6279170513153076</v>
       </c>
       <c r="C135" t="n">
-        <v>0.3548591732978821</v>
+        <v>0.3720829486846924</v>
       </c>
       <c r="D135" t="n">
-        <v>0.4424940551456553</v>
+        <v>0.350122890331002</v>
       </c>
       <c r="E135" t="n">
-        <v>0.3851691484451294</v>
+        <v>0.2957805395126343</v>
       </c>
     </row>
     <row r="136">
@@ -3013,16 +3013,16 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.6073379516601562</v>
+        <v>0.5792423486709595</v>
       </c>
       <c r="C136" t="n">
-        <v>0.3926620483398438</v>
+        <v>0.4207576513290405</v>
       </c>
       <c r="D136" t="n">
-        <v>0.3678440918715143</v>
+        <v>0.2417703005217829</v>
       </c>
       <c r="E136" t="n">
-        <v>0.4857248067855835</v>
+        <v>0.3653913736343384</v>
       </c>
     </row>
     <row r="137">
@@ -3032,16 +3032,16 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.6233311295509338</v>
+        <v>0.6178632974624634</v>
       </c>
       <c r="C137" t="n">
-        <v>0.3766688704490662</v>
+        <v>0.3821367025375366</v>
       </c>
       <c r="D137" t="n">
-        <v>0.3477340459372013</v>
+        <v>0.464358189018946</v>
       </c>
       <c r="E137" t="n">
-        <v>0.4742112159729004</v>
+        <v>0.4331027269363403</v>
       </c>
     </row>
     <row r="138">
@@ -3051,16 +3051,16 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.6425944566726685</v>
+        <v>0.5990484952926636</v>
       </c>
       <c r="C138" t="n">
-        <v>0.3574055433273315</v>
+        <v>0.4009515047073364</v>
       </c>
       <c r="D138" t="n">
-        <v>0.3627333013999131</v>
+        <v>0.386546060104224</v>
       </c>
       <c r="E138" t="n">
-        <v>0.1456945538520813</v>
+        <v>0.07958942651748657</v>
       </c>
     </row>
     <row r="139">
@@ -3070,16 +3070,16 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.6298503875732422</v>
+        <v>0.6203866004943848</v>
       </c>
       <c r="C139" t="n">
-        <v>0.3701496124267578</v>
+        <v>0.3796133995056152</v>
       </c>
       <c r="D139" t="n">
-        <v>0.5432253281601593</v>
+        <v>0.6889449130957964</v>
       </c>
       <c r="E139" t="n">
-        <v>0.5105941295623779</v>
+        <v>0.6060140132904053</v>
       </c>
     </row>
     <row r="140">
@@ -3089,16 +3089,16 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.5849387049674988</v>
+        <v>0.5518020391464233</v>
       </c>
       <c r="C140" t="n">
-        <v>0.4150612950325012</v>
+        <v>0.4481979608535767</v>
       </c>
       <c r="D140" t="n">
-        <v>0.5992331877860417</v>
+        <v>0.5983462644942567</v>
       </c>
       <c r="E140" t="n">
-        <v>0.6245576143264771</v>
+        <v>0.5920966863632202</v>
       </c>
     </row>
     <row r="141">
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.6106394529342651</v>
+        <v>0.5932838320732117</v>
       </c>
       <c r="C141" t="n">
-        <v>0.3893605470657349</v>
+        <v>0.4067161679267883</v>
       </c>
       <c r="D141" t="n">
-        <v>0.7027986545526137</v>
+        <v>0.7001226884999793</v>
       </c>
       <c r="E141" t="n">
-        <v>0.8559033870697021</v>
+        <v>0.8782807588577271</v>
       </c>
     </row>
     <row r="142">
@@ -3127,16 +3127,16 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.6000372767448425</v>
+        <v>0.5782764554023743</v>
       </c>
       <c r="C142" t="n">
-        <v>0.3999627232551575</v>
+        <v>0.4217235445976257</v>
       </c>
       <c r="D142" t="n">
-        <v>0.3724425899115714</v>
+        <v>0.3793768840996488</v>
       </c>
       <c r="E142" t="n">
-        <v>0.3140213489532471</v>
+        <v>0.2741279602050781</v>
       </c>
     </row>
     <row r="143">
@@ -3146,16 +3146,16 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.6041790843009949</v>
+        <v>0.5907612442970276</v>
       </c>
       <c r="C143" t="n">
-        <v>0.3958209156990051</v>
+        <v>0.4092387557029724</v>
       </c>
       <c r="D143" t="n">
-        <v>0.6285823341231541</v>
+        <v>0.6917837295917005</v>
       </c>
       <c r="E143" t="n">
-        <v>0.5426557064056396</v>
+        <v>0.4916051626205444</v>
       </c>
     </row>
     <row r="144">
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.4934472143650055</v>
+        <v>0.4650152027606964</v>
       </c>
       <c r="C144" t="n">
-        <v>0.5065527856349945</v>
+        <v>0.5349847972393036</v>
       </c>
       <c r="D144" t="n">
-        <v>0.3025488152435983</v>
+        <v>0.3892398101765299</v>
       </c>
       <c r="E144" t="n">
-        <v>0.2696664333343506</v>
+        <v>0.2160175442695618</v>
       </c>
     </row>
     <row r="145">
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.6003526449203491</v>
+        <v>0.5776482820510864</v>
       </c>
       <c r="C145" t="n">
-        <v>0.3996473550796509</v>
+        <v>0.4223517179489136</v>
       </c>
       <c r="D145" t="n">
-        <v>0.713130478705313</v>
+        <v>0.7131855120044946</v>
       </c>
       <c r="E145" t="n">
-        <v>0.3881702423095703</v>
+        <v>0.4510931968688965</v>
       </c>
     </row>
     <row r="146">
@@ -3203,16 +3203,16 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.6471347808837891</v>
+        <v>0.6327609419822693</v>
       </c>
       <c r="C146" t="n">
-        <v>0.3528652191162109</v>
+        <v>0.3672390580177307</v>
       </c>
       <c r="D146" t="n">
-        <v>0.6273845011209318</v>
+        <v>0.6485325319861399</v>
       </c>
       <c r="E146" t="n">
-        <v>0.4160361289978027</v>
+        <v>0.4055308103561401</v>
       </c>
     </row>
     <row r="147">
@@ -3222,16 +3222,16 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.4996267855167389</v>
+        <v>0.5031437873840332</v>
       </c>
       <c r="C147" t="n">
-        <v>0.5003732144832611</v>
+        <v>0.4968562126159668</v>
       </c>
       <c r="D147" t="n">
-        <v>0.4586318672384466</v>
+        <v>0.4054308826074459</v>
       </c>
       <c r="E147" t="n">
-        <v>0.3685939311981201</v>
+        <v>0.2503305077552795</v>
       </c>
     </row>
     <row r="148">
@@ -3241,16 +3241,16 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.598631739616394</v>
+        <v>0.6016309261322021</v>
       </c>
       <c r="C148" t="n">
-        <v>0.401368260383606</v>
+        <v>0.3983690738677979</v>
       </c>
       <c r="D148" t="n">
-        <v>0.6643106455924876</v>
+        <v>0.5598811836924178</v>
       </c>
       <c r="E148" t="n">
-        <v>0.689522385597229</v>
+        <v>0.6276003122329712</v>
       </c>
     </row>
     <row r="149">
@@ -3260,16 +3260,16 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.5394271016120911</v>
+        <v>0.5098466873168945</v>
       </c>
       <c r="C149" t="n">
-        <v>0.4605728983879089</v>
+        <v>0.4901533126831055</v>
       </c>
       <c r="D149" t="n">
-        <v>0.2679115008781386</v>
+        <v>0.2935007270795747</v>
       </c>
       <c r="E149" t="n">
-        <v>0.1088623404502869</v>
+        <v>0.0330427885055542</v>
       </c>
     </row>
     <row r="150">
@@ -3279,16 +3279,16 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.6577417850494385</v>
+        <v>0.6353102922439575</v>
       </c>
       <c r="C150" t="n">
-        <v>0.3422582149505615</v>
+        <v>0.3646897077560425</v>
       </c>
       <c r="D150" t="n">
-        <v>0.4339377239053986</v>
+        <v>0.4578359057572155</v>
       </c>
       <c r="E150" t="n">
-        <v>0.480970025062561</v>
+        <v>0.4685240983963013</v>
       </c>
     </row>
     <row r="151">
@@ -3298,16 +3298,16 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.6626483798027039</v>
+        <v>0.6406639814376831</v>
       </c>
       <c r="C151" t="n">
-        <v>0.3373516201972961</v>
+        <v>0.3593360185623169</v>
       </c>
       <c r="D151" t="n">
-        <v>0.6529545960031772</v>
+        <v>0.4327323690899154</v>
       </c>
       <c r="E151" t="n">
-        <v>0.5070890188217163</v>
+        <v>0.4417001008987427</v>
       </c>
     </row>
     <row r="152">
@@ -3317,16 +3317,16 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.5399830341339111</v>
+        <v>0.5315443277359009</v>
       </c>
       <c r="C152" t="n">
-        <v>0.4600169658660889</v>
+        <v>0.4684556722640991</v>
       </c>
       <c r="D152" t="n">
-        <v>0.2827727673027198</v>
+        <v>0.2471572677800833</v>
       </c>
       <c r="E152" t="n">
-        <v>0.1245633363723755</v>
+        <v>0.08750742673873901</v>
       </c>
     </row>
     <row r="153">
@@ -3336,16 +3336,16 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.513590931892395</v>
+        <v>0.52373206615448</v>
       </c>
       <c r="C153" t="n">
-        <v>0.486409068107605</v>
+        <v>0.47626793384552</v>
       </c>
       <c r="D153" t="n">
-        <v>0.7986643107342619</v>
+        <v>0.5761036741674238</v>
       </c>
       <c r="E153" t="n">
-        <v>0.7840514183044434</v>
+        <v>0.685431957244873</v>
       </c>
     </row>
     <row r="154">
@@ -3355,16 +3355,16 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.6313239932060242</v>
+        <v>0.6203064918518066</v>
       </c>
       <c r="C154" t="n">
-        <v>0.3686760067939758</v>
+        <v>0.3796935081481934</v>
       </c>
       <c r="D154" t="n">
-        <v>0.6681306988890261</v>
+        <v>0.5411741046478795</v>
       </c>
       <c r="E154" t="n">
-        <v>0.4640085697174072</v>
+        <v>0.3937904834747314</v>
       </c>
     </row>
     <row r="155">
@@ -3374,16 +3374,16 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.5798293352127075</v>
+        <v>0.5793581008911133</v>
       </c>
       <c r="C155" t="n">
-        <v>0.4201706647872925</v>
+        <v>0.4206418991088867</v>
       </c>
       <c r="D155" t="n">
-        <v>0.6677288752445207</v>
+        <v>0.5236263486321651</v>
       </c>
       <c r="E155" t="n">
-        <v>0.6206921339035034</v>
+        <v>0.576723575592041</v>
       </c>
     </row>
     <row r="156">
@@ -3393,16 +3393,16 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.5074582695960999</v>
+        <v>0.5084507465362549</v>
       </c>
       <c r="C156" t="n">
-        <v>0.4925417304039001</v>
+        <v>0.4915492534637451</v>
       </c>
       <c r="D156" t="n">
-        <v>0.5133360349608135</v>
+        <v>0.4796534138089866</v>
       </c>
       <c r="E156" t="n">
-        <v>0.5148030519485474</v>
+        <v>0.4339280128479004</v>
       </c>
     </row>
     <row r="157">
@@ -3412,16 +3412,16 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.5400161743164062</v>
+        <v>0.5356773138046265</v>
       </c>
       <c r="C157" t="n">
-        <v>0.4599838256835938</v>
+        <v>0.4643226861953735</v>
       </c>
       <c r="D157" t="n">
-        <v>0.2114765545149055</v>
+        <v>0.2546101839769881</v>
       </c>
       <c r="E157" t="n">
-        <v>0.3585561513900757</v>
+        <v>0.2384292483329773</v>
       </c>
     </row>
     <row r="158">
@@ -3431,16 +3431,16 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.6593829989433289</v>
+        <v>0.6338465809822083</v>
       </c>
       <c r="C158" t="n">
-        <v>0.3406170010566711</v>
+        <v>0.3661534190177917</v>
       </c>
       <c r="D158" t="n">
-        <v>0.6204973523974888</v>
+        <v>0.4784516697065668</v>
       </c>
       <c r="E158" t="n">
-        <v>0.6516467332839966</v>
+        <v>0.5996274948120117</v>
       </c>
     </row>
     <row r="159">
@@ -3450,16 +3450,16 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.5868260860443115</v>
+        <v>0.5621199607849121</v>
       </c>
       <c r="C159" t="n">
-        <v>0.4131739139556885</v>
+        <v>0.4378800392150879</v>
       </c>
       <c r="D159" t="n">
-        <v>0.7249176580366468</v>
+        <v>0.6115262389631103</v>
       </c>
       <c r="E159" t="n">
-        <v>0.708965539932251</v>
+        <v>0.6656707525253296</v>
       </c>
     </row>
     <row r="160">
@@ -3469,16 +3469,16 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.5902484059333801</v>
+        <v>0.5745136737823486</v>
       </c>
       <c r="C160" t="n">
-        <v>0.4097515940666199</v>
+        <v>0.4254863262176514</v>
       </c>
       <c r="D160" t="n">
-        <v>0.6366397729263417</v>
+        <v>0.4946629001440092</v>
       </c>
       <c r="E160" t="n">
-        <v>0.6266645193099976</v>
+        <v>0.5391813516616821</v>
       </c>
     </row>
     <row r="161">
@@ -3488,16 +3488,16 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.5254615545272827</v>
+        <v>0.4760896563529968</v>
       </c>
       <c r="C161" t="n">
-        <v>0.4745384454727173</v>
+        <v>0.5239103436470032</v>
       </c>
       <c r="D161" t="n">
-        <v>0.2558568919187612</v>
+        <v>0.4436071805431987</v>
       </c>
       <c r="E161" t="n">
-        <v>0.2684544920921326</v>
+        <v>0.2696343660354614</v>
       </c>
     </row>
     <row r="162">
@@ -3507,16 +3507,16 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.5900819301605225</v>
+        <v>0.5635689496994019</v>
       </c>
       <c r="C162" t="n">
-        <v>0.4099180698394775</v>
+        <v>0.4364310503005981</v>
       </c>
       <c r="D162" t="n">
-        <v>0.5041334903540809</v>
+        <v>0.3098013442197574</v>
       </c>
       <c r="E162" t="n">
-        <v>0.4598367214202881</v>
+        <v>0.35968017578125</v>
       </c>
     </row>
     <row r="163">
@@ -3526,16 +3526,16 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.6414768695831299</v>
+        <v>0.6212589740753174</v>
       </c>
       <c r="C163" t="n">
-        <v>0.3585231304168701</v>
+        <v>0.3787410259246826</v>
       </c>
       <c r="D163" t="n">
-        <v>0.6350497167410412</v>
+        <v>0.6249743376099622</v>
       </c>
       <c r="E163" t="n">
-        <v>0.5303043127059937</v>
+        <v>0.4751893281936646</v>
       </c>
     </row>
     <row r="164">
@@ -3545,16 +3545,16 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.6286449432373047</v>
+        <v>0.5993941426277161</v>
       </c>
       <c r="C164" t="n">
-        <v>0.3713550567626953</v>
+        <v>0.4006058573722839</v>
       </c>
       <c r="D164" t="n">
-        <v>0.5313329110510701</v>
+        <v>0.5639536415334369</v>
       </c>
       <c r="E164" t="n">
-        <v>0.5784229040145874</v>
+        <v>0.557367205619812</v>
       </c>
     </row>
     <row r="165">
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.6539729237556458</v>
+        <v>0.6187034845352173</v>
       </c>
       <c r="C165" t="n">
-        <v>0.3460270762443542</v>
+        <v>0.3812965154647827</v>
       </c>
       <c r="D165" t="n">
-        <v>0.5964767828909471</v>
+        <v>0.4984305477985794</v>
       </c>
       <c r="E165" t="n">
-        <v>0.3803068399429321</v>
+        <v>0.3788273334503174</v>
       </c>
     </row>
     <row r="166">
@@ -3583,16 +3583,16 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.5564670562744141</v>
+        <v>0.5395313501358032</v>
       </c>
       <c r="C166" t="n">
-        <v>0.4435329437255859</v>
+        <v>0.4604686498641968</v>
       </c>
       <c r="D166" t="n">
-        <v>0.5678150478400172</v>
+        <v>0.4479303399553131</v>
       </c>
       <c r="E166" t="n">
-        <v>0.3289245367050171</v>
+        <v>0.2602441310882568</v>
       </c>
     </row>
     <row r="167">
@@ -3602,16 +3602,16 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.6068638563156128</v>
+        <v>0.5991362333297729</v>
       </c>
       <c r="C167" t="n">
-        <v>0.3931361436843872</v>
+        <v>0.4008637666702271</v>
       </c>
       <c r="D167" t="n">
-        <v>0.5324371561896548</v>
+        <v>0.444317263044186</v>
       </c>
       <c r="E167" t="n">
-        <v>0.6190277338027954</v>
+        <v>0.5225977897644043</v>
       </c>
     </row>
     <row r="168">
@@ -3621,16 +3621,16 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.6663317680358887</v>
+        <v>0.6599998474121094</v>
       </c>
       <c r="C168" t="n">
-        <v>0.3336682319641113</v>
+        <v>0.3400001525878906</v>
       </c>
       <c r="D168" t="n">
-        <v>0.4752738134752427</v>
+        <v>0.4788776299259334</v>
       </c>
       <c r="E168" t="n">
-        <v>0.2735278606414795</v>
+        <v>0.21419358253479</v>
       </c>
     </row>
     <row r="169">
@@ -3640,16 +3640,16 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.6847246289253235</v>
+        <v>0.6455689668655396</v>
       </c>
       <c r="C169" t="n">
-        <v>0.3152753710746765</v>
+        <v>0.3544310331344604</v>
       </c>
       <c r="D169" t="n">
-        <v>0.4281773300454242</v>
+        <v>0.5138791064337008</v>
       </c>
       <c r="E169" t="n">
-        <v>0.3165531158447266</v>
+        <v>0.3220564126968384</v>
       </c>
     </row>
     <row r="170">
@@ -3659,16 +3659,16 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.5467116236686707</v>
+        <v>0.5033893585205078</v>
       </c>
       <c r="C170" t="n">
-        <v>0.4532883763313293</v>
+        <v>0.4966106414794922</v>
       </c>
       <c r="D170" t="n">
-        <v>0.4305238694826122</v>
+        <v>0.3108037057871199</v>
       </c>
       <c r="E170" t="n">
-        <v>0.5167598724365234</v>
+        <v>0.3713158369064331</v>
       </c>
     </row>
     <row r="171">
@@ -3678,16 +3678,16 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.6568142771720886</v>
+        <v>0.6454187631607056</v>
       </c>
       <c r="C171" t="n">
-        <v>0.3431857228279114</v>
+        <v>0.3545812368392944</v>
       </c>
       <c r="D171" t="n">
-        <v>0.3888976775405714</v>
+        <v>0.3601394182269853</v>
       </c>
       <c r="E171" t="n">
-        <v>0.7082692384719849</v>
+        <v>0.6108356714248657</v>
       </c>
     </row>
     <row r="172">
@@ -3697,16 +3697,16 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.5577454566955566</v>
+        <v>0.530933141708374</v>
       </c>
       <c r="C172" t="n">
-        <v>0.4422545433044434</v>
+        <v>0.469066858291626</v>
       </c>
       <c r="D172" t="n">
-        <v>0.3874777254644122</v>
+        <v>0.4219686149785891</v>
       </c>
       <c r="E172" t="n">
-        <v>0.4706805944442749</v>
+        <v>0.4264657497406006</v>
       </c>
     </row>
     <row r="173">
@@ -3716,16 +3716,16 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.6417571902275085</v>
+        <v>0.6242344975471497</v>
       </c>
       <c r="C173" t="n">
-        <v>0.3582428097724915</v>
+        <v>0.3757655024528503</v>
       </c>
       <c r="D173" t="n">
-        <v>0.6394400686054684</v>
+        <v>0.5447381991995262</v>
       </c>
       <c r="E173" t="n">
-        <v>0.4482684135437012</v>
+        <v>0.4127278327941895</v>
       </c>
     </row>
     <row r="174">
@@ -3735,16 +3735,16 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.62321937084198</v>
+        <v>0.587064266204834</v>
       </c>
       <c r="C174" t="n">
-        <v>0.37678062915802</v>
+        <v>0.412935733795166</v>
       </c>
       <c r="D174" t="n">
-        <v>0.7234306254589239</v>
+        <v>0.8124920391716093</v>
       </c>
       <c r="E174" t="n">
-        <v>0.6889363527297974</v>
+        <v>0.7598211765289307</v>
       </c>
     </row>
     <row r="175">
@@ -3754,16 +3754,16 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.7007288932800293</v>
+        <v>0.6638534069061279</v>
       </c>
       <c r="C175" t="n">
-        <v>0.2992711067199707</v>
+        <v>0.3361465930938721</v>
       </c>
       <c r="D175" t="n">
-        <v>0.3320352738078148</v>
+        <v>0.3778200438483253</v>
       </c>
       <c r="E175" t="n">
-        <v>0.4025661945343018</v>
+        <v>0.3164451718330383</v>
       </c>
     </row>
     <row r="176">
@@ -3773,16 +3773,16 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.539635181427002</v>
+        <v>0.4918597936630249</v>
       </c>
       <c r="C176" t="n">
-        <v>0.460364818572998</v>
+        <v>0.5081402063369751</v>
       </c>
       <c r="D176" t="n">
-        <v>0.4525021083452706</v>
+        <v>0.3276170817702871</v>
       </c>
       <c r="E176" t="n">
-        <v>0.2928779125213623</v>
+        <v>0.2228092551231384</v>
       </c>
     </row>
     <row r="177">
@@ -3792,16 +3792,16 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.5632081031799316</v>
+        <v>0.5213007926940918</v>
       </c>
       <c r="C177" t="n">
-        <v>0.4367918968200684</v>
+        <v>0.4786992073059082</v>
       </c>
       <c r="D177" t="n">
-        <v>0.4686584989173575</v>
+        <v>0.338004227136314</v>
       </c>
       <c r="E177" t="n">
-        <v>0.5563528537750244</v>
+        <v>0.4382261037826538</v>
       </c>
     </row>
     <row r="178">
@@ -3811,16 +3811,16 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.6263194680213928</v>
+        <v>0.6202660799026489</v>
       </c>
       <c r="C178" t="n">
-        <v>0.3736805319786072</v>
+        <v>0.3797339200973511</v>
       </c>
       <c r="D178" t="n">
-        <v>0.5856840873475903</v>
+        <v>0.6372751615834245</v>
       </c>
       <c r="E178" t="n">
-        <v>0.4500360488891602</v>
+        <v>0.4647172689437866</v>
       </c>
     </row>
     <row r="179">
@@ -3830,16 +3830,16 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.5753966569900513</v>
+        <v>0.5506722927093506</v>
       </c>
       <c r="C179" t="n">
-        <v>0.4246033430099487</v>
+        <v>0.4493277072906494</v>
       </c>
       <c r="D179" t="n">
-        <v>0.4095455514711904</v>
+        <v>0.5697208218308123</v>
       </c>
       <c r="E179" t="n">
-        <v>0.3789914846420288</v>
+        <v>0.4306193590164185</v>
       </c>
     </row>
     <row r="180">
@@ -3849,16 +3849,16 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.5554367899894714</v>
+        <v>0.5470341444015503</v>
       </c>
       <c r="C180" t="n">
-        <v>0.4445632100105286</v>
+        <v>0.4529658555984497</v>
       </c>
       <c r="D180" t="n">
-        <v>0.588797932176656</v>
+        <v>0.4093316829358062</v>
       </c>
       <c r="E180" t="n">
-        <v>0.4960925579071045</v>
+        <v>0.380814790725708</v>
       </c>
     </row>
     <row r="181">
@@ -3868,16 +3868,16 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.5796414613723755</v>
+        <v>0.566189169883728</v>
       </c>
       <c r="C181" t="n">
-        <v>0.4203585386276245</v>
+        <v>0.433810830116272</v>
       </c>
       <c r="D181" t="n">
-        <v>0.7626128478787573</v>
+        <v>0.6217443262875684</v>
       </c>
       <c r="E181" t="n">
-        <v>0.5144643783569336</v>
+        <v>0.473185658454895</v>
       </c>
     </row>
     <row r="182">
@@ -3887,16 +3887,16 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.6120546460151672</v>
+        <v>0.573798656463623</v>
       </c>
       <c r="C182" t="n">
-        <v>0.3879453539848328</v>
+        <v>0.426201343536377</v>
       </c>
       <c r="D182" t="n">
-        <v>0.3401303740195293</v>
+        <v>0.3260877329234984</v>
       </c>
       <c r="E182" t="n">
-        <v>0.2367598414421082</v>
+        <v>0.1721561551094055</v>
       </c>
     </row>
     <row r="183">
@@ -3906,16 +3906,16 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.6817898154258728</v>
+        <v>0.6526918411254883</v>
       </c>
       <c r="C183" t="n">
-        <v>0.3182101845741272</v>
+        <v>0.3473081588745117</v>
       </c>
       <c r="D183" t="n">
-        <v>0.5037709733567705</v>
+        <v>0.3225019065817532</v>
       </c>
       <c r="E183" t="n">
-        <v>0.5477159023284912</v>
+        <v>0.4695218801498413</v>
       </c>
     </row>
     <row r="184">
@@ -3925,16 +3925,16 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.6549761891365051</v>
+        <v>0.6426115036010742</v>
       </c>
       <c r="C184" t="n">
-        <v>0.3450238108634949</v>
+        <v>0.3573884963989258</v>
       </c>
       <c r="D184" t="n">
-        <v>0.6103391820721676</v>
+        <v>0.6416260761805488</v>
       </c>
       <c r="E184" t="n">
-        <v>0.6427892446517944</v>
+        <v>0.6413898468017578</v>
       </c>
     </row>
     <row r="185">
@@ -3944,16 +3944,16 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.5938572883605957</v>
+        <v>0.5571202039718628</v>
       </c>
       <c r="C185" t="n">
-        <v>0.4061427116394043</v>
+        <v>0.4428797960281372</v>
       </c>
       <c r="D185" t="n">
-        <v>0.747884717488397</v>
+        <v>0.6838316171224327</v>
       </c>
       <c r="E185" t="n">
-        <v>0.752791166305542</v>
+        <v>0.7517112493515015</v>
       </c>
     </row>
     <row r="186">
@@ -3963,16 +3963,16 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.5756751298904419</v>
+        <v>0.5633779764175415</v>
       </c>
       <c r="C186" t="n">
-        <v>0.4243248701095581</v>
+        <v>0.4366220235824585</v>
       </c>
       <c r="D186" t="n">
-        <v>0.2373114156849133</v>
+        <v>0.3163975811275738</v>
       </c>
       <c r="E186" t="n">
-        <v>0.2563125491142273</v>
+        <v>0.2293208837509155</v>
       </c>
     </row>
     <row r="187">
@@ -3982,16 +3982,16 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.6105802059173584</v>
+        <v>0.572900116443634</v>
       </c>
       <c r="C187" t="n">
-        <v>0.3894197940826416</v>
+        <v>0.427099883556366</v>
       </c>
       <c r="D187" t="n">
-        <v>0.4788238632566368</v>
+        <v>0.434921061486124</v>
       </c>
       <c r="E187" t="n">
-        <v>0.4368557929992676</v>
+        <v>0.3806552886962891</v>
       </c>
     </row>
     <row r="188">
@@ -4001,16 +4001,16 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.6505584120750427</v>
+        <v>0.6103224754333496</v>
       </c>
       <c r="C188" t="n">
-        <v>0.3494415879249573</v>
+        <v>0.3896775245666504</v>
       </c>
       <c r="D188" t="n">
-        <v>0.5919654476944822</v>
+        <v>0.6279330618562518</v>
       </c>
       <c r="E188" t="n">
-        <v>0.5531498193740845</v>
+        <v>0.5967719554901123</v>
       </c>
     </row>
     <row r="189">
@@ -4020,16 +4020,16 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.6623169779777527</v>
+        <v>0.6355587244033813</v>
       </c>
       <c r="C189" t="n">
-        <v>0.3376830220222473</v>
+        <v>0.3644412755966187</v>
       </c>
       <c r="D189" t="n">
-        <v>0.5270580116038031</v>
+        <v>0.4278909878382277</v>
       </c>
       <c r="E189" t="n">
-        <v>0.4338048696517944</v>
+        <v>0.4009089469909668</v>
       </c>
     </row>
     <row r="190">
@@ -4039,16 +4039,16 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.6408289074897766</v>
+        <v>0.61600661277771</v>
       </c>
       <c r="C190" t="n">
-        <v>0.3591710925102234</v>
+        <v>0.38399338722229</v>
       </c>
       <c r="D190" t="n">
-        <v>0.48022769420441</v>
+        <v>0.365298491449582</v>
       </c>
       <c r="E190" t="n">
-        <v>0.422533392906189</v>
+        <v>0.3296464681625366</v>
       </c>
     </row>
     <row r="191">
@@ -4058,16 +4058,16 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.5419023036956787</v>
+        <v>0.5528470277786255</v>
       </c>
       <c r="C191" t="n">
-        <v>0.4580976963043213</v>
+        <v>0.4471529722213745</v>
       </c>
       <c r="D191" t="n">
-        <v>0.6678305917443127</v>
+        <v>0.6136431939593026</v>
       </c>
       <c r="E191" t="n">
-        <v>0.6415274143218994</v>
+        <v>0.5918526649475098</v>
       </c>
     </row>
     <row r="192">
@@ -4077,16 +4077,16 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.6635817289352417</v>
+        <v>0.6331571340560913</v>
       </c>
       <c r="C192" t="n">
-        <v>0.3364182710647583</v>
+        <v>0.3668428659439087</v>
       </c>
       <c r="D192" t="n">
-        <v>0.5854446706297738</v>
+        <v>0.4784542517192903</v>
       </c>
       <c r="E192" t="n">
-        <v>0.6189002990722656</v>
+        <v>0.6324694156646729</v>
       </c>
     </row>
     <row r="193">
@@ -4096,16 +4096,16 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.5206177234649658</v>
+        <v>0.492002546787262</v>
       </c>
       <c r="C193" t="n">
-        <v>0.4793822765350342</v>
+        <v>0.507997453212738</v>
       </c>
       <c r="D193" t="n">
-        <v>0.6519907928769666</v>
+        <v>0.6356735405474828</v>
       </c>
       <c r="E193" t="n">
-        <v>0.6598019599914551</v>
+        <v>0.6354193687438965</v>
       </c>
     </row>
     <row r="194">
@@ -4115,16 +4115,16 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.5657666921615601</v>
+        <v>0.5528888702392578</v>
       </c>
       <c r="C194" t="n">
-        <v>0.4342333078384399</v>
+        <v>0.4471111297607422</v>
       </c>
       <c r="D194" t="n">
-        <v>0.3857389304022416</v>
+        <v>0.470618231019407</v>
       </c>
       <c r="E194" t="n">
-        <v>0.3032733201980591</v>
+        <v>0.2907840013504028</v>
       </c>
     </row>
     <row r="195">
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.6589089632034302</v>
+        <v>0.6451815962791443</v>
       </c>
       <c r="C195" t="n">
-        <v>0.3410910367965698</v>
+        <v>0.3548184037208557</v>
       </c>
       <c r="D195" t="n">
-        <v>0.7039908218247067</v>
+        <v>0.7848302371014897</v>
       </c>
       <c r="E195" t="n">
-        <v>0.7291226387023926</v>
+        <v>0.7529481649398804</v>
       </c>
     </row>
     <row r="196">
@@ -4153,16 +4153,16 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.5563656091690063</v>
+        <v>0.5537900924682617</v>
       </c>
       <c r="C196" t="n">
-        <v>0.4436343908309937</v>
+        <v>0.4462099075317383</v>
       </c>
       <c r="D196" t="n">
-        <v>0.5596460740808962</v>
+        <v>0.55411703524111</v>
       </c>
       <c r="E196" t="n">
-        <v>0.797455906867981</v>
+        <v>0.7247523069381714</v>
       </c>
     </row>
     <row r="197">
@@ -4172,16 +4172,16 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.6525574326515198</v>
+        <v>0.6298319101333618</v>
       </c>
       <c r="C197" t="n">
-        <v>0.3474425673484802</v>
+        <v>0.3701680898666382</v>
       </c>
       <c r="D197" t="n">
-        <v>0.6261667529512854</v>
+        <v>0.4733932939635022</v>
       </c>
       <c r="E197" t="n">
-        <v>0.588448166847229</v>
+        <v>0.5832535028457642</v>
       </c>
     </row>
     <row r="198">
@@ -4191,16 +4191,16 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.5766087770462036</v>
+        <v>0.589600682258606</v>
       </c>
       <c r="C198" t="n">
-        <v>0.4233912229537964</v>
+        <v>0.410399317741394</v>
       </c>
       <c r="D198" t="n">
-        <v>0.6531804777012302</v>
+        <v>0.6739718281682263</v>
       </c>
       <c r="E198" t="n">
-        <v>0.6915570497512817</v>
+        <v>0.6792737245559692</v>
       </c>
     </row>
     <row r="199">
@@ -4210,16 +4210,16 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.4774242341518402</v>
+        <v>0.4866994321346283</v>
       </c>
       <c r="C199" t="n">
-        <v>0.5225757658481598</v>
+        <v>0.5133005678653717</v>
       </c>
       <c r="D199" t="n">
-        <v>0.6025327734017238</v>
+        <v>0.6590464040376818</v>
       </c>
       <c r="E199" t="n">
-        <v>0.1123009324073792</v>
+        <v>0.1191703677177429</v>
       </c>
     </row>
     <row r="200">
@@ -4229,16 +4229,16 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.6132348775863647</v>
+        <v>0.6090582609176636</v>
       </c>
       <c r="C200" t="n">
-        <v>0.3867651224136353</v>
+        <v>0.3909417390823364</v>
       </c>
       <c r="D200" t="n">
-        <v>0.431740458156841</v>
+        <v>0.2999055403512558</v>
       </c>
       <c r="E200" t="n">
-        <v>0.4031950235366821</v>
+        <v>0.281475305557251</v>
       </c>
     </row>
     <row r="201">
@@ -4248,16 +4248,16 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.5143576264381409</v>
+        <v>0.5265689492225647</v>
       </c>
       <c r="C201" t="n">
-        <v>0.4856423735618591</v>
+        <v>0.4734310507774353</v>
       </c>
       <c r="D201" t="n">
-        <v>0.3460986956255455</v>
+        <v>0.351381210763049</v>
       </c>
       <c r="E201" t="n">
-        <v>0.5508662462234497</v>
+        <v>0.399666428565979</v>
       </c>
     </row>
     <row r="202">
@@ -4267,16 +4267,16 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.612079381942749</v>
+        <v>0.5960564613342285</v>
       </c>
       <c r="C202" t="n">
-        <v>0.387920618057251</v>
+        <v>0.4039435386657715</v>
       </c>
       <c r="D202" t="n">
-        <v>0.5747144062737374</v>
+        <v>0.68016189464793</v>
       </c>
       <c r="E202" t="n">
-        <v>0.700533390045166</v>
+        <v>0.7029372453689575</v>
       </c>
     </row>
     <row r="203">
@@ -4286,16 +4286,16 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.6136065721511841</v>
+        <v>0.5871102809906006</v>
       </c>
       <c r="C203" t="n">
-        <v>0.3863934278488159</v>
+        <v>0.4128897190093994</v>
       </c>
       <c r="D203" t="n">
-        <v>0.4593736006153816</v>
+        <v>0.4131707984613089</v>
       </c>
       <c r="E203" t="n">
-        <v>0.3333641886711121</v>
+        <v>0.3182675242424011</v>
       </c>
     </row>
     <row r="204">
@@ -4305,16 +4305,16 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.7129106521606445</v>
+        <v>0.6741257905960083</v>
       </c>
       <c r="C204" t="n">
-        <v>0.2870893478393555</v>
+        <v>0.3258742094039917</v>
       </c>
       <c r="D204" t="n">
-        <v>0.5080531136935033</v>
+        <v>0.4367475029527447</v>
       </c>
       <c r="E204" t="n">
-        <v>0.1907501220703125</v>
+        <v>0.138988733291626</v>
       </c>
     </row>
     <row r="205">
@@ -4324,16 +4324,16 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.5467502474784851</v>
+        <v>0.5321112275123596</v>
       </c>
       <c r="C205" t="n">
-        <v>0.4532497525215149</v>
+        <v>0.4678887724876404</v>
       </c>
       <c r="D205" t="n">
-        <v>0.4430635965155212</v>
+        <v>0.2454632781321316</v>
       </c>
       <c r="E205" t="n">
-        <v>0.2818751931190491</v>
+        <v>0.1732699871063232</v>
       </c>
     </row>
     <row r="206">
@@ -4343,16 +4343,16 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.4544562101364136</v>
+        <v>0.4561171531677246</v>
       </c>
       <c r="C206" t="n">
-        <v>0.5455437898635864</v>
+        <v>0.5438828468322754</v>
       </c>
       <c r="D206" t="n">
-        <v>0.7202942444674449</v>
+        <v>0.6885482757090083</v>
       </c>
       <c r="E206" t="n">
-        <v>0.5602633953094482</v>
+        <v>0.4763698577880859</v>
       </c>
     </row>
     <row r="207">
@@ -4362,16 +4362,16 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.7061544060707092</v>
+        <v>0.6764531135559082</v>
       </c>
       <c r="C207" t="n">
-        <v>0.2938455939292908</v>
+        <v>0.3235468864440918</v>
       </c>
       <c r="D207" t="n">
-        <v>0.5165404240532057</v>
+        <v>0.4783830184769101</v>
       </c>
       <c r="E207" t="n">
-        <v>0.5702530145645142</v>
+        <v>0.4854220151901245</v>
       </c>
     </row>
     <row r="208">
@@ -4381,16 +4381,16 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.5664461851119995</v>
+        <v>0.5285143852233887</v>
       </c>
       <c r="C208" t="n">
-        <v>0.4335538148880005</v>
+        <v>0.4714856147766113</v>
       </c>
       <c r="D208" t="n">
-        <v>0.1566119045654896</v>
+        <v>0.2576163509375436</v>
       </c>
       <c r="E208" t="n">
-        <v>0.4445116519927979</v>
+        <v>0.3121111392974854</v>
       </c>
     </row>
     <row r="209">
@@ -4400,13 +4400,13 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.578733503818512</v>
+        <v>0.5768609046936035</v>
       </c>
       <c r="C209" t="n">
-        <v>0.421266496181488</v>
+        <v>0.4231390953063965</v>
       </c>
       <c r="D209" t="n">
-        <v>0.9185070215868324</v>
+        <v>0.8860463027767815</v>
       </c>
       <c r="E209" t="n">
         <v>1</v>
@@ -4419,16 +4419,16 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.6045044660568237</v>
+        <v>0.5760594606399536</v>
       </c>
       <c r="C210" t="n">
-        <v>0.3954955339431763</v>
+        <v>0.4239405393600464</v>
       </c>
       <c r="D210" t="n">
-        <v>0.6029393545603345</v>
+        <v>0.475727420469466</v>
       </c>
       <c r="E210" t="n">
-        <v>0.4887250661849976</v>
+        <v>0.3888708353042603</v>
       </c>
     </row>
     <row r="211">
@@ -4438,16 +4438,16 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.5057594776153564</v>
+        <v>0.4830807745456696</v>
       </c>
       <c r="C211" t="n">
-        <v>0.4942405223846436</v>
+        <v>0.5169192254543304</v>
       </c>
       <c r="D211" t="n">
-        <v>0.5083839056383523</v>
+        <v>0.5556999384274007</v>
       </c>
       <c r="E211" t="n">
-        <v>0.6188430786132812</v>
+        <v>0.5228643417358398</v>
       </c>
     </row>
     <row r="212">
@@ -4457,16 +4457,16 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.5707718133926392</v>
+        <v>0.5412576794624329</v>
       </c>
       <c r="C212" t="n">
-        <v>0.4292281866073608</v>
+        <v>0.4587423205375671</v>
       </c>
       <c r="D212" t="n">
-        <v>0.7538083952943735</v>
+        <v>0.742145490164371</v>
       </c>
       <c r="E212" t="n">
-        <v>0.4936755895614624</v>
+        <v>0.5227845907211304</v>
       </c>
     </row>
     <row r="213">
@@ -4476,16 +4476,16 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.6546231508255005</v>
+        <v>0.6182757616043091</v>
       </c>
       <c r="C213" t="n">
-        <v>0.3453768491744995</v>
+        <v>0.3817242383956909</v>
       </c>
       <c r="D213" t="n">
-        <v>0.4741143696926182</v>
+        <v>0.2328224263149059</v>
       </c>
       <c r="E213" t="n">
-        <v>0.4095537662506104</v>
+        <v>0.2930623888969421</v>
       </c>
     </row>
     <row r="214">
@@ -4495,16 +4495,16 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.6102017164230347</v>
+        <v>0.5890517234802246</v>
       </c>
       <c r="C214" t="n">
-        <v>0.3897982835769653</v>
+        <v>0.4109482765197754</v>
       </c>
       <c r="D214" t="n">
-        <v>0.4859236245618459</v>
+        <v>0.4795172668455089</v>
       </c>
       <c r="E214" t="n">
-        <v>0.5055580139160156</v>
+        <v>0.5263803005218506</v>
       </c>
     </row>
     <row r="215">
@@ -4514,16 +4514,16 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.6126572489738464</v>
+        <v>0.5821247100830078</v>
       </c>
       <c r="C215" t="n">
-        <v>0.3873427510261536</v>
+        <v>0.4178752899169922</v>
       </c>
       <c r="D215" t="n">
-        <v>0.5839084065868059</v>
+        <v>0.5992948304612293</v>
       </c>
       <c r="E215" t="n">
-        <v>0.4197825193405151</v>
+        <v>0.3721182346343994</v>
       </c>
     </row>
     <row r="216">
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.6019452810287476</v>
+        <v>0.5634008646011353</v>
       </c>
       <c r="C216" t="n">
-        <v>0.3980547189712524</v>
+        <v>0.4365991353988647</v>
       </c>
       <c r="D216" t="n">
-        <v>0.3307350262481406</v>
+        <v>0.2242946049713145</v>
       </c>
       <c r="E216" t="n">
-        <v>0.3034957051277161</v>
+        <v>0.2221843004226685</v>
       </c>
     </row>
     <row r="217">
@@ -4552,16 +4552,16 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.5972946882247925</v>
+        <v>0.5684226751327515</v>
       </c>
       <c r="C217" t="n">
-        <v>0.4027053117752075</v>
+        <v>0.4315773248672485</v>
       </c>
       <c r="D217" t="n">
-        <v>0.3995412086078207</v>
+        <v>0.3616357387006492</v>
       </c>
       <c r="E217" t="n">
-        <v>0.2764788866043091</v>
+        <v>0.2613105773925781</v>
       </c>
     </row>
     <row r="218">
@@ -4571,16 +4571,16 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.6314605474472046</v>
+        <v>0.5946061611175537</v>
       </c>
       <c r="C218" t="n">
-        <v>0.3685394525527954</v>
+        <v>0.4053938388824463</v>
       </c>
       <c r="D218" t="n">
-        <v>0.7220191732191068</v>
+        <v>0.5482056131391976</v>
       </c>
       <c r="E218" t="n">
-        <v>0.6016641855239868</v>
+        <v>0.5961557626724243</v>
       </c>
     </row>
     <row r="219">
@@ -4590,16 +4590,16 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.6492284536361694</v>
+        <v>0.6323237419128418</v>
       </c>
       <c r="C219" t="n">
-        <v>0.3507715463638306</v>
+        <v>0.3676762580871582</v>
       </c>
       <c r="D219" t="n">
-        <v>0.503368328259411</v>
+        <v>0.4688195299158213</v>
       </c>
       <c r="E219" t="n">
-        <v>0.5099568367004395</v>
+        <v>0.5044223070144653</v>
       </c>
     </row>
     <row r="220">
@@ -4609,16 +4609,16 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.6245706677436829</v>
+        <v>0.6196117997169495</v>
       </c>
       <c r="C220" t="n">
-        <v>0.3754293322563171</v>
+        <v>0.3803882002830505</v>
       </c>
       <c r="D220" t="n">
-        <v>0.1501545456526452</v>
+        <v>0.2926567231853239</v>
       </c>
       <c r="E220" t="n">
-        <v>0.244005024433136</v>
+        <v>0.1876650452613831</v>
       </c>
     </row>
     <row r="221">
@@ -4628,16 +4628,16 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0.4895086884498596</v>
+        <v>0.4567658305168152</v>
       </c>
       <c r="C221" t="n">
-        <v>0.5104913115501404</v>
+        <v>0.5432341694831848</v>
       </c>
       <c r="D221" t="n">
-        <v>0.6093077546651425</v>
+        <v>0.6587937626695919</v>
       </c>
       <c r="E221" t="n">
-        <v>0.6401152610778809</v>
+        <v>0.6311861276626587</v>
       </c>
     </row>
     <row r="222">
@@ -4647,16 +4647,16 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.6511590480804443</v>
+        <v>0.6442804336547852</v>
       </c>
       <c r="C222" t="n">
-        <v>0.3488409519195557</v>
+        <v>0.3557195663452148</v>
       </c>
       <c r="D222" t="n">
-        <v>0.5459304474401625</v>
+        <v>0.4388366625223319</v>
       </c>
       <c r="E222" t="n">
-        <v>0.4013029336929321</v>
+        <v>0.3703904151916504</v>
       </c>
     </row>
     <row r="223">
@@ -4666,16 +4666,16 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.6243528127670288</v>
+        <v>0.5998255014419556</v>
       </c>
       <c r="C223" t="n">
-        <v>0.3756471872329712</v>
+        <v>0.4001744985580444</v>
       </c>
       <c r="D223" t="n">
-        <v>0.6260833157743065</v>
+        <v>0.721879743392228</v>
       </c>
       <c r="E223" t="n">
-        <v>0.7035770416259766</v>
+        <v>0.7733328342437744</v>
       </c>
     </row>
     <row r="224">
@@ -4685,16 +4685,16 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.6081154346466064</v>
+        <v>0.574633777141571</v>
       </c>
       <c r="C224" t="n">
-        <v>0.3918845653533936</v>
+        <v>0.425366222858429</v>
       </c>
       <c r="D224" t="n">
-        <v>0.4553063867185387</v>
+        <v>0.5911594004385966</v>
       </c>
       <c r="E224" t="n">
-        <v>0.4618561267852783</v>
+        <v>0.4825950860977173</v>
       </c>
     </row>
     <row r="225">
@@ -4704,16 +4704,16 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.5525029897689819</v>
+        <v>0.5412338972091675</v>
       </c>
       <c r="C225" t="n">
-        <v>0.4474970102310181</v>
+        <v>0.4587661027908325</v>
       </c>
       <c r="D225" t="n">
-        <v>0.4100417520044723</v>
+        <v>0.4163273429181429</v>
       </c>
       <c r="E225" t="n">
-        <v>0.3772468566894531</v>
+        <v>0.3052435517311096</v>
       </c>
     </row>
     <row r="226">
@@ -4723,16 +4723,16 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0.4990001916885376</v>
+        <v>0.4920902252197266</v>
       </c>
       <c r="C226" t="n">
-        <v>0.5009998083114624</v>
+        <v>0.5079097747802734</v>
       </c>
       <c r="D226" t="n">
-        <v>0</v>
+        <v>0.03753311059728048</v>
       </c>
       <c r="E226" t="n">
-        <v>0.2235699892044067</v>
+        <v>0.04550051689147949</v>
       </c>
     </row>
     <row r="227">
@@ -4742,16 +4742,16 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0.5243978500366211</v>
+        <v>0.4851574897766113</v>
       </c>
       <c r="C227" t="n">
-        <v>0.4756021499633789</v>
+        <v>0.5148425102233887</v>
       </c>
       <c r="D227" t="n">
-        <v>0.5778431154322189</v>
+        <v>0.6133462839493127</v>
       </c>
       <c r="E227" t="n">
-        <v>0.4686589241027832</v>
+        <v>0.4037711620330811</v>
       </c>
     </row>
     <row r="228">
@@ -4761,16 +4761,16 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0.5551864504814148</v>
+        <v>0.5544612407684326</v>
       </c>
       <c r="C228" t="n">
-        <v>0.4448135495185852</v>
+        <v>0.4455387592315674</v>
       </c>
       <c r="D228" t="n">
-        <v>0.4567497836995622</v>
+        <v>0.4637708205347625</v>
       </c>
       <c r="E228" t="n">
-        <v>0.4159091711044312</v>
+        <v>0.3886932134628296</v>
       </c>
     </row>
     <row r="229">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0.6077376008033752</v>
+        <v>0.5901710987091064</v>
       </c>
       <c r="C229" t="n">
-        <v>0.3922623991966248</v>
+        <v>0.4098289012908936</v>
       </c>
       <c r="D229" t="n">
-        <v>0.4166762952774331</v>
+        <v>0.37303482684491</v>
       </c>
       <c r="E229" t="n">
-        <v>0.1298782825469971</v>
+        <v>0.05486243963241577</v>
       </c>
     </row>
     <row r="230">
@@ -4799,16 +4799,16 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0.6517874002456665</v>
+        <v>0.6094723343849182</v>
       </c>
       <c r="C230" t="n">
-        <v>0.3482125997543335</v>
+        <v>0.3905276656150818</v>
       </c>
       <c r="D230" t="n">
-        <v>0.6318557322586399</v>
+        <v>0.5948162056929722</v>
       </c>
       <c r="E230" t="n">
-        <v>0.4580107927322388</v>
+        <v>0.4071640968322754</v>
       </c>
     </row>
     <row r="231">
@@ -4818,16 +4818,16 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0.5174126625061035</v>
+        <v>0.4732765555381775</v>
       </c>
       <c r="C231" t="n">
-        <v>0.4825873374938965</v>
+        <v>0.5267234444618225</v>
       </c>
       <c r="D231" t="n">
-        <v>0.4444453611275909</v>
+        <v>0.4440037019666996</v>
       </c>
       <c r="E231" t="n">
-        <v>0.4695585966110229</v>
+        <v>0.381298303604126</v>
       </c>
     </row>
     <row r="232">
@@ -4837,16 +4837,16 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0.6432492136955261</v>
+        <v>0.603614866733551</v>
       </c>
       <c r="C232" t="n">
-        <v>0.3567507863044739</v>
+        <v>0.396385133266449</v>
       </c>
       <c r="D232" t="n">
-        <v>0.5101306105995167</v>
+        <v>0.4554072660015021</v>
       </c>
       <c r="E232" t="n">
-        <v>0.6250724792480469</v>
+        <v>0.5915577411651611</v>
       </c>
     </row>
     <row r="233">
@@ -4856,16 +4856,16 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0.52701735496521</v>
+        <v>0.524871826171875</v>
       </c>
       <c r="C233" t="n">
-        <v>0.47298264503479</v>
+        <v>0.475128173828125</v>
       </c>
       <c r="D233" t="n">
-        <v>0.2630634801673292</v>
+        <v>0.3486149167213319</v>
       </c>
       <c r="E233" t="n">
-        <v>0.1688469052314758</v>
+        <v>0.1500970721244812</v>
       </c>
     </row>
     <row r="234">
@@ -4875,16 +4875,16 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0.4981399476528168</v>
+        <v>0.5136862993240356</v>
       </c>
       <c r="C234" t="n">
-        <v>0.5018600523471832</v>
+        <v>0.4863137006759644</v>
       </c>
       <c r="D234" t="n">
-        <v>0.03889326282830796</v>
+        <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>0.1699195504188538</v>
+        <v>0.1014493107795715</v>
       </c>
     </row>
     <row r="235">
@@ -4894,16 +4894,16 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0.4318162202835083</v>
+        <v>0.414790153503418</v>
       </c>
       <c r="C235" t="n">
-        <v>0.5681837797164917</v>
+        <v>0.585209846496582</v>
       </c>
       <c r="D235" t="n">
-        <v>0.542182113084654</v>
+        <v>0.6785636097247664</v>
       </c>
       <c r="E235" t="n">
-        <v>0.7081301212310791</v>
+        <v>0.6675319671630859</v>
       </c>
     </row>
     <row r="236">
@@ -4913,16 +4913,16 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0.5615931153297424</v>
+        <v>0.5506206750869751</v>
       </c>
       <c r="C236" t="n">
-        <v>0.4384068846702576</v>
+        <v>0.4493793249130249</v>
       </c>
       <c r="D236" t="n">
-        <v>0.6199515928197616</v>
+        <v>0.5043714043322882</v>
       </c>
       <c r="E236" t="n">
-        <v>0.176360011100769</v>
+        <v>0.2297321557998657</v>
       </c>
     </row>
     <row r="237">
@@ -4932,16 +4932,16 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0.4709517657756805</v>
+        <v>0.4756091237068176</v>
       </c>
       <c r="C237" t="n">
-        <v>0.5290482342243195</v>
+        <v>0.5243908762931824</v>
       </c>
       <c r="D237" t="n">
-        <v>0.5498851657186132</v>
+        <v>0.655637393733125</v>
       </c>
       <c r="E237" t="n">
-        <v>0.3862444162368774</v>
+        <v>0.4516491889953613</v>
       </c>
     </row>
     <row r="238">
@@ -4951,16 +4951,16 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0.5623965263366699</v>
+        <v>0.5327391028404236</v>
       </c>
       <c r="C238" t="n">
-        <v>0.4376034736633301</v>
+        <v>0.4672608971595764</v>
       </c>
       <c r="D238" t="n">
-        <v>0.6024801677134364</v>
+        <v>0.6683805289122045</v>
       </c>
       <c r="E238" t="n">
-        <v>0.5599287748336792</v>
+        <v>0.5055055618286133</v>
       </c>
     </row>
     <row r="239">
@@ -4970,16 +4970,16 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0.5980563759803772</v>
+        <v>0.5671290159225464</v>
       </c>
       <c r="C239" t="n">
-        <v>0.4019436240196228</v>
+        <v>0.4328709840774536</v>
       </c>
       <c r="D239" t="n">
-        <v>0.7181779675771274</v>
+        <v>0.5860315756098251</v>
       </c>
       <c r="E239" t="n">
-        <v>0.7204183340072632</v>
+        <v>0.6766344308853149</v>
       </c>
     </row>
     <row r="240">
@@ -4989,16 +4989,16 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0.5789833068847656</v>
+        <v>0.5650286078453064</v>
       </c>
       <c r="C240" t="n">
-        <v>0.4210166931152344</v>
+        <v>0.4349713921546936</v>
       </c>
       <c r="D240" t="n">
-        <v>0.3017627676430558</v>
+        <v>0.2304001952531018</v>
       </c>
       <c r="E240" t="n">
-        <v>0.2894683480262756</v>
+        <v>0.2386856079101562</v>
       </c>
     </row>
     <row r="241">
@@ -5008,16 +5008,16 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0.6396831870079041</v>
+        <v>0.6234201192855835</v>
       </c>
       <c r="C241" t="n">
-        <v>0.3603168129920959</v>
+        <v>0.3765798807144165</v>
       </c>
       <c r="D241" t="n">
-        <v>0.8269365007808978</v>
+        <v>0.7342109415062218</v>
       </c>
       <c r="E241" t="n">
-        <v>0.9066417217254639</v>
+        <v>0.9023102521896362</v>
       </c>
     </row>
   </sheetData>

--- a/code/abc.xlsx
+++ b/code/abc.xlsx
@@ -473,7 +473,7 @@
         <v>0.3910512924194336</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5105826144770806</v>
+        <v>0.5105934008124552</v>
       </c>
       <c r="E2" t="n">
         <v>0.4426313638687134</v>
@@ -492,7 +492,7 @@
         <v>0.4484555125236511</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1671832763976986</v>
+        <v>0.1671875351525735</v>
       </c>
       <c r="E3" t="n">
         <v>0.1204679608345032</v>
@@ -511,7 +511,7 @@
         <v>0.4384233951568604</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1961502082134869</v>
+        <v>0.1961587912986245</v>
       </c>
       <c r="E4" t="n">
         <v>0.1236985325813293</v>
@@ -530,7 +530,7 @@
         <v>0.3560982942581177</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6570375179892829</v>
+        <v>0.6570378578224528</v>
       </c>
       <c r="E5" t="n">
         <v>0.7691932916641235</v>
@@ -549,7 +549,7 @@
         <v>0.4068514108657837</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5626289149944352</v>
+        <v>0.5626332737793349</v>
       </c>
       <c r="E6" t="n">
         <v>0.3900593519210815</v>
@@ -568,7 +568,7 @@
         <v>0.4082120656967163</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5813498535622282</v>
+        <v>0.5813519508673335</v>
       </c>
       <c r="E7" t="n">
         <v>0.6199451684951782</v>
@@ -587,7 +587,7 @@
         <v>0.4681574106216431</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3666800197211766</v>
+        <v>0.3666887611333425</v>
       </c>
       <c r="E8" t="n">
         <v>0.3067046999931335</v>
@@ -606,7 +606,7 @@
         <v>0.3716988563537598</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3594469562281252</v>
+        <v>0.3594537141587184</v>
       </c>
       <c r="E9" t="n">
         <v>0.2316972613334656</v>
@@ -625,7 +625,7 @@
         <v>0.3914117217063904</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4664409632231428</v>
+        <v>0.4664505936680206</v>
       </c>
       <c r="E10" t="n">
         <v>0.4486802816390991</v>
@@ -644,7 +644,7 @@
         <v>0.3918018937110901</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5905366933082273</v>
+        <v>0.5905463280502262</v>
       </c>
       <c r="E11" t="n">
         <v>0.4914919137954712</v>
@@ -663,7 +663,7 @@
         <v>0.4916859269142151</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5724032115051595</v>
+        <v>0.5724059463235371</v>
       </c>
       <c r="E12" t="n">
         <v>0.5914679765701294</v>
@@ -682,7 +682,7 @@
         <v>0.4357856512069702</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5962228456464087</v>
+        <v>0.5962266178278827</v>
       </c>
       <c r="E13" t="n">
         <v>0.7157618999481201</v>
@@ -701,7 +701,7 @@
         <v>0.5145249366760254</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2883127669161267</v>
+        <v>0.2883120371530258</v>
       </c>
       <c r="E14" t="n">
         <v>0.3547828197479248</v>
@@ -720,7 +720,7 @@
         <v>0.4456331729888916</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5367781380579331</v>
+        <v>0.5367833004488473</v>
       </c>
       <c r="E15" t="n">
         <v>0.5570417642593384</v>
@@ -739,7 +739,7 @@
         <v>0.4753530621528625</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6352126961575824</v>
+        <v>0.6352128219813857</v>
       </c>
       <c r="E16" t="n">
         <v>0.6860847473144531</v>
@@ -758,7 +758,7 @@
         <v>0.4534229040145874</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2884581883313927</v>
+        <v>0.2884620209028206</v>
       </c>
       <c r="E17" t="n">
         <v>0.3594585657119751</v>
@@ -777,7 +777,7 @@
         <v>0.3598608374595642</v>
       </c>
       <c r="D18" t="n">
-        <v>0.348697458375874</v>
+        <v>0.3486994121967593</v>
       </c>
       <c r="E18" t="n">
         <v>0.5753514766693115</v>
@@ -796,7 +796,7 @@
         <v>0.4831042289733887</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6620562813994736</v>
+        <v>0.6620670140409188</v>
       </c>
       <c r="E19" t="n">
         <v>0.4841436147689819</v>
@@ -815,7 +815,7 @@
         <v>0.492061972618103</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7337574042757995</v>
+        <v>0.7337613688859027</v>
       </c>
       <c r="E20" t="n">
         <v>0.9089876413345337</v>
@@ -834,7 +834,7 @@
         <v>0.5315456688404083</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4819821799220537</v>
+        <v>0.4819884844283629</v>
       </c>
       <c r="E21" t="n">
         <v>0.2928026914596558</v>
@@ -853,7 +853,7 @@
         <v>0.401157021522522</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7984529756903168</v>
+        <v>0.7984625375872966</v>
       </c>
       <c r="E22" t="n">
         <v>0.6846257448196411</v>
@@ -872,7 +872,7 @@
         <v>0.3755435943603516</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6621086344122971</v>
+        <v>0.6621175156683602</v>
       </c>
       <c r="E23" t="n">
         <v>0.6722981929779053</v>
@@ -891,7 +891,7 @@
         <v>0.4392260909080505</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5260075001557358</v>
+        <v>0.5260186042845276</v>
       </c>
       <c r="E24" t="n">
         <v>0.4508063793182373</v>
@@ -910,7 +910,7 @@
         <v>0.3512120246887207</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3379384987618167</v>
+        <v>0.3379480647079764</v>
       </c>
       <c r="E25" t="n">
         <v>0.2733950018882751</v>
@@ -929,7 +929,7 @@
         <v>0.5361484289169312</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4576094085289298</v>
+        <v>0.4576216786598551</v>
       </c>
       <c r="E26" t="n">
         <v>0.3387235999107361</v>
@@ -948,7 +948,7 @@
         <v>0.377605676651001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5329487077672656</v>
+        <v>0.5329586093052913</v>
       </c>
       <c r="E27" t="n">
         <v>0.5027188062667847</v>
@@ -967,7 +967,7 @@
         <v>0.3837938904762268</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3805875379737808</v>
+        <v>0.3805960486475197</v>
       </c>
       <c r="E28" t="n">
         <v>0.343306303024292</v>
@@ -986,7 +986,7 @@
         <v>0.4336653351783752</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5403515798452172</v>
+        <v>0.5403576384498963</v>
       </c>
       <c r="E29" t="n">
         <v>0.5338237285614014</v>
@@ -1005,7 +1005,7 @@
         <v>0.4415429830551147</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5307498320388849</v>
+        <v>0.5307591372243817</v>
       </c>
       <c r="E30" t="n">
         <v>0.3958691358566284</v>
@@ -1024,7 +1024,7 @@
         <v>0.4131492376327515</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4616442136559682</v>
+        <v>0.4616482050136335</v>
       </c>
       <c r="E31" t="n">
         <v>0.4609599113464355</v>
@@ -1043,7 +1043,7 @@
         <v>0.4717792272567749</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2545096488056438</v>
+        <v>0.2545120256181309</v>
       </c>
       <c r="E32" t="n">
         <v>0.4993933439254761</v>
@@ -1062,7 +1062,7 @@
         <v>0.5200027823448181</v>
       </c>
       <c r="D33" t="n">
-        <v>0.8258087950098401</v>
+        <v>0.8258084605911358</v>
       </c>
       <c r="E33" t="n">
         <v>0.9658019542694092</v>
@@ -1081,7 +1081,7 @@
         <v>0.4553797245025635</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6580045876933459</v>
+        <v>0.6580066338198248</v>
       </c>
       <c r="E34" t="n">
         <v>0.6433321237564087</v>
@@ -1100,7 +1100,7 @@
         <v>0.4205963611602783</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7250079580699819</v>
+        <v>0.7250130262295251</v>
       </c>
       <c r="E35" t="n">
         <v>0.8633438348770142</v>
@@ -1119,7 +1119,7 @@
         <v>0.4492206573486328</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2492610899871395</v>
+        <v>0.2492648530585625</v>
       </c>
       <c r="E36" t="n">
         <v>0.3950457572937012</v>
@@ -1138,7 +1138,7 @@
         <v>0.3779531717300415</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6315844616866919</v>
+        <v>0.631585641702376</v>
       </c>
       <c r="E37" t="n">
         <v>0.7254514694213867</v>
@@ -1157,7 +1157,7 @@
         <v>0.4314696788787842</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5312502800107024</v>
+        <v>0.5312641663833413</v>
       </c>
       <c r="E38" t="n">
         <v>0.3349621891975403</v>
@@ -1176,7 +1176,7 @@
         <v>0.3989667892456055</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5475353893585431</v>
+        <v>0.5475421639509993</v>
       </c>
       <c r="E39" t="n">
         <v>0.4649946689605713</v>
@@ -1195,7 +1195,7 @@
         <v>0.4921987056732178</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4396305069082735</v>
+        <v>0.4396406100178956</v>
       </c>
       <c r="E40" t="n">
         <v>0.3704736232757568</v>
@@ -1214,7 +1214,7 @@
         <v>0.3571837544441223</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6096729964039561</v>
+        <v>0.6096775465276735</v>
       </c>
       <c r="E41" t="n">
         <v>0.6660270690917969</v>
@@ -1233,7 +1233,7 @@
         <v>0.4579477906227112</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3812024540298917</v>
+        <v>0.3812144757630191</v>
       </c>
       <c r="E42" t="n">
         <v>0.2018061876296997</v>
@@ -1252,7 +1252,7 @@
         <v>0.4527038335800171</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3951938615760354</v>
+        <v>0.3952013413186164</v>
       </c>
       <c r="E43" t="n">
         <v>0.4043962955474854</v>
@@ -1271,7 +1271,7 @@
         <v>0.3294253945350647</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6204946429420128</v>
+        <v>0.6205017527464611</v>
       </c>
       <c r="E44" t="n">
         <v>0.6730955839157104</v>
@@ -1290,7 +1290,7 @@
         <v>0.4374257922172546</v>
       </c>
       <c r="D45" t="n">
-        <v>0.321400159828484</v>
+        <v>0.3214066084697981</v>
       </c>
       <c r="E45" t="n">
         <v>0.2968757748603821</v>
@@ -1309,7 +1309,7 @@
         <v>0.5005714297294617</v>
       </c>
       <c r="D46" t="n">
-        <v>0.06366062416862389</v>
+        <v>0.06366232861319593</v>
       </c>
       <c r="E46" t="n">
         <v>0.1703739762306213</v>
@@ -1328,7 +1328,7 @@
         <v>0.3982200622558594</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4384976977627029</v>
+        <v>0.4385107601253151</v>
       </c>
       <c r="E47" t="n">
         <v>0.1631680130958557</v>
@@ -1347,7 +1347,7 @@
         <v>0.5038725137710571</v>
       </c>
       <c r="D48" t="n">
-        <v>0.537002236927915</v>
+        <v>0.5370052463036379</v>
       </c>
       <c r="E48" t="n">
         <v>0.4089597463607788</v>
@@ -1366,7 +1366,7 @@
         <v>0.4303378462791443</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3787726561576659</v>
+        <v>0.3787771157104829</v>
       </c>
       <c r="E49" t="n">
         <v>0.4755451679229736</v>
@@ -1385,7 +1385,7 @@
         <v>0.5173054933547974</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4028470790633287</v>
+        <v>0.4028502787212376</v>
       </c>
       <c r="E50" t="n">
         <v>0.3689718246459961</v>
@@ -1404,7 +1404,7 @@
         <v>0.4442110061645508</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5793596652791645</v>
+        <v>0.5793613047966384</v>
       </c>
       <c r="E51" t="n">
         <v>0.7948834896087646</v>
@@ -1423,7 +1423,7 @@
         <v>0.5178033113479614</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5001075770696212</v>
+        <v>0.5001156056725913</v>
       </c>
       <c r="E52" t="n">
         <v>0.4744595289230347</v>
@@ -1442,7 +1442,7 @@
         <v>0.4409031867980957</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4763870780951244</v>
+        <v>0.4763945358501027</v>
       </c>
       <c r="E53" t="n">
         <v>0.7847824096679688</v>
@@ -1461,7 +1461,7 @@
         <v>0.4142179489135742</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5522605516791496</v>
+        <v>0.5522676902251122</v>
       </c>
       <c r="E54" t="n">
         <v>0.5941437482833862</v>
@@ -1480,7 +1480,7 @@
         <v>0.4065426588058472</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5564857839882927</v>
+        <v>0.5564892154884638</v>
       </c>
       <c r="E55" t="n">
         <v>0.6556057929992676</v>
@@ -1499,7 +1499,7 @@
         <v>0.458972156047821</v>
       </c>
       <c r="D56" t="n">
-        <v>0.2919272935691455</v>
+        <v>0.2919339553571403</v>
       </c>
       <c r="E56" t="n">
         <v>0.1278279423713684</v>
@@ -1518,7 +1518,7 @@
         <v>0.4253467321395874</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4047009397148149</v>
+        <v>0.4047109734956552</v>
       </c>
       <c r="E57" t="n">
         <v>0.2857626080513</v>
@@ -1537,7 +1537,7 @@
         <v>0.486426055431366</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1807294608206214</v>
+        <v>0.1807299713116475</v>
       </c>
       <c r="E58" t="n">
         <v>0.2442475557327271</v>
@@ -1556,7 +1556,7 @@
         <v>0.5252674520015717</v>
       </c>
       <c r="D59" t="n">
-        <v>0.1718481187123845</v>
+        <v>0.1718533509664463</v>
       </c>
       <c r="E59" t="n">
         <v>0.1368434429168701</v>
@@ -1575,7 +1575,7 @@
         <v>0.4744600057601929</v>
       </c>
       <c r="D60" t="n">
-        <v>0.01882982835454561</v>
+        <v>0.01883605943338357</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0.3940396308898926</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6783122022723218</v>
+        <v>0.6783151734433754</v>
       </c>
       <c r="E61" t="n">
         <v>0.7827403545379639</v>
@@ -1613,7 +1613,7 @@
         <v>0.3660759925842285</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4541283111842458</v>
+        <v>0.4541386796161944</v>
       </c>
       <c r="E62" t="n">
         <v>0.3158775568008423</v>
@@ -1632,7 +1632,7 @@
         <v>0.3565889596939087</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9735837053412657</v>
+        <v>0.9735875666771161</v>
       </c>
       <c r="E63" t="n">
         <v>0.9382219314575195</v>
@@ -1651,7 +1651,7 @@
         <v>0.3913043737411499</v>
       </c>
       <c r="D64" t="n">
-        <v>0.2434377609203213</v>
+        <v>0.2434418949581351</v>
       </c>
       <c r="E64" t="n">
         <v>0.4860548973083496</v>
@@ -1670,7 +1670,7 @@
         <v>0.353853702545166</v>
       </c>
       <c r="D65" t="n">
-        <v>0.7060551423394663</v>
+        <v>0.7060615556197147</v>
       </c>
       <c r="E65" t="n">
         <v>0.6167287826538086</v>
@@ -1689,7 +1689,7 @@
         <v>0.5218426585197449</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1944873617849509</v>
+        <v>0.1944907869011259</v>
       </c>
       <c r="E66" t="n">
         <v>0.215991199016571</v>
@@ -1708,7 +1708,7 @@
         <v>0.5531342625617981</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5223086214927228</v>
+        <v>0.5223168068820087</v>
       </c>
       <c r="E67" t="n">
         <v>0.3176490664482117</v>
@@ -1727,7 +1727,7 @@
         <v>0.4010590314865112</v>
       </c>
       <c r="D68" t="n">
-        <v>0.608769986430116</v>
+        <v>0.6087798370586603</v>
       </c>
       <c r="E68" t="n">
         <v>0.4791066646575928</v>
@@ -1746,7 +1746,7 @@
         <v>0.3128323554992676</v>
       </c>
       <c r="D69" t="n">
-        <v>0.3708355816560863</v>
+        <v>0.3708389582666772</v>
       </c>
       <c r="E69" t="n">
         <v>0.4228558540344238</v>
@@ -1765,7 +1765,7 @@
         <v>0.4384458065032959</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3227379493694651</v>
+        <v>0.3227398937164584</v>
       </c>
       <c r="E70" t="n">
         <v>0.3139896988868713</v>
@@ -1784,7 +1784,7 @@
         <v>0.4075318574905396</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5848552799952553</v>
+        <v>0.5848593391120124</v>
       </c>
       <c r="E71" t="n">
         <v>0.7196829319000244</v>
@@ -1803,7 +1803,7 @@
         <v>0.4069310426712036</v>
       </c>
       <c r="D72" t="n">
-        <v>0.4607423395417432</v>
+        <v>0.4607447023914429</v>
       </c>
       <c r="E72" t="n">
         <v>0.4762401580810547</v>
@@ -1822,7 +1822,7 @@
         <v>0.3800821304321289</v>
       </c>
       <c r="D73" t="n">
-        <v>0.3828144080436052</v>
+        <v>0.3828265608798195</v>
       </c>
       <c r="E73" t="n">
         <v>0.3197878003120422</v>
@@ -1841,7 +1841,7 @@
         <v>0.3467810750007629</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5093635428789567</v>
+        <v>0.5093696909521035</v>
       </c>
       <c r="E74" t="n">
         <v>0.6557159423828125</v>
@@ -1860,7 +1860,7 @@
         <v>0.3598579168319702</v>
       </c>
       <c r="D75" t="n">
-        <v>0.4213131492188185</v>
+        <v>0.4213208423574173</v>
       </c>
       <c r="E75" t="n">
         <v>0.4037101268768311</v>
@@ -1879,7 +1879,7 @@
         <v>0.4638673067092896</v>
       </c>
       <c r="D76" t="n">
-        <v>0.3055752383760599</v>
+        <v>0.3055811232355851</v>
       </c>
       <c r="E76" t="n">
         <v>0.2147849202156067</v>
@@ -1898,7 +1898,7 @@
         <v>0.5483080744743347</v>
       </c>
       <c r="D77" t="n">
-        <v>0.5359814131032083</v>
+        <v>0.5359786085971613</v>
       </c>
       <c r="E77" t="n">
         <v>0.7098006010055542</v>
@@ -1917,7 +1917,7 @@
         <v>0.3465061187744141</v>
       </c>
       <c r="D78" t="n">
-        <v>0.876153883381086</v>
+        <v>0.8761564574162476</v>
       </c>
       <c r="E78" t="n">
         <v>0.9221301078796387</v>
@@ -1936,7 +1936,7 @@
         <v>0.3733102083206177</v>
       </c>
       <c r="D79" t="n">
-        <v>0.7788947855638861</v>
+        <v>0.7788993771415467</v>
       </c>
       <c r="E79" t="n">
         <v>0.8942131996154785</v>
@@ -1955,7 +1955,7 @@
         <v>0.4350419640541077</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9240928882126436</v>
+        <v>0.9241023744370109</v>
       </c>
       <c r="E80" t="n">
         <v>0.8340854644775391</v>
@@ -1974,7 +1974,7 @@
         <v>0.4658234715461731</v>
       </c>
       <c r="D81" t="n">
-        <v>0.2752576343562474</v>
+        <v>0.2752636249082959</v>
       </c>
       <c r="E81" t="n">
         <v>0.1339019536972046</v>
@@ -1993,7 +1993,7 @@
         <v>0.4079121947288513</v>
       </c>
       <c r="D82" t="n">
-        <v>0.6378979270419883</v>
+        <v>0.6379002473036653</v>
       </c>
       <c r="E82" t="n">
         <v>0.6453602313995361</v>
@@ -2012,7 +2012,7 @@
         <v>0.4429652690887451</v>
       </c>
       <c r="D83" t="n">
-        <v>0.6554948093402154</v>
+        <v>0.6555039512503711</v>
       </c>
       <c r="E83" t="n">
         <v>0.7285913228988647</v>
@@ -2031,7 +2031,7 @@
         <v>0.3773818612098694</v>
       </c>
       <c r="D84" t="n">
-        <v>0.3269229442312045</v>
+        <v>0.3269282878898466</v>
       </c>
       <c r="E84" t="n">
         <v>0.3424119353294373</v>
@@ -2050,7 +2050,7 @@
         <v>0.3814876079559326</v>
       </c>
       <c r="D85" t="n">
-        <v>0.546644712515624</v>
+        <v>0.5466474011254387</v>
       </c>
       <c r="E85" t="n">
         <v>0.5733197927474976</v>
@@ -2069,7 +2069,7 @@
         <v>0.5085915327072144</v>
       </c>
       <c r="D86" t="n">
-        <v>0.3689349709751328</v>
+        <v>0.3689419946365692</v>
       </c>
       <c r="E86" t="n">
         <v>0.3483465313911438</v>
@@ -2088,7 +2088,7 @@
         <v>0.3750869035720825</v>
       </c>
       <c r="D87" t="n">
-        <v>0.4485921127448264</v>
+        <v>0.4486015115648394</v>
       </c>
       <c r="E87" t="n">
         <v>0.4884147644042969</v>
@@ -2107,7 +2107,7 @@
         <v>0.4683494567871094</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5062715298747972</v>
+        <v>0.5062800511053639</v>
       </c>
       <c r="E88" t="n">
         <v>0.4905019998550415</v>
@@ -2126,7 +2126,7 @@
         <v>0.356827437877655</v>
       </c>
       <c r="D89" t="n">
-        <v>0.2665611129322554</v>
+        <v>0.266565845770533</v>
       </c>
       <c r="E89" t="n">
         <v>0.2876932621002197</v>
@@ -2145,7 +2145,7 @@
         <v>0.4772963523864746</v>
       </c>
       <c r="D90" t="n">
-        <v>0.2411871713115532</v>
+        <v>0.2411937398929578</v>
       </c>
       <c r="E90" t="n">
         <v>0.169277548789978</v>
@@ -2164,7 +2164,7 @@
         <v>0.5611879825592041</v>
       </c>
       <c r="D91" t="n">
-        <v>0.3523849647672331</v>
+        <v>0.3523948894825755</v>
       </c>
       <c r="E91" t="n">
         <v>0.1937243342399597</v>
@@ -2183,7 +2183,7 @@
         <v>0.4347631931304932</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5090798271457108</v>
+        <v>0.5090888560280659</v>
       </c>
       <c r="E92" t="n">
         <v>0.4026491641998291</v>
@@ -2202,7 +2202,7 @@
         <v>0.3815890550613403</v>
       </c>
       <c r="D93" t="n">
-        <v>0.3425204201882768</v>
+        <v>0.3425275211470023</v>
       </c>
       <c r="E93" t="n">
         <v>0.384013295173645</v>
@@ -2221,7 +2221,7 @@
         <v>0.450636088848114</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5842937203044116</v>
+        <v>0.5843017562252465</v>
       </c>
       <c r="E94" t="n">
         <v>0.5372060537338257</v>
@@ -2240,7 +2240,7 @@
         <v>0.4504053592681885</v>
       </c>
       <c r="D95" t="n">
-        <v>0.2164495353869377</v>
+        <v>0.2164489323413661</v>
       </c>
       <c r="E95" t="n">
         <v>0.3579152822494507</v>
@@ -2259,7 +2259,7 @@
         <v>0.4625130891799927</v>
       </c>
       <c r="D96" t="n">
-        <v>0.3461229829244143</v>
+        <v>0.3461332182488726</v>
       </c>
       <c r="E96" t="n">
         <v>0.01914185285568237</v>
@@ -2278,7 +2278,7 @@
         <v>0.482422947883606</v>
       </c>
       <c r="D97" t="n">
-        <v>0.4046725455846212</v>
+        <v>0.4046811215174302</v>
       </c>
       <c r="E97" t="n">
         <v>0.4033141136169434</v>
@@ -2297,7 +2297,7 @@
         <v>0.4781836271286011</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5756614117876253</v>
+        <v>0.575673292048282</v>
       </c>
       <c r="E98" t="n">
         <v>0.4380341768264771</v>
@@ -2316,7 +2316,7 @@
         <v>0.5312159657478333</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5354541749355176</v>
+        <v>0.5354553925938582</v>
       </c>
       <c r="E99" t="n">
         <v>0.6267043352127075</v>
@@ -2335,7 +2335,7 @@
         <v>0.4830490350723267</v>
       </c>
       <c r="D100" t="n">
-        <v>0.6921208745474057</v>
+        <v>0.6921267393525968</v>
       </c>
       <c r="E100" t="n">
         <v>0.7476886510848999</v>
@@ -2354,7 +2354,7 @@
         <v>0.388903021812439</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5153265173735353</v>
+        <v>0.5153224629529207</v>
       </c>
       <c r="E101" t="n">
         <v>0.7502598762512207</v>
@@ -2373,7 +2373,7 @@
         <v>0.4177501201629639</v>
       </c>
       <c r="D102" t="n">
-        <v>0.565272560535385</v>
+        <v>0.5652783441997669</v>
       </c>
       <c r="E102" t="n">
         <v>0.453376293182373</v>
@@ -2392,7 +2392,7 @@
         <v>0.3996880650520325</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6742505327232551</v>
+        <v>0.6742570047566299</v>
       </c>
       <c r="E103" t="n">
         <v>0.5321557521820068</v>
@@ -2411,7 +2411,7 @@
         <v>0.4079060554504395</v>
       </c>
       <c r="D104" t="n">
-        <v>0.3806770294426117</v>
+        <v>0.3806843642075024</v>
       </c>
       <c r="E104" t="n">
         <v>0.2164083123207092</v>
@@ -2430,7 +2430,7 @@
         <v>0.5082175731658936</v>
       </c>
       <c r="D105" t="n">
-        <v>0.7875915172244417</v>
+        <v>0.7875915446951077</v>
       </c>
       <c r="E105" t="n">
         <v>0.5710842609405518</v>
@@ -2449,7 +2449,7 @@
         <v>0.4571627378463745</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5580652900488439</v>
+        <v>0.5580761279758014</v>
       </c>
       <c r="E106" t="n">
         <v>0.4968180656433105</v>
@@ -2468,7 +2468,7 @@
         <v>0.4176512956619263</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6648154686411211</v>
+        <v>0.6648266988919586</v>
       </c>
       <c r="E107" t="n">
         <v>0.6079947948455811</v>
@@ -2487,7 +2487,7 @@
         <v>0.365555465221405</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6971947069120028</v>
+        <v>0.6971988966217297</v>
       </c>
       <c r="E108" t="n">
         <v>0.7118945121765137</v>
@@ -2506,7 +2506,7 @@
         <v>0.37420654296875</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5546823978146804</v>
+        <v>0.5546965032370342</v>
       </c>
       <c r="E109" t="n">
         <v>0.4762556552886963</v>
@@ -2525,7 +2525,7 @@
         <v>0.3697179555892944</v>
       </c>
       <c r="D110" t="n">
-        <v>0.7340256106750032</v>
+        <v>0.7340358887297244</v>
       </c>
       <c r="E110" t="n">
         <v>0.7102515697479248</v>
@@ -2544,7 +2544,7 @@
         <v>0.4822843074798584</v>
       </c>
       <c r="D111" t="n">
-        <v>0.2556551024911877</v>
+        <v>0.2556583176282335</v>
       </c>
       <c r="E111" t="n">
         <v>0.390872597694397</v>
@@ -2563,7 +2563,7 @@
         <v>0.4816435575485229</v>
       </c>
       <c r="D112" t="n">
-        <v>0.1565731961108527</v>
+        <v>0.1565774926950943</v>
       </c>
       <c r="E112" t="n">
         <v>0.1576111316680908</v>
@@ -2582,7 +2582,7 @@
         <v>0.5138271749019623</v>
       </c>
       <c r="D113" t="n">
-        <v>0.5606025547166716</v>
+        <v>0.560610572953737</v>
       </c>
       <c r="E113" t="n">
         <v>0.4234123229980469</v>
@@ -2601,7 +2601,7 @@
         <v>0.4079693555831909</v>
       </c>
       <c r="D114" t="n">
-        <v>0.3818540414402924</v>
+        <v>0.381856084730293</v>
       </c>
       <c r="E114" t="n">
         <v>0.459559440612793</v>
@@ -2620,7 +2620,7 @@
         <v>0.3726497888565063</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6971537242437076</v>
+        <v>0.6971606395179125</v>
       </c>
       <c r="E115" t="n">
         <v>0.7375683784484863</v>
@@ -2639,7 +2639,7 @@
         <v>0.5080802738666534</v>
       </c>
       <c r="D116" t="n">
-        <v>0.4993262940290328</v>
+        <v>0.499334282622984</v>
       </c>
       <c r="E116" t="n">
         <v>0.5223513841629028</v>
@@ -2658,7 +2658,7 @@
         <v>0.5534863471984863</v>
       </c>
       <c r="D117" t="n">
-        <v>0.2576232652536243</v>
+        <v>0.2576347936332005</v>
       </c>
       <c r="E117" t="n">
         <v>0.04182910919189453</v>
@@ -2677,7 +2677,7 @@
         <v>0.6006472110748291</v>
       </c>
       <c r="D118" t="n">
-        <v>0.1245077232696615</v>
+        <v>0.1245067406312635</v>
       </c>
       <c r="E118" t="n">
         <v>0.1884226202964783</v>
@@ -2696,7 +2696,7 @@
         <v>0.5544901490211487</v>
       </c>
       <c r="D119" t="n">
-        <v>0.6936740022237635</v>
+        <v>0.6936864274324337</v>
       </c>
       <c r="E119" t="n">
         <v>0.3517841100692749</v>
@@ -2715,7 +2715,7 @@
         <v>0.3948849439620972</v>
       </c>
       <c r="D120" t="n">
-        <v>0.3885647698558813</v>
+        <v>0.3885690363957763</v>
       </c>
       <c r="E120" t="n">
         <v>0.5526906251907349</v>
@@ -2734,7 +2734,7 @@
         <v>0.3692203164100647</v>
       </c>
       <c r="D121" t="n">
-        <v>0.2637443209234543</v>
+        <v>0.2637544288114433</v>
       </c>
       <c r="E121" t="n">
         <v>0.2795842885971069</v>
@@ -2753,7 +2753,7 @@
         <v>0.4389522075653076</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6464404241248166</v>
+        <v>0.6464455502215944</v>
       </c>
       <c r="E122" t="n">
         <v>0.663658618927002</v>
@@ -2772,7 +2772,7 @@
         <v>0.428591787815094</v>
       </c>
       <c r="D123" t="n">
-        <v>0.3930419462769485</v>
+        <v>0.3930437750955406</v>
       </c>
       <c r="E123" t="n">
         <v>0.4265578985214233</v>
@@ -2791,7 +2791,7 @@
         <v>0.388033390045166</v>
       </c>
       <c r="D124" t="n">
-        <v>0.2248723802143443</v>
+        <v>0.2248750239853345</v>
       </c>
       <c r="E124" t="n">
         <v>0.3515310287475586</v>
@@ -2810,7 +2810,7 @@
         <v>0.3665192127227783</v>
       </c>
       <c r="D125" t="n">
-        <v>0.4042469914899072</v>
+        <v>0.4042542018753884</v>
       </c>
       <c r="E125" t="n">
         <v>0.4120975732803345</v>
@@ -2829,7 +2829,7 @@
         <v>0.4976041316986084</v>
       </c>
       <c r="D126" t="n">
-        <v>0.5081206852066403</v>
+        <v>0.5081321946228869</v>
       </c>
       <c r="E126" t="n">
         <v>0.3361043334007263</v>
@@ -2848,7 +2848,7 @@
         <v>0.4615082740783691</v>
       </c>
       <c r="D127" t="n">
-        <v>0.5748227027315138</v>
+        <v>0.5748329269020228</v>
       </c>
       <c r="E127" t="n">
         <v>0.5357968807220459</v>
@@ -2867,7 +2867,7 @@
         <v>0.4146919250488281</v>
       </c>
       <c r="D128" t="n">
-        <v>0.4526408621277782</v>
+        <v>0.4526477996124888</v>
       </c>
       <c r="E128" t="n">
         <v>0.4655193090438843</v>
@@ -2886,7 +2886,7 @@
         <v>0.5211476385593414</v>
       </c>
       <c r="D129" t="n">
-        <v>0.8048645563934078</v>
+        <v>0.8048702979148485</v>
       </c>
       <c r="E129" t="n">
         <v>0.7290475368499756</v>
@@ -2905,7 +2905,7 @@
         <v>0.4477575421333313</v>
       </c>
       <c r="D130" t="n">
-        <v>0.3338908397510908</v>
+        <v>0.333900357641898</v>
       </c>
       <c r="E130" t="n">
         <v>0.1238672733306885</v>
@@ -2943,7 +2943,7 @@
         <v>0.4472834467887878</v>
       </c>
       <c r="D132" t="n">
-        <v>0.3836733514352911</v>
+        <v>0.3836717574284492</v>
       </c>
       <c r="E132" t="n">
         <v>0.5928397178649902</v>
@@ -2962,7 +2962,7 @@
         <v>0.3793144226074219</v>
       </c>
       <c r="D133" t="n">
-        <v>0.5605110344961836</v>
+        <v>0.5605211451084294</v>
       </c>
       <c r="E133" t="n">
         <v>0.4947690963745117</v>
@@ -2981,7 +2981,7 @@
         <v>0.3677132129669189</v>
       </c>
       <c r="D134" t="n">
-        <v>0.7509264719684363</v>
+        <v>0.7509343235914008</v>
       </c>
       <c r="E134" t="n">
         <v>0.7124089002609253</v>
@@ -3000,7 +3000,7 @@
         <v>0.3720829486846924</v>
       </c>
       <c r="D135" t="n">
-        <v>0.350122890331002</v>
+        <v>0.3501322951704596</v>
       </c>
       <c r="E135" t="n">
         <v>0.2957805395126343</v>
@@ -3019,7 +3019,7 @@
         <v>0.4207576513290405</v>
       </c>
       <c r="D136" t="n">
-        <v>0.2417703005217829</v>
+        <v>0.2417779668519869</v>
       </c>
       <c r="E136" t="n">
         <v>0.3653913736343384</v>
@@ -3038,7 +3038,7 @@
         <v>0.3821367025375366</v>
       </c>
       <c r="D137" t="n">
-        <v>0.464358189018946</v>
+        <v>0.4643626477053078</v>
       </c>
       <c r="E137" t="n">
         <v>0.4331027269363403</v>
@@ -3057,7 +3057,7 @@
         <v>0.4009515047073364</v>
       </c>
       <c r="D138" t="n">
-        <v>0.386546060104224</v>
+        <v>0.3865536400209143</v>
       </c>
       <c r="E138" t="n">
         <v>0.07958942651748657</v>
@@ -3076,7 +3076,7 @@
         <v>0.3796133995056152</v>
       </c>
       <c r="D139" t="n">
-        <v>0.6889449130957964</v>
+        <v>0.6889478424650685</v>
       </c>
       <c r="E139" t="n">
         <v>0.6060140132904053</v>
@@ -3095,7 +3095,7 @@
         <v>0.4481979608535767</v>
       </c>
       <c r="D140" t="n">
-        <v>0.5983462644942567</v>
+        <v>0.5983445267046014</v>
       </c>
       <c r="E140" t="n">
         <v>0.5920966863632202</v>
@@ -3114,7 +3114,7 @@
         <v>0.4067161679267883</v>
       </c>
       <c r="D141" t="n">
-        <v>0.7001226884999793</v>
+        <v>0.7001207092759572</v>
       </c>
       <c r="E141" t="n">
         <v>0.8782807588577271</v>
@@ -3133,7 +3133,7 @@
         <v>0.4217235445976257</v>
       </c>
       <c r="D142" t="n">
-        <v>0.3793768840996488</v>
+        <v>0.3793879702445301</v>
       </c>
       <c r="E142" t="n">
         <v>0.2741279602050781</v>
@@ -3152,7 +3152,7 @@
         <v>0.4092387557029724</v>
       </c>
       <c r="D143" t="n">
-        <v>0.6917837295917005</v>
+        <v>0.6917940297264298</v>
       </c>
       <c r="E143" t="n">
         <v>0.4916051626205444</v>
@@ -3171,7 +3171,7 @@
         <v>0.5349847972393036</v>
       </c>
       <c r="D144" t="n">
-        <v>0.3892398101765299</v>
+        <v>0.389245382097993</v>
       </c>
       <c r="E144" t="n">
         <v>0.2160175442695618</v>
@@ -3190,7 +3190,7 @@
         <v>0.4223517179489136</v>
       </c>
       <c r="D145" t="n">
-        <v>0.7131855120044946</v>
+        <v>0.713189109731784</v>
       </c>
       <c r="E145" t="n">
         <v>0.4510931968688965</v>
@@ -3209,7 +3209,7 @@
         <v>0.3672390580177307</v>
       </c>
       <c r="D146" t="n">
-        <v>0.6485325319861399</v>
+        <v>0.6485384763273145</v>
       </c>
       <c r="E146" t="n">
         <v>0.4055308103561401</v>
@@ -3228,7 +3228,7 @@
         <v>0.4968562126159668</v>
       </c>
       <c r="D147" t="n">
-        <v>0.4054308826074459</v>
+        <v>0.4054392721241619</v>
       </c>
       <c r="E147" t="n">
         <v>0.2503305077552795</v>
@@ -3247,7 +3247,7 @@
         <v>0.3983690738677979</v>
       </c>
       <c r="D148" t="n">
-        <v>0.5598811836924178</v>
+        <v>0.5598905779109018</v>
       </c>
       <c r="E148" t="n">
         <v>0.6276003122329712</v>
@@ -3266,7 +3266,7 @@
         <v>0.4901533126831055</v>
       </c>
       <c r="D149" t="n">
-        <v>0.2935007270795747</v>
+        <v>0.2935100739674988</v>
       </c>
       <c r="E149" t="n">
         <v>0.0330427885055542</v>
@@ -3285,7 +3285,7 @@
         <v>0.3646897077560425</v>
       </c>
       <c r="D150" t="n">
-        <v>0.4578359057572155</v>
+        <v>0.4578359059599693</v>
       </c>
       <c r="E150" t="n">
         <v>0.4685240983963013</v>
@@ -3304,7 +3304,7 @@
         <v>0.3593360185623169</v>
       </c>
       <c r="D151" t="n">
-        <v>0.4327323690899154</v>
+        <v>0.4327404553016338</v>
       </c>
       <c r="E151" t="n">
         <v>0.4417001008987427</v>
@@ -3323,7 +3323,7 @@
         <v>0.4684556722640991</v>
       </c>
       <c r="D152" t="n">
-        <v>0.2471572677800833</v>
+        <v>0.2471674735914872</v>
       </c>
       <c r="E152" t="n">
         <v>0.08750742673873901</v>
@@ -3342,7 +3342,7 @@
         <v>0.47626793384552</v>
       </c>
       <c r="D153" t="n">
-        <v>0.5761036741674238</v>
+        <v>0.5761055553132761</v>
       </c>
       <c r="E153" t="n">
         <v>0.685431957244873</v>
@@ -3361,7 +3361,7 @@
         <v>0.3796935081481934</v>
       </c>
       <c r="D154" t="n">
-        <v>0.5411741046478795</v>
+        <v>0.5411822598510149</v>
       </c>
       <c r="E154" t="n">
         <v>0.3937904834747314</v>
@@ -3380,7 +3380,7 @@
         <v>0.4206418991088867</v>
       </c>
       <c r="D155" t="n">
-        <v>0.5236263486321651</v>
+        <v>0.5236391763535677</v>
       </c>
       <c r="E155" t="n">
         <v>0.576723575592041</v>
@@ -3399,7 +3399,7 @@
         <v>0.4915492534637451</v>
       </c>
       <c r="D156" t="n">
-        <v>0.4796534138089866</v>
+        <v>0.4796572003702074</v>
       </c>
       <c r="E156" t="n">
         <v>0.4339280128479004</v>
@@ -3418,7 +3418,7 @@
         <v>0.4643226861953735</v>
       </c>
       <c r="D157" t="n">
-        <v>0.2546101839769881</v>
+        <v>0.2546122000606998</v>
       </c>
       <c r="E157" t="n">
         <v>0.2384292483329773</v>
@@ -3437,7 +3437,7 @@
         <v>0.3661534190177917</v>
       </c>
       <c r="D158" t="n">
-        <v>0.4784516697065668</v>
+        <v>0.4784588516639803</v>
       </c>
       <c r="E158" t="n">
         <v>0.5996274948120117</v>
@@ -3456,7 +3456,7 @@
         <v>0.4378800392150879</v>
       </c>
       <c r="D159" t="n">
-        <v>0.6115262389631103</v>
+        <v>0.611535503980648</v>
       </c>
       <c r="E159" t="n">
         <v>0.6656707525253296</v>
@@ -3475,7 +3475,7 @@
         <v>0.4254863262176514</v>
       </c>
       <c r="D160" t="n">
-        <v>0.4946629001440092</v>
+        <v>0.494668680284494</v>
       </c>
       <c r="E160" t="n">
         <v>0.5391813516616821</v>
@@ -3494,7 +3494,7 @@
         <v>0.5239103436470032</v>
       </c>
       <c r="D161" t="n">
-        <v>0.4436071805431987</v>
+        <v>0.4436121727876337</v>
       </c>
       <c r="E161" t="n">
         <v>0.2696343660354614</v>
@@ -3513,7 +3513,7 @@
         <v>0.4364310503005981</v>
       </c>
       <c r="D162" t="n">
-        <v>0.3098013442197574</v>
+        <v>0.3098089320731682</v>
       </c>
       <c r="E162" t="n">
         <v>0.35968017578125</v>
@@ -3532,7 +3532,7 @@
         <v>0.3787410259246826</v>
       </c>
       <c r="D163" t="n">
-        <v>0.6249743376099622</v>
+        <v>0.62498451099981</v>
       </c>
       <c r="E163" t="n">
         <v>0.4751893281936646</v>
@@ -3551,7 +3551,7 @@
         <v>0.4006058573722839</v>
       </c>
       <c r="D164" t="n">
-        <v>0.5639536415334369</v>
+        <v>0.5639577830149126</v>
       </c>
       <c r="E164" t="n">
         <v>0.557367205619812</v>
@@ -3570,7 +3570,7 @@
         <v>0.3812965154647827</v>
       </c>
       <c r="D165" t="n">
-        <v>0.4984305477985794</v>
+        <v>0.4984376544767827</v>
       </c>
       <c r="E165" t="n">
         <v>0.3788273334503174</v>
@@ -3589,7 +3589,7 @@
         <v>0.4604686498641968</v>
       </c>
       <c r="D166" t="n">
-        <v>0.4479303399553131</v>
+        <v>0.4479391114791123</v>
       </c>
       <c r="E166" t="n">
         <v>0.2602441310882568</v>
@@ -3608,7 +3608,7 @@
         <v>0.4008637666702271</v>
       </c>
       <c r="D167" t="n">
-        <v>0.444317263044186</v>
+        <v>0.444323814496162</v>
       </c>
       <c r="E167" t="n">
         <v>0.5225977897644043</v>
@@ -3627,7 +3627,7 @@
         <v>0.3400001525878906</v>
       </c>
       <c r="D168" t="n">
-        <v>0.4788776299259334</v>
+        <v>0.4788880955544503</v>
       </c>
       <c r="E168" t="n">
         <v>0.21419358253479</v>
@@ -3646,7 +3646,7 @@
         <v>0.3544310331344604</v>
       </c>
       <c r="D169" t="n">
-        <v>0.5138791064337008</v>
+        <v>0.5138871178116613</v>
       </c>
       <c r="E169" t="n">
         <v>0.3220564126968384</v>
@@ -3665,7 +3665,7 @@
         <v>0.4966106414794922</v>
       </c>
       <c r="D170" t="n">
-        <v>0.3108037057871199</v>
+        <v>0.3108082367291917</v>
       </c>
       <c r="E170" t="n">
         <v>0.3713158369064331</v>
@@ -3684,7 +3684,7 @@
         <v>0.3545812368392944</v>
       </c>
       <c r="D171" t="n">
-        <v>0.3601394182269853</v>
+        <v>0.3601408791321084</v>
       </c>
       <c r="E171" t="n">
         <v>0.6108356714248657</v>
@@ -3703,7 +3703,7 @@
         <v>0.469066858291626</v>
       </c>
       <c r="D172" t="n">
-        <v>0.4219686149785891</v>
+        <v>0.4219751782535069</v>
       </c>
       <c r="E172" t="n">
         <v>0.4264657497406006</v>
@@ -3722,7 +3722,7 @@
         <v>0.3757655024528503</v>
       </c>
       <c r="D173" t="n">
-        <v>0.5447381991995262</v>
+        <v>0.5447530410083786</v>
       </c>
       <c r="E173" t="n">
         <v>0.4127278327941895</v>
@@ -3741,7 +3741,7 @@
         <v>0.412935733795166</v>
       </c>
       <c r="D174" t="n">
-        <v>0.8124920391716093</v>
+        <v>0.8124974836779209</v>
       </c>
       <c r="E174" t="n">
         <v>0.7598211765289307</v>
@@ -3760,7 +3760,7 @@
         <v>0.3361465930938721</v>
       </c>
       <c r="D175" t="n">
-        <v>0.3778200438483253</v>
+        <v>0.377832119705958</v>
       </c>
       <c r="E175" t="n">
         <v>0.3164451718330383</v>
@@ -3779,7 +3779,7 @@
         <v>0.5081402063369751</v>
       </c>
       <c r="D176" t="n">
-        <v>0.3276170817702871</v>
+        <v>0.3276247044149896</v>
       </c>
       <c r="E176" t="n">
         <v>0.2228092551231384</v>
@@ -3798,7 +3798,7 @@
         <v>0.4786992073059082</v>
       </c>
       <c r="D177" t="n">
-        <v>0.338004227136314</v>
+        <v>0.3380038215582665</v>
       </c>
       <c r="E177" t="n">
         <v>0.4382261037826538</v>
@@ -3817,7 +3817,7 @@
         <v>0.3797339200973511</v>
       </c>
       <c r="D178" t="n">
-        <v>0.6372751615834245</v>
+        <v>0.6372874715120878</v>
       </c>
       <c r="E178" t="n">
         <v>0.4647172689437866</v>
@@ -3836,7 +3836,7 @@
         <v>0.4493277072906494</v>
       </c>
       <c r="D179" t="n">
-        <v>0.5697208218308123</v>
+        <v>0.5697275442721144</v>
       </c>
       <c r="E179" t="n">
         <v>0.4306193590164185</v>
@@ -3855,7 +3855,7 @@
         <v>0.4529658555984497</v>
       </c>
       <c r="D180" t="n">
-        <v>0.4093316829358062</v>
+        <v>0.4093408669846031</v>
       </c>
       <c r="E180" t="n">
         <v>0.380814790725708</v>
@@ -3874,7 +3874,7 @@
         <v>0.433810830116272</v>
       </c>
       <c r="D181" t="n">
-        <v>0.6217443262875684</v>
+        <v>0.6217530652764017</v>
       </c>
       <c r="E181" t="n">
         <v>0.473185658454895</v>
@@ -3893,7 +3893,7 @@
         <v>0.426201343536377</v>
       </c>
       <c r="D182" t="n">
-        <v>0.3260877329234984</v>
+        <v>0.3260974593575237</v>
       </c>
       <c r="E182" t="n">
         <v>0.1721561551094055</v>
@@ -3912,7 +3912,7 @@
         <v>0.3473081588745117</v>
       </c>
       <c r="D183" t="n">
-        <v>0.3225019065817532</v>
+        <v>0.3225068515225678</v>
       </c>
       <c r="E183" t="n">
         <v>0.4695218801498413</v>
@@ -3931,7 +3931,7 @@
         <v>0.3573884963989258</v>
       </c>
       <c r="D184" t="n">
-        <v>0.6416260761805488</v>
+        <v>0.6416346090445648</v>
       </c>
       <c r="E184" t="n">
         <v>0.6413898468017578</v>
@@ -3950,7 +3950,7 @@
         <v>0.4428797960281372</v>
       </c>
       <c r="D185" t="n">
-        <v>0.6838316171224327</v>
+        <v>0.683835579076561</v>
       </c>
       <c r="E185" t="n">
         <v>0.7517112493515015</v>
@@ -3969,7 +3969,7 @@
         <v>0.4366220235824585</v>
       </c>
       <c r="D186" t="n">
-        <v>0.3163975811275738</v>
+        <v>0.3164035754663751</v>
       </c>
       <c r="E186" t="n">
         <v>0.2293208837509155</v>
@@ -3988,7 +3988,7 @@
         <v>0.427099883556366</v>
       </c>
       <c r="D187" t="n">
-        <v>0.434921061486124</v>
+        <v>0.4349309879932569</v>
       </c>
       <c r="E187" t="n">
         <v>0.3806552886962891</v>
@@ -4007,7 +4007,7 @@
         <v>0.3896775245666504</v>
       </c>
       <c r="D188" t="n">
-        <v>0.6279330618562518</v>
+        <v>0.6279425084209643</v>
       </c>
       <c r="E188" t="n">
         <v>0.5967719554901123</v>
@@ -4026,7 +4026,7 @@
         <v>0.3644412755966187</v>
       </c>
       <c r="D189" t="n">
-        <v>0.4278909878382277</v>
+        <v>0.4279016907402132</v>
       </c>
       <c r="E189" t="n">
         <v>0.4009089469909668</v>
@@ -4045,7 +4045,7 @@
         <v>0.38399338722229</v>
       </c>
       <c r="D190" t="n">
-        <v>0.365298491449582</v>
+        <v>0.3653076629823561</v>
       </c>
       <c r="E190" t="n">
         <v>0.3296464681625366</v>
@@ -4064,7 +4064,7 @@
         <v>0.4471529722213745</v>
       </c>
       <c r="D191" t="n">
-        <v>0.6136431939593026</v>
+        <v>0.6136482731564958</v>
       </c>
       <c r="E191" t="n">
         <v>0.5918526649475098</v>
@@ -4083,7 +4083,7 @@
         <v>0.3668428659439087</v>
       </c>
       <c r="D192" t="n">
-        <v>0.4784542517192903</v>
+        <v>0.4784582449332625</v>
       </c>
       <c r="E192" t="n">
         <v>0.6324694156646729</v>
@@ -4102,7 +4102,7 @@
         <v>0.507997453212738</v>
       </c>
       <c r="D193" t="n">
-        <v>0.6356735405474828</v>
+        <v>0.635678553738512</v>
       </c>
       <c r="E193" t="n">
         <v>0.6354193687438965</v>
@@ -4121,7 +4121,7 @@
         <v>0.4471111297607422</v>
       </c>
       <c r="D194" t="n">
-        <v>0.470618231019407</v>
+        <v>0.470630045708593</v>
       </c>
       <c r="E194" t="n">
         <v>0.2907840013504028</v>
@@ -4140,7 +4140,7 @@
         <v>0.3548184037208557</v>
       </c>
       <c r="D195" t="n">
-        <v>0.7848302371014897</v>
+        <v>0.7848340787671533</v>
       </c>
       <c r="E195" t="n">
         <v>0.7529481649398804</v>
@@ -4159,7 +4159,7 @@
         <v>0.4462099075317383</v>
       </c>
       <c r="D196" t="n">
-        <v>0.55411703524111</v>
+        <v>0.5541160138438909</v>
       </c>
       <c r="E196" t="n">
         <v>0.7247523069381714</v>
@@ -4178,7 +4178,7 @@
         <v>0.3701680898666382</v>
       </c>
       <c r="D197" t="n">
-        <v>0.4733932939635022</v>
+        <v>0.4733936214444151</v>
       </c>
       <c r="E197" t="n">
         <v>0.5832535028457642</v>
@@ -4197,7 +4197,7 @@
         <v>0.410399317741394</v>
       </c>
       <c r="D198" t="n">
-        <v>0.6739718281682263</v>
+        <v>0.6739769646471551</v>
       </c>
       <c r="E198" t="n">
         <v>0.6792737245559692</v>
@@ -4216,7 +4216,7 @@
         <v>0.5133005678653717</v>
       </c>
       <c r="D199" t="n">
-        <v>0.6590464040376818</v>
+        <v>0.6590584592194425</v>
       </c>
       <c r="E199" t="n">
         <v>0.1191703677177429</v>
@@ -4235,7 +4235,7 @@
         <v>0.3909417390823364</v>
       </c>
       <c r="D200" t="n">
-        <v>0.2999055403512558</v>
+        <v>0.2999127612616401</v>
       </c>
       <c r="E200" t="n">
         <v>0.281475305557251</v>
@@ -4254,7 +4254,7 @@
         <v>0.4734310507774353</v>
       </c>
       <c r="D201" t="n">
-        <v>0.351381210763049</v>
+        <v>0.3513847162099364</v>
       </c>
       <c r="E201" t="n">
         <v>0.399666428565979</v>
@@ -4273,7 +4273,7 @@
         <v>0.4039435386657715</v>
       </c>
       <c r="D202" t="n">
-        <v>0.68016189464793</v>
+        <v>0.6801627561636544</v>
       </c>
       <c r="E202" t="n">
         <v>0.7029372453689575</v>
@@ -4292,7 +4292,7 @@
         <v>0.4128897190093994</v>
       </c>
       <c r="D203" t="n">
-        <v>0.4131707984613089</v>
+        <v>0.4131789782530679</v>
       </c>
       <c r="E203" t="n">
         <v>0.3182675242424011</v>
@@ -4311,7 +4311,7 @@
         <v>0.3258742094039917</v>
       </c>
       <c r="D204" t="n">
-        <v>0.4367475029527447</v>
+        <v>0.4367587054548533</v>
       </c>
       <c r="E204" t="n">
         <v>0.138988733291626</v>
@@ -4330,7 +4330,7 @@
         <v>0.4678887724876404</v>
       </c>
       <c r="D205" t="n">
-        <v>0.2454632781321316</v>
+        <v>0.2454694250844088</v>
       </c>
       <c r="E205" t="n">
         <v>0.1732699871063232</v>
@@ -4349,7 +4349,7 @@
         <v>0.5438828468322754</v>
       </c>
       <c r="D206" t="n">
-        <v>0.6885482757090083</v>
+        <v>0.6885604498182102</v>
       </c>
       <c r="E206" t="n">
         <v>0.4763698577880859</v>
@@ -4368,7 +4368,7 @@
         <v>0.3235468864440918</v>
       </c>
       <c r="D207" t="n">
-        <v>0.4783830184769101</v>
+        <v>0.4783852381571735</v>
       </c>
       <c r="E207" t="n">
         <v>0.4854220151901245</v>
@@ -4387,7 +4387,7 @@
         <v>0.4714856147766113</v>
       </c>
       <c r="D208" t="n">
-        <v>0.2576163509375436</v>
+        <v>0.2576186637269959</v>
       </c>
       <c r="E208" t="n">
         <v>0.3121111392974854</v>
@@ -4406,7 +4406,7 @@
         <v>0.4231390953063965</v>
       </c>
       <c r="D209" t="n">
-        <v>0.8860463027767815</v>
+        <v>0.8860525813522752</v>
       </c>
       <c r="E209" t="n">
         <v>1</v>
@@ -4425,7 +4425,7 @@
         <v>0.4239405393600464</v>
       </c>
       <c r="D210" t="n">
-        <v>0.475727420469466</v>
+        <v>0.4757368951305804</v>
       </c>
       <c r="E210" t="n">
         <v>0.3888708353042603</v>
@@ -4444,7 +4444,7 @@
         <v>0.5169192254543304</v>
       </c>
       <c r="D211" t="n">
-        <v>0.5556999384274007</v>
+        <v>0.5557030660871765</v>
       </c>
       <c r="E211" t="n">
         <v>0.5228643417358398</v>
@@ -4463,7 +4463,7 @@
         <v>0.4587423205375671</v>
       </c>
       <c r="D212" t="n">
-        <v>0.742145490164371</v>
+        <v>0.7421553305078548</v>
       </c>
       <c r="E212" t="n">
         <v>0.5227845907211304</v>
@@ -4482,7 +4482,7 @@
         <v>0.3817242383956909</v>
       </c>
       <c r="D213" t="n">
-        <v>0.2328224263149059</v>
+        <v>0.232829914188266</v>
       </c>
       <c r="E213" t="n">
         <v>0.2930623888969421</v>
@@ -4501,7 +4501,7 @@
         <v>0.4109482765197754</v>
       </c>
       <c r="D214" t="n">
-        <v>0.4795172668455089</v>
+        <v>0.4795213637829501</v>
       </c>
       <c r="E214" t="n">
         <v>0.5263803005218506</v>
@@ -4520,7 +4520,7 @@
         <v>0.4178752899169922</v>
       </c>
       <c r="D215" t="n">
-        <v>0.5992948304612293</v>
+        <v>0.599303607378246</v>
       </c>
       <c r="E215" t="n">
         <v>0.3721182346343994</v>
@@ -4539,7 +4539,7 @@
         <v>0.4365991353988647</v>
       </c>
       <c r="D216" t="n">
-        <v>0.2242946049713145</v>
+        <v>0.2242982617400693</v>
       </c>
       <c r="E216" t="n">
         <v>0.2221843004226685</v>
@@ -4558,7 +4558,7 @@
         <v>0.4315773248672485</v>
       </c>
       <c r="D217" t="n">
-        <v>0.3616357387006492</v>
+        <v>0.3616417835767475</v>
       </c>
       <c r="E217" t="n">
         <v>0.2613105773925781</v>
@@ -4577,7 +4577,7 @@
         <v>0.4053938388824463</v>
       </c>
       <c r="D218" t="n">
-        <v>0.5482056131391976</v>
+        <v>0.5482118069163531</v>
       </c>
       <c r="E218" t="n">
         <v>0.5961557626724243</v>
@@ -4596,7 +4596,7 @@
         <v>0.3676762580871582</v>
       </c>
       <c r="D219" t="n">
-        <v>0.4688195299158213</v>
+        <v>0.468826612258109</v>
       </c>
       <c r="E219" t="n">
         <v>0.5044223070144653</v>
@@ -4615,7 +4615,7 @@
         <v>0.3803882002830505</v>
       </c>
       <c r="D220" t="n">
-        <v>0.2926567231853239</v>
+        <v>0.2926624164269648</v>
       </c>
       <c r="E220" t="n">
         <v>0.1876650452613831</v>
@@ -4634,7 +4634,7 @@
         <v>0.5432341694831848</v>
       </c>
       <c r="D221" t="n">
-        <v>0.6587937626695919</v>
+        <v>0.6587986157541341</v>
       </c>
       <c r="E221" t="n">
         <v>0.6311861276626587</v>
@@ -4653,7 +4653,7 @@
         <v>0.3557195663452148</v>
       </c>
       <c r="D222" t="n">
-        <v>0.4388366625223319</v>
+        <v>0.4388427372920196</v>
       </c>
       <c r="E222" t="n">
         <v>0.3703904151916504</v>
@@ -4672,7 +4672,7 @@
         <v>0.4001744985580444</v>
       </c>
       <c r="D223" t="n">
-        <v>0.721879743392228</v>
+        <v>0.7218802168308308</v>
       </c>
       <c r="E223" t="n">
         <v>0.7733328342437744</v>
@@ -4691,7 +4691,7 @@
         <v>0.425366222858429</v>
       </c>
       <c r="D224" t="n">
-        <v>0.5911594004385966</v>
+        <v>0.5911698205229264</v>
       </c>
       <c r="E224" t="n">
         <v>0.4825950860977173</v>
@@ -4710,7 +4710,7 @@
         <v>0.4587661027908325</v>
       </c>
       <c r="D225" t="n">
-        <v>0.4163273429181429</v>
+        <v>0.4163360351283117</v>
       </c>
       <c r="E225" t="n">
         <v>0.3052435517311096</v>
@@ -4729,7 +4729,7 @@
         <v>0.5079097747802734</v>
       </c>
       <c r="D226" t="n">
-        <v>0.03753311059728048</v>
+        <v>0.0375363723301117</v>
       </c>
       <c r="E226" t="n">
         <v>0.04550051689147949</v>
@@ -4748,7 +4748,7 @@
         <v>0.5148425102233887</v>
       </c>
       <c r="D227" t="n">
-        <v>0.6133462839493127</v>
+        <v>0.6133562353767223</v>
       </c>
       <c r="E227" t="n">
         <v>0.4037711620330811</v>
@@ -4767,7 +4767,7 @@
         <v>0.4455387592315674</v>
       </c>
       <c r="D228" t="n">
-        <v>0.4637708205347625</v>
+        <v>0.4637797081078579</v>
       </c>
       <c r="E228" t="n">
         <v>0.3886932134628296</v>
@@ -4786,7 +4786,7 @@
         <v>0.4098289012908936</v>
       </c>
       <c r="D229" t="n">
-        <v>0.37303482684491</v>
+        <v>0.3730396829292408</v>
       </c>
       <c r="E229" t="n">
         <v>0.05486243963241577</v>
@@ -4805,7 +4805,7 @@
         <v>0.3905276656150818</v>
       </c>
       <c r="D230" t="n">
-        <v>0.5948162056929722</v>
+        <v>0.5948275292766748</v>
       </c>
       <c r="E230" t="n">
         <v>0.4071640968322754</v>
@@ -4824,7 +4824,7 @@
         <v>0.5267234444618225</v>
       </c>
       <c r="D231" t="n">
-        <v>0.4440037019666996</v>
+        <v>0.4440132289397353</v>
       </c>
       <c r="E231" t="n">
         <v>0.381298303604126</v>
@@ -4843,7 +4843,7 @@
         <v>0.396385133266449</v>
       </c>
       <c r="D232" t="n">
-        <v>0.4554072660015021</v>
+        <v>0.4554149956071393</v>
       </c>
       <c r="E232" t="n">
         <v>0.5915577411651611</v>
@@ -4862,7 +4862,7 @@
         <v>0.475128173828125</v>
       </c>
       <c r="D233" t="n">
-        <v>0.3486149167213319</v>
+        <v>0.3486243591647533</v>
       </c>
       <c r="E233" t="n">
         <v>0.1500970721244812</v>
@@ -4900,7 +4900,7 @@
         <v>0.585209846496582</v>
       </c>
       <c r="D235" t="n">
-        <v>0.6785636097247664</v>
+        <v>0.678572469188583</v>
       </c>
       <c r="E235" t="n">
         <v>0.6675319671630859</v>
@@ -4919,7 +4919,7 @@
         <v>0.4493793249130249</v>
       </c>
       <c r="D236" t="n">
-        <v>0.5043714043322882</v>
+        <v>0.5043793662209184</v>
       </c>
       <c r="E236" t="n">
         <v>0.2297321557998657</v>
@@ -4938,7 +4938,7 @@
         <v>0.5243908762931824</v>
       </c>
       <c r="D237" t="n">
-        <v>0.655637393733125</v>
+        <v>0.6556396283327603</v>
       </c>
       <c r="E237" t="n">
         <v>0.4516491889953613</v>
@@ -4957,7 +4957,7 @@
         <v>0.4672608971595764</v>
       </c>
       <c r="D238" t="n">
-        <v>0.6683805289122045</v>
+        <v>0.6683915562492475</v>
       </c>
       <c r="E238" t="n">
         <v>0.5055055618286133</v>
@@ -4976,7 +4976,7 @@
         <v>0.4328709840774536</v>
       </c>
       <c r="D239" t="n">
-        <v>0.5860315756098251</v>
+        <v>0.586037356404048</v>
       </c>
       <c r="E239" t="n">
         <v>0.6766344308853149</v>
@@ -4995,7 +4995,7 @@
         <v>0.4349713921546936</v>
       </c>
       <c r="D240" t="n">
-        <v>0.2304001952531018</v>
+        <v>0.2304038171254704</v>
       </c>
       <c r="E240" t="n">
         <v>0.2386856079101562</v>
@@ -5014,7 +5014,7 @@
         <v>0.3765798807144165</v>
       </c>
       <c r="D241" t="n">
-        <v>0.7342109415062218</v>
+        <v>0.734218065567017</v>
       </c>
       <c r="E241" t="n">
         <v>0.9023102521896362</v>
